--- a/招商团长/报名活动单.xlsx
+++ b/招商团长/报名活动单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20730" windowHeight="9705"/>
+    <workbookView windowWidth="17508" windowHeight="8124"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -297,9 +297,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -332,6 +332,13 @@
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -343,6 +350,44 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -350,16 +395,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -373,10 +440,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -388,58 +456,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -448,35 +464,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -487,7 +487,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,6 +505,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -511,109 +529,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -625,55 +667,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -714,16 +714,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -739,6 +739,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -760,30 +784,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -792,10 +792,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -804,137 +804,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -944,10 +944,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -983,21 +986,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1005,9 +1014,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1360,38 +1366,38 @@
   <sheetPr/>
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="$A12:$XFD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="18.5" style="5" customWidth="1"/>
-    <col min="2" max="2" width="39.8833333333333" style="6" customWidth="1"/>
-    <col min="3" max="3" width="19.8833333333333" style="6" customWidth="1"/>
-    <col min="4" max="4" width="18.75" style="6" customWidth="1"/>
-    <col min="5" max="5" width="31.6333333333333" style="6" customWidth="1"/>
-    <col min="6" max="6" width="36.3833333333333" style="7" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="18.5" style="6" customWidth="1"/>
+    <col min="2" max="2" width="39.8796296296296" style="7" customWidth="1"/>
+    <col min="3" max="3" width="19.8796296296296" style="7" customWidth="1"/>
+    <col min="4" max="4" width="18.75" style="7" customWidth="1"/>
+    <col min="5" max="5" width="31.6296296296296" style="7" customWidth="1"/>
+    <col min="6" max="6" width="36.3796296296296" style="8" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1399,562 +1405,562 @@
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="9">
         <v>20</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="9">
         <v>5</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="10"/>
+      <c r="F2" s="11"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="2:6">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="9">
         <v>20</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="9">
         <v>5</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="10"/>
+      <c r="F3" s="11"/>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:6">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="9" t="s">
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="15"/>
+      <c r="F4" s="16"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="9">
         <v>10.1</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="9">
         <v>4</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="10"/>
+      <c r="F5" s="11"/>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:6">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="9" t="s">
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="15"/>
+      <c r="F6" s="16"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="2:6">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="9">
         <v>15</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="9">
         <v>3</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="10"/>
+      <c r="F7" s="11"/>
     </row>
     <row r="8" s="1" customFormat="1" spans="2:6">
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="12" t="s">
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="10"/>
+      <c r="F8" s="11"/>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="9">
         <v>10.01</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="9">
         <v>4.9</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="10"/>
+      <c r="F9" s="11"/>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="9">
         <v>40</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="9">
         <v>10</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="10"/>
+      <c r="F10" s="11"/>
     </row>
     <row r="11" s="1" customFormat="1" spans="2:6">
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="9">
         <v>25.2</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="9">
         <v>4.7</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="10"/>
+      <c r="F11" s="11"/>
     </row>
     <row r="12" s="3" customFormat="1" spans="1:6">
       <c r="A12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="17">
         <v>5.2</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="17">
         <v>4</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="17"/>
+      <c r="F12" s="18"/>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:6">
       <c r="A13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="9">
         <v>10.1</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="9">
         <v>5</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="10"/>
+      <c r="F13" s="11"/>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:6">
       <c r="A14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="9">
         <v>18.01</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="9">
         <v>2</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="10"/>
+      <c r="F14" s="11"/>
     </row>
     <row r="15" s="1" customFormat="1" spans="2:6">
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="9">
         <v>10</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="9">
         <v>2</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="10"/>
+      <c r="F15" s="11"/>
     </row>
     <row r="16" s="1" customFormat="1" spans="2:6">
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="9">
         <v>15</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="9">
         <v>2</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="10"/>
+      <c r="F16" s="11"/>
     </row>
     <row r="17" s="4" customFormat="1" spans="1:6">
       <c r="A17" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="20">
         <v>20.6</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="20">
         <v>3.01</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="20"/>
+      <c r="F17" s="21"/>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:6">
       <c r="A18" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="9">
         <v>3.6</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="9">
         <v>4</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F18" s="10"/>
+      <c r="F18" s="11"/>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:6">
       <c r="A19" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="9">
         <v>25.1</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="9">
         <v>4.9</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="10"/>
+      <c r="F19" s="11"/>
     </row>
     <row r="20" s="1" customFormat="1" spans="2:6">
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="9">
         <v>20</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="9">
         <v>5</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="10"/>
+      <c r="F20" s="11"/>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:6">
       <c r="A21" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="9">
         <v>15</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="9">
         <v>5</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="10"/>
+      <c r="F21" s="11"/>
     </row>
     <row r="22" s="1" customFormat="1" spans="1:6">
       <c r="A22" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="9">
         <v>30.1</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="9">
         <v>3</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="F22" s="10"/>
+      <c r="F22" s="11"/>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:6">
       <c r="A23" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="9">
         <v>4.5</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="9">
         <v>2.5</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="F23" s="10"/>
+      <c r="F23" s="11"/>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:6">
       <c r="A24" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="9">
         <v>3.01</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="9">
         <v>2</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="F24" s="10"/>
+      <c r="F24" s="11"/>
     </row>
     <row r="25" s="2" customFormat="1" spans="1:6">
       <c r="A25" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C25" s="15">
         <v>25</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D25" s="15">
         <v>5</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="E25" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="F25" s="15"/>
+      <c r="F25" s="16"/>
     </row>
     <row r="26" s="1" customFormat="1" spans="1:6">
       <c r="A26" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="9">
         <v>20</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="9">
         <v>5</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="F26" s="10"/>
+      <c r="F26" s="11"/>
     </row>
     <row r="27" s="1" customFormat="1" spans="1:6">
       <c r="A27" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="9">
         <v>6</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="9">
         <v>5</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F27" s="10"/>
-    </row>
-    <row r="28" s="1" customFormat="1" spans="1:6">
-      <c r="A28" s="1" t="s">
+      <c r="F27" s="11"/>
+    </row>
+    <row r="28" s="5" customFormat="1" spans="1:6">
+      <c r="A28" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="22">
         <v>25.11</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="22">
         <v>3</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="F28" s="10"/>
+      <c r="F28" s="23"/>
     </row>
     <row r="29" s="1" customFormat="1" spans="1:6">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="9">
         <v>20.1</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="9">
         <v>5</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="F29" s="10"/>
+      <c r="F29" s="11"/>
     </row>
     <row r="30" s="1" customFormat="1" spans="1:6">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="9">
         <v>10</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30" s="9">
         <v>5</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="F30" s="10"/>
+      <c r="F30" s="11"/>
     </row>
     <row r="31" s="4" customFormat="1" spans="1:6">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="C31" s="19">
+      <c r="C31" s="20">
         <v>6.2</v>
       </c>
-      <c r="D31" s="19">
+      <c r="D31" s="20">
         <v>3</v>
       </c>
-      <c r="E31" s="19" t="s">
+      <c r="E31" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="F31" s="20"/>
+      <c r="F31" s="21"/>
     </row>
     <row r="32" s="1" customFormat="1" spans="1:6">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="9">
         <v>20</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="9">
         <v>5</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E32" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="F32" s="10"/>
+      <c r="F32" s="11"/>
     </row>
     <row r="33" s="1" customFormat="1" spans="1:6">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="9">
         <v>15</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="9">
         <v>5</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E33" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="F33" s="10"/>
+      <c r="F33" s="11"/>
     </row>
     <row r="34" s="1" customFormat="1" spans="1:6">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="B34" s="24" t="s">
+      <c r="B34" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34" s="9">
         <v>21</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D34" s="9">
         <v>10</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E34" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="F34" s="10"/>
+      <c r="F34" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1988,7 +1994,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2005,7 +2011,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/招商团长/报名活动单.xlsx
+++ b/招商团长/报名活动单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17508" windowHeight="8124"/>
+    <workbookView windowWidth="22260" windowHeight="9885"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="91">
   <si>
     <t>店铺</t>
   </si>
@@ -301,7 +301,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -311,7 +311,17 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00B0F0"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -323,7 +333,19 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF00B0F0"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -335,7 +357,129 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -349,136 +493,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -487,193 +509,199 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -684,62 +712,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -762,7 +734,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -771,7 +773,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -784,6 +801,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -792,10 +820,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -804,216 +832,264 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1366,601 +1442,601 @@
   <sheetPr/>
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="$A12:$XFD12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A34" sqref="$A34:$XFD34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="18.5" style="6" customWidth="1"/>
-    <col min="2" max="2" width="39.8796296296296" style="7" customWidth="1"/>
-    <col min="3" max="3" width="19.8796296296296" style="7" customWidth="1"/>
-    <col min="4" max="4" width="18.75" style="7" customWidth="1"/>
-    <col min="5" max="5" width="31.6296296296296" style="7" customWidth="1"/>
-    <col min="6" max="6" width="36.3796296296296" style="8" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="6"/>
+    <col min="1" max="1" width="18.5" style="14" customWidth="1"/>
+    <col min="2" max="2" width="39.8833333333333" style="15" customWidth="1"/>
+    <col min="3" max="3" width="19.8833333333333" style="15" customWidth="1"/>
+    <col min="4" max="4" width="18.75" style="15" customWidth="1"/>
+    <col min="5" max="5" width="31.6333333333333" style="15" customWidth="1"/>
+    <col min="6" max="6" width="36.3833333333333" style="16" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:6">
-      <c r="A2" s="1" t="s">
+    <row r="2" s="7" customFormat="1" spans="1:6">
+      <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="17">
         <v>20</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="17">
         <v>5</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="11"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="2:6">
-      <c r="B3" s="12" t="s">
+      <c r="F2" s="19"/>
+    </row>
+    <row r="3" s="7" customFormat="1" spans="2:6">
+      <c r="B3" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="17">
         <v>20</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="17">
         <v>5</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="11"/>
-    </row>
-    <row r="4" s="2" customFormat="1" spans="1:6">
-      <c r="A4" s="2" t="s">
+      <c r="F3" s="19"/>
+    </row>
+    <row r="4" s="8" customFormat="1" spans="1:6">
+      <c r="A4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="10" t="s">
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="16"/>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:6">
-      <c r="A5" s="1" t="s">
+      <c r="F4" s="24"/>
+    </row>
+    <row r="5" s="9" customFormat="1" spans="1:6">
+      <c r="A5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="25">
         <v>10.1</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="25">
         <v>4</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="11"/>
-    </row>
-    <row r="6" s="2" customFormat="1" spans="1:6">
-      <c r="A6" s="2" t="s">
+      <c r="F5" s="27"/>
+    </row>
+    <row r="6" s="8" customFormat="1" spans="1:6">
+      <c r="A6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="10" t="s">
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="16"/>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="2:6">
-      <c r="B7" s="9" t="s">
+      <c r="F6" s="24"/>
+    </row>
+    <row r="7" s="10" customFormat="1" spans="2:6">
+      <c r="B7" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="28">
         <v>15</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="28">
         <v>3</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="11"/>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="2:6">
-      <c r="B8" s="12" t="s">
+      <c r="F7" s="30"/>
+    </row>
+    <row r="8" s="10" customFormat="1" spans="2:6">
+      <c r="B8" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="13" t="s">
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="11"/>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="1:6">
-      <c r="A9" s="1" t="s">
+      <c r="F8" s="30"/>
+    </row>
+    <row r="9" s="9" customFormat="1" spans="1:6">
+      <c r="A9" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="25">
         <v>10.01</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="25">
         <v>4.9</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="11"/>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="1:6">
-      <c r="A10" s="1" t="s">
+      <c r="F9" s="27"/>
+    </row>
+    <row r="10" s="9" customFormat="1" spans="1:6">
+      <c r="A10" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="25">
         <v>40</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="25">
         <v>10</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="11"/>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="2:6">
-      <c r="B11" s="9" t="s">
+      <c r="F10" s="27"/>
+    </row>
+    <row r="11" s="10" customFormat="1" spans="2:6">
+      <c r="B11" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="28">
         <v>25.2</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="28">
         <v>4.7</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="11"/>
-    </row>
-    <row r="12" s="3" customFormat="1" spans="1:6">
-      <c r="A12" s="3" t="s">
+      <c r="F11" s="30"/>
+    </row>
+    <row r="12" s="11" customFormat="1" spans="1:6">
+      <c r="A12" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="21">
         <v>5.2</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="21">
         <v>4</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="18"/>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="1:6">
-      <c r="A13" s="1" t="s">
+      <c r="F12" s="32"/>
+    </row>
+    <row r="13" s="9" customFormat="1" spans="1:6">
+      <c r="A13" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="25">
         <v>10.1</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="25">
         <v>5</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="11"/>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="1:6">
-      <c r="A14" s="1" t="s">
+      <c r="F13" s="27"/>
+    </row>
+    <row r="14" s="10" customFormat="1" spans="1:6">
+      <c r="A14" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="28">
         <v>18.01</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="28">
         <v>2</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="11"/>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="2:6">
-      <c r="B15" s="9" t="s">
+      <c r="F14" s="30"/>
+    </row>
+    <row r="15" s="10" customFormat="1" spans="2:6">
+      <c r="B15" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="28">
         <v>10</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="28">
         <v>2</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="11"/>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="2:6">
-      <c r="B16" s="9" t="s">
+      <c r="F15" s="30"/>
+    </row>
+    <row r="16" s="10" customFormat="1" spans="2:6">
+      <c r="B16" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="28">
         <v>15</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="28">
         <v>2</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="11"/>
-    </row>
-    <row r="17" s="4" customFormat="1" spans="1:6">
-      <c r="A17" s="4" t="s">
+      <c r="F16" s="30"/>
+    </row>
+    <row r="17" s="12" customFormat="1" spans="1:6">
+      <c r="A17" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="34">
         <v>20.6</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17" s="34">
         <v>3.01</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="21"/>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="1:6">
-      <c r="A18" s="1" t="s">
+      <c r="F17" s="35"/>
+    </row>
+    <row r="18" s="10" customFormat="1" spans="1:6">
+      <c r="A18" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="28">
         <v>3.6</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="28">
         <v>4</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="F18" s="11"/>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="1:6">
-      <c r="A19" s="1" t="s">
+      <c r="F18" s="30"/>
+    </row>
+    <row r="19" s="10" customFormat="1" spans="1:6">
+      <c r="A19" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="28">
         <v>25.1</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="28">
         <v>4.9</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="11"/>
-    </row>
-    <row r="20" s="1" customFormat="1" spans="2:6">
-      <c r="B20" s="9" t="s">
+      <c r="F19" s="30"/>
+    </row>
+    <row r="20" s="10" customFormat="1" spans="2:6">
+      <c r="B20" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="28">
         <v>20</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="28">
         <v>5</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="11"/>
-    </row>
-    <row r="21" s="1" customFormat="1" spans="1:6">
-      <c r="A21" s="1" t="s">
+      <c r="F20" s="30"/>
+    </row>
+    <row r="21" s="10" customFormat="1" spans="1:6">
+      <c r="A21" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="28">
         <v>15</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="28">
         <v>5</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="11"/>
-    </row>
-    <row r="22" s="1" customFormat="1" spans="1:6">
-      <c r="A22" s="1" t="s">
+      <c r="F21" s="30"/>
+    </row>
+    <row r="22" s="10" customFormat="1" spans="1:6">
+      <c r="A22" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="28">
         <v>30.1</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="28">
         <v>3</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="F22" s="11"/>
-    </row>
-    <row r="23" s="1" customFormat="1" spans="1:6">
-      <c r="A23" s="1" t="s">
+      <c r="F22" s="30"/>
+    </row>
+    <row r="23" s="10" customFormat="1" spans="1:6">
+      <c r="A23" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="28">
         <v>4.5</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="28">
         <v>2.5</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="F23" s="11"/>
-    </row>
-    <row r="24" s="1" customFormat="1" spans="1:6">
-      <c r="A24" s="1" t="s">
+      <c r="F23" s="30"/>
+    </row>
+    <row r="24" s="10" customFormat="1" spans="1:6">
+      <c r="A24" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="28">
         <v>3.01</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="28">
         <v>2</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="F24" s="11"/>
-    </row>
-    <row r="25" s="2" customFormat="1" spans="1:6">
-      <c r="A25" s="2" t="s">
+      <c r="F24" s="30"/>
+    </row>
+    <row r="25" s="8" customFormat="1" spans="1:6">
+      <c r="A25" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="15">
+      <c r="C25" s="22">
         <v>25</v>
       </c>
-      <c r="D25" s="15">
+      <c r="D25" s="22">
         <v>5</v>
       </c>
-      <c r="E25" s="15" t="s">
+      <c r="E25" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="F25" s="16"/>
-    </row>
-    <row r="26" s="1" customFormat="1" spans="1:6">
-      <c r="A26" s="1" t="s">
+      <c r="F25" s="24"/>
+    </row>
+    <row r="26" s="10" customFormat="1" spans="1:6">
+      <c r="A26" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="28">
         <v>20</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="28">
         <v>5</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="F26" s="11"/>
-    </row>
-    <row r="27" s="1" customFormat="1" spans="1:6">
-      <c r="A27" s="1" t="s">
+      <c r="F26" s="30"/>
+    </row>
+    <row r="27" s="10" customFormat="1" spans="1:6">
+      <c r="A27" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="28">
         <v>6</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="28">
         <v>5</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="F27" s="11"/>
-    </row>
-    <row r="28" s="5" customFormat="1" spans="1:6">
-      <c r="A28" s="5" t="s">
+      <c r="F27" s="30"/>
+    </row>
+    <row r="28" s="13" customFormat="1" spans="1:6">
+      <c r="A28" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="C28" s="22">
+      <c r="C28" s="36">
         <v>25.11</v>
       </c>
-      <c r="D28" s="22">
+      <c r="D28" s="36">
         <v>3</v>
       </c>
-      <c r="E28" s="22" t="s">
+      <c r="E28" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="F28" s="23"/>
-    </row>
-    <row r="29" s="1" customFormat="1" spans="1:6">
-      <c r="A29" s="24" t="s">
+      <c r="F28" s="37"/>
+    </row>
+    <row r="29" s="10" customFormat="1" spans="1:6">
+      <c r="A29" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="28">
         <v>20.1</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="28">
         <v>5</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="F29" s="11"/>
-    </row>
-    <row r="30" s="1" customFormat="1" spans="1:6">
-      <c r="A30" s="24" t="s">
+      <c r="F29" s="30"/>
+    </row>
+    <row r="30" s="9" customFormat="1" spans="1:6">
+      <c r="A30" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="25">
         <v>10</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="25">
         <v>5</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="F30" s="11"/>
-    </row>
-    <row r="31" s="4" customFormat="1" spans="1:6">
-      <c r="A31" s="25" t="s">
+      <c r="F30" s="27"/>
+    </row>
+    <row r="31" s="12" customFormat="1" spans="1:6">
+      <c r="A31" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="B31" s="26" t="s">
+      <c r="B31" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="C31" s="20">
+      <c r="C31" s="34">
         <v>6.2</v>
       </c>
-      <c r="D31" s="20">
+      <c r="D31" s="34">
         <v>3</v>
       </c>
-      <c r="E31" s="20" t="s">
+      <c r="E31" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="F31" s="21"/>
-    </row>
-    <row r="32" s="1" customFormat="1" spans="1:6">
-      <c r="A32" s="24" t="s">
+      <c r="F31" s="35"/>
+    </row>
+    <row r="32" s="10" customFormat="1" spans="1:6">
+      <c r="A32" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="28">
         <v>20</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D32" s="28">
         <v>5</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="F32" s="11"/>
-    </row>
-    <row r="33" s="1" customFormat="1" spans="1:6">
-      <c r="A33" s="24" t="s">
+      <c r="F32" s="30"/>
+    </row>
+    <row r="33" s="10" customFormat="1" spans="1:6">
+      <c r="A33" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C33" s="28">
         <v>15</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="28">
         <v>5</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="F33" s="11"/>
-    </row>
-    <row r="34" s="1" customFormat="1" spans="1:6">
-      <c r="A34" s="24" t="s">
+      <c r="F33" s="30"/>
+    </row>
+    <row r="34" s="9" customFormat="1" spans="1:6">
+      <c r="A34" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C34" s="25">
         <v>21</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D34" s="25">
         <v>10</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E34" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="F34" s="11"/>
+      <c r="F34" s="27"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1988,14 +2064,159 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="18.5" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" spans="1:1">
+      <c r="A5" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" spans="1:1">
+      <c r="A6" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25" spans="1:1">
+      <c r="A10" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" spans="1:1">
+      <c r="A14" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="1:1">
+      <c r="A20" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25" spans="1:1">
+      <c r="A21" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25" spans="1:1">
+      <c r="A26" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A1:A26">
+    <sortCondition ref="A1:A26"/>
+  </sortState>
+  <hyperlinks>
+    <hyperlink ref="A14" r:id="rId1" display="飘信旗舰店" tooltip="点击进入店铺推广详情页"/>
+    <hyperlink ref="A5" r:id="rId1" display="阿姆提斯旗舰店" tooltip="点击进入店铺推广详情页"/>
+    <hyperlink ref="A21" r:id="rId1" display="伊思家旗舰店" tooltip="点击进入店铺推广详情页"/>
+    <hyperlink ref="A26" r:id="rId1" display="祖传中医配方" tooltip="点击进入店铺推广详情页"/>
+    <hyperlink ref="A6" r:id="rId1" display="富瑞德空气炸锅" tooltip="点击进入店铺推广详情页"/>
+    <hyperlink ref="A10" r:id="rId1" display="捷豹汽车用品" tooltip="点击进入店铺推广详情页"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -2011,7 +2232,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/招商团长/报名活动单.xlsx
+++ b/招商团长/报名活动单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22260" windowHeight="9885"/>
+    <workbookView windowWidth="17115" windowHeight="7965"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="98">
   <si>
     <t>店铺</t>
   </si>
@@ -99,6 +99,9 @@
     <t>起：2019-05-17 止：2019-06-20</t>
   </si>
   <si>
+    <t>店铺被封</t>
+  </si>
+  <si>
     <t>浣絮洗护家居用品</t>
   </si>
   <si>
@@ -111,7 +114,10 @@
     <t>洗衣凝珠</t>
   </si>
   <si>
-    <t>起：2019-05-20 止：2019-06-23</t>
+    <t>起：2019-06-19 止：2019-07-22</t>
+  </si>
+  <si>
+    <t>泊泉雅植萃低泡去渍洁净洗衣液   *  3款洗衣</t>
   </si>
   <si>
     <t>鑫晟达家居电器</t>
@@ -289,6 +295,21 @@
   </si>
   <si>
     <t>起：2019-06-14 止：2019-06-21</t>
+  </si>
+  <si>
+    <t>名匠设计工作室</t>
+  </si>
+  <si>
+    <t>景观规划道路绿化效果图小区公 * 6款产品</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2/5</t>
+  </si>
+  <si>
+    <t>荣格潮品</t>
+  </si>
+  <si>
+    <t>夏季吊带连衣裙显瘦小个子海边 * 20款女装</t>
   </si>
 </sst>
 </file>
@@ -296,12 +317,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -356,8 +377,66 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FF0070C0"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -372,17 +451,63 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -394,21 +519,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -416,89 +526,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -521,13 +548,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,169 +728,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -712,6 +739,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -730,15 +790,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -750,21 +801,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -795,15 +831,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -820,10 +847,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -832,10 +859,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -844,125 +871,125 @@
     <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -996,10 +1023,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -1059,18 +1089,24 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1080,16 +1116,28 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1440,40 +1488,40 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A34" sqref="$A34:$XFD34"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A37" sqref="$A37:$XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="18.5" style="14" customWidth="1"/>
-    <col min="2" max="2" width="39.8833333333333" style="15" customWidth="1"/>
-    <col min="3" max="3" width="19.8833333333333" style="15" customWidth="1"/>
-    <col min="4" max="4" width="18.75" style="15" customWidth="1"/>
-    <col min="5" max="5" width="31.6333333333333" style="15" customWidth="1"/>
-    <col min="6" max="6" width="36.3833333333333" style="16" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="14"/>
+    <col min="1" max="1" width="18.5" style="15" customWidth="1"/>
+    <col min="2" max="2" width="39.8833333333333" style="16" customWidth="1"/>
+    <col min="3" max="3" width="19.8833333333333" style="16" customWidth="1"/>
+    <col min="4" max="4" width="18.75" style="16" customWidth="1"/>
+    <col min="5" max="5" width="31.6333333333333" style="16" customWidth="1"/>
+    <col min="6" max="6" width="36.3833333333333" style="17" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="17" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1481,579 +1529,637 @@
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="18">
         <v>20</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="18">
         <v>5</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="19"/>
+      <c r="F2" s="20"/>
     </row>
     <row r="3" s="7" customFormat="1" spans="2:6">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="18">
         <v>20</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="18">
         <v>5</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="19"/>
+      <c r="F3" s="20"/>
     </row>
     <row r="4" s="8" customFormat="1" spans="1:6">
       <c r="A4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="23" t="s">
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="24"/>
+      <c r="F4" s="25"/>
     </row>
     <row r="5" s="9" customFormat="1" spans="1:6">
       <c r="A5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="26">
         <v>10.1</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="26">
         <v>4</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="27"/>
+      <c r="F5" s="28"/>
     </row>
     <row r="6" s="8" customFormat="1" spans="1:6">
       <c r="A6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="23" t="s">
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="24"/>
+      <c r="F6" s="25"/>
     </row>
     <row r="7" s="10" customFormat="1" spans="2:6">
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="28">
+      <c r="C7" s="29">
         <v>15</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="29">
         <v>3</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="30"/>
+      <c r="F7" s="31"/>
     </row>
     <row r="8" s="10" customFormat="1" spans="2:6">
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="29" t="s">
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="30"/>
-    </row>
-    <row r="9" s="9" customFormat="1" spans="1:6">
-      <c r="A9" s="9" t="s">
+      <c r="F8" s="31"/>
+    </row>
+    <row r="9" s="11" customFormat="1" spans="1:6">
+      <c r="A9" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="33">
         <v>10.01</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D9" s="33">
         <v>4.9</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="27"/>
-    </row>
-    <row r="10" s="9" customFormat="1" spans="1:6">
-      <c r="A10" s="9" t="s">
+      <c r="F9" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="25" t="s">
+    </row>
+    <row r="10" s="12" customFormat="1" spans="1:6">
+      <c r="A10" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="25">
+      <c r="B10" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="35">
         <v>40</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10" s="35">
         <v>10</v>
       </c>
-      <c r="E10" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="27"/>
+      <c r="E10" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="36"/>
     </row>
     <row r="11" s="10" customFormat="1" spans="2:6">
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="29">
+        <v>25.2</v>
+      </c>
+      <c r="D11" s="29">
+        <v>4</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="31"/>
+    </row>
+    <row r="12" s="10" customFormat="1" spans="2:6">
+      <c r="B12" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="29">
+        <v>6</v>
+      </c>
+      <c r="D12" s="29">
+        <v>5</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="31"/>
+    </row>
+    <row r="13" s="13" customFormat="1" spans="1:6">
+      <c r="A13" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="22">
+        <v>5.2</v>
+      </c>
+      <c r="D13" s="22">
+        <v>4</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="37"/>
+    </row>
+    <row r="14" s="9" customFormat="1" spans="1:6">
+      <c r="A14" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="26">
+        <v>10.1</v>
+      </c>
+      <c r="D14" s="26">
+        <v>5</v>
+      </c>
+      <c r="E14" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="28">
-        <v>25.2</v>
-      </c>
-      <c r="D11" s="28">
-        <v>4.7</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="30"/>
-    </row>
-    <row r="12" s="11" customFormat="1" spans="1:6">
-      <c r="A12" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="21">
-        <v>5.2</v>
-      </c>
-      <c r="D12" s="21">
-        <v>4</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="32"/>
-    </row>
-    <row r="13" s="9" customFormat="1" spans="1:6">
-      <c r="A13" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="25">
-        <v>10.1</v>
-      </c>
-      <c r="D13" s="25">
-        <v>5</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="27"/>
-    </row>
-    <row r="14" s="10" customFormat="1" spans="1:6">
-      <c r="A14" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="28">
+      <c r="F14" s="28"/>
+    </row>
+    <row r="15" s="10" customFormat="1" spans="1:6">
+      <c r="A15" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="29">
         <v>18.01</v>
       </c>
-      <c r="D14" s="28">
+      <c r="D15" s="29">
         <v>2</v>
       </c>
-      <c r="E14" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="30"/>
-    </row>
-    <row r="15" s="10" customFormat="1" spans="2:6">
-      <c r="B15" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="28">
+      <c r="E15" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="31"/>
+    </row>
+    <row r="16" s="10" customFormat="1" spans="2:6">
+      <c r="B16" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="29">
         <v>10</v>
       </c>
-      <c r="D15" s="28">
+      <c r="D16" s="29">
         <v>2</v>
       </c>
-      <c r="E15" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" s="30"/>
-    </row>
-    <row r="16" s="10" customFormat="1" spans="2:6">
-      <c r="B16" s="28" t="s">
+      <c r="E16" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="28">
+      <c r="F16" s="31"/>
+    </row>
+    <row r="17" s="10" customFormat="1" spans="2:6">
+      <c r="B17" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="29">
         <v>15</v>
       </c>
-      <c r="D16" s="28">
+      <c r="D17" s="29">
         <v>2</v>
       </c>
-      <c r="E16" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" s="30"/>
-    </row>
-    <row r="17" s="12" customFormat="1" spans="1:6">
-      <c r="A17" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="34">
+      <c r="E17" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="31"/>
+    </row>
+    <row r="18" s="12" customFormat="1" spans="1:6">
+      <c r="A18" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="35">
         <v>20.6</v>
       </c>
-      <c r="D17" s="34">
+      <c r="D18" s="35">
         <v>3.01</v>
       </c>
-      <c r="E17" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" s="35"/>
-    </row>
-    <row r="18" s="10" customFormat="1" spans="1:6">
-      <c r="A18" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="28" t="s">
+      <c r="E18" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="28">
-        <v>3.6</v>
-      </c>
-      <c r="D18" s="28">
-        <v>4</v>
-      </c>
-      <c r="E18" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="F18" s="30"/>
+      <c r="F18" s="36"/>
     </row>
     <row r="19" s="10" customFormat="1" spans="1:6">
       <c r="A19" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="C19" s="29">
+        <v>3.6</v>
+      </c>
+      <c r="D19" s="29">
+        <v>4</v>
+      </c>
+      <c r="E19" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="28">
+      <c r="F19" s="31"/>
+    </row>
+    <row r="20" s="10" customFormat="1" spans="1:6">
+      <c r="A20" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="29">
         <v>25.1</v>
       </c>
-      <c r="D19" s="28">
+      <c r="D20" s="29">
         <v>4.9</v>
       </c>
-      <c r="E19" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="F19" s="30"/>
-    </row>
-    <row r="20" s="10" customFormat="1" spans="2:6">
-      <c r="B20" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="28">
+      <c r="E20" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="31"/>
+    </row>
+    <row r="21" s="10" customFormat="1" spans="2:6">
+      <c r="B21" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="29">
         <v>20</v>
       </c>
-      <c r="D20" s="28">
+      <c r="D21" s="29">
         <v>5</v>
       </c>
-      <c r="E20" s="28" t="s">
+      <c r="E21" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="30"/>
-    </row>
-    <row r="21" s="10" customFormat="1" spans="1:6">
-      <c r="A21" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="28">
-        <v>15</v>
-      </c>
-      <c r="D21" s="28">
-        <v>5</v>
-      </c>
-      <c r="E21" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="F21" s="30"/>
+      <c r="F21" s="31"/>
     </row>
     <row r="22" s="10" customFormat="1" spans="1:6">
       <c r="A22" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="C22" s="29">
+        <v>15</v>
+      </c>
+      <c r="D22" s="29">
+        <v>5</v>
+      </c>
+      <c r="E22" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="28">
-        <v>30.1</v>
-      </c>
-      <c r="D22" s="28">
-        <v>3</v>
-      </c>
-      <c r="E22" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="F22" s="30"/>
+      <c r="F22" s="31"/>
     </row>
     <row r="23" s="10" customFormat="1" spans="1:6">
       <c r="A23" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="28" t="s">
+      <c r="C23" s="29">
+        <v>30.1</v>
+      </c>
+      <c r="D23" s="29">
+        <v>3</v>
+      </c>
+      <c r="E23" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="28">
-        <v>4.5</v>
-      </c>
-      <c r="D23" s="28">
-        <v>2.5</v>
-      </c>
-      <c r="E23" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="F23" s="30"/>
+      <c r="F23" s="31"/>
     </row>
     <row r="24" s="10" customFormat="1" spans="1:6">
       <c r="A24" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="B24" s="28" t="s">
+      <c r="C24" s="29">
+        <v>4.5</v>
+      </c>
+      <c r="D24" s="29">
+        <v>2.5</v>
+      </c>
+      <c r="E24" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="28">
+      <c r="F24" s="31"/>
+    </row>
+    <row r="25" s="10" customFormat="1" spans="1:6">
+      <c r="A25" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="29">
         <v>3.01</v>
       </c>
-      <c r="D24" s="28">
+      <c r="D25" s="29">
         <v>2</v>
       </c>
-      <c r="E24" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="F24" s="30"/>
-    </row>
-    <row r="25" s="8" customFormat="1" spans="1:6">
-      <c r="A25" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B25" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" s="22">
+      <c r="E25" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" s="31"/>
+    </row>
+    <row r="26" s="8" customFormat="1" spans="1:6">
+      <c r="A26" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="23">
         <v>25</v>
       </c>
-      <c r="D25" s="22">
+      <c r="D26" s="23">
         <v>5</v>
       </c>
-      <c r="E25" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="F25" s="24"/>
-    </row>
-    <row r="26" s="10" customFormat="1" spans="1:6">
-      <c r="A26" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B26" s="28" t="s">
+      <c r="E26" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="C26" s="28">
-        <v>20</v>
-      </c>
-      <c r="D26" s="28">
-        <v>5</v>
-      </c>
-      <c r="E26" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="F26" s="30"/>
+      <c r="F26" s="25"/>
     </row>
     <row r="27" s="10" customFormat="1" spans="1:6">
       <c r="A27" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="B27" s="28" t="s">
+      <c r="C27" s="29">
+        <v>20</v>
+      </c>
+      <c r="D27" s="29">
+        <v>5</v>
+      </c>
+      <c r="E27" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="28">
+      <c r="F27" s="31"/>
+    </row>
+    <row r="28" s="10" customFormat="1" spans="1:6">
+      <c r="A28" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="29">
         <v>6</v>
       </c>
-      <c r="D27" s="28">
+      <c r="D28" s="29">
         <v>5</v>
       </c>
-      <c r="E27" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="F27" s="30"/>
-    </row>
-    <row r="28" s="13" customFormat="1" spans="1:6">
-      <c r="A28" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="B28" s="36" t="s">
+      <c r="E28" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="C28" s="36">
+      <c r="F28" s="31"/>
+    </row>
+    <row r="29" s="14" customFormat="1" spans="1:6">
+      <c r="A29" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="39">
         <v>25.11</v>
       </c>
-      <c r="D28" s="36">
+      <c r="D29" s="39">
         <v>3</v>
       </c>
-      <c r="E28" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="F28" s="37"/>
-    </row>
-    <row r="29" s="10" customFormat="1" spans="1:6">
-      <c r="A29" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="B29" s="31" t="s">
+      <c r="E29" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="C29" s="28">
+      <c r="F29" s="40"/>
+    </row>
+    <row r="30" s="10" customFormat="1" spans="1:6">
+      <c r="A30" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="29">
         <v>20.1</v>
       </c>
-      <c r="D29" s="28">
+      <c r="D30" s="29">
         <v>5</v>
       </c>
-      <c r="E29" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="F29" s="30"/>
-    </row>
-    <row r="30" s="9" customFormat="1" spans="1:6">
-      <c r="A30" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="B30" s="40" t="s">
+      <c r="E30" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="C30" s="25">
+      <c r="F30" s="31"/>
+    </row>
+    <row r="31" s="13" customFormat="1" spans="1:6">
+      <c r="A31" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="22">
         <v>10</v>
       </c>
-      <c r="D30" s="25">
+      <c r="D31" s="22">
         <v>5</v>
       </c>
-      <c r="E30" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="F30" s="27"/>
-    </row>
-    <row r="31" s="12" customFormat="1" spans="1:6">
-      <c r="A31" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="B31" s="42" t="s">
+      <c r="E31" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="C31" s="34">
+      <c r="F31" s="37"/>
+    </row>
+    <row r="32" s="12" customFormat="1" spans="1:6">
+      <c r="A32" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="B32" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" s="35">
         <v>6.2</v>
       </c>
-      <c r="D31" s="34">
+      <c r="D32" s="35">
         <v>3</v>
       </c>
-      <c r="E31" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="F31" s="35"/>
-    </row>
-    <row r="32" s="10" customFormat="1" spans="1:6">
-      <c r="A32" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="B32" s="31" t="s">
+      <c r="E32" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="C32" s="28">
+      <c r="F32" s="36"/>
+    </row>
+    <row r="33" s="10" customFormat="1" spans="1:6">
+      <c r="A33" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" s="29">
         <v>20</v>
       </c>
-      <c r="D32" s="28">
+      <c r="D33" s="29">
         <v>5</v>
       </c>
-      <c r="E32" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="F32" s="30"/>
-    </row>
-    <row r="33" s="10" customFormat="1" spans="1:6">
-      <c r="A33" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="B33" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="C33" s="28">
+      <c r="E33" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="F33" s="31"/>
+    </row>
+    <row r="34" s="10" customFormat="1" spans="1:6">
+      <c r="A34" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="B34" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" s="29">
         <v>15</v>
       </c>
-      <c r="D33" s="28">
+      <c r="D34" s="29">
         <v>5</v>
       </c>
-      <c r="E33" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="F33" s="30"/>
-    </row>
-    <row r="34" s="9" customFormat="1" spans="1:6">
-      <c r="A34" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="B34" s="40" t="s">
-        <v>89</v>
-      </c>
-      <c r="C34" s="25">
+      <c r="E34" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="F34" s="31"/>
+    </row>
+    <row r="35" s="9" customFormat="1" spans="1:6">
+      <c r="A35" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" s="26">
         <v>21</v>
       </c>
-      <c r="D34" s="25">
+      <c r="D35" s="26">
         <v>10</v>
       </c>
-      <c r="E34" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="F34" s="27"/>
+      <c r="E35" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="F35" s="28"/>
+    </row>
+    <row r="36" s="10" customFormat="1" spans="1:6">
+      <c r="A36" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="B36" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="C36" s="29">
+        <v>2</v>
+      </c>
+      <c r="D36" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="E36" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="F36" s="31"/>
+    </row>
+    <row r="37" s="10" customFormat="1" spans="1:6">
+      <c r="A37" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="B37" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" s="29">
+        <v>6.12</v>
+      </c>
+      <c r="D37" s="29">
+        <v>3</v>
+      </c>
+      <c r="E37" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="F37" s="31"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A29" r:id="rId1" display="飘信旗舰店" tooltip="点击进入店铺推广详情页"/>
-    <hyperlink ref="B29" r:id="rId2" display="AJ球鞋面纳米防水喷雾剂防尘防" tooltip="http://item.taobao.com/item.htm?spm=a219t.7900221.1998910419.dafc012e7.1aea75a56vZa05&amp;id=590515292384"/>
+    <hyperlink ref="A30" r:id="rId1" display="飘信旗舰店" tooltip="点击进入店铺推广详情页"/>
+    <hyperlink ref="B30" r:id="rId2" display="AJ球鞋面纳米防水喷雾剂防尘防" tooltip="http://item.taobao.com/item.htm?spm=a219t.7900221.1998910419.dafc012e7.1aea75a56vZa05&amp;id=590515292384"/>
     <hyperlink ref="B3" r:id="rId3" display="苹果8plus手机壳硅胶6s苹果7plu" tooltip="http://item.taobao.com/item.htm?id=576307503042"/>
-    <hyperlink ref="A30" r:id="rId1" display="阿姆提斯旗舰店" tooltip="点击进入店铺推广详情页"/>
-    <hyperlink ref="B30" r:id="rId4" display="反光背心马甲环卫施工夜骑行" tooltip="http://item.taobao.com/item.htm?spm=a219t.7900221.1998910419.dafc012e7.c7d575a5JyGiF3&amp;id=593676327878"/>
+    <hyperlink ref="A31" r:id="rId1" display="阿姆提斯旗舰店" tooltip="点击进入店铺推广详情页"/>
+    <hyperlink ref="B31" r:id="rId4" display="反光背心马甲环卫施工夜骑行" tooltip="http://item.taobao.com/item.htm?spm=a219t.7900221.1998910419.dafc012e7.c7d575a5JyGiF3&amp;id=593676327878"/>
     <hyperlink ref="B8" r:id="rId5" display="618XIXI抖音网红同款哑光闪粉大" tooltip="http://item.taobao.com/item.htm?id=590204278695"/>
-    <hyperlink ref="A31" r:id="rId1" display="伊思家旗舰店" tooltip="点击进入店铺推广详情页"/>
-    <hyperlink ref="B31" r:id="rId6" display="实木洞洞板家用书房实木墙上" tooltip="http://item.taobao.com/item.htm?id=591028755740"/>
-    <hyperlink ref="A32" r:id="rId1" display="祖传中医配方" tooltip="点击进入店铺推广详情页"/>
-    <hyperlink ref="B32" r:id="rId7" display="鼻塞打喷嚏流鼻涕过敏性鼻痒" tooltip="http://item.taobao.com/item.htm?id=576163912843"/>
-    <hyperlink ref="A33" r:id="rId1" display="富瑞德空气炸锅" tooltip="点击进入店铺推广详情页"/>
-    <hyperlink ref="B33" r:id="rId8" display="富瑞德空气炸锅家用无油新款六" tooltip="http://item.taobao.com/item.htm?id=594586704591"/>
-    <hyperlink ref="A34" r:id="rId1" display="捷豹汽车用品" tooltip="点击进入店铺推广详情页"/>
-    <hyperlink ref="B34" r:id="rId9" display="汽车手机支撑架车载手机支架车" tooltip="http://item.taobao.com/item.htm?id=596685670163"/>
+    <hyperlink ref="A32" r:id="rId1" display="伊思家旗舰店" tooltip="点击进入店铺推广详情页"/>
+    <hyperlink ref="B32" r:id="rId6" display="实木洞洞板家用书房实木墙上" tooltip="http://item.taobao.com/item.htm?id=591028755740"/>
+    <hyperlink ref="A33" r:id="rId1" display="祖传中医配方" tooltip="点击进入店铺推广详情页"/>
+    <hyperlink ref="B33" r:id="rId7" display="鼻塞打喷嚏流鼻涕过敏性鼻痒" tooltip="http://item.taobao.com/item.htm?id=576163912843"/>
+    <hyperlink ref="A34" r:id="rId1" display="富瑞德空气炸锅" tooltip="点击进入店铺推广详情页"/>
+    <hyperlink ref="B34" r:id="rId8" display="富瑞德空气炸锅家用无油新款六" tooltip="http://item.taobao.com/item.htm?id=594586704591"/>
+    <hyperlink ref="A35" r:id="rId1" display="捷豹汽车用品" tooltip="点击进入店铺推广详情页"/>
+    <hyperlink ref="B35" r:id="rId9" display="汽车手机支撑架车载手机支架车" tooltip="http://item.taobao.com/item.htm?id=596685670163"/>
+    <hyperlink ref="B12" r:id="rId10" display="泊泉雅植萃低泡去渍洁净洗衣液   *  3款洗衣" tooltip="http://item.taobao.com/item.htm?id=594474054426"/>
+    <hyperlink ref="A36" r:id="rId1" display="名匠设计工作室" tooltip="点击进入店铺推广详情页"/>
+    <hyperlink ref="B36" r:id="rId11" display="景观规划道路绿化效果图小区公 * 6款产品" tooltip="http://item.taobao.com/item.htm?spm=a219t.7900221.1998910419.dafc012e7.346275a5wpjUHE&amp;id=588281074358"/>
+    <hyperlink ref="A37" r:id="rId1" display="荣格潮品" tooltip="点击进入店铺推广详情页"/>
+    <hyperlink ref="B37" r:id="rId12" display="夏季吊带连衣裙显瘦小个子海边 * 20款女装" tooltip="http://item.taobao.com/item.htm?spm=a219t.7900221.1998910419.dafc012e7.346275a5moiOKS&amp;id=587962461097"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2077,17 +2183,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -2097,37 +2203,37 @@
     </row>
     <row r="5" ht="14.25" spans="1:1">
       <c r="A5" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:1">
       <c r="A6" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:1">
       <c r="A10" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:1">
@@ -2137,12 +2243,12 @@
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:1">
       <c r="A14" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:1">
@@ -2152,37 +2258,37 @@
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:1">
       <c r="A20" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" ht="14.25" spans="1:1">
       <c r="A21" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:1">
@@ -2197,12 +2303,12 @@
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:1">
       <c r="A26" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/招商团长/报名活动单.xlsx
+++ b/招商团长/报名活动单.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="98">
   <si>
     <t>店铺</t>
   </si>
@@ -317,10 +317,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -384,6 +384,128 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -391,7 +513,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -404,128 +526,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -548,187 +548,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -739,39 +739,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -807,6 +774,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -831,11 +809,33 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -847,10 +847,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -859,137 +859,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1006,6 +1006,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1132,9 +1141,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1490,654 +1496,654 @@
   <sheetPr/>
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A37" sqref="$A37:$XFD37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="18.5" style="15" customWidth="1"/>
-    <col min="2" max="2" width="39.8833333333333" style="16" customWidth="1"/>
-    <col min="3" max="3" width="19.8833333333333" style="16" customWidth="1"/>
-    <col min="4" max="4" width="18.75" style="16" customWidth="1"/>
-    <col min="5" max="5" width="31.6333333333333" style="16" customWidth="1"/>
-    <col min="6" max="6" width="36.3833333333333" style="17" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="15"/>
+    <col min="1" max="1" width="18.5" style="18" customWidth="1"/>
+    <col min="2" max="2" width="39.8833333333333" style="19" customWidth="1"/>
+    <col min="3" max="3" width="19.8833333333333" style="19" customWidth="1"/>
+    <col min="4" max="4" width="18.75" style="19" customWidth="1"/>
+    <col min="5" max="5" width="31.6333333333333" style="19" customWidth="1"/>
+    <col min="6" max="6" width="36.3833333333333" style="20" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="7" customFormat="1" spans="1:6">
-      <c r="A2" s="7" t="s">
+    <row r="2" s="10" customFormat="1" spans="1:6">
+      <c r="A2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C2" s="21">
         <v>20</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="21">
         <v>5</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="20"/>
-    </row>
-    <row r="3" s="7" customFormat="1" spans="2:6">
-      <c r="B3" s="21" t="s">
+      <c r="F2" s="23"/>
+    </row>
+    <row r="3" s="10" customFormat="1" spans="2:6">
+      <c r="B3" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="21">
         <v>20</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="21">
         <v>5</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="20"/>
-    </row>
-    <row r="4" s="8" customFormat="1" spans="1:6">
-      <c r="A4" s="8" t="s">
+      <c r="F3" s="23"/>
+    </row>
+    <row r="4" s="11" customFormat="1" spans="1:6">
+      <c r="A4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="24" t="s">
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="25"/>
-    </row>
-    <row r="5" s="9" customFormat="1" spans="1:6">
-      <c r="A5" s="9" t="s">
+      <c r="F4" s="28"/>
+    </row>
+    <row r="5" s="12" customFormat="1" spans="1:6">
+      <c r="A5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="29">
         <v>10.1</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="29">
         <v>4</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="28"/>
-    </row>
-    <row r="6" s="8" customFormat="1" spans="1:6">
-      <c r="A6" s="8" t="s">
+      <c r="F5" s="31"/>
+    </row>
+    <row r="6" s="11" customFormat="1" spans="1:6">
+      <c r="A6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="24" t="s">
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="25"/>
-    </row>
-    <row r="7" s="10" customFormat="1" spans="2:6">
-      <c r="B7" s="29" t="s">
+      <c r="F6" s="28"/>
+    </row>
+    <row r="7" s="13" customFormat="1" spans="2:6">
+      <c r="B7" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="32">
         <v>15</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D7" s="32">
         <v>3</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="31"/>
-    </row>
-    <row r="8" s="10" customFormat="1" spans="2:6">
-      <c r="B8" s="32" t="s">
+      <c r="F7" s="34"/>
+    </row>
+    <row r="8" s="13" customFormat="1" spans="2:6">
+      <c r="B8" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="30" t="s">
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="31"/>
-    </row>
-    <row r="9" s="11" customFormat="1" spans="1:6">
-      <c r="A9" s="11" t="s">
+      <c r="F8" s="34"/>
+    </row>
+    <row r="9" s="14" customFormat="1" spans="1:6">
+      <c r="A9" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="33">
+      <c r="C9" s="36">
         <v>10.01</v>
       </c>
-      <c r="D9" s="33">
+      <c r="D9" s="36">
         <v>4.9</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="34" t="s">
+      <c r="F9" s="37" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" s="12" customFormat="1" spans="1:6">
-      <c r="A10" s="12" t="s">
+    <row r="10" s="15" customFormat="1" spans="1:6">
+      <c r="A10" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="35">
+      <c r="C10" s="38">
         <v>40</v>
       </c>
-      <c r="D10" s="35">
+      <c r="D10" s="38">
         <v>10</v>
       </c>
-      <c r="E10" s="35" t="s">
+      <c r="E10" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="36"/>
-    </row>
-    <row r="11" s="10" customFormat="1" spans="2:6">
-      <c r="B11" s="29" t="s">
+      <c r="F10" s="39"/>
+    </row>
+    <row r="11" s="13" customFormat="1" spans="2:6">
+      <c r="B11" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="29">
+      <c r="C11" s="32">
         <v>25.2</v>
       </c>
-      <c r="D11" s="29">
+      <c r="D11" s="32">
         <v>4</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="31"/>
-    </row>
-    <row r="12" s="10" customFormat="1" spans="2:6">
-      <c r="B12" s="32" t="s">
+      <c r="F11" s="34"/>
+    </row>
+    <row r="12" s="13" customFormat="1" spans="2:6">
+      <c r="B12" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="29">
+      <c r="C12" s="32">
         <v>6</v>
       </c>
-      <c r="D12" s="29">
+      <c r="D12" s="32">
         <v>5</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="31"/>
-    </row>
-    <row r="13" s="13" customFormat="1" spans="1:6">
-      <c r="A13" s="13" t="s">
+      <c r="F12" s="34"/>
+    </row>
+    <row r="13" s="16" customFormat="1" spans="1:6">
+      <c r="A13" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="22">
+      <c r="C13" s="25">
         <v>5.2</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="25">
         <v>4</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="37"/>
-    </row>
-    <row r="14" s="9" customFormat="1" spans="1:6">
-      <c r="A14" s="9" t="s">
+      <c r="F13" s="40"/>
+    </row>
+    <row r="14" s="12" customFormat="1" spans="1:6">
+      <c r="A14" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="26">
+      <c r="C14" s="29">
         <v>10.1</v>
       </c>
-      <c r="D14" s="26">
+      <c r="D14" s="29">
         <v>5</v>
       </c>
-      <c r="E14" s="26" t="s">
+      <c r="E14" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="28"/>
-    </row>
-    <row r="15" s="10" customFormat="1" spans="1:6">
-      <c r="A15" s="10" t="s">
+      <c r="F14" s="31"/>
+    </row>
+    <row r="15" s="13" customFormat="1" spans="1:6">
+      <c r="A15" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="29">
+      <c r="C15" s="32">
         <v>18.01</v>
       </c>
-      <c r="D15" s="29">
+      <c r="D15" s="32">
         <v>2</v>
       </c>
-      <c r="E15" s="38" t="s">
+      <c r="E15" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="31"/>
-    </row>
-    <row r="16" s="10" customFormat="1" spans="2:6">
-      <c r="B16" s="29" t="s">
+      <c r="F15" s="34"/>
+    </row>
+    <row r="16" s="13" customFormat="1" spans="2:6">
+      <c r="B16" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="29">
+      <c r="C16" s="32">
         <v>10</v>
       </c>
-      <c r="D16" s="29">
+      <c r="D16" s="32">
         <v>2</v>
       </c>
-      <c r="E16" s="38" t="s">
+      <c r="E16" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="31"/>
-    </row>
-    <row r="17" s="10" customFormat="1" spans="2:6">
-      <c r="B17" s="29" t="s">
+      <c r="F16" s="34"/>
+    </row>
+    <row r="17" s="13" customFormat="1" spans="2:6">
+      <c r="B17" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="29">
+      <c r="C17" s="32">
         <v>15</v>
       </c>
-      <c r="D17" s="29">
+      <c r="D17" s="32">
         <v>2</v>
       </c>
-      <c r="E17" s="38" t="s">
+      <c r="E17" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="F17" s="31"/>
-    </row>
-    <row r="18" s="12" customFormat="1" spans="1:6">
-      <c r="A18" s="12" t="s">
+      <c r="F17" s="34"/>
+    </row>
+    <row r="18" s="15" customFormat="1" spans="1:6">
+      <c r="A18" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="35">
+      <c r="C18" s="38">
         <v>20.6</v>
       </c>
-      <c r="D18" s="35">
+      <c r="D18" s="38">
         <v>3.01</v>
       </c>
-      <c r="E18" s="38" t="s">
+      <c r="E18" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="36"/>
-    </row>
-    <row r="19" s="10" customFormat="1" spans="1:6">
-      <c r="A19" s="10" t="s">
+      <c r="F18" s="39"/>
+    </row>
+    <row r="19" s="13" customFormat="1" spans="1:6">
+      <c r="A19" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="29">
+      <c r="C19" s="32">
         <v>3.6</v>
       </c>
-      <c r="D19" s="29">
+      <c r="D19" s="32">
         <v>4</v>
       </c>
-      <c r="E19" s="29" t="s">
+      <c r="E19" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="F19" s="31"/>
-    </row>
-    <row r="20" s="10" customFormat="1" spans="1:6">
-      <c r="A20" s="10" t="s">
+      <c r="F19" s="34"/>
+    </row>
+    <row r="20" s="13" customFormat="1" spans="1:6">
+      <c r="A20" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="29">
+      <c r="C20" s="32">
         <v>25.1</v>
       </c>
-      <c r="D20" s="29">
+      <c r="D20" s="32">
         <v>4.9</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="E20" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="F20" s="31"/>
-    </row>
-    <row r="21" s="10" customFormat="1" spans="2:6">
-      <c r="B21" s="29" t="s">
+      <c r="F20" s="34"/>
+    </row>
+    <row r="21" s="13" customFormat="1" spans="2:6">
+      <c r="B21" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="29">
+      <c r="C21" s="32">
         <v>20</v>
       </c>
-      <c r="D21" s="29">
+      <c r="D21" s="32">
         <v>5</v>
       </c>
-      <c r="E21" s="29" t="s">
+      <c r="E21" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="31"/>
-    </row>
-    <row r="22" s="10" customFormat="1" spans="1:6">
-      <c r="A22" s="10" t="s">
+      <c r="F21" s="34"/>
+    </row>
+    <row r="22" s="13" customFormat="1" spans="1:6">
+      <c r="A22" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="29">
+      <c r="C22" s="32">
         <v>15</v>
       </c>
-      <c r="D22" s="29">
+      <c r="D22" s="32">
         <v>5</v>
       </c>
-      <c r="E22" s="29" t="s">
+      <c r="E22" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="F22" s="31"/>
-    </row>
-    <row r="23" s="10" customFormat="1" spans="1:6">
-      <c r="A23" s="10" t="s">
+      <c r="F22" s="34"/>
+    </row>
+    <row r="23" s="13" customFormat="1" spans="1:6">
+      <c r="A23" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="29">
+      <c r="C23" s="32">
         <v>30.1</v>
       </c>
-      <c r="D23" s="29">
+      <c r="D23" s="32">
         <v>3</v>
       </c>
-      <c r="E23" s="29" t="s">
+      <c r="E23" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="F23" s="31"/>
-    </row>
-    <row r="24" s="10" customFormat="1" spans="1:6">
-      <c r="A24" s="10" t="s">
+      <c r="F23" s="34"/>
+    </row>
+    <row r="24" s="13" customFormat="1" spans="1:6">
+      <c r="A24" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="29">
+      <c r="C24" s="32">
         <v>4.5</v>
       </c>
-      <c r="D24" s="29">
+      <c r="D24" s="32">
         <v>2.5</v>
       </c>
-      <c r="E24" s="29" t="s">
+      <c r="E24" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="F24" s="31"/>
-    </row>
-    <row r="25" s="10" customFormat="1" spans="1:6">
-      <c r="A25" s="10" t="s">
+      <c r="F24" s="34"/>
+    </row>
+    <row r="25" s="13" customFormat="1" spans="1:6">
+      <c r="A25" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="29">
+      <c r="C25" s="32">
         <v>3.01</v>
       </c>
-      <c r="D25" s="29">
+      <c r="D25" s="32">
         <v>2</v>
       </c>
-      <c r="E25" s="29" t="s">
+      <c r="E25" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="F25" s="31"/>
-    </row>
-    <row r="26" s="8" customFormat="1" spans="1:6">
-      <c r="A26" s="8" t="s">
+      <c r="F25" s="34"/>
+    </row>
+    <row r="26" s="11" customFormat="1" spans="1:6">
+      <c r="A26" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="C26" s="23">
+      <c r="C26" s="26">
         <v>25</v>
       </c>
-      <c r="D26" s="23">
+      <c r="D26" s="26">
         <v>5</v>
       </c>
-      <c r="E26" s="23" t="s">
+      <c r="E26" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="F26" s="25"/>
-    </row>
-    <row r="27" s="10" customFormat="1" spans="1:6">
-      <c r="A27" s="10" t="s">
+      <c r="F26" s="28"/>
+    </row>
+    <row r="27" s="13" customFormat="1" spans="1:6">
+      <c r="A27" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="29" t="s">
+      <c r="B27" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="29">
+      <c r="C27" s="32">
         <v>20</v>
       </c>
-      <c r="D27" s="29">
+      <c r="D27" s="32">
         <v>5</v>
       </c>
-      <c r="E27" s="29" t="s">
+      <c r="E27" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="F27" s="31"/>
-    </row>
-    <row r="28" s="10" customFormat="1" spans="1:6">
-      <c r="A28" s="10" t="s">
+      <c r="F27" s="34"/>
+    </row>
+    <row r="28" s="13" customFormat="1" spans="1:6">
+      <c r="A28" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="C28" s="29">
+      <c r="C28" s="32">
         <v>6</v>
       </c>
-      <c r="D28" s="29">
+      <c r="D28" s="32">
         <v>5</v>
       </c>
-      <c r="E28" s="29" t="s">
+      <c r="E28" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F28" s="31"/>
-    </row>
-    <row r="29" s="14" customFormat="1" spans="1:6">
-      <c r="A29" s="14" t="s">
+      <c r="F28" s="34"/>
+    </row>
+    <row r="29" s="17" customFormat="1" spans="1:6">
+      <c r="A29" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="B29" s="39" t="s">
+      <c r="B29" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="39">
+      <c r="C29" s="42">
         <v>25.11</v>
       </c>
-      <c r="D29" s="39">
+      <c r="D29" s="42">
         <v>3</v>
       </c>
-      <c r="E29" s="39" t="s">
+      <c r="E29" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="F29" s="40"/>
-    </row>
-    <row r="30" s="10" customFormat="1" spans="1:6">
-      <c r="A30" s="41" t="s">
+      <c r="F29" s="43"/>
+    </row>
+    <row r="30" s="13" customFormat="1" spans="1:6">
+      <c r="A30" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="B30" s="32" t="s">
+      <c r="B30" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="C30" s="29">
+      <c r="C30" s="32">
         <v>20.1</v>
       </c>
-      <c r="D30" s="29">
+      <c r="D30" s="32">
         <v>5</v>
       </c>
-      <c r="E30" s="29" t="s">
+      <c r="E30" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="F30" s="31"/>
-    </row>
-    <row r="31" s="13" customFormat="1" spans="1:6">
-      <c r="A31" s="42" t="s">
+      <c r="F30" s="34"/>
+    </row>
+    <row r="31" s="16" customFormat="1" spans="1:6">
+      <c r="A31" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="B31" s="43" t="s">
+      <c r="B31" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="C31" s="22">
+      <c r="C31" s="25">
         <v>10</v>
       </c>
-      <c r="D31" s="22">
+      <c r="D31" s="25">
         <v>5</v>
       </c>
-      <c r="E31" s="22" t="s">
+      <c r="E31" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="F31" s="37"/>
-    </row>
-    <row r="32" s="12" customFormat="1" spans="1:6">
-      <c r="A32" s="44" t="s">
+      <c r="F31" s="40"/>
+    </row>
+    <row r="32" s="15" customFormat="1" spans="1:6">
+      <c r="A32" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="B32" s="45" t="s">
+      <c r="B32" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="C32" s="35">
+      <c r="C32" s="38">
         <v>6.2</v>
       </c>
-      <c r="D32" s="35">
+      <c r="D32" s="38">
         <v>3</v>
       </c>
-      <c r="E32" s="35" t="s">
+      <c r="E32" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="F32" s="36"/>
-    </row>
-    <row r="33" s="10" customFormat="1" spans="1:6">
-      <c r="A33" s="41" t="s">
+      <c r="F32" s="39"/>
+    </row>
+    <row r="33" s="13" customFormat="1" spans="1:6">
+      <c r="A33" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="B33" s="32" t="s">
+      <c r="B33" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="C33" s="29">
+      <c r="C33" s="32">
         <v>20</v>
       </c>
-      <c r="D33" s="29">
+      <c r="D33" s="32">
         <v>5</v>
       </c>
-      <c r="E33" s="29" t="s">
+      <c r="E33" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="F33" s="31"/>
-    </row>
-    <row r="34" s="10" customFormat="1" spans="1:6">
-      <c r="A34" s="41" t="s">
+      <c r="F33" s="34"/>
+    </row>
+    <row r="34" s="13" customFormat="1" spans="1:6">
+      <c r="A34" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="B34" s="32" t="s">
+      <c r="B34" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="C34" s="29">
+      <c r="C34" s="32">
         <v>15</v>
       </c>
-      <c r="D34" s="29">
+      <c r="D34" s="32">
         <v>5</v>
       </c>
-      <c r="E34" s="29" t="s">
+      <c r="E34" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="F34" s="31"/>
-    </row>
-    <row r="35" s="9" customFormat="1" spans="1:6">
-      <c r="A35" s="46" t="s">
+      <c r="F34" s="34"/>
+    </row>
+    <row r="35" s="12" customFormat="1" spans="1:6">
+      <c r="A35" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="B35" s="47" t="s">
+      <c r="B35" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="C35" s="26">
+      <c r="C35" s="29">
         <v>21</v>
       </c>
-      <c r="D35" s="26">
+      <c r="D35" s="29">
         <v>10</v>
       </c>
-      <c r="E35" s="26" t="s">
+      <c r="E35" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="F35" s="28"/>
-    </row>
-    <row r="36" s="10" customFormat="1" spans="1:6">
-      <c r="A36" s="41" t="s">
+      <c r="F35" s="31"/>
+    </row>
+    <row r="36" s="13" customFormat="1" spans="1:6">
+      <c r="A36" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="B36" s="48" t="s">
+      <c r="B36" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="C36" s="29">
+      <c r="C36" s="32">
         <v>2</v>
       </c>
-      <c r="D36" s="49" t="s">
+      <c r="D36" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="E36" s="29" t="s">
+      <c r="E36" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="F36" s="31"/>
-    </row>
-    <row r="37" s="10" customFormat="1" spans="1:6">
-      <c r="A37" s="41" t="s">
+      <c r="F36" s="34"/>
+    </row>
+    <row r="37" s="13" customFormat="1" spans="1:6">
+      <c r="A37" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="B37" s="48" t="s">
+      <c r="B37" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="C37" s="29">
+      <c r="C37" s="32">
         <v>6.12</v>
       </c>
-      <c r="D37" s="29">
+      <c r="D37" s="32">
         <v>3</v>
       </c>
-      <c r="E37" s="29" t="s">
+      <c r="E37" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="F37" s="31"/>
+      <c r="F37" s="34"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2170,10 +2176,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A26"/>
+  <dimension ref="A1:A28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2201,12 +2207,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="1:1">
+    <row r="5" spans="1:1">
       <c r="A5" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="1:1">
+    <row r="6" spans="1:1">
       <c r="A6" s="5" t="s">
         <v>88</v>
       </c>
@@ -2226,7 +2232,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" ht="14.25" spans="1:1">
+    <row r="10" spans="1:1">
       <c r="A10" s="5" t="s">
         <v>90</v>
       </c>
@@ -2242,86 +2248,98 @@
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" ht="14.25" spans="1:1">
-      <c r="A14" s="5" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" s="6" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="3" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="3" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="2" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="3" t="s">
+    <row r="20" s="1" customFormat="1" spans="1:1">
+      <c r="A20" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="4" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" spans="1:1">
-      <c r="A20" s="3" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="21" ht="14.25" spans="1:1">
-      <c r="A21" s="6" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" s="9" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="4" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="3" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="3" t="s">
+    <row r="26" spans="1:1">
+      <c r="A26" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="3" t="s">
+    <row r="27" spans="1:1">
+      <c r="A27" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="26" ht="14.25" spans="1:1">
-      <c r="A26" s="5" t="s">
+    <row r="28" spans="1:1">
+      <c r="A28" s="6" t="s">
         <v>86</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:A26">
-    <sortCondition ref="A1:A26"/>
+  <sortState ref="A1:A28">
+    <sortCondition ref="A16"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="A14" r:id="rId1" display="飘信旗舰店" tooltip="点击进入店铺推广详情页"/>
+    <hyperlink ref="A15" r:id="rId1" display="飘信旗舰店" tooltip="点击进入店铺推广详情页"/>
     <hyperlink ref="A5" r:id="rId1" display="阿姆提斯旗舰店" tooltip="点击进入店铺推广详情页"/>
-    <hyperlink ref="A21" r:id="rId1" display="伊思家旗舰店" tooltip="点击进入店铺推广详情页"/>
-    <hyperlink ref="A26" r:id="rId1" display="祖传中医配方" tooltip="点击进入店铺推广详情页"/>
+    <hyperlink ref="A23" r:id="rId1" display="伊思家旗舰店" tooltip="点击进入店铺推广详情页"/>
+    <hyperlink ref="A28" r:id="rId1" display="祖传中医配方" tooltip="点击进入店铺推广详情页"/>
     <hyperlink ref="A6" r:id="rId1" display="富瑞德空气炸锅" tooltip="点击进入店铺推广详情页"/>
     <hyperlink ref="A10" r:id="rId1" display="捷豹汽车用品" tooltip="点击进入店铺推广详情页"/>
+    <hyperlink ref="A13" r:id="rId1" display="名匠设计工作室" tooltip="点击进入店铺推广详情页"/>
+    <hyperlink ref="A16" r:id="rId1" display="荣格潮品" tooltip="点击进入店铺推广详情页"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/招商团长/报名活动单.xlsx
+++ b/招商团长/报名活动单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17115" windowHeight="7965"/>
+    <workbookView windowWidth="21510" windowHeight="9105"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="101">
   <si>
     <t>店铺</t>
   </si>
@@ -310,6 +310,15 @@
   </si>
   <si>
     <t>夏季吊带连衣裙显瘦小个子海边 * 20款女装</t>
+  </si>
+  <si>
+    <t>雪峰斋文房四宝专售店</t>
+  </si>
+  <si>
+    <t>雪峰斋游龙戏墨羊紫兼毫大中小 * 20 款文房墨宝</t>
+  </si>
+  <si>
+    <t>起：2019-06-20 止：2019-07-24</t>
   </si>
 </sst>
 </file>
@@ -319,8 +328,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -383,6 +392,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -392,13 +416,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -419,6 +436,83 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -427,37 +521,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -466,66 +529,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -548,187 +557,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -739,21 +748,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -768,26 +762,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -825,6 +799,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -839,6 +822,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -847,10 +856,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -859,137 +868,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1006,15 +1015,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1494,656 +1494,674 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="18.5" style="18" customWidth="1"/>
-    <col min="2" max="2" width="39.8833333333333" style="19" customWidth="1"/>
-    <col min="3" max="3" width="19.8833333333333" style="19" customWidth="1"/>
-    <col min="4" max="4" width="18.75" style="19" customWidth="1"/>
-    <col min="5" max="5" width="31.6333333333333" style="19" customWidth="1"/>
-    <col min="6" max="6" width="36.3833333333333" style="20" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="18"/>
+    <col min="1" max="1" width="18.5" style="15" customWidth="1"/>
+    <col min="2" max="2" width="39.8833333333333" style="16" customWidth="1"/>
+    <col min="3" max="3" width="19.8833333333333" style="16" customWidth="1"/>
+    <col min="4" max="4" width="18.75" style="16" customWidth="1"/>
+    <col min="5" max="5" width="31.6333333333333" style="16" customWidth="1"/>
+    <col min="6" max="6" width="36.3833333333333" style="17" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="10" customFormat="1" spans="1:6">
-      <c r="A2" s="10" t="s">
+    <row r="2" s="7" customFormat="1" spans="1:6">
+      <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="21">
+      <c r="C2" s="18">
         <v>20</v>
       </c>
-      <c r="D2" s="21">
+      <c r="D2" s="18">
         <v>5</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="23"/>
-    </row>
-    <row r="3" s="10" customFormat="1" spans="2:6">
-      <c r="B3" s="24" t="s">
+      <c r="F2" s="20"/>
+    </row>
+    <row r="3" s="7" customFormat="1" spans="2:6">
+      <c r="B3" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="18">
         <v>20</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="18">
         <v>5</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="23"/>
-    </row>
-    <row r="4" s="11" customFormat="1" spans="1:6">
-      <c r="A4" s="11" t="s">
+      <c r="F3" s="20"/>
+    </row>
+    <row r="4" s="8" customFormat="1" spans="1:6">
+      <c r="A4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="27" t="s">
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="28"/>
-    </row>
-    <row r="5" s="12" customFormat="1" spans="1:6">
-      <c r="A5" s="12" t="s">
+      <c r="F4" s="25"/>
+    </row>
+    <row r="5" s="9" customFormat="1" spans="1:6">
+      <c r="A5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="26">
         <v>10.1</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="26">
         <v>4</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="31"/>
-    </row>
-    <row r="6" s="11" customFormat="1" spans="1:6">
-      <c r="A6" s="11" t="s">
+      <c r="F5" s="28"/>
+    </row>
+    <row r="6" s="8" customFormat="1" spans="1:6">
+      <c r="A6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="27" t="s">
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="28"/>
-    </row>
-    <row r="7" s="13" customFormat="1" spans="2:6">
-      <c r="B7" s="32" t="s">
+      <c r="F6" s="25"/>
+    </row>
+    <row r="7" s="10" customFormat="1" spans="2:6">
+      <c r="B7" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="32">
+      <c r="C7" s="29">
         <v>15</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D7" s="29">
         <v>3</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="34"/>
-    </row>
-    <row r="8" s="13" customFormat="1" spans="2:6">
-      <c r="B8" s="35" t="s">
+      <c r="F7" s="31"/>
+    </row>
+    <row r="8" s="10" customFormat="1" spans="2:6">
+      <c r="B8" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="33" t="s">
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="34"/>
-    </row>
-    <row r="9" s="14" customFormat="1" spans="1:6">
-      <c r="A9" s="14" t="s">
+      <c r="F8" s="31"/>
+    </row>
+    <row r="9" s="11" customFormat="1" spans="1:6">
+      <c r="A9" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="36">
+      <c r="C9" s="33">
         <v>10.01</v>
       </c>
-      <c r="D9" s="36">
+      <c r="D9" s="33">
         <v>4.9</v>
       </c>
-      <c r="E9" s="36" t="s">
+      <c r="E9" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="37" t="s">
+      <c r="F9" s="34" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" s="15" customFormat="1" spans="1:6">
-      <c r="A10" s="15" t="s">
+    <row r="10" s="12" customFormat="1" spans="1:6">
+      <c r="A10" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="38">
+      <c r="C10" s="35">
         <v>40</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10" s="35">
         <v>10</v>
       </c>
-      <c r="E10" s="38" t="s">
+      <c r="E10" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="39"/>
-    </row>
-    <row r="11" s="13" customFormat="1" spans="2:6">
-      <c r="B11" s="32" t="s">
+      <c r="F10" s="36"/>
+    </row>
+    <row r="11" s="10" customFormat="1" spans="2:6">
+      <c r="B11" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="32">
+      <c r="C11" s="29">
         <v>25.2</v>
       </c>
-      <c r="D11" s="32">
+      <c r="D11" s="29">
         <v>4</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="E11" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="34"/>
-    </row>
-    <row r="12" s="13" customFormat="1" spans="2:6">
-      <c r="B12" s="35" t="s">
+      <c r="F11" s="31"/>
+    </row>
+    <row r="12" s="10" customFormat="1" spans="2:6">
+      <c r="B12" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="32">
+      <c r="C12" s="29">
         <v>6</v>
       </c>
-      <c r="D12" s="32">
+      <c r="D12" s="29">
         <v>5</v>
       </c>
-      <c r="E12" s="32" t="s">
+      <c r="E12" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="34"/>
-    </row>
-    <row r="13" s="16" customFormat="1" spans="1:6">
-      <c r="A13" s="16" t="s">
+      <c r="F12" s="31"/>
+    </row>
+    <row r="13" s="13" customFormat="1" spans="1:6">
+      <c r="A13" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="25">
+      <c r="C13" s="22">
         <v>5.2</v>
       </c>
-      <c r="D13" s="25">
+      <c r="D13" s="22">
         <v>4</v>
       </c>
-      <c r="E13" s="25" t="s">
+      <c r="E13" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="40"/>
-    </row>
-    <row r="14" s="12" customFormat="1" spans="1:6">
-      <c r="A14" s="12" t="s">
+      <c r="F13" s="37"/>
+    </row>
+    <row r="14" s="9" customFormat="1" spans="1:6">
+      <c r="A14" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="29">
+      <c r="C14" s="26">
         <v>10.1</v>
       </c>
-      <c r="D14" s="29">
+      <c r="D14" s="26">
         <v>5</v>
       </c>
-      <c r="E14" s="29" t="s">
+      <c r="E14" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="31"/>
-    </row>
-    <row r="15" s="13" customFormat="1" spans="1:6">
-      <c r="A15" s="13" t="s">
+      <c r="F14" s="28"/>
+    </row>
+    <row r="15" s="10" customFormat="1" spans="1:6">
+      <c r="A15" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="32">
+      <c r="C15" s="29">
         <v>18.01</v>
       </c>
-      <c r="D15" s="32">
+      <c r="D15" s="29">
         <v>2</v>
       </c>
-      <c r="E15" s="41" t="s">
+      <c r="E15" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="34"/>
-    </row>
-    <row r="16" s="13" customFormat="1" spans="2:6">
-      <c r="B16" s="32" t="s">
+      <c r="F15" s="31"/>
+    </row>
+    <row r="16" s="10" customFormat="1" spans="2:6">
+      <c r="B16" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="32">
+      <c r="C16" s="29">
         <v>10</v>
       </c>
-      <c r="D16" s="32">
+      <c r="D16" s="29">
         <v>2</v>
       </c>
-      <c r="E16" s="41" t="s">
+      <c r="E16" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="34"/>
-    </row>
-    <row r="17" s="13" customFormat="1" spans="2:6">
-      <c r="B17" s="32" t="s">
+      <c r="F16" s="31"/>
+    </row>
+    <row r="17" s="10" customFormat="1" spans="2:6">
+      <c r="B17" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="32">
+      <c r="C17" s="29">
         <v>15</v>
       </c>
-      <c r="D17" s="32">
+      <c r="D17" s="29">
         <v>2</v>
       </c>
-      <c r="E17" s="41" t="s">
+      <c r="E17" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="F17" s="34"/>
-    </row>
-    <row r="18" s="15" customFormat="1" spans="1:6">
-      <c r="A18" s="15" t="s">
+      <c r="F17" s="31"/>
+    </row>
+    <row r="18" s="12" customFormat="1" spans="1:6">
+      <c r="A18" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="38">
+      <c r="C18" s="35">
         <v>20.6</v>
       </c>
-      <c r="D18" s="38">
+      <c r="D18" s="35">
         <v>3.01</v>
       </c>
-      <c r="E18" s="41" t="s">
+      <c r="E18" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="39"/>
-    </row>
-    <row r="19" s="13" customFormat="1" spans="1:6">
-      <c r="A19" s="13" t="s">
+      <c r="F18" s="36"/>
+    </row>
+    <row r="19" s="10" customFormat="1" spans="1:6">
+      <c r="A19" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="32">
+      <c r="C19" s="29">
         <v>3.6</v>
       </c>
-      <c r="D19" s="32">
+      <c r="D19" s="29">
         <v>4</v>
       </c>
-      <c r="E19" s="32" t="s">
+      <c r="E19" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="F19" s="34"/>
-    </row>
-    <row r="20" s="13" customFormat="1" spans="1:6">
-      <c r="A20" s="13" t="s">
+      <c r="F19" s="31"/>
+    </row>
+    <row r="20" s="10" customFormat="1" spans="1:6">
+      <c r="A20" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="32">
+      <c r="C20" s="29">
         <v>25.1</v>
       </c>
-      <c r="D20" s="32">
+      <c r="D20" s="29">
         <v>4.9</v>
       </c>
-      <c r="E20" s="26" t="s">
+      <c r="E20" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="F20" s="34"/>
-    </row>
-    <row r="21" s="13" customFormat="1" spans="2:6">
-      <c r="B21" s="32" t="s">
+      <c r="F20" s="31"/>
+    </row>
+    <row r="21" s="10" customFormat="1" spans="2:6">
+      <c r="B21" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="32">
+      <c r="C21" s="29">
         <v>20</v>
       </c>
-      <c r="D21" s="32">
+      <c r="D21" s="29">
         <v>5</v>
       </c>
-      <c r="E21" s="32" t="s">
+      <c r="E21" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="34"/>
-    </row>
-    <row r="22" s="13" customFormat="1" spans="1:6">
-      <c r="A22" s="13" t="s">
+      <c r="F21" s="31"/>
+    </row>
+    <row r="22" s="10" customFormat="1" spans="1:6">
+      <c r="A22" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="32">
+      <c r="C22" s="29">
         <v>15</v>
       </c>
-      <c r="D22" s="32">
+      <c r="D22" s="29">
         <v>5</v>
       </c>
-      <c r="E22" s="32" t="s">
+      <c r="E22" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="F22" s="34"/>
-    </row>
-    <row r="23" s="13" customFormat="1" spans="1:6">
-      <c r="A23" s="13" t="s">
+      <c r="F22" s="31"/>
+    </row>
+    <row r="23" s="10" customFormat="1" spans="1:6">
+      <c r="A23" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="32">
+      <c r="C23" s="29">
         <v>30.1</v>
       </c>
-      <c r="D23" s="32">
+      <c r="D23" s="29">
         <v>3</v>
       </c>
-      <c r="E23" s="32" t="s">
+      <c r="E23" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="F23" s="34"/>
-    </row>
-    <row r="24" s="13" customFormat="1" spans="1:6">
-      <c r="A24" s="13" t="s">
+      <c r="F23" s="31"/>
+    </row>
+    <row r="24" s="10" customFormat="1" spans="1:6">
+      <c r="A24" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="32">
+      <c r="C24" s="29">
         <v>4.5</v>
       </c>
-      <c r="D24" s="32">
+      <c r="D24" s="29">
         <v>2.5</v>
       </c>
-      <c r="E24" s="32" t="s">
+      <c r="E24" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="F24" s="34"/>
-    </row>
-    <row r="25" s="13" customFormat="1" spans="1:6">
-      <c r="A25" s="13" t="s">
+      <c r="F24" s="31"/>
+    </row>
+    <row r="25" s="10" customFormat="1" spans="1:6">
+      <c r="A25" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="32">
+      <c r="C25" s="29">
         <v>3.01</v>
       </c>
-      <c r="D25" s="32">
+      <c r="D25" s="29">
         <v>2</v>
       </c>
-      <c r="E25" s="32" t="s">
+      <c r="E25" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="F25" s="34"/>
-    </row>
-    <row r="26" s="11" customFormat="1" spans="1:6">
-      <c r="A26" s="11" t="s">
+      <c r="F25" s="31"/>
+    </row>
+    <row r="26" s="8" customFormat="1" spans="1:6">
+      <c r="A26" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="C26" s="26">
+      <c r="C26" s="23">
         <v>25</v>
       </c>
-      <c r="D26" s="26">
+      <c r="D26" s="23">
         <v>5</v>
       </c>
-      <c r="E26" s="26" t="s">
+      <c r="E26" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="F26" s="28"/>
-    </row>
-    <row r="27" s="13" customFormat="1" spans="1:6">
-      <c r="A27" s="13" t="s">
+      <c r="F26" s="25"/>
+    </row>
+    <row r="27" s="10" customFormat="1" spans="1:6">
+      <c r="A27" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="32">
+      <c r="C27" s="29">
         <v>20</v>
       </c>
-      <c r="D27" s="32">
+      <c r="D27" s="29">
         <v>5</v>
       </c>
-      <c r="E27" s="32" t="s">
+      <c r="E27" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="F27" s="34"/>
-    </row>
-    <row r="28" s="13" customFormat="1" spans="1:6">
-      <c r="A28" s="13" t="s">
+      <c r="F27" s="31"/>
+    </row>
+    <row r="28" s="10" customFormat="1" spans="1:6">
+      <c r="A28" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B28" s="32" t="s">
+      <c r="B28" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="C28" s="32">
+      <c r="C28" s="29">
         <v>6</v>
       </c>
-      <c r="D28" s="32">
+      <c r="D28" s="29">
         <v>5</v>
       </c>
-      <c r="E28" s="32" t="s">
+      <c r="E28" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="F28" s="34"/>
-    </row>
-    <row r="29" s="17" customFormat="1" spans="1:6">
-      <c r="A29" s="17" t="s">
+      <c r="F28" s="31"/>
+    </row>
+    <row r="29" s="14" customFormat="1" spans="1:6">
+      <c r="A29" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="B29" s="42" t="s">
+      <c r="B29" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="42">
+      <c r="C29" s="39">
         <v>25.11</v>
       </c>
-      <c r="D29" s="42">
+      <c r="D29" s="39">
         <v>3</v>
       </c>
-      <c r="E29" s="42" t="s">
+      <c r="E29" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="F29" s="43"/>
-    </row>
-    <row r="30" s="13" customFormat="1" spans="1:6">
-      <c r="A30" s="44" t="s">
+      <c r="F29" s="40"/>
+    </row>
+    <row r="30" s="10" customFormat="1" spans="1:6">
+      <c r="A30" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="B30" s="35" t="s">
+      <c r="B30" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="C30" s="32">
+      <c r="C30" s="29">
         <v>20.1</v>
       </c>
-      <c r="D30" s="32">
+      <c r="D30" s="29">
         <v>5</v>
       </c>
-      <c r="E30" s="32" t="s">
+      <c r="E30" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="F30" s="34"/>
-    </row>
-    <row r="31" s="16" customFormat="1" spans="1:6">
-      <c r="A31" s="45" t="s">
+      <c r="F30" s="31"/>
+    </row>
+    <row r="31" s="13" customFormat="1" spans="1:6">
+      <c r="A31" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="B31" s="46" t="s">
+      <c r="B31" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="C31" s="25">
+      <c r="C31" s="22">
         <v>10</v>
       </c>
-      <c r="D31" s="25">
+      <c r="D31" s="22">
         <v>5</v>
       </c>
-      <c r="E31" s="25" t="s">
+      <c r="E31" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="F31" s="40"/>
-    </row>
-    <row r="32" s="15" customFormat="1" spans="1:6">
-      <c r="A32" s="47" t="s">
+      <c r="F31" s="37"/>
+    </row>
+    <row r="32" s="12" customFormat="1" spans="1:6">
+      <c r="A32" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="B32" s="48" t="s">
+      <c r="B32" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="C32" s="38">
+      <c r="C32" s="35">
         <v>6.2</v>
       </c>
-      <c r="D32" s="38">
+      <c r="D32" s="35">
         <v>3</v>
       </c>
-      <c r="E32" s="38" t="s">
+      <c r="E32" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="F32" s="39"/>
-    </row>
-    <row r="33" s="13" customFormat="1" spans="1:6">
-      <c r="A33" s="44" t="s">
+      <c r="F32" s="36"/>
+    </row>
+    <row r="33" s="10" customFormat="1" spans="1:6">
+      <c r="A33" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="B33" s="35" t="s">
+      <c r="B33" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="C33" s="32">
+      <c r="C33" s="29">
         <v>20</v>
       </c>
-      <c r="D33" s="32">
+      <c r="D33" s="29">
         <v>5</v>
       </c>
-      <c r="E33" s="32" t="s">
+      <c r="E33" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="F33" s="34"/>
-    </row>
-    <row r="34" s="13" customFormat="1" spans="1:6">
-      <c r="A34" s="44" t="s">
+      <c r="F33" s="31"/>
+    </row>
+    <row r="34" s="10" customFormat="1" spans="1:6">
+      <c r="A34" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="B34" s="35" t="s">
+      <c r="B34" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="C34" s="32">
+      <c r="C34" s="29">
         <v>15</v>
       </c>
-      <c r="D34" s="32">
+      <c r="D34" s="29">
         <v>5</v>
       </c>
-      <c r="E34" s="32" t="s">
+      <c r="E34" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="F34" s="34"/>
-    </row>
-    <row r="35" s="12" customFormat="1" spans="1:6">
-      <c r="A35" s="49" t="s">
+      <c r="F34" s="31"/>
+    </row>
+    <row r="35" s="9" customFormat="1" spans="1:6">
+      <c r="A35" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="B35" s="50" t="s">
+      <c r="B35" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="C35" s="29">
+      <c r="C35" s="26">
         <v>21</v>
       </c>
-      <c r="D35" s="29">
+      <c r="D35" s="26">
         <v>10</v>
       </c>
-      <c r="E35" s="29" t="s">
+      <c r="E35" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="F35" s="31"/>
-    </row>
-    <row r="36" s="13" customFormat="1" spans="1:6">
-      <c r="A36" s="44" t="s">
+      <c r="F35" s="28"/>
+    </row>
+    <row r="36" s="10" customFormat="1" spans="1:6">
+      <c r="A36" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="B36" s="35" t="s">
+      <c r="B36" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="C36" s="32">
+      <c r="C36" s="29">
         <v>2</v>
       </c>
-      <c r="D36" s="51" t="s">
+      <c r="D36" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="E36" s="32" t="s">
+      <c r="E36" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="F36" s="34"/>
-    </row>
-    <row r="37" s="13" customFormat="1" spans="1:6">
-      <c r="A37" s="44" t="s">
+      <c r="F36" s="31"/>
+    </row>
+    <row r="37" s="10" customFormat="1" spans="1:6">
+      <c r="A37" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="B37" s="35" t="s">
+      <c r="B37" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="C37" s="32">
+      <c r="C37" s="29">
         <v>6.12</v>
       </c>
-      <c r="D37" s="32">
+      <c r="D37" s="29">
         <v>3</v>
       </c>
-      <c r="E37" s="32" t="s">
+      <c r="E37" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="F37" s="34"/>
+      <c r="F37" s="31"/>
+    </row>
+    <row r="38" s="10" customFormat="1" spans="1:6">
+      <c r="A38" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="B38" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="C38" s="29">
+        <v>10.2</v>
+      </c>
+      <c r="D38" s="29">
+        <v>3</v>
+      </c>
+      <c r="E38" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="F38" s="31"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2166,6 +2184,8 @@
     <hyperlink ref="B36" r:id="rId11" display="景观规划道路绿化效果图小区公 * 6款产品" tooltip="http://item.taobao.com/item.htm?spm=a219t.7900221.1998910419.dafc012e7.346275a5wpjUHE&amp;id=588281074358"/>
     <hyperlink ref="A37" r:id="rId1" display="荣格潮品" tooltip="点击进入店铺推广详情页"/>
     <hyperlink ref="B37" r:id="rId12" display="夏季吊带连衣裙显瘦小个子海边 * 20款女装" tooltip="http://item.taobao.com/item.htm?spm=a219t.7900221.1998910419.dafc012e7.346275a5moiOKS&amp;id=587962461097"/>
+    <hyperlink ref="A38" r:id="rId1" display="雪峰斋文房四宝专售店" tooltip="点击进入店铺推广详情页"/>
+    <hyperlink ref="B38" r:id="rId13" display="雪峰斋游龙戏墨羊紫兼毫大中小 * 20 款文房墨宝" tooltip="http://item.taobao.com/item.htm?spm=a219t.7900221.1998910419.dafc012e7.346275a5xFYujs&amp;id=583055833737"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2179,7 +2199,7 @@
   <dimension ref="A1:A28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2188,159 +2208,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="3" t="s">
-        <v>60</v>
-      </c>
+      <c r="A1" s="3"/>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="4" t="s">
-        <v>74</v>
-      </c>
+      <c r="A2" s="4"/>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="3" t="s">
-        <v>57</v>
-      </c>
+      <c r="A3" s="3"/>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="5" t="s">
-        <v>88</v>
-      </c>
+      <c r="A4" s="3"/>
+    </row>
+    <row r="5" ht="14.25" spans="1:1">
+      <c r="A5" s="5"/>
+    </row>
+    <row r="6" ht="14.25" spans="1:1">
+      <c r="A6" s="5"/>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="3" t="s">
-        <v>47</v>
-      </c>
+      <c r="A7" s="3"/>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="A8" s="3"/>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="A9" s="3"/>
+    </row>
+    <row r="10" ht="14.25" spans="1:1">
+      <c r="A10" s="5"/>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="3" t="s">
-        <v>63</v>
-      </c>
+      <c r="A11" s="3"/>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="6" t="s">
-        <v>93</v>
-      </c>
+      <c r="A12" s="3"/>
+    </row>
+    <row r="13" ht="14.25" spans="1:1">
+      <c r="A13" s="5"/>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="6" t="s">
-        <v>96</v>
-      </c>
+      <c r="A14" s="3"/>
+    </row>
+    <row r="15" ht="14.25" spans="1:1">
+      <c r="A15" s="5"/>
+    </row>
+    <row r="16" ht="14.25" spans="1:1">
+      <c r="A16" s="5"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="7" t="s">
-        <v>24</v>
-      </c>
+      <c r="A17" s="3"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="7" t="s">
-        <v>37</v>
-      </c>
+      <c r="A18" s="3"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="7" t="s">
-        <v>65</v>
-      </c>
+      <c r="A19" s="3"/>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:1">
-      <c r="A20" s="7" t="s">
-        <v>50</v>
-      </c>
+      <c r="A20" s="3"/>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="8" t="s">
-        <v>34</v>
-      </c>
+      <c r="A21" s="4"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="9" t="s">
-        <v>83</v>
-      </c>
+      <c r="A22" s="3"/>
+    </row>
+    <row r="23" ht="14.25" spans="1:1">
+      <c r="A23" s="6"/>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="8" t="s">
-        <v>44</v>
-      </c>
+      <c r="A24" s="4"/>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="7" t="s">
-        <v>6</v>
-      </c>
+      <c r="A25" s="3"/>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="7" t="s">
-        <v>11</v>
-      </c>
+      <c r="A26" s="3"/>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="6" t="s">
-        <v>86</v>
-      </c>
+      <c r="A27" s="3"/>
+    </row>
+    <row r="28" ht="14.25" spans="1:1">
+      <c r="A28" s="5"/>
     </row>
   </sheetData>
   <sortState ref="A1:A28">
     <sortCondition ref="A16"/>
   </sortState>
-  <hyperlinks>
-    <hyperlink ref="A15" r:id="rId1" display="飘信旗舰店" tooltip="点击进入店铺推广详情页"/>
-    <hyperlink ref="A5" r:id="rId1" display="阿姆提斯旗舰店" tooltip="点击进入店铺推广详情页"/>
-    <hyperlink ref="A23" r:id="rId1" display="伊思家旗舰店" tooltip="点击进入店铺推广详情页"/>
-    <hyperlink ref="A28" r:id="rId1" display="祖传中医配方" tooltip="点击进入店铺推广详情页"/>
-    <hyperlink ref="A6" r:id="rId1" display="富瑞德空气炸锅" tooltip="点击进入店铺推广详情页"/>
-    <hyperlink ref="A10" r:id="rId1" display="捷豹汽车用品" tooltip="点击进入店铺推广详情页"/>
-    <hyperlink ref="A13" r:id="rId1" display="名匠设计工作室" tooltip="点击进入店铺推广详情页"/>
-    <hyperlink ref="A16" r:id="rId1" display="荣格潮品" tooltip="点击进入店铺推广详情页"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/招商团长/报名活动单.xlsx
+++ b/招商团长/报名活动单.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowWidth="21510" windowHeight="9105"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="报名清单" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="108">
   <si>
     <t>店铺</t>
   </si>
@@ -319,6 +319,27 @@
   </si>
   <si>
     <t>起：2019-06-20 止：2019-07-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">商品 </t>
+  </si>
+  <si>
+    <t>券后价</t>
+  </si>
+  <si>
+    <t>优惠券</t>
+  </si>
+  <si>
+    <t>推广时间</t>
+  </si>
+  <si>
+    <t>活动ID</t>
+  </si>
+  <si>
+    <t>车载水基型灭火器车用私家车小型便携汽车内家用小车轿车消防器材</t>
+  </si>
+  <si>
+    <t>2019.06.23-2019.06.28</t>
   </si>
 </sst>
 </file>
@@ -327,11 +348,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -351,12 +372,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF00B0F0"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF0070C0"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
@@ -375,7 +390,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF00B0F0"/>
+      <color rgb="FF0070C0"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -386,10 +401,19 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF0070C0"/>
-      <name val="微软雅黑"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -400,37 +424,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -444,13 +440,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -459,6 +448,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -467,10 +499,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -482,18 +515,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -505,36 +531,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -563,13 +572,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -581,31 +710,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -623,121 +740,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -748,6 +757,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -762,63 +780,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -848,6 +809,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -856,10 +865,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -868,282 +877,288 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1496,90 +1511,90 @@
   <sheetPr/>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="18.5" style="15" customWidth="1"/>
-    <col min="2" max="2" width="39.8833333333333" style="16" customWidth="1"/>
-    <col min="3" max="3" width="19.8833333333333" style="16" customWidth="1"/>
-    <col min="4" max="4" width="18.75" style="16" customWidth="1"/>
-    <col min="5" max="5" width="31.6333333333333" style="16" customWidth="1"/>
-    <col min="6" max="6" width="36.3833333333333" style="17" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="15"/>
+    <col min="1" max="1" width="18.5" style="18" customWidth="1"/>
+    <col min="2" max="2" width="39.8833333333333" style="19" customWidth="1"/>
+    <col min="3" max="3" width="19.8833333333333" style="19" customWidth="1"/>
+    <col min="4" max="4" width="18.75" style="19" customWidth="1"/>
+    <col min="5" max="5" width="31.6333333333333" style="19" customWidth="1"/>
+    <col min="6" max="6" width="36.3833333333333" style="20" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="7" customFormat="1" spans="1:6">
-      <c r="A2" s="7" t="s">
+    <row r="2" s="10" customFormat="1" spans="1:6">
+      <c r="A2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C2" s="21">
         <v>20</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="21">
         <v>5</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="20"/>
-    </row>
-    <row r="3" s="7" customFormat="1" spans="2:6">
-      <c r="B3" s="21" t="s">
+      <c r="F2" s="23"/>
+    </row>
+    <row r="3" s="10" customFormat="1" spans="2:6">
+      <c r="B3" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="21">
         <v>20</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="21">
         <v>5</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="20"/>
-    </row>
-    <row r="4" s="8" customFormat="1" spans="1:6">
-      <c r="A4" s="8" t="s">
+      <c r="F3" s="23"/>
+    </row>
+    <row r="4" s="10" customFormat="1" spans="1:6">
+      <c r="A4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="24" t="s">
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="25"/>
-    </row>
-    <row r="5" s="9" customFormat="1" spans="1:6">
-      <c r="A5" s="9" t="s">
+      <c r="F4" s="23"/>
+    </row>
+    <row r="5" s="11" customFormat="1" spans="1:6">
+      <c r="A5" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="26" t="s">
@@ -1596,21 +1611,21 @@
       </c>
       <c r="F5" s="28"/>
     </row>
-    <row r="6" s="8" customFormat="1" spans="1:6">
-      <c r="A6" s="8" t="s">
+    <row r="6" s="10" customFormat="1" spans="1:6">
+      <c r="A6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="24" t="s">
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="25"/>
-    </row>
-    <row r="7" s="10" customFormat="1" spans="2:6">
+      <c r="F6" s="23"/>
+    </row>
+    <row r="7" s="12" customFormat="1" spans="2:6">
       <c r="B7" s="29" t="s">
         <v>20</v>
       </c>
@@ -1625,7 +1640,7 @@
       </c>
       <c r="F7" s="31"/>
     </row>
-    <row r="8" s="10" customFormat="1" spans="2:6">
+    <row r="8" s="12" customFormat="1" spans="2:6">
       <c r="B8" s="32" t="s">
         <v>22</v>
       </c>
@@ -1636,8 +1651,8 @@
       </c>
       <c r="F8" s="31"/>
     </row>
-    <row r="9" s="11" customFormat="1" spans="1:6">
-      <c r="A9" s="11" t="s">
+    <row r="9" s="13" customFormat="1" spans="1:6">
+      <c r="A9" s="13" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="33" t="s">
@@ -1656,8 +1671,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" s="12" customFormat="1" spans="1:6">
-      <c r="A10" s="12" t="s">
+    <row r="10" s="14" customFormat="1" spans="1:6">
+      <c r="A10" s="14" t="s">
         <v>28</v>
       </c>
       <c r="B10" s="35" t="s">
@@ -1674,7 +1689,7 @@
       </c>
       <c r="F10" s="36"/>
     </row>
-    <row r="11" s="10" customFormat="1" spans="2:6">
+    <row r="11" s="12" customFormat="1" spans="2:6">
       <c r="B11" s="29" t="s">
         <v>31</v>
       </c>
@@ -1689,7 +1704,7 @@
       </c>
       <c r="F11" s="31"/>
     </row>
-    <row r="12" s="10" customFormat="1" spans="2:6">
+    <row r="12" s="12" customFormat="1" spans="2:6">
       <c r="B12" s="32" t="s">
         <v>33</v>
       </c>
@@ -1704,26 +1719,26 @@
       </c>
       <c r="F12" s="31"/>
     </row>
-    <row r="13" s="13" customFormat="1" spans="1:6">
-      <c r="A13" s="13" t="s">
+    <row r="13" s="15" customFormat="1" spans="1:6">
+      <c r="A13" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="22">
+      <c r="C13" s="25">
         <v>5.2</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="25">
         <v>4</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="25" t="s">
         <v>36</v>
       </c>
       <c r="F13" s="37"/>
     </row>
-    <row r="14" s="9" customFormat="1" spans="1:6">
-      <c r="A14" s="9" t="s">
+    <row r="14" s="11" customFormat="1" spans="1:6">
+      <c r="A14" s="11" t="s">
         <v>37</v>
       </c>
       <c r="B14" s="26" t="s">
@@ -1740,8 +1755,8 @@
       </c>
       <c r="F14" s="28"/>
     </row>
-    <row r="15" s="10" customFormat="1" spans="1:6">
-      <c r="A15" s="10" t="s">
+    <row r="15" s="12" customFormat="1" spans="1:6">
+      <c r="A15" s="12" t="s">
         <v>39</v>
       </c>
       <c r="B15" s="29" t="s">
@@ -1758,7 +1773,7 @@
       </c>
       <c r="F15" s="31"/>
     </row>
-    <row r="16" s="10" customFormat="1" spans="2:6">
+    <row r="16" s="12" customFormat="1" spans="2:6">
       <c r="B16" s="29" t="s">
         <v>42</v>
       </c>
@@ -1773,7 +1788,7 @@
       </c>
       <c r="F16" s="31"/>
     </row>
-    <row r="17" s="10" customFormat="1" spans="2:6">
+    <row r="17" s="12" customFormat="1" spans="2:6">
       <c r="B17" s="29" t="s">
         <v>43</v>
       </c>
@@ -1788,8 +1803,8 @@
       </c>
       <c r="F17" s="31"/>
     </row>
-    <row r="18" s="12" customFormat="1" spans="1:6">
-      <c r="A18" s="12" t="s">
+    <row r="18" s="14" customFormat="1" spans="1:6">
+      <c r="A18" s="14" t="s">
         <v>44</v>
       </c>
       <c r="B18" s="35" t="s">
@@ -1806,8 +1821,8 @@
       </c>
       <c r="F18" s="36"/>
     </row>
-    <row r="19" s="10" customFormat="1" spans="1:6">
-      <c r="A19" s="10" t="s">
+    <row r="19" s="12" customFormat="1" spans="1:6">
+      <c r="A19" s="12" t="s">
         <v>47</v>
       </c>
       <c r="B19" s="29" t="s">
@@ -1824,8 +1839,8 @@
       </c>
       <c r="F19" s="31"/>
     </row>
-    <row r="20" s="10" customFormat="1" spans="1:6">
-      <c r="A20" s="10" t="s">
+    <row r="20" s="12" customFormat="1" spans="1:6">
+      <c r="A20" s="12" t="s">
         <v>50</v>
       </c>
       <c r="B20" s="29" t="s">
@@ -1837,12 +1852,12 @@
       <c r="D20" s="29">
         <v>4.9</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="E20" s="21" t="s">
         <v>52</v>
       </c>
       <c r="F20" s="31"/>
     </row>
-    <row r="21" s="10" customFormat="1" spans="2:6">
+    <row r="21" s="12" customFormat="1" spans="2:6">
       <c r="B21" s="29" t="s">
         <v>53</v>
       </c>
@@ -1857,8 +1872,8 @@
       </c>
       <c r="F21" s="31"/>
     </row>
-    <row r="22" s="10" customFormat="1" spans="1:6">
-      <c r="A22" s="10" t="s">
+    <row r="22" s="12" customFormat="1" spans="1:6">
+      <c r="A22" s="12" t="s">
         <v>54</v>
       </c>
       <c r="B22" s="29" t="s">
@@ -1875,8 +1890,8 @@
       </c>
       <c r="F22" s="31"/>
     </row>
-    <row r="23" s="10" customFormat="1" spans="1:6">
-      <c r="A23" s="10" t="s">
+    <row r="23" s="12" customFormat="1" spans="1:6">
+      <c r="A23" s="12" t="s">
         <v>57</v>
       </c>
       <c r="B23" s="29" t="s">
@@ -1893,8 +1908,8 @@
       </c>
       <c r="F23" s="31"/>
     </row>
-    <row r="24" s="10" customFormat="1" spans="1:6">
-      <c r="A24" s="10" t="s">
+    <row r="24" s="12" customFormat="1" spans="1:6">
+      <c r="A24" s="12" t="s">
         <v>60</v>
       </c>
       <c r="B24" s="29" t="s">
@@ -1911,8 +1926,8 @@
       </c>
       <c r="F24" s="31"/>
     </row>
-    <row r="25" s="10" customFormat="1" spans="1:6">
-      <c r="A25" s="10" t="s">
+    <row r="25" s="12" customFormat="1" spans="1:6">
+      <c r="A25" s="12" t="s">
         <v>63</v>
       </c>
       <c r="B25" s="29" t="s">
@@ -1929,26 +1944,26 @@
       </c>
       <c r="F25" s="31"/>
     </row>
-    <row r="26" s="8" customFormat="1" spans="1:6">
-      <c r="A26" s="8" t="s">
+    <row r="26" s="10" customFormat="1" spans="1:6">
+      <c r="A26" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="C26" s="23">
+      <c r="C26" s="21">
         <v>25</v>
       </c>
-      <c r="D26" s="23">
+      <c r="D26" s="21">
         <v>5</v>
       </c>
-      <c r="E26" s="23" t="s">
+      <c r="E26" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="F26" s="25"/>
-    </row>
-    <row r="27" s="10" customFormat="1" spans="1:6">
-      <c r="A27" s="10" t="s">
+      <c r="F26" s="23"/>
+    </row>
+    <row r="27" s="12" customFormat="1" spans="1:6">
+      <c r="A27" s="12" t="s">
         <v>68</v>
       </c>
       <c r="B27" s="29" t="s">
@@ -1965,8 +1980,8 @@
       </c>
       <c r="F27" s="31"/>
     </row>
-    <row r="28" s="10" customFormat="1" spans="1:6">
-      <c r="A28" s="10" t="s">
+    <row r="28" s="12" customFormat="1" spans="1:6">
+      <c r="A28" s="12" t="s">
         <v>71</v>
       </c>
       <c r="B28" s="29" t="s">
@@ -1983,8 +1998,8 @@
       </c>
       <c r="F28" s="31"/>
     </row>
-    <row r="29" s="14" customFormat="1" spans="1:6">
-      <c r="A29" s="14" t="s">
+    <row r="29" s="16" customFormat="1" spans="1:6">
+      <c r="A29" s="16" t="s">
         <v>74</v>
       </c>
       <c r="B29" s="39" t="s">
@@ -2001,7 +2016,7 @@
       </c>
       <c r="F29" s="40"/>
     </row>
-    <row r="30" s="10" customFormat="1" spans="1:6">
+    <row r="30" s="12" customFormat="1" spans="1:6">
       <c r="A30" s="41" t="s">
         <v>77</v>
       </c>
@@ -2019,25 +2034,25 @@
       </c>
       <c r="F30" s="31"/>
     </row>
-    <row r="31" s="13" customFormat="1" spans="1:6">
+    <row r="31" s="15" customFormat="1" spans="1:6">
       <c r="A31" s="42" t="s">
         <v>80</v>
       </c>
       <c r="B31" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="C31" s="22">
+      <c r="C31" s="25">
         <v>10</v>
       </c>
-      <c r="D31" s="22">
+      <c r="D31" s="25">
         <v>5</v>
       </c>
-      <c r="E31" s="22" t="s">
+      <c r="E31" s="25" t="s">
         <v>82</v>
       </c>
       <c r="F31" s="37"/>
     </row>
-    <row r="32" s="12" customFormat="1" spans="1:6">
+    <row r="32" s="14" customFormat="1" spans="1:6">
       <c r="A32" s="44" t="s">
         <v>83</v>
       </c>
@@ -2055,7 +2070,7 @@
       </c>
       <c r="F32" s="36"/>
     </row>
-    <row r="33" s="10" customFormat="1" spans="1:6">
+    <row r="33" s="12" customFormat="1" spans="1:6">
       <c r="A33" s="41" t="s">
         <v>86</v>
       </c>
@@ -2073,7 +2088,7 @@
       </c>
       <c r="F33" s="31"/>
     </row>
-    <row r="34" s="10" customFormat="1" spans="1:6">
+    <row r="34" s="12" customFormat="1" spans="1:6">
       <c r="A34" s="41" t="s">
         <v>88</v>
       </c>
@@ -2091,25 +2106,25 @@
       </c>
       <c r="F34" s="31"/>
     </row>
-    <row r="35" s="9" customFormat="1" spans="1:6">
+    <row r="35" s="17" customFormat="1" spans="1:6">
       <c r="A35" s="46" t="s">
         <v>90</v>
       </c>
       <c r="B35" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="C35" s="26">
+      <c r="C35" s="48">
         <v>21</v>
       </c>
-      <c r="D35" s="26">
+      <c r="D35" s="48">
         <v>10</v>
       </c>
-      <c r="E35" s="26" t="s">
+      <c r="E35" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="F35" s="28"/>
-    </row>
-    <row r="36" s="10" customFormat="1" spans="1:6">
+      <c r="F35" s="49"/>
+    </row>
+    <row r="36" s="12" customFormat="1" spans="1:6">
       <c r="A36" s="41" t="s">
         <v>93</v>
       </c>
@@ -2119,7 +2134,7 @@
       <c r="C36" s="29">
         <v>2</v>
       </c>
-      <c r="D36" s="48" t="s">
+      <c r="D36" s="50" t="s">
         <v>95</v>
       </c>
       <c r="E36" s="29" t="s">
@@ -2127,7 +2142,7 @@
       </c>
       <c r="F36" s="31"/>
     </row>
-    <row r="37" s="10" customFormat="1" spans="1:6">
+    <row r="37" s="12" customFormat="1" spans="1:6">
       <c r="A37" s="41" t="s">
         <v>96</v>
       </c>
@@ -2145,7 +2160,7 @@
       </c>
       <c r="F37" s="31"/>
     </row>
-    <row r="38" s="10" customFormat="1" spans="1:6">
+    <row r="38" s="12" customFormat="1" spans="1:6">
       <c r="A38" s="41" t="s">
         <v>98</v>
       </c>
@@ -2196,100 +2211,136 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A28"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="18.5" style="2" customWidth="1"/>
+    <col min="1" max="1" width="61" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="3"/>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="4"/>
+    <row r="1" s="1" customFormat="1" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="1">
+        <v>9.9</v>
+      </c>
+      <c r="C2" s="1">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" s="1">
+        <v>326726450</v>
+      </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="3"/>
+      <c r="A3" s="5"/>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="3"/>
+      <c r="A4" s="5"/>
     </row>
     <row r="5" ht="14.25" spans="1:1">
-      <c r="A5" s="5"/>
+      <c r="A5" s="6"/>
     </row>
     <row r="6" ht="14.25" spans="1:1">
-      <c r="A6" s="5"/>
+      <c r="A6" s="6"/>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="3"/>
+      <c r="A7" s="5"/>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="3"/>
+      <c r="A8" s="5"/>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="3"/>
+      <c r="A9" s="5"/>
     </row>
     <row r="10" ht="14.25" spans="1:1">
-      <c r="A10" s="5"/>
+      <c r="A10" s="6"/>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="3"/>
+      <c r="A11" s="5"/>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="3"/>
+      <c r="A12" s="5"/>
     </row>
     <row r="13" ht="14.25" spans="1:1">
-      <c r="A13" s="5"/>
+      <c r="A13" s="6"/>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="3"/>
+      <c r="A14" s="5"/>
     </row>
     <row r="15" ht="14.25" spans="1:1">
-      <c r="A15" s="5"/>
+      <c r="A15" s="6"/>
     </row>
     <row r="16" ht="14.25" spans="1:1">
-      <c r="A16" s="5"/>
+      <c r="A16" s="6"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="3"/>
+      <c r="A17" s="5"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="3"/>
+      <c r="A18" s="5"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="3"/>
-    </row>
-    <row r="20" s="1" customFormat="1" spans="1:1">
-      <c r="A20" s="3"/>
+      <c r="A19" s="5"/>
+    </row>
+    <row r="20" s="2" customFormat="1" spans="1:5">
+      <c r="A20" s="5"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="4"/>
+      <c r="A21" s="8"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="3"/>
+      <c r="A22" s="5"/>
     </row>
     <row r="23" ht="14.25" spans="1:1">
-      <c r="A23" s="6"/>
+      <c r="A23" s="9"/>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="4"/>
+      <c r="A24" s="8"/>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="3"/>
+      <c r="A25" s="5"/>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="3"/>
+      <c r="A26" s="5"/>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="3"/>
+      <c r="A27" s="5"/>
     </row>
     <row r="28" ht="14.25" spans="1:1">
-      <c r="A28" s="5"/>
+      <c r="A28" s="6"/>
     </row>
   </sheetData>
   <sortState ref="A1:A28">

--- a/招商团长/报名活动单.xlsx
+++ b/招商团长/报名活动单.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21510" windowHeight="9105"/>
+    <workbookView windowWidth="19605" windowHeight="8760"/>
   </bookViews>
   <sheets>
-    <sheet name="报名清单" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="6月报名清单" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
+    <sheet name="线下跑单list" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="107">
   <si>
     <t>店铺</t>
   </si>
@@ -39,16 +40,13 @@
     <t>正道正数码专营店</t>
   </si>
   <si>
-    <t>小米9手机壳硅胶小米8防摔小米6</t>
-  </si>
-  <si>
-    <t>起：2019-05-20 止：2019-05-27</t>
-  </si>
-  <si>
-    <t>苹果8plus手机壳硅胶6s苹果7plu</t>
-  </si>
-  <si>
-    <t>起：2019-06-07 止：2019-06-13</t>
+    <t>手机挂绳挂脖绳手机壳吊绳苹果男女新款个性创意宽</t>
+  </si>
+  <si>
+    <t>起：2019-06-22 止：2019-06-30</t>
+  </si>
+  <si>
+    <t>华为nova4手机壳硅胶nova3全包防摔nova4e透明no</t>
   </si>
   <si>
     <t>智承企业车品店</t>
@@ -372,13 +370,13 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF0070C0"/>
+      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0070C0"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -390,15 +388,67 @@
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FF0070C0"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -410,7 +460,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -424,22 +512,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -449,61 +521,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -514,36 +542,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -566,19 +564,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,25 +696,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -620,133 +726,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -757,6 +755,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -784,21 +821,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -819,15 +841,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -842,21 +855,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -865,10 +863,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -877,137 +875,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1041,25 +1039,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1071,6 +1069,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1080,85 +1081,79 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1511,8 +1506,8 @@
   <sheetPr/>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
@@ -1553,110 +1548,110 @@
       <c r="B2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="21">
+      <c r="C2" s="22">
         <v>20</v>
       </c>
-      <c r="D2" s="21">
+      <c r="D2" s="22">
         <v>5</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="23"/>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" s="10" customFormat="1" spans="2:6">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="22">
+        <v>20.01</v>
+      </c>
+      <c r="D3" s="22">
+        <v>5</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="24"/>
+    </row>
+    <row r="4" s="11" customFormat="1" spans="1:6">
+      <c r="A4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="28"/>
+    </row>
+    <row r="5" s="12" customFormat="1" spans="1:6">
+      <c r="A5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="29">
+        <v>10.1</v>
+      </c>
+      <c r="D5" s="29">
+        <v>4</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="31"/>
+    </row>
+    <row r="6" s="11" customFormat="1" spans="1:6">
+      <c r="A6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="28"/>
+    </row>
+    <row r="7" s="10" customFormat="1" spans="2:6">
+      <c r="B7" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="22">
+        <v>15</v>
+      </c>
+      <c r="D7" s="22">
+        <v>3</v>
+      </c>
+      <c r="E7" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="21">
-        <v>5</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="23"/>
-    </row>
-    <row r="4" s="10" customFormat="1" spans="1:6">
-      <c r="A4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="23"/>
-    </row>
-    <row r="5" s="11" customFormat="1" spans="1:6">
-      <c r="A5" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="26">
-        <v>10.1</v>
-      </c>
-      <c r="D5" s="26">
-        <v>4</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="28"/>
-    </row>
-    <row r="6" s="10" customFormat="1" spans="1:6">
-      <c r="A6" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="23"/>
-    </row>
-    <row r="7" s="12" customFormat="1" spans="2:6">
-      <c r="B7" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="29">
-        <v>15</v>
-      </c>
-      <c r="D7" s="29">
-        <v>3</v>
-      </c>
-      <c r="E7" s="30" t="s">
+      <c r="F7" s="24"/>
+    </row>
+    <row r="8" s="10" customFormat="1" spans="2:6">
+      <c r="B8" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="31"/>
-    </row>
-    <row r="8" s="12" customFormat="1" spans="2:6">
-      <c r="B8" s="32" t="s">
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="31"/>
+      <c r="F8" s="24"/>
     </row>
     <row r="9" s="13" customFormat="1" spans="1:6">
       <c r="A9" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="33" t="s">
         <v>24</v>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>25</v>
       </c>
       <c r="C9" s="33">
         <v>10.01</v>
@@ -1665,18 +1660,18 @@
         <v>4.9</v>
       </c>
       <c r="E9" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="34" t="s">
         <v>26</v>
-      </c>
-      <c r="F9" s="34" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="10" s="14" customFormat="1" spans="1:6">
       <c r="A10" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="35" t="s">
         <v>28</v>
-      </c>
-      <c r="B10" s="35" t="s">
-        <v>29</v>
       </c>
       <c r="C10" s="35">
         <v>40</v>
@@ -1685,46 +1680,46 @@
         <v>10</v>
       </c>
       <c r="E10" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="36"/>
+    </row>
+    <row r="11" s="10" customFormat="1" spans="2:6">
+      <c r="B11" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="36"/>
-    </row>
-    <row r="11" s="12" customFormat="1" spans="2:6">
-      <c r="B11" s="29" t="s">
+      <c r="C11" s="22">
+        <v>25.2</v>
+      </c>
+      <c r="D11" s="22">
+        <v>4</v>
+      </c>
+      <c r="E11" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="29">
-        <v>25.2</v>
-      </c>
-      <c r="D11" s="29">
-        <v>4</v>
-      </c>
-      <c r="E11" s="29" t="s">
+      <c r="F11" s="24"/>
+    </row>
+    <row r="12" s="10" customFormat="1" spans="2:6">
+      <c r="B12" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="31"/>
-    </row>
-    <row r="12" s="12" customFormat="1" spans="2:6">
-      <c r="B12" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="29">
+      <c r="C12" s="22">
         <v>6</v>
       </c>
-      <c r="D12" s="29">
+      <c r="D12" s="22">
         <v>5</v>
       </c>
-      <c r="E12" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="31"/>
+      <c r="E12" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="24"/>
     </row>
     <row r="13" s="15" customFormat="1" spans="1:6">
       <c r="A13" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="25" t="s">
         <v>34</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>35</v>
       </c>
       <c r="C13" s="25">
         <v>5.2</v>
@@ -1733,82 +1728,82 @@
         <v>4</v>
       </c>
       <c r="E13" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="37"/>
+    </row>
+    <row r="14" s="12" customFormat="1" spans="1:6">
+      <c r="A14" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="37"/>
-    </row>
-    <row r="14" s="11" customFormat="1" spans="1:6">
-      <c r="A14" s="11" t="s">
+      <c r="B14" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="C14" s="29">
+        <v>10.1</v>
+      </c>
+      <c r="D14" s="29">
+        <v>5</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="31"/>
+    </row>
+    <row r="15" s="10" customFormat="1" spans="1:6">
+      <c r="A15" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="26">
-        <v>10.1</v>
-      </c>
-      <c r="D14" s="26">
-        <v>5</v>
-      </c>
-      <c r="E14" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="28"/>
-    </row>
-    <row r="15" s="12" customFormat="1" spans="1:6">
-      <c r="A15" s="12" t="s">
+      <c r="B15" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="C15" s="22">
+        <v>18.01</v>
+      </c>
+      <c r="D15" s="22">
+        <v>2</v>
+      </c>
+      <c r="E15" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="29">
-        <v>18.01</v>
-      </c>
-      <c r="D15" s="29">
+      <c r="F15" s="24"/>
+    </row>
+    <row r="16" s="10" customFormat="1" spans="2:6">
+      <c r="B16" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="22">
+        <v>10</v>
+      </c>
+      <c r="D16" s="22">
         <v>2</v>
       </c>
-      <c r="E15" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" s="31"/>
-    </row>
-    <row r="16" s="12" customFormat="1" spans="2:6">
-      <c r="B16" s="29" t="s">
+      <c r="E16" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="24"/>
+    </row>
+    <row r="17" s="10" customFormat="1" spans="2:6">
+      <c r="B17" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="29">
-        <v>10</v>
-      </c>
-      <c r="D16" s="29">
+      <c r="C17" s="22">
+        <v>15</v>
+      </c>
+      <c r="D17" s="22">
         <v>2</v>
       </c>
-      <c r="E16" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="31"/>
-    </row>
-    <row r="17" s="12" customFormat="1" spans="2:6">
-      <c r="B17" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="29">
-        <v>15</v>
-      </c>
-      <c r="D17" s="29">
-        <v>2</v>
-      </c>
       <c r="E17" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" s="31"/>
+        <v>40</v>
+      </c>
+      <c r="F17" s="24"/>
     </row>
     <row r="18" s="14" customFormat="1" spans="1:6">
       <c r="A18" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="35" t="s">
         <v>44</v>
-      </c>
-      <c r="B18" s="35" t="s">
-        <v>45</v>
       </c>
       <c r="C18" s="35">
         <v>20.6</v>
@@ -1817,193 +1812,193 @@
         <v>3.01</v>
       </c>
       <c r="E18" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="36"/>
+    </row>
+    <row r="19" s="10" customFormat="1" spans="1:6">
+      <c r="A19" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="36"/>
-    </row>
-    <row r="19" s="12" customFormat="1" spans="1:6">
-      <c r="A19" s="12" t="s">
+      <c r="B19" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="C19" s="22">
+        <v>3.6</v>
+      </c>
+      <c r="D19" s="22">
+        <v>4</v>
+      </c>
+      <c r="E19" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="29">
-        <v>3.6</v>
-      </c>
-      <c r="D19" s="29">
-        <v>4</v>
-      </c>
-      <c r="E19" s="29" t="s">
+      <c r="F19" s="24"/>
+    </row>
+    <row r="20" s="10" customFormat="1" spans="1:6">
+      <c r="A20" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="F19" s="31"/>
-    </row>
-    <row r="20" s="12" customFormat="1" spans="1:6">
-      <c r="A20" s="12" t="s">
+      <c r="B20" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="C20" s="22">
+        <v>25.1</v>
+      </c>
+      <c r="D20" s="22">
+        <v>4.9</v>
+      </c>
+      <c r="E20" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="29">
-        <v>25.1</v>
-      </c>
-      <c r="D20" s="29">
-        <v>4.9</v>
-      </c>
-      <c r="E20" s="21" t="s">
+      <c r="F20" s="24"/>
+    </row>
+    <row r="21" s="10" customFormat="1" spans="2:6">
+      <c r="B21" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="F20" s="31"/>
-    </row>
-    <row r="21" s="12" customFormat="1" spans="2:6">
-      <c r="B21" s="29" t="s">
+      <c r="C21" s="22">
+        <v>20</v>
+      </c>
+      <c r="D21" s="22">
+        <v>5</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="24"/>
+    </row>
+    <row r="22" s="10" customFormat="1" spans="1:6">
+      <c r="A22" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="29">
+      <c r="B22" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="22">
+        <v>15</v>
+      </c>
+      <c r="D22" s="22">
+        <v>5</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" s="24"/>
+    </row>
+    <row r="23" s="10" customFormat="1" spans="1:6">
+      <c r="A23" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="22">
+        <v>30.1</v>
+      </c>
+      <c r="D23" s="22">
+        <v>3</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" s="24"/>
+    </row>
+    <row r="24" s="10" customFormat="1" spans="1:6">
+      <c r="A24" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="22">
+        <v>4.5</v>
+      </c>
+      <c r="D24" s="22">
+        <v>2.5</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" s="24"/>
+    </row>
+    <row r="25" s="10" customFormat="1" spans="1:6">
+      <c r="A25" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="22">
+        <v>3.01</v>
+      </c>
+      <c r="D25" s="22">
+        <v>2</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" s="24"/>
+    </row>
+    <row r="26" s="11" customFormat="1" spans="1:6">
+      <c r="A26" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="26">
+        <v>25</v>
+      </c>
+      <c r="D26" s="26">
+        <v>5</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F26" s="28"/>
+    </row>
+    <row r="27" s="10" customFormat="1" spans="1:6">
+      <c r="A27" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="22">
         <v>20</v>
       </c>
-      <c r="D21" s="29">
+      <c r="D27" s="22">
         <v>5</v>
       </c>
-      <c r="E21" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="31"/>
-    </row>
-    <row r="22" s="12" customFormat="1" spans="1:6">
-      <c r="A22" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B22" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="29">
-        <v>15</v>
-      </c>
-      <c r="D22" s="29">
+      <c r="E27" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F27" s="24"/>
+    </row>
+    <row r="28" s="10" customFormat="1" spans="1:6">
+      <c r="A28" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="22">
+        <v>6</v>
+      </c>
+      <c r="D28" s="22">
         <v>5</v>
       </c>
-      <c r="E22" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="F22" s="31"/>
-    </row>
-    <row r="23" s="12" customFormat="1" spans="1:6">
-      <c r="A23" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" s="29">
-        <v>30.1</v>
-      </c>
-      <c r="D23" s="29">
-        <v>3</v>
-      </c>
-      <c r="E23" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="F23" s="31"/>
-    </row>
-    <row r="24" s="12" customFormat="1" spans="1:6">
-      <c r="A24" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" s="29">
-        <v>4.5</v>
-      </c>
-      <c r="D24" s="29">
-        <v>2.5</v>
-      </c>
-      <c r="E24" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="F24" s="31"/>
-    </row>
-    <row r="25" s="12" customFormat="1" spans="1:6">
-      <c r="A25" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B25" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" s="29">
-        <v>3.01</v>
-      </c>
-      <c r="D25" s="29">
-        <v>2</v>
-      </c>
-      <c r="E25" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="F25" s="31"/>
-    </row>
-    <row r="26" s="10" customFormat="1" spans="1:6">
-      <c r="A26" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" s="21">
-        <v>25</v>
-      </c>
-      <c r="D26" s="21">
-        <v>5</v>
-      </c>
-      <c r="E26" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="F26" s="23"/>
-    </row>
-    <row r="27" s="12" customFormat="1" spans="1:6">
-      <c r="A27" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B27" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="C27" s="29">
-        <v>20</v>
-      </c>
-      <c r="D27" s="29">
-        <v>5</v>
-      </c>
-      <c r="E27" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="F27" s="31"/>
-    </row>
-    <row r="28" s="12" customFormat="1" spans="1:6">
-      <c r="A28" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="B28" s="29" t="s">
+      <c r="E28" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="C28" s="29">
-        <v>6</v>
-      </c>
-      <c r="D28" s="29">
-        <v>5</v>
-      </c>
-      <c r="E28" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="F28" s="31"/>
+      <c r="F28" s="24"/>
     </row>
     <row r="29" s="16" customFormat="1" spans="1:6">
       <c r="A29" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" s="39" t="s">
         <v>74</v>
-      </c>
-      <c r="B29" s="39" t="s">
-        <v>75</v>
       </c>
       <c r="C29" s="39">
         <v>25.11</v>
@@ -2012,34 +2007,34 @@
         <v>3</v>
       </c>
       <c r="E29" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="F29" s="40"/>
+    </row>
+    <row r="30" s="10" customFormat="1" spans="1:6">
+      <c r="A30" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="F29" s="40"/>
-    </row>
-    <row r="30" s="12" customFormat="1" spans="1:6">
-      <c r="A30" s="41" t="s">
+      <c r="B30" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="B30" s="32" t="s">
+      <c r="C30" s="22">
+        <v>20.1</v>
+      </c>
+      <c r="D30" s="22">
+        <v>5</v>
+      </c>
+      <c r="E30" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="C30" s="29">
-        <v>20.1</v>
-      </c>
-      <c r="D30" s="29">
-        <v>5</v>
-      </c>
-      <c r="E30" s="29" t="s">
+      <c r="F30" s="24"/>
+    </row>
+    <row r="31" s="15" customFormat="1" spans="1:6">
+      <c r="A31" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="F30" s="31"/>
-    </row>
-    <row r="31" s="15" customFormat="1" spans="1:6">
-      <c r="A31" s="42" t="s">
+      <c r="B31" s="42" t="s">
         <v>80</v>
-      </c>
-      <c r="B31" s="43" t="s">
-        <v>81</v>
       </c>
       <c r="C31" s="25">
         <v>10</v>
@@ -2048,16 +2043,16 @@
         <v>5</v>
       </c>
       <c r="E31" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="F31" s="37"/>
+    </row>
+    <row r="32" s="14" customFormat="1" spans="1:6">
+      <c r="A32" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="F31" s="37"/>
-    </row>
-    <row r="32" s="14" customFormat="1" spans="1:6">
-      <c r="A32" s="44" t="s">
+      <c r="B32" s="44" t="s">
         <v>83</v>
-      </c>
-      <c r="B32" s="45" t="s">
-        <v>84</v>
       </c>
       <c r="C32" s="35">
         <v>6.2</v>
@@ -2066,141 +2061,142 @@
         <v>3</v>
       </c>
       <c r="E32" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="F32" s="36"/>
+    </row>
+    <row r="33" s="10" customFormat="1" spans="1:6">
+      <c r="A33" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="F32" s="36"/>
-    </row>
-    <row r="33" s="12" customFormat="1" spans="1:6">
-      <c r="A33" s="41" t="s">
+      <c r="B33" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="B33" s="32" t="s">
+      <c r="C33" s="22">
+        <v>20</v>
+      </c>
+      <c r="D33" s="22">
+        <v>5</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="F33" s="24"/>
+    </row>
+    <row r="34" s="10" customFormat="1" spans="1:6">
+      <c r="A34" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="C33" s="29">
-        <v>20</v>
-      </c>
-      <c r="D33" s="29">
+      <c r="B34" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34" s="22">
+        <v>15</v>
+      </c>
+      <c r="D34" s="22">
         <v>5</v>
       </c>
-      <c r="E33" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="F33" s="31"/>
-    </row>
-    <row r="34" s="12" customFormat="1" spans="1:6">
-      <c r="A34" s="41" t="s">
-        <v>88</v>
-      </c>
-      <c r="B34" s="32" t="s">
+      <c r="E34" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="F34" s="24"/>
+    </row>
+    <row r="35" s="17" customFormat="1" spans="1:6">
+      <c r="A35" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="C34" s="29">
-        <v>15</v>
-      </c>
-      <c r="D34" s="29">
-        <v>5</v>
-      </c>
-      <c r="E34" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="F34" s="31"/>
-    </row>
-    <row r="35" s="17" customFormat="1" spans="1:6">
-      <c r="A35" s="46" t="s">
+      <c r="B35" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="B35" s="47" t="s">
+      <c r="C35" s="47">
+        <v>21</v>
+      </c>
+      <c r="D35" s="47">
+        <v>10</v>
+      </c>
+      <c r="E35" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="C35" s="48">
-        <v>21</v>
-      </c>
-      <c r="D35" s="48">
-        <v>10</v>
-      </c>
-      <c r="E35" s="48" t="s">
+      <c r="F35" s="48"/>
+    </row>
+    <row r="36" s="10" customFormat="1" spans="1:6">
+      <c r="A36" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="F35" s="49"/>
-    </row>
-    <row r="36" s="12" customFormat="1" spans="1:6">
-      <c r="A36" s="41" t="s">
+      <c r="B36" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="B36" s="32" t="s">
+      <c r="C36" s="22">
+        <v>2</v>
+      </c>
+      <c r="D36" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="C36" s="29">
-        <v>2</v>
-      </c>
-      <c r="D36" s="50" t="s">
+      <c r="E36" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F36" s="24"/>
+    </row>
+    <row r="37" s="10" customFormat="1" spans="1:6">
+      <c r="A37" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="E36" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="F36" s="31"/>
-    </row>
-    <row r="37" s="12" customFormat="1" spans="1:6">
-      <c r="A37" s="41" t="s">
+      <c r="B37" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="B37" s="32" t="s">
+      <c r="C37" s="22">
+        <v>6.12</v>
+      </c>
+      <c r="D37" s="22">
+        <v>3</v>
+      </c>
+      <c r="E37" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F37" s="24"/>
+    </row>
+    <row r="38" s="10" customFormat="1" spans="1:6">
+      <c r="A38" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="C37" s="29">
-        <v>6.12</v>
-      </c>
-      <c r="D37" s="29">
+      <c r="B38" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C38" s="22">
+        <v>10.2</v>
+      </c>
+      <c r="D38" s="22">
         <v>3</v>
       </c>
-      <c r="E37" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="F37" s="31"/>
-    </row>
-    <row r="38" s="12" customFormat="1" spans="1:6">
-      <c r="A38" s="41" t="s">
-        <v>98</v>
-      </c>
-      <c r="B38" s="32" t="s">
+      <c r="E38" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="C38" s="29">
-        <v>10.2</v>
-      </c>
-      <c r="D38" s="29">
-        <v>3</v>
-      </c>
-      <c r="E38" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="F38" s="31"/>
+      <c r="F38" s="24"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A30" r:id="rId1" display="飘信旗舰店" tooltip="点击进入店铺推广详情页"/>
     <hyperlink ref="B30" r:id="rId2" display="AJ球鞋面纳米防水喷雾剂防尘防" tooltip="http://item.taobao.com/item.htm?spm=a219t.7900221.1998910419.dafc012e7.1aea75a56vZa05&amp;id=590515292384"/>
-    <hyperlink ref="B3" r:id="rId3" display="苹果8plus手机壳硅胶6s苹果7plu" tooltip="http://item.taobao.com/item.htm?id=576307503042"/>
     <hyperlink ref="A31" r:id="rId1" display="阿姆提斯旗舰店" tooltip="点击进入店铺推广详情页"/>
-    <hyperlink ref="B31" r:id="rId4" display="反光背心马甲环卫施工夜骑行" tooltip="http://item.taobao.com/item.htm?spm=a219t.7900221.1998910419.dafc012e7.c7d575a5JyGiF3&amp;id=593676327878"/>
-    <hyperlink ref="B8" r:id="rId5" display="618XIXI抖音网红同款哑光闪粉大" tooltip="http://item.taobao.com/item.htm?id=590204278695"/>
+    <hyperlink ref="B31" r:id="rId3" display="反光背心马甲环卫施工夜骑行" tooltip="http://item.taobao.com/item.htm?spm=a219t.7900221.1998910419.dafc012e7.c7d575a5JyGiF3&amp;id=593676327878"/>
+    <hyperlink ref="B8" r:id="rId4" display="618XIXI抖音网红同款哑光闪粉大" tooltip="http://item.taobao.com/item.htm?id=590204278695"/>
     <hyperlink ref="A32" r:id="rId1" display="伊思家旗舰店" tooltip="点击进入店铺推广详情页"/>
-    <hyperlink ref="B32" r:id="rId6" display="实木洞洞板家用书房实木墙上" tooltip="http://item.taobao.com/item.htm?id=591028755740"/>
+    <hyperlink ref="B32" r:id="rId5" display="实木洞洞板家用书房实木墙上" tooltip="http://item.taobao.com/item.htm?id=591028755740"/>
     <hyperlink ref="A33" r:id="rId1" display="祖传中医配方" tooltip="点击进入店铺推广详情页"/>
-    <hyperlink ref="B33" r:id="rId7" display="鼻塞打喷嚏流鼻涕过敏性鼻痒" tooltip="http://item.taobao.com/item.htm?id=576163912843"/>
+    <hyperlink ref="B33" r:id="rId6" display="鼻塞打喷嚏流鼻涕过敏性鼻痒" tooltip="http://item.taobao.com/item.htm?id=576163912843"/>
     <hyperlink ref="A34" r:id="rId1" display="富瑞德空气炸锅" tooltip="点击进入店铺推广详情页"/>
-    <hyperlink ref="B34" r:id="rId8" display="富瑞德空气炸锅家用无油新款六" tooltip="http://item.taobao.com/item.htm?id=594586704591"/>
+    <hyperlink ref="B34" r:id="rId7" display="富瑞德空气炸锅家用无油新款六" tooltip="http://item.taobao.com/item.htm?id=594586704591"/>
     <hyperlink ref="A35" r:id="rId1" display="捷豹汽车用品" tooltip="点击进入店铺推广详情页"/>
-    <hyperlink ref="B35" r:id="rId9" display="汽车手机支撑架车载手机支架车" tooltip="http://item.taobao.com/item.htm?id=596685670163"/>
-    <hyperlink ref="B12" r:id="rId10" display="泊泉雅植萃低泡去渍洁净洗衣液   *  3款洗衣" tooltip="http://item.taobao.com/item.htm?id=594474054426"/>
+    <hyperlink ref="B35" r:id="rId8" display="汽车手机支撑架车载手机支架车" tooltip="http://item.taobao.com/item.htm?id=596685670163"/>
+    <hyperlink ref="B12" r:id="rId9" display="泊泉雅植萃低泡去渍洁净洗衣液   *  3款洗衣" tooltip="http://item.taobao.com/item.htm?id=594474054426"/>
     <hyperlink ref="A36" r:id="rId1" display="名匠设计工作室" tooltip="点击进入店铺推广详情页"/>
-    <hyperlink ref="B36" r:id="rId11" display="景观规划道路绿化效果图小区公 * 6款产品" tooltip="http://item.taobao.com/item.htm?spm=a219t.7900221.1998910419.dafc012e7.346275a5wpjUHE&amp;id=588281074358"/>
+    <hyperlink ref="B36" r:id="rId10" display="景观规划道路绿化效果图小区公 * 6款产品" tooltip="http://item.taobao.com/item.htm?spm=a219t.7900221.1998910419.dafc012e7.346275a5wpjUHE&amp;id=588281074358"/>
     <hyperlink ref="A37" r:id="rId1" display="荣格潮品" tooltip="点击进入店铺推广详情页"/>
-    <hyperlink ref="B37" r:id="rId12" display="夏季吊带连衣裙显瘦小个子海边 * 20款女装" tooltip="http://item.taobao.com/item.htm?spm=a219t.7900221.1998910419.dafc012e7.346275a5moiOKS&amp;id=587962461097"/>
+    <hyperlink ref="B37" r:id="rId11" display="夏季吊带连衣裙显瘦小个子海边 * 20款女装" tooltip="http://item.taobao.com/item.htm?spm=a219t.7900221.1998910419.dafc012e7.346275a5moiOKS&amp;id=587962461097"/>
     <hyperlink ref="A38" r:id="rId1" display="雪峰斋文房四宝专售店" tooltip="点击进入店铺推广详情页"/>
-    <hyperlink ref="B38" r:id="rId13" display="雪峰斋游龙戏墨羊紫兼毫大中小 * 20 款文房墨宝" tooltip="http://item.taobao.com/item.htm?spm=a219t.7900221.1998910419.dafc012e7.346275a5xFYujs&amp;id=583055833737"/>
+    <hyperlink ref="B38" r:id="rId12" display="雪峰斋游龙戏墨羊紫兼毫大中小 * 20 款文房墨宝" tooltip="http://item.taobao.com/item.htm?spm=a219t.7900221.1998910419.dafc012e7.346275a5xFYujs&amp;id=583055833737"/>
+    <hyperlink ref="B2" r:id="rId13" display="手机挂绳挂脖绳手机壳吊绳苹果男女新款个性创意宽" tooltip="http://item.taobao.com/item.htm?spm=a219t.7900221.1998910419.dafc012e7.346275a5vKGwCR&amp;id=586749303714"/>
+    <hyperlink ref="B3" r:id="rId14" display="华为nova4手机壳硅胶nova3全包防摔nova4e透明no" tooltip="http://item.taobao.com/item.htm?spm=a219t.7900221.1998910419.dafc012e7.346275a5vKGwCR&amp;id=596731806027"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2209,6 +2205,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E28"/>
@@ -2228,24 +2257,24 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B2" s="1">
         <v>9.9</v>
@@ -2254,7 +2283,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E2" s="1">
         <v>326726450</v>
@@ -2350,21 +2379,4 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/招商团长/报名活动单.xlsx
+++ b/招商团长/报名活动单.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19605" windowHeight="8760"/>
+    <workbookView windowWidth="22710" windowHeight="8760"/>
   </bookViews>
   <sheets>
     <sheet name="6月报名清单" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
-    <sheet name="线下跑单list" sheetId="2" r:id="rId4"/>
+    <sheet name="线下跑单list" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="110">
   <si>
     <t>店铺</t>
   </si>
@@ -334,10 +334,19 @@
     <t>活动ID</t>
   </si>
   <si>
+    <t>商品链接</t>
+  </si>
+  <si>
+    <t>援邦旗舰店</t>
+  </si>
+  <si>
     <t>车载水基型灭火器车用私家车小型便携汽车内家用小车轿车消防器材</t>
   </si>
   <si>
     <t>2019.06.23-2019.06.28</t>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?spm=a230r.1.14.6.75a43b61UiE1Wn&amp;id=596977090868&amp;cm_id=140105335569ed55e27b&amp;abbucket=5</t>
   </si>
 </sst>
 </file>
@@ -346,11 +355,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -364,9 +373,24 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="9"/>
+      <color rgb="FF888888"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -408,6 +432,120 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -420,128 +558,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -564,187 +580,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -759,16 +775,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -776,8 +807,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -799,30 +830,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -835,23 +842,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -863,10 +879,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -875,137 +891,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1018,13 +1034,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1033,127 +1055,133 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1506,672 +1534,672 @@
   <sheetPr/>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="18.5" style="18" customWidth="1"/>
-    <col min="2" max="2" width="39.8833333333333" style="19" customWidth="1"/>
-    <col min="3" max="3" width="19.8833333333333" style="19" customWidth="1"/>
-    <col min="4" max="4" width="18.75" style="19" customWidth="1"/>
-    <col min="5" max="5" width="31.6333333333333" style="19" customWidth="1"/>
-    <col min="6" max="6" width="36.3833333333333" style="20" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="18"/>
+    <col min="1" max="1" width="18.5" style="22" customWidth="1"/>
+    <col min="2" max="2" width="39.8833333333333" style="23" customWidth="1"/>
+    <col min="3" max="3" width="19.8833333333333" style="23" customWidth="1"/>
+    <col min="4" max="4" width="18.75" style="23" customWidth="1"/>
+    <col min="5" max="5" width="31.6333333333333" style="23" customWidth="1"/>
+    <col min="6" max="6" width="36.3833333333333" style="24" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="24" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="10" customFormat="1" spans="1:6">
-      <c r="A2" s="10" t="s">
+    <row r="2" s="14" customFormat="1" spans="1:6">
+      <c r="A2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="22">
+      <c r="C2" s="26">
         <v>20</v>
       </c>
-      <c r="D2" s="22">
+      <c r="D2" s="26">
         <v>5</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="24"/>
-    </row>
-    <row r="3" s="10" customFormat="1" spans="2:6">
-      <c r="B3" s="21" t="s">
+      <c r="F2" s="28"/>
+    </row>
+    <row r="3" s="14" customFormat="1" spans="2:6">
+      <c r="B3" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="26">
         <v>20.01</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="26">
         <v>5</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="24"/>
-    </row>
-    <row r="4" s="11" customFormat="1" spans="1:6">
-      <c r="A4" s="11" t="s">
+      <c r="F3" s="28"/>
+    </row>
+    <row r="4" s="15" customFormat="1" spans="1:6">
+      <c r="A4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="27" t="s">
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="28"/>
-    </row>
-    <row r="5" s="12" customFormat="1" spans="1:6">
-      <c r="A5" s="12" t="s">
+      <c r="F4" s="32"/>
+    </row>
+    <row r="5" s="16" customFormat="1" spans="1:6">
+      <c r="A5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="33">
         <v>10.1</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="33">
         <v>4</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="31"/>
-    </row>
-    <row r="6" s="11" customFormat="1" spans="1:6">
-      <c r="A6" s="11" t="s">
+      <c r="F5" s="35"/>
+    </row>
+    <row r="6" s="15" customFormat="1" spans="1:6">
+      <c r="A6" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="27" t="s">
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="28"/>
-    </row>
-    <row r="7" s="10" customFormat="1" spans="2:6">
-      <c r="B7" s="22" t="s">
+      <c r="F6" s="32"/>
+    </row>
+    <row r="7" s="14" customFormat="1" spans="2:6">
+      <c r="B7" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="26">
         <v>15</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="26">
         <v>3</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="24"/>
-    </row>
-    <row r="8" s="10" customFormat="1" spans="2:6">
-      <c r="B8" s="32" t="s">
+      <c r="F7" s="28"/>
+    </row>
+    <row r="8" s="14" customFormat="1" spans="2:6">
+      <c r="B8" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="23" t="s">
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="24"/>
-    </row>
-    <row r="9" s="13" customFormat="1" spans="1:6">
-      <c r="A9" s="13" t="s">
+      <c r="F8" s="28"/>
+    </row>
+    <row r="9" s="17" customFormat="1" spans="1:6">
+      <c r="A9" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="33">
+      <c r="C9" s="37">
         <v>10.01</v>
       </c>
-      <c r="D9" s="33">
+      <c r="D9" s="37">
         <v>4.9</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="34" t="s">
+      <c r="F9" s="38" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" s="14" customFormat="1" spans="1:6">
-      <c r="A10" s="14" t="s">
+    <row r="10" s="18" customFormat="1" spans="1:6">
+      <c r="A10" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="35">
+      <c r="C10" s="39">
         <v>40</v>
       </c>
-      <c r="D10" s="35">
+      <c r="D10" s="39">
         <v>10</v>
       </c>
-      <c r="E10" s="35" t="s">
+      <c r="E10" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="36"/>
-    </row>
-    <row r="11" s="10" customFormat="1" spans="2:6">
-      <c r="B11" s="22" t="s">
+      <c r="F10" s="40"/>
+    </row>
+    <row r="11" s="14" customFormat="1" spans="2:6">
+      <c r="B11" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="26">
         <v>25.2</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="26">
         <v>4</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="24"/>
-    </row>
-    <row r="12" s="10" customFormat="1" spans="2:6">
-      <c r="B12" s="32" t="s">
+      <c r="F11" s="28"/>
+    </row>
+    <row r="12" s="14" customFormat="1" spans="2:6">
+      <c r="B12" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="26">
         <v>6</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="26">
         <v>5</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="24"/>
-    </row>
-    <row r="13" s="15" customFormat="1" spans="1:6">
-      <c r="A13" s="15" t="s">
+      <c r="F12" s="28"/>
+    </row>
+    <row r="13" s="19" customFormat="1" spans="1:6">
+      <c r="A13" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="25">
+      <c r="C13" s="29">
         <v>5.2</v>
       </c>
-      <c r="D13" s="25">
+      <c r="D13" s="29">
         <v>4</v>
       </c>
-      <c r="E13" s="25" t="s">
+      <c r="E13" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="37"/>
-    </row>
-    <row r="14" s="12" customFormat="1" spans="1:6">
-      <c r="A14" s="12" t="s">
+      <c r="F13" s="41"/>
+    </row>
+    <row r="14" s="16" customFormat="1" spans="1:6">
+      <c r="A14" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="29">
+      <c r="C14" s="33">
         <v>10.1</v>
       </c>
-      <c r="D14" s="29">
+      <c r="D14" s="33">
         <v>5</v>
       </c>
-      <c r="E14" s="29" t="s">
+      <c r="E14" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="31"/>
-    </row>
-    <row r="15" s="10" customFormat="1" spans="1:6">
-      <c r="A15" s="10" t="s">
+      <c r="F14" s="35"/>
+    </row>
+    <row r="15" s="14" customFormat="1" spans="1:6">
+      <c r="A15" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="22">
+      <c r="C15" s="26">
         <v>18.01</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="26">
         <v>2</v>
       </c>
-      <c r="E15" s="38" t="s">
+      <c r="E15" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="24"/>
-    </row>
-    <row r="16" s="10" customFormat="1" spans="2:6">
-      <c r="B16" s="22" t="s">
+      <c r="F15" s="28"/>
+    </row>
+    <row r="16" s="14" customFormat="1" spans="2:6">
+      <c r="B16" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="22">
+      <c r="C16" s="26">
         <v>10</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D16" s="26">
         <v>2</v>
       </c>
-      <c r="E16" s="38" t="s">
+      <c r="E16" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="24"/>
-    </row>
-    <row r="17" s="10" customFormat="1" spans="2:6">
-      <c r="B17" s="22" t="s">
+      <c r="F16" s="28"/>
+    </row>
+    <row r="17" s="14" customFormat="1" spans="2:6">
+      <c r="B17" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="22">
+      <c r="C17" s="26">
         <v>15</v>
       </c>
-      <c r="D17" s="22">
+      <c r="D17" s="26">
         <v>2</v>
       </c>
-      <c r="E17" s="38" t="s">
+      <c r="E17" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="24"/>
-    </row>
-    <row r="18" s="14" customFormat="1" spans="1:6">
-      <c r="A18" s="14" t="s">
+      <c r="F17" s="28"/>
+    </row>
+    <row r="18" s="18" customFormat="1" spans="1:6">
+      <c r="A18" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="35">
+      <c r="C18" s="39">
         <v>20.6</v>
       </c>
-      <c r="D18" s="35">
+      <c r="D18" s="39">
         <v>3.01</v>
       </c>
-      <c r="E18" s="38" t="s">
+      <c r="E18" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="36"/>
-    </row>
-    <row r="19" s="10" customFormat="1" spans="1:6">
-      <c r="A19" s="10" t="s">
+      <c r="F18" s="40"/>
+    </row>
+    <row r="19" s="14" customFormat="1" spans="1:6">
+      <c r="A19" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C19" s="26">
         <v>3.6</v>
       </c>
-      <c r="D19" s="22">
+      <c r="D19" s="26">
         <v>4</v>
       </c>
-      <c r="E19" s="22" t="s">
+      <c r="E19" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="24"/>
-    </row>
-    <row r="20" s="10" customFormat="1" spans="1:6">
-      <c r="A20" s="10" t="s">
+      <c r="F19" s="28"/>
+    </row>
+    <row r="20" s="14" customFormat="1" spans="1:6">
+      <c r="A20" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="22">
+      <c r="C20" s="26">
         <v>25.1</v>
       </c>
-      <c r="D20" s="22">
+      <c r="D20" s="26">
         <v>4.9</v>
       </c>
-      <c r="E20" s="26" t="s">
+      <c r="E20" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="F20" s="24"/>
-    </row>
-    <row r="21" s="10" customFormat="1" spans="2:6">
-      <c r="B21" s="22" t="s">
+      <c r="F20" s="28"/>
+    </row>
+    <row r="21" s="14" customFormat="1" spans="2:6">
+      <c r="B21" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="22">
+      <c r="C21" s="26">
         <v>20</v>
       </c>
-      <c r="D21" s="22">
+      <c r="D21" s="26">
         <v>5</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="24"/>
-    </row>
-    <row r="22" s="10" customFormat="1" spans="1:6">
-      <c r="A22" s="10" t="s">
+      <c r="F21" s="28"/>
+    </row>
+    <row r="22" s="14" customFormat="1" spans="1:6">
+      <c r="A22" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="22">
+      <c r="C22" s="26">
         <v>15</v>
       </c>
-      <c r="D22" s="22">
+      <c r="D22" s="26">
         <v>5</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="E22" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="F22" s="24"/>
-    </row>
-    <row r="23" s="10" customFormat="1" spans="1:6">
-      <c r="A23" s="10" t="s">
+      <c r="F22" s="28"/>
+    </row>
+    <row r="23" s="14" customFormat="1" spans="1:6">
+      <c r="A23" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="22">
+      <c r="C23" s="26">
         <v>30.1</v>
       </c>
-      <c r="D23" s="22">
+      <c r="D23" s="26">
         <v>3</v>
       </c>
-      <c r="E23" s="22" t="s">
+      <c r="E23" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="F23" s="24"/>
-    </row>
-    <row r="24" s="10" customFormat="1" spans="1:6">
-      <c r="A24" s="10" t="s">
+      <c r="F23" s="28"/>
+    </row>
+    <row r="24" s="14" customFormat="1" spans="1:6">
+      <c r="A24" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="22">
+      <c r="C24" s="26">
         <v>4.5</v>
       </c>
-      <c r="D24" s="22">
+      <c r="D24" s="26">
         <v>2.5</v>
       </c>
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="F24" s="24"/>
-    </row>
-    <row r="25" s="10" customFormat="1" spans="1:6">
-      <c r="A25" s="10" t="s">
+      <c r="F24" s="28"/>
+    </row>
+    <row r="25" s="14" customFormat="1" spans="1:6">
+      <c r="A25" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="22">
+      <c r="C25" s="26">
         <v>3.01</v>
       </c>
-      <c r="D25" s="22">
+      <c r="D25" s="26">
         <v>2</v>
       </c>
-      <c r="E25" s="22" t="s">
+      <c r="E25" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="F25" s="24"/>
-    </row>
-    <row r="26" s="11" customFormat="1" spans="1:6">
-      <c r="A26" s="11" t="s">
+      <c r="F25" s="28"/>
+    </row>
+    <row r="26" s="15" customFormat="1" spans="1:6">
+      <c r="A26" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="26">
+      <c r="C26" s="30">
         <v>25</v>
       </c>
-      <c r="D26" s="26">
+      <c r="D26" s="30">
         <v>5</v>
       </c>
-      <c r="E26" s="26" t="s">
+      <c r="E26" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="F26" s="28"/>
-    </row>
-    <row r="27" s="10" customFormat="1" spans="1:6">
-      <c r="A27" s="10" t="s">
+      <c r="F26" s="32"/>
+    </row>
+    <row r="27" s="14" customFormat="1" spans="1:6">
+      <c r="A27" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="22">
+      <c r="C27" s="26">
         <v>20</v>
       </c>
-      <c r="D27" s="22">
+      <c r="D27" s="26">
         <v>5</v>
       </c>
-      <c r="E27" s="22" t="s">
+      <c r="E27" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="F27" s="24"/>
-    </row>
-    <row r="28" s="10" customFormat="1" spans="1:6">
-      <c r="A28" s="10" t="s">
+      <c r="F27" s="28"/>
+    </row>
+    <row r="28" s="14" customFormat="1" spans="1:6">
+      <c r="A28" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="22">
+      <c r="C28" s="26">
         <v>6</v>
       </c>
-      <c r="D28" s="22">
+      <c r="D28" s="26">
         <v>5</v>
       </c>
-      <c r="E28" s="22" t="s">
+      <c r="E28" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="F28" s="24"/>
-    </row>
-    <row r="29" s="16" customFormat="1" spans="1:6">
-      <c r="A29" s="16" t="s">
+      <c r="F28" s="28"/>
+    </row>
+    <row r="29" s="20" customFormat="1" spans="1:6">
+      <c r="A29" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="B29" s="39" t="s">
+      <c r="B29" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="C29" s="39">
+      <c r="C29" s="43">
         <v>25.11</v>
       </c>
-      <c r="D29" s="39">
+      <c r="D29" s="43">
         <v>3</v>
       </c>
-      <c r="E29" s="39" t="s">
+      <c r="E29" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="F29" s="40"/>
-    </row>
-    <row r="30" s="10" customFormat="1" spans="1:6">
-      <c r="A30" s="21" t="s">
+      <c r="F29" s="44"/>
+    </row>
+    <row r="30" s="14" customFormat="1" spans="1:6">
+      <c r="A30" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="B30" s="32" t="s">
+      <c r="B30" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="C30" s="22">
+      <c r="C30" s="26">
         <v>20.1</v>
       </c>
-      <c r="D30" s="22">
+      <c r="D30" s="26">
         <v>5</v>
       </c>
-      <c r="E30" s="22" t="s">
+      <c r="E30" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="F30" s="24"/>
-    </row>
-    <row r="31" s="15" customFormat="1" spans="1:6">
-      <c r="A31" s="41" t="s">
+      <c r="F30" s="28"/>
+    </row>
+    <row r="31" s="19" customFormat="1" spans="1:6">
+      <c r="A31" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="B31" s="42" t="s">
+      <c r="B31" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="25">
+      <c r="C31" s="29">
         <v>10</v>
       </c>
-      <c r="D31" s="25">
+      <c r="D31" s="29">
         <v>5</v>
       </c>
-      <c r="E31" s="25" t="s">
+      <c r="E31" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="F31" s="37"/>
-    </row>
-    <row r="32" s="14" customFormat="1" spans="1:6">
-      <c r="A32" s="43" t="s">
+      <c r="F31" s="41"/>
+    </row>
+    <row r="32" s="18" customFormat="1" spans="1:6">
+      <c r="A32" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="B32" s="44" t="s">
+      <c r="B32" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="C32" s="35">
+      <c r="C32" s="39">
         <v>6.2</v>
       </c>
-      <c r="D32" s="35">
+      <c r="D32" s="39">
         <v>3</v>
       </c>
-      <c r="E32" s="35" t="s">
+      <c r="E32" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="F32" s="36"/>
-    </row>
-    <row r="33" s="10" customFormat="1" spans="1:6">
-      <c r="A33" s="21" t="s">
+      <c r="F32" s="40"/>
+    </row>
+    <row r="33" s="14" customFormat="1" spans="1:6">
+      <c r="A33" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="B33" s="32" t="s">
+      <c r="B33" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="C33" s="22">
+      <c r="C33" s="26">
         <v>20</v>
       </c>
-      <c r="D33" s="22">
+      <c r="D33" s="26">
         <v>5</v>
       </c>
-      <c r="E33" s="22" t="s">
+      <c r="E33" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="F33" s="24"/>
-    </row>
-    <row r="34" s="10" customFormat="1" spans="1:6">
-      <c r="A34" s="21" t="s">
+      <c r="F33" s="28"/>
+    </row>
+    <row r="34" s="14" customFormat="1" spans="1:6">
+      <c r="A34" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="B34" s="32" t="s">
+      <c r="B34" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="C34" s="22">
+      <c r="C34" s="26">
         <v>15</v>
       </c>
-      <c r="D34" s="22">
+      <c r="D34" s="26">
         <v>5</v>
       </c>
-      <c r="E34" s="22" t="s">
+      <c r="E34" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="F34" s="24"/>
-    </row>
-    <row r="35" s="17" customFormat="1" spans="1:6">
-      <c r="A35" s="45" t="s">
+      <c r="F34" s="28"/>
+    </row>
+    <row r="35" s="21" customFormat="1" spans="1:6">
+      <c r="A35" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="B35" s="46" t="s">
+      <c r="B35" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="C35" s="47">
+      <c r="C35" s="51">
         <v>21</v>
       </c>
-      <c r="D35" s="47">
+      <c r="D35" s="51">
         <v>10</v>
       </c>
-      <c r="E35" s="47" t="s">
+      <c r="E35" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="F35" s="48"/>
-    </row>
-    <row r="36" s="10" customFormat="1" spans="1:6">
-      <c r="A36" s="21" t="s">
+      <c r="F35" s="52"/>
+    </row>
+    <row r="36" s="14" customFormat="1" spans="1:6">
+      <c r="A36" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="B36" s="32" t="s">
+      <c r="B36" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="C36" s="22">
+      <c r="C36" s="26">
         <v>2</v>
       </c>
-      <c r="D36" s="49" t="s">
+      <c r="D36" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="E36" s="22" t="s">
+      <c r="E36" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="F36" s="24"/>
-    </row>
-    <row r="37" s="10" customFormat="1" spans="1:6">
-      <c r="A37" s="21" t="s">
+      <c r="F36" s="28"/>
+    </row>
+    <row r="37" s="14" customFormat="1" spans="1:6">
+      <c r="A37" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="B37" s="32" t="s">
+      <c r="B37" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="C37" s="22">
+      <c r="C37" s="26">
         <v>6.12</v>
       </c>
-      <c r="D37" s="22">
+      <c r="D37" s="26">
         <v>3</v>
       </c>
-      <c r="E37" s="22" t="s">
+      <c r="E37" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="F37" s="24"/>
-    </row>
-    <row r="38" s="10" customFormat="1" spans="1:6">
-      <c r="A38" s="21" t="s">
+      <c r="F37" s="28"/>
+    </row>
+    <row r="38" s="14" customFormat="1" spans="1:6">
+      <c r="A38" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="B38" s="32" t="s">
+      <c r="B38" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="C38" s="22">
+      <c r="C38" s="26">
         <v>10.2</v>
       </c>
-      <c r="D38" s="22">
+      <c r="D38" s="26">
         <v>3</v>
       </c>
-      <c r="E38" s="22" t="s">
+      <c r="E38" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="F38" s="24"/>
+      <c r="F38" s="28"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2207,14 +2235,174 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="18.125" customWidth="1"/>
+    <col min="2" max="2" width="53.25" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="1" customWidth="1"/>
+    <col min="4" max="6" width="8.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="26.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="1">
+        <v>9.9</v>
+      </c>
+      <c r="D2" s="1">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H2" s="1">
+        <v>326726450</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="7"/>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="7"/>
+    </row>
+    <row r="5" ht="14.25" spans="2:2">
+      <c r="B5" s="8"/>
+    </row>
+    <row r="6" ht="14.25" spans="2:2">
+      <c r="B6" s="8"/>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="7"/>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" s="7"/>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="7"/>
+    </row>
+    <row r="10" ht="14.25" spans="2:2">
+      <c r="B10" s="8"/>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="7"/>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="7"/>
+    </row>
+    <row r="13" ht="14.25" spans="2:2">
+      <c r="B13" s="8"/>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="7"/>
+    </row>
+    <row r="15" ht="14.25" spans="2:2">
+      <c r="B15" s="8"/>
+    </row>
+    <row r="16" ht="14.25" spans="2:2">
+      <c r="B16" s="8"/>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="7"/>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="7"/>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="7"/>
+    </row>
+    <row r="20" s="2" customFormat="1" spans="2:9">
+      <c r="B20" s="7"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="13"/>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="10"/>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="7"/>
+    </row>
+    <row r="23" ht="14.25" spans="2:2">
+      <c r="B23" s="11"/>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="10"/>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="7"/>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="7"/>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="7"/>
+    </row>
+    <row r="28" ht="14.25" spans="2:2">
+      <c r="B28" s="8"/>
+    </row>
+  </sheetData>
+  <sortState ref="B1:B28">
+    <sortCondition ref="B16"/>
+  </sortState>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="援邦旗舰店" tooltip="https://store.taobao.com/shop/view_shop.htm?user_number_id=4081911013"/>
+    <hyperlink ref="I2" r:id="rId2" display="https://detail.tmall.com/item.htm?spm=a230r.1.14.6.75a43b61UiE1Wn&amp;id=596977090868&amp;cm_id=140105335569ed55e27b&amp;abbucket=5" tooltip="https://detail.tmall.com/item.htm?spm=a230r.1.14.6.75a43b61UiE1Wn&amp;id=596977090868&amp;cm_id=140105335569ed55e27b&amp;abbucket=5"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -2232,7 +2420,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -2240,143 +2429,15 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
-  <cols>
-    <col min="1" max="1" width="61" style="3" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.25" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
-      <c r="A1" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B2" s="1">
-        <v>9.9</v>
-      </c>
-      <c r="C2" s="1">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E2" s="1">
-        <v>326726450</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="5"/>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="5"/>
-    </row>
-    <row r="5" ht="14.25" spans="1:1">
-      <c r="A5" s="6"/>
-    </row>
-    <row r="6" ht="14.25" spans="1:1">
-      <c r="A6" s="6"/>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="5"/>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="5"/>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="5"/>
-    </row>
-    <row r="10" ht="14.25" spans="1:1">
-      <c r="A10" s="6"/>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="5"/>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="5"/>
-    </row>
-    <row r="13" ht="14.25" spans="1:1">
-      <c r="A13" s="6"/>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="5"/>
-    </row>
-    <row r="15" ht="14.25" spans="1:1">
-      <c r="A15" s="6"/>
-    </row>
-    <row r="16" ht="14.25" spans="1:1">
-      <c r="A16" s="6"/>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="5"/>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="5"/>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="5"/>
-    </row>
-    <row r="20" s="2" customFormat="1" spans="1:5">
-      <c r="A20" s="5"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="8"/>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="5"/>
-    </row>
-    <row r="23" ht="14.25" spans="1:1">
-      <c r="A23" s="9"/>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="8"/>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="5"/>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="5"/>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="5"/>
-    </row>
-    <row r="28" ht="14.25" spans="1:1">
-      <c r="A28" s="6"/>
-    </row>
-  </sheetData>
-  <sortState ref="A1:A28">
-    <sortCondition ref="A16"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/招商团长/报名活动单.xlsx
+++ b/招商团长/报名活动单.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22710" windowHeight="8760"/>
+    <workbookView windowWidth="20255" windowHeight="7812"/>
   </bookViews>
   <sheets>
     <sheet name="6月报名清单" sheetId="1" r:id="rId1"/>
     <sheet name="线下跑单list" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="7月报名单" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="118">
   <si>
     <t>店铺</t>
   </si>
@@ -319,6 +319,24 @@
     <t>起：2019-06-20 止：2019-07-24</t>
   </si>
   <si>
+    <t>震番服饰</t>
+  </si>
+  <si>
+    <t>t恤女夏新款2019宽松chic舒适短袖白色ins洋气超</t>
+  </si>
+  <si>
+    <t>起：2019-06-23 止：2019-07-26</t>
+  </si>
+  <si>
+    <t>优至美旗舰店</t>
+  </si>
+  <si>
+    <t>优至美胶原蛋白液态饮 正品官网小分子肽口服液果饮品男女性7瓶装</t>
+  </si>
+  <si>
+    <t>起：2019-06-18 止：2019-06-24</t>
+  </si>
+  <si>
     <t xml:space="preserve">商品 </t>
   </si>
   <si>
@@ -347,6 +365,12 @@
   </si>
   <si>
     <t>https://detail.tmall.com/item.htm?spm=a230r.1.14.6.75a43b61UiE1Wn&amp;id=596977090868&amp;cm_id=140105335569ed55e27b&amp;abbucket=5</t>
+  </si>
+  <si>
+    <t>店铺名称</t>
+  </si>
+  <si>
+    <t>活动起止时间</t>
   </si>
 </sst>
 </file>
@@ -359,13 +383,25 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1" tint="0.0499893185216834"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1" tint="0.0499893185216834"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -423,6 +459,34 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FF666666"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -430,6 +494,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -437,8 +533,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -459,90 +579,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -551,13 +587,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -580,187 +622,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -774,17 +816,61 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -813,61 +899,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -879,10 +921,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -891,139 +933,154 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1031,158 +1088,197 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1532,674 +1628,709 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="18.5" style="22" customWidth="1"/>
-    <col min="2" max="2" width="39.8833333333333" style="23" customWidth="1"/>
-    <col min="3" max="3" width="19.8833333333333" style="23" customWidth="1"/>
-    <col min="4" max="4" width="18.75" style="23" customWidth="1"/>
-    <col min="5" max="5" width="31.6333333333333" style="23" customWidth="1"/>
-    <col min="6" max="6" width="36.3833333333333" style="24" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="22"/>
+    <col min="1" max="1" width="18.5" style="27" customWidth="1"/>
+    <col min="2" max="2" width="39.8796296296296" style="28" customWidth="1"/>
+    <col min="3" max="3" width="19.8796296296296" style="29" customWidth="1"/>
+    <col min="4" max="4" width="18.75" style="29" customWidth="1"/>
+    <col min="5" max="5" width="31.6296296296296" style="29" customWidth="1"/>
+    <col min="6" max="6" width="36.3796296296296" style="30" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="30" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="14" customFormat="1" spans="1:6">
-      <c r="A2" s="14" t="s">
+    <row r="2" s="18" customFormat="1" spans="1:6">
+      <c r="A2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="32">
         <v>20</v>
       </c>
-      <c r="D2" s="26">
+      <c r="D2" s="32">
         <v>5</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="28"/>
-    </row>
-    <row r="3" s="14" customFormat="1" spans="2:6">
-      <c r="B3" s="25" t="s">
+      <c r="F2" s="34"/>
+    </row>
+    <row r="3" s="18" customFormat="1" spans="2:6">
+      <c r="B3" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="32">
         <v>20.01</v>
       </c>
-      <c r="D3" s="26">
+      <c r="D3" s="32">
         <v>5</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="28"/>
-    </row>
-    <row r="4" s="15" customFormat="1" spans="1:6">
-      <c r="A4" s="15" t="s">
+      <c r="F3" s="34"/>
+    </row>
+    <row r="4" s="19" customFormat="1" spans="1:6">
+      <c r="A4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="31" t="s">
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="32"/>
-    </row>
-    <row r="5" s="16" customFormat="1" spans="1:6">
-      <c r="A5" s="16" t="s">
+      <c r="F4" s="38"/>
+    </row>
+    <row r="5" s="20" customFormat="1" spans="1:6">
+      <c r="A5" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="33">
+      <c r="C5" s="40">
         <v>10.1</v>
       </c>
-      <c r="D5" s="33">
+      <c r="D5" s="40">
         <v>4</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="35"/>
-    </row>
-    <row r="6" s="15" customFormat="1" spans="1:6">
-      <c r="A6" s="15" t="s">
+      <c r="F5" s="42"/>
+    </row>
+    <row r="6" s="19" customFormat="1" spans="1:6">
+      <c r="A6" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="31" t="s">
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="32"/>
-    </row>
-    <row r="7" s="14" customFormat="1" spans="2:6">
-      <c r="B7" s="26" t="s">
+      <c r="F6" s="38"/>
+    </row>
+    <row r="7" s="18" customFormat="1" spans="2:6">
+      <c r="B7" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="32">
         <v>15</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="32">
         <v>3</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="28"/>
-    </row>
-    <row r="8" s="14" customFormat="1" spans="2:6">
-      <c r="B8" s="36" t="s">
+      <c r="F7" s="34"/>
+    </row>
+    <row r="8" s="18" customFormat="1" spans="2:6">
+      <c r="B8" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="27" t="s">
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="28"/>
-    </row>
-    <row r="9" s="17" customFormat="1" spans="1:6">
-      <c r="A9" s="17" t="s">
+      <c r="F8" s="34"/>
+    </row>
+    <row r="9" s="21" customFormat="1" spans="1:6">
+      <c r="A9" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="37">
+      <c r="C9" s="46">
         <v>10.01</v>
       </c>
-      <c r="D9" s="37">
+      <c r="D9" s="46">
         <v>4.9</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="E9" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="38" t="s">
+      <c r="F9" s="47" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" s="18" customFormat="1" spans="1:6">
-      <c r="A10" s="18" t="s">
+    <row r="10" s="22" customFormat="1" spans="1:6">
+      <c r="A10" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="39">
+      <c r="C10" s="48">
         <v>40</v>
       </c>
-      <c r="D10" s="39">
+      <c r="D10" s="48">
         <v>10</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="40"/>
-    </row>
-    <row r="11" s="14" customFormat="1" spans="2:6">
-      <c r="B11" s="26" t="s">
+      <c r="F10" s="49"/>
+    </row>
+    <row r="11" s="18" customFormat="1" spans="2:6">
+      <c r="B11" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="32">
         <v>25.2</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D11" s="32">
         <v>4</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="28"/>
-    </row>
-    <row r="12" s="14" customFormat="1" spans="2:6">
-      <c r="B12" s="36" t="s">
+      <c r="F11" s="34"/>
+    </row>
+    <row r="12" s="18" customFormat="1" spans="2:6">
+      <c r="B12" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C12" s="32">
         <v>6</v>
       </c>
-      <c r="D12" s="26">
+      <c r="D12" s="32">
         <v>5</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="E12" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="28"/>
-    </row>
-    <row r="13" s="19" customFormat="1" spans="1:6">
-      <c r="A13" s="19" t="s">
+      <c r="F12" s="34"/>
+    </row>
+    <row r="13" s="23" customFormat="1" spans="1:6">
+      <c r="A13" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="29">
+      <c r="C13" s="48">
         <v>5.2</v>
       </c>
-      <c r="D13" s="29">
+      <c r="D13" s="48">
         <v>4</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="E13" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="41"/>
-    </row>
-    <row r="14" s="16" customFormat="1" spans="1:6">
-      <c r="A14" s="16" t="s">
+      <c r="F13" s="50"/>
+    </row>
+    <row r="14" s="20" customFormat="1" spans="1:6">
+      <c r="A14" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="33">
+      <c r="C14" s="40">
         <v>10.1</v>
       </c>
-      <c r="D14" s="33">
+      <c r="D14" s="40">
         <v>5</v>
       </c>
-      <c r="E14" s="33" t="s">
+      <c r="E14" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="35"/>
-    </row>
-    <row r="15" s="14" customFormat="1" spans="1:6">
-      <c r="A15" s="14" t="s">
+      <c r="F14" s="42"/>
+    </row>
+    <row r="15" s="24" customFormat="1" spans="1:6">
+      <c r="A15" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="26">
+      <c r="C15" s="52">
         <v>18.01</v>
       </c>
-      <c r="D15" s="26">
+      <c r="D15" s="52">
         <v>2</v>
       </c>
-      <c r="E15" s="42" t="s">
+      <c r="E15" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="28"/>
-    </row>
-    <row r="16" s="14" customFormat="1" spans="2:6">
-      <c r="B16" s="26" t="s">
+      <c r="F15" s="54"/>
+    </row>
+    <row r="16" s="24" customFormat="1" spans="2:6">
+      <c r="B16" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="26">
+      <c r="C16" s="52">
         <v>10</v>
       </c>
-      <c r="D16" s="26">
+      <c r="D16" s="52">
         <v>2</v>
       </c>
-      <c r="E16" s="42" t="s">
+      <c r="E16" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="28"/>
-    </row>
-    <row r="17" s="14" customFormat="1" spans="2:6">
-      <c r="B17" s="26" t="s">
+      <c r="F16" s="54"/>
+    </row>
+    <row r="17" s="24" customFormat="1" spans="2:6">
+      <c r="B17" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="26">
+      <c r="C17" s="52">
         <v>15</v>
       </c>
-      <c r="D17" s="26">
+      <c r="D17" s="52">
         <v>2</v>
       </c>
-      <c r="E17" s="42" t="s">
+      <c r="E17" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="28"/>
-    </row>
-    <row r="18" s="18" customFormat="1" spans="1:6">
-      <c r="A18" s="18" t="s">
+      <c r="F17" s="54"/>
+    </row>
+    <row r="18" s="24" customFormat="1" spans="1:6">
+      <c r="A18" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="39">
+      <c r="C18" s="52">
         <v>20.6</v>
       </c>
-      <c r="D18" s="39">
+      <c r="D18" s="52">
         <v>3.01</v>
       </c>
-      <c r="E18" s="42" t="s">
+      <c r="E18" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="40"/>
-    </row>
-    <row r="19" s="14" customFormat="1" spans="1:6">
-      <c r="A19" s="14" t="s">
+      <c r="F18" s="54"/>
+    </row>
+    <row r="19" s="18" customFormat="1" spans="1:6">
+      <c r="A19" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="26">
+      <c r="C19" s="32">
         <v>3.6</v>
       </c>
-      <c r="D19" s="26">
+      <c r="D19" s="32">
         <v>4</v>
       </c>
-      <c r="E19" s="26" t="s">
+      <c r="E19" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="28"/>
-    </row>
-    <row r="20" s="14" customFormat="1" spans="1:6">
-      <c r="A20" s="14" t="s">
+      <c r="F19" s="34"/>
+    </row>
+    <row r="20" s="18" customFormat="1" spans="1:6">
+      <c r="A20" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="26">
+      <c r="C20" s="36">
         <v>25.1</v>
       </c>
-      <c r="D20" s="26">
+      <c r="D20" s="36">
         <v>4.9</v>
       </c>
-      <c r="E20" s="30" t="s">
+      <c r="E20" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="F20" s="28"/>
-    </row>
-    <row r="21" s="14" customFormat="1" spans="2:6">
-      <c r="B21" s="26" t="s">
+      <c r="F20" s="34"/>
+    </row>
+    <row r="21" s="18" customFormat="1" spans="2:6">
+      <c r="B21" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="26">
+      <c r="C21" s="32">
         <v>20</v>
       </c>
-      <c r="D21" s="26">
+      <c r="D21" s="32">
         <v>5</v>
       </c>
-      <c r="E21" s="26" t="s">
+      <c r="E21" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="28"/>
-    </row>
-    <row r="22" s="14" customFormat="1" spans="1:6">
-      <c r="A22" s="14" t="s">
+      <c r="F21" s="34"/>
+    </row>
+    <row r="22" s="18" customFormat="1" spans="1:6">
+      <c r="A22" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="26">
+      <c r="C22" s="32">
         <v>15</v>
       </c>
-      <c r="D22" s="26">
+      <c r="D22" s="32">
         <v>5</v>
       </c>
-      <c r="E22" s="26" t="s">
+      <c r="E22" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="F22" s="28"/>
-    </row>
-    <row r="23" s="14" customFormat="1" spans="1:6">
-      <c r="A23" s="14" t="s">
+      <c r="F22" s="34"/>
+    </row>
+    <row r="23" s="18" customFormat="1" spans="1:6">
+      <c r="A23" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="26">
+      <c r="C23" s="32">
         <v>30.1</v>
       </c>
-      <c r="D23" s="26">
+      <c r="D23" s="32">
         <v>3</v>
       </c>
-      <c r="E23" s="26" t="s">
+      <c r="E23" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="F23" s="28"/>
-    </row>
-    <row r="24" s="14" customFormat="1" spans="1:6">
-      <c r="A24" s="14" t="s">
+      <c r="F23" s="34"/>
+    </row>
+    <row r="24" s="18" customFormat="1" spans="1:6">
+      <c r="A24" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="26">
+      <c r="C24" s="32">
         <v>4.5</v>
       </c>
-      <c r="D24" s="26">
+      <c r="D24" s="32">
         <v>2.5</v>
       </c>
-      <c r="E24" s="26" t="s">
+      <c r="E24" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="F24" s="28"/>
-    </row>
-    <row r="25" s="14" customFormat="1" spans="1:6">
-      <c r="A25" s="14" t="s">
+      <c r="F24" s="34"/>
+    </row>
+    <row r="25" s="18" customFormat="1" spans="1:6">
+      <c r="A25" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="26">
+      <c r="C25" s="32">
         <v>3.01</v>
       </c>
-      <c r="D25" s="26">
+      <c r="D25" s="32">
         <v>2</v>
       </c>
-      <c r="E25" s="26" t="s">
+      <c r="E25" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="F25" s="28"/>
-    </row>
-    <row r="26" s="15" customFormat="1" spans="1:6">
-      <c r="A26" s="15" t="s">
+      <c r="F25" s="34"/>
+    </row>
+    <row r="26" s="19" customFormat="1" spans="1:6">
+      <c r="A26" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="30">
+      <c r="C26" s="36">
         <v>25</v>
       </c>
-      <c r="D26" s="30">
+      <c r="D26" s="36">
         <v>5</v>
       </c>
-      <c r="E26" s="30" t="s">
+      <c r="E26" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="F26" s="32"/>
-    </row>
-    <row r="27" s="14" customFormat="1" spans="1:6">
-      <c r="A27" s="14" t="s">
+      <c r="F26" s="38"/>
+    </row>
+    <row r="27" s="18" customFormat="1" spans="1:6">
+      <c r="A27" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="26">
+      <c r="C27" s="32">
         <v>20</v>
       </c>
-      <c r="D27" s="26">
+      <c r="D27" s="32">
         <v>5</v>
       </c>
-      <c r="E27" s="26" t="s">
+      <c r="E27" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="F27" s="28"/>
-    </row>
-    <row r="28" s="14" customFormat="1" spans="1:6">
-      <c r="A28" s="14" t="s">
+      <c r="F27" s="34"/>
+    </row>
+    <row r="28" s="18" customFormat="1" spans="1:6">
+      <c r="A28" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="B28" s="26" t="s">
+      <c r="B28" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="26">
+      <c r="C28" s="32">
         <v>6</v>
       </c>
-      <c r="D28" s="26">
+      <c r="D28" s="32">
         <v>5</v>
       </c>
-      <c r="E28" s="26" t="s">
+      <c r="E28" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="F28" s="28"/>
-    </row>
-    <row r="29" s="20" customFormat="1" spans="1:6">
-      <c r="A29" s="20" t="s">
+      <c r="F28" s="34"/>
+    </row>
+    <row r="29" s="25" customFormat="1" spans="1:6">
+      <c r="A29" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="B29" s="43" t="s">
+      <c r="B29" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="C29" s="43">
+      <c r="C29" s="56">
         <v>25.11</v>
       </c>
-      <c r="D29" s="43">
+      <c r="D29" s="56">
         <v>3</v>
       </c>
-      <c r="E29" s="43" t="s">
+      <c r="E29" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="F29" s="44"/>
-    </row>
-    <row r="30" s="14" customFormat="1" spans="1:6">
-      <c r="A30" s="25" t="s">
+      <c r="F29" s="57"/>
+    </row>
+    <row r="30" s="18" customFormat="1" spans="1:6">
+      <c r="A30" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="B30" s="36" t="s">
+      <c r="B30" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="C30" s="26">
+      <c r="C30" s="32">
         <v>20.1</v>
       </c>
-      <c r="D30" s="26">
+      <c r="D30" s="32">
         <v>5</v>
       </c>
-      <c r="E30" s="26" t="s">
+      <c r="E30" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="F30" s="28"/>
-    </row>
-    <row r="31" s="19" customFormat="1" spans="1:6">
-      <c r="A31" s="45" t="s">
+      <c r="F30" s="34"/>
+    </row>
+    <row r="31" s="23" customFormat="1" spans="1:6">
+      <c r="A31" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="B31" s="46" t="s">
+      <c r="B31" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="29">
+      <c r="C31" s="48">
         <v>10</v>
       </c>
-      <c r="D31" s="29">
+      <c r="D31" s="48">
         <v>5</v>
       </c>
-      <c r="E31" s="29" t="s">
+      <c r="E31" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="F31" s="41"/>
-    </row>
-    <row r="32" s="18" customFormat="1" spans="1:6">
-      <c r="A32" s="47" t="s">
+      <c r="F31" s="50"/>
+    </row>
+    <row r="32" s="22" customFormat="1" spans="1:6">
+      <c r="A32" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="B32" s="48" t="s">
+      <c r="B32" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="C32" s="39">
+      <c r="C32" s="63">
         <v>6.2</v>
       </c>
-      <c r="D32" s="39">
+      <c r="D32" s="63">
         <v>3</v>
       </c>
-      <c r="E32" s="39" t="s">
+      <c r="E32" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="F32" s="40"/>
-    </row>
-    <row r="33" s="14" customFormat="1" spans="1:6">
-      <c r="A33" s="25" t="s">
+      <c r="F32" s="49"/>
+    </row>
+    <row r="33" s="18" customFormat="1" spans="1:6">
+      <c r="A33" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="B33" s="36" t="s">
+      <c r="B33" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="C33" s="26">
+      <c r="C33" s="32">
         <v>20</v>
       </c>
-      <c r="D33" s="26">
+      <c r="D33" s="32">
         <v>5</v>
       </c>
-      <c r="E33" s="26" t="s">
+      <c r="E33" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="F33" s="28"/>
-    </row>
-    <row r="34" s="14" customFormat="1" spans="1:6">
-      <c r="A34" s="25" t="s">
+      <c r="F33" s="34"/>
+    </row>
+    <row r="34" s="18" customFormat="1" spans="1:6">
+      <c r="A34" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="B34" s="36" t="s">
+      <c r="B34" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="C34" s="26">
+      <c r="C34" s="32">
         <v>15</v>
       </c>
-      <c r="D34" s="26">
+      <c r="D34" s="32">
         <v>5</v>
       </c>
-      <c r="E34" s="26" t="s">
+      <c r="E34" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="F34" s="28"/>
-    </row>
-    <row r="35" s="21" customFormat="1" spans="1:6">
-      <c r="A35" s="49" t="s">
+      <c r="F34" s="34"/>
+    </row>
+    <row r="35" s="26" customFormat="1" spans="1:6">
+      <c r="A35" s="64" t="s">
         <v>89</v>
       </c>
-      <c r="B35" s="50" t="s">
+      <c r="B35" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="C35" s="51">
+      <c r="C35" s="66">
         <v>21</v>
       </c>
-      <c r="D35" s="51">
+      <c r="D35" s="66">
         <v>10</v>
       </c>
-      <c r="E35" s="51" t="s">
+      <c r="E35" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="F35" s="52"/>
-    </row>
-    <row r="36" s="14" customFormat="1" spans="1:6">
-      <c r="A36" s="25" t="s">
+      <c r="F35" s="67"/>
+    </row>
+    <row r="36" s="18" customFormat="1" spans="1:6">
+      <c r="A36" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="B36" s="36" t="s">
+      <c r="B36" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="C36" s="26">
+      <c r="C36" s="32">
         <v>2</v>
       </c>
-      <c r="D36" s="53" t="s">
+      <c r="D36" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="E36" s="26" t="s">
+      <c r="E36" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="F36" s="28"/>
-    </row>
-    <row r="37" s="14" customFormat="1" spans="1:6">
-      <c r="A37" s="25" t="s">
+      <c r="F36" s="34"/>
+    </row>
+    <row r="37" s="18" customFormat="1" spans="1:6">
+      <c r="A37" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="B37" s="36" t="s">
+      <c r="B37" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="C37" s="26">
+      <c r="C37" s="32">
         <v>6.12</v>
       </c>
-      <c r="D37" s="26">
+      <c r="D37" s="32">
         <v>3</v>
       </c>
-      <c r="E37" s="26" t="s">
+      <c r="E37" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="F37" s="28"/>
-    </row>
-    <row r="38" s="14" customFormat="1" spans="1:6">
-      <c r="A38" s="25" t="s">
+      <c r="F37" s="34"/>
+    </row>
+    <row r="38" s="18" customFormat="1" spans="1:6">
+      <c r="A38" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="B38" s="36" t="s">
+      <c r="B38" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="C38" s="26">
+      <c r="C38" s="32">
         <v>10.2</v>
       </c>
-      <c r="D38" s="26">
+      <c r="D38" s="32">
         <v>3</v>
       </c>
-      <c r="E38" s="26" t="s">
+      <c r="E38" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="F38" s="28"/>
+      <c r="F38" s="34"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="69" t="s">
+        <v>100</v>
+      </c>
+      <c r="B39" s="70" t="s">
+        <v>101</v>
+      </c>
+      <c r="C39" s="29">
+        <v>20</v>
+      </c>
+      <c r="D39" s="29">
+        <v>10</v>
+      </c>
+      <c r="E39" s="29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" s="19" customFormat="1" spans="1:6">
+      <c r="A40" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B40" s="71" t="s">
+        <v>104</v>
+      </c>
+      <c r="C40" s="36">
+        <v>31</v>
+      </c>
+      <c r="D40" s="36">
+        <v>6</v>
+      </c>
+      <c r="E40" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="F40" s="38"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2225,6 +2356,8 @@
     <hyperlink ref="B38" r:id="rId12" display="雪峰斋游龙戏墨羊紫兼毫大中小 * 20 款文房墨宝" tooltip="http://item.taobao.com/item.htm?spm=a219t.7900221.1998910419.dafc012e7.346275a5xFYujs&amp;id=583055833737"/>
     <hyperlink ref="B2" r:id="rId13" display="手机挂绳挂脖绳手机壳吊绳苹果男女新款个性创意宽" tooltip="http://item.taobao.com/item.htm?spm=a219t.7900221.1998910419.dafc012e7.346275a5vKGwCR&amp;id=586749303714"/>
     <hyperlink ref="B3" r:id="rId14" display="华为nova4手机壳硅胶nova3全包防摔nova4e透明no" tooltip="http://item.taobao.com/item.htm?spm=a219t.7900221.1998910419.dafc012e7.346275a5vKGwCR&amp;id=596731806027"/>
+    <hyperlink ref="A39" r:id="rId1" display="震番服饰" tooltip="点击进入店铺推广详情页"/>
+    <hyperlink ref="B39" r:id="rId15" display="t恤女夏新款2019宽松chic舒适短袖白色ins洋气超" tooltip="http://item.taobao.com/item.htm?id=596139709466"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2237,163 +2370,163 @@
   <sheetPr/>
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.125" customWidth="1"/>
-    <col min="2" max="2" width="53.25" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.375" style="1" customWidth="1"/>
-    <col min="4" max="6" width="8.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="26.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5" style="4" customWidth="1"/>
+    <col min="1" max="1" width="18.1296296296296" customWidth="1"/>
+    <col min="2" max="2" width="53.25" style="8" customWidth="1"/>
+    <col min="3" max="3" width="12.3796296296296" style="6" customWidth="1"/>
+    <col min="4" max="6" width="8.37962962962963" style="6" customWidth="1"/>
+    <col min="7" max="7" width="26.75" style="6" customWidth="1"/>
+    <col min="8" max="8" width="13.25" style="6" customWidth="1"/>
+    <col min="9" max="9" width="17.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="6" customFormat="1" spans="1:9">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="B1" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>105</v>
+      <c r="G1" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="A2" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="6">
         <v>9.9</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="6">
         <v>10</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="6">
         <v>20</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="6">
         <v>10</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="H2" s="1">
+      <c r="G2" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="H2" s="6">
         <v>326726450</v>
       </c>
-      <c r="I2" s="12" t="s">
-        <v>109</v>
+      <c r="I2" s="16" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="2:2">
-      <c r="B3" s="7"/>
+      <c r="B3" s="11"/>
     </row>
     <row r="4" spans="2:2">
-      <c r="B4" s="7"/>
-    </row>
-    <row r="5" ht="14.25" spans="2:2">
-      <c r="B5" s="8"/>
-    </row>
-    <row r="6" ht="14.25" spans="2:2">
-      <c r="B6" s="8"/>
+      <c r="B4" s="11"/>
+    </row>
+    <row r="5" ht="14.4" spans="2:2">
+      <c r="B5" s="12"/>
+    </row>
+    <row r="6" ht="14.4" spans="2:2">
+      <c r="B6" s="12"/>
     </row>
     <row r="7" spans="2:2">
-      <c r="B7" s="7"/>
+      <c r="B7" s="11"/>
     </row>
     <row r="8" spans="2:2">
-      <c r="B8" s="7"/>
+      <c r="B8" s="11"/>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="7"/>
-    </row>
-    <row r="10" ht="14.25" spans="2:2">
-      <c r="B10" s="8"/>
+      <c r="B9" s="11"/>
+    </row>
+    <row r="10" ht="14.4" spans="2:2">
+      <c r="B10" s="12"/>
     </row>
     <row r="11" spans="2:2">
-      <c r="B11" s="7"/>
+      <c r="B11" s="11"/>
     </row>
     <row r="12" spans="2:2">
-      <c r="B12" s="7"/>
-    </row>
-    <row r="13" ht="14.25" spans="2:2">
-      <c r="B13" s="8"/>
+      <c r="B12" s="11"/>
+    </row>
+    <row r="13" ht="14.4" spans="2:2">
+      <c r="B13" s="12"/>
     </row>
     <row r="14" spans="2:2">
-      <c r="B14" s="7"/>
-    </row>
-    <row r="15" ht="14.25" spans="2:2">
-      <c r="B15" s="8"/>
-    </row>
-    <row r="16" ht="14.25" spans="2:2">
-      <c r="B16" s="8"/>
+      <c r="B14" s="11"/>
+    </row>
+    <row r="15" ht="14.4" spans="2:2">
+      <c r="B15" s="12"/>
+    </row>
+    <row r="16" ht="14.4" spans="2:2">
+      <c r="B16" s="12"/>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="7"/>
+      <c r="B17" s="11"/>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="7"/>
+      <c r="B18" s="11"/>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="7"/>
-    </row>
-    <row r="20" s="2" customFormat="1" spans="2:9">
-      <c r="B20" s="7"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="13"/>
+      <c r="B19" s="11"/>
+    </row>
+    <row r="20" s="7" customFormat="1" spans="2:9">
+      <c r="B20" s="11"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="17"/>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="10"/>
+      <c r="B21" s="14"/>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="7"/>
-    </row>
-    <row r="23" ht="14.25" spans="2:2">
-      <c r="B23" s="11"/>
+      <c r="B22" s="11"/>
+    </row>
+    <row r="23" ht="14.4" spans="2:2">
+      <c r="B23" s="15"/>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="10"/>
+      <c r="B24" s="14"/>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="7"/>
+      <c r="B25" s="11"/>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="7"/>
+      <c r="B26" s="11"/>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="7"/>
-    </row>
-    <row r="28" ht="14.25" spans="2:2">
-      <c r="B28" s="8"/>
+      <c r="B27" s="11"/>
+    </row>
+    <row r="28" ht="14.4" spans="2:2">
+      <c r="B28" s="12"/>
     </row>
   </sheetData>
   <sortState ref="B1:B28">
@@ -2412,14 +2545,47 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="20.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="47" customWidth="1"/>
+    <col min="3" max="3" width="19.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="17.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="16.2222222222222" customWidth="1"/>
+    <col min="6" max="6" width="35.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:7">
+      <c r="A1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -2435,7 +2601,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/招商团长/报名活动单.xlsx
+++ b/招商团长/报名活动单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20255" windowHeight="7812"/>
+    <workbookView windowWidth="20255" windowHeight="7812" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="6月报名清单" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="118">
   <si>
     <t>店铺</t>
   </si>
@@ -379,23 +379,17 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1" tint="0.0499893185216834"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -473,7 +467,121 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -486,120 +594,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -622,181 +616,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -813,6 +807,65 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -840,65 +893,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -921,149 +915,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1073,10 +1067,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1088,76 +1079,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1169,115 +1169,91 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1630,707 +1606,707 @@
   <sheetPr/>
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="18.5" style="27" customWidth="1"/>
-    <col min="2" max="2" width="39.8796296296296" style="28" customWidth="1"/>
-    <col min="3" max="3" width="19.8796296296296" style="29" customWidth="1"/>
-    <col min="4" max="4" width="18.75" style="29" customWidth="1"/>
-    <col min="5" max="5" width="31.6296296296296" style="29" customWidth="1"/>
-    <col min="6" max="6" width="36.3796296296296" style="30" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="27"/>
+    <col min="1" max="1" width="18.5" style="25" customWidth="1"/>
+    <col min="2" max="2" width="39.8796296296296" style="26" customWidth="1"/>
+    <col min="3" max="3" width="19.8796296296296" style="27" customWidth="1"/>
+    <col min="4" max="4" width="18.75" style="27" customWidth="1"/>
+    <col min="5" max="5" width="31.6296296296296" style="27" customWidth="1"/>
+    <col min="6" max="6" width="36.3796296296296" style="28" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="28" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="18" customFormat="1" spans="1:6">
-      <c r="A2" s="18" t="s">
+    <row r="2" s="17" customFormat="1" spans="1:6">
+      <c r="A2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="32">
+      <c r="C2" s="30">
         <v>20</v>
       </c>
-      <c r="D2" s="32">
+      <c r="D2" s="30">
         <v>5</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="34"/>
-    </row>
-    <row r="3" s="18" customFormat="1" spans="2:6">
-      <c r="B3" s="31" t="s">
+      <c r="F2" s="32"/>
+    </row>
+    <row r="3" s="17" customFormat="1" spans="2:6">
+      <c r="B3" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="32">
+      <c r="C3" s="30">
         <v>20.01</v>
       </c>
-      <c r="D3" s="32">
+      <c r="D3" s="30">
         <v>5</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="34"/>
-    </row>
-    <row r="4" s="19" customFormat="1" spans="1:6">
-      <c r="A4" s="19" t="s">
+      <c r="F3" s="32"/>
+    </row>
+    <row r="4" s="18" customFormat="1" spans="1:6">
+      <c r="A4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="37" t="s">
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="38"/>
-    </row>
-    <row r="5" s="20" customFormat="1" spans="1:6">
-      <c r="A5" s="20" t="s">
+      <c r="F4" s="36"/>
+    </row>
+    <row r="5" s="19" customFormat="1" spans="1:6">
+      <c r="A5" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="40">
+      <c r="C5" s="38">
         <v>10.1</v>
       </c>
-      <c r="D5" s="40">
+      <c r="D5" s="38">
         <v>4</v>
       </c>
-      <c r="E5" s="41" t="s">
+      <c r="E5" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="42"/>
-    </row>
-    <row r="6" s="19" customFormat="1" spans="1:6">
-      <c r="A6" s="19" t="s">
+      <c r="F5" s="40"/>
+    </row>
+    <row r="6" s="18" customFormat="1" spans="1:6">
+      <c r="A6" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="37" t="s">
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="38"/>
-    </row>
-    <row r="7" s="18" customFormat="1" spans="2:6">
-      <c r="B7" s="44" t="s">
+      <c r="F6" s="36"/>
+    </row>
+    <row r="7" s="17" customFormat="1" spans="2:6">
+      <c r="B7" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="32">
+      <c r="C7" s="30">
         <v>15</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D7" s="30">
         <v>3</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="34"/>
-    </row>
-    <row r="8" s="18" customFormat="1" spans="2:6">
-      <c r="B8" s="31" t="s">
+      <c r="F7" s="32"/>
+    </row>
+    <row r="8" s="17" customFormat="1" spans="2:6">
+      <c r="B8" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="33" t="s">
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="34"/>
-    </row>
-    <row r="9" s="21" customFormat="1" spans="1:6">
-      <c r="A9" s="21" t="s">
+      <c r="F8" s="32"/>
+    </row>
+    <row r="9" s="20" customFormat="1" spans="1:6">
+      <c r="A9" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="46">
+      <c r="C9" s="44">
         <v>10.01</v>
       </c>
-      <c r="D9" s="46">
+      <c r="D9" s="44">
         <v>4.9</v>
       </c>
-      <c r="E9" s="46" t="s">
+      <c r="E9" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="47" t="s">
+      <c r="F9" s="45" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" s="22" customFormat="1" spans="1:6">
-      <c r="A10" s="22" t="s">
+    <row r="10" s="21" customFormat="1" spans="1:6">
+      <c r="A10" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="48">
+      <c r="C10" s="46">
         <v>40</v>
       </c>
-      <c r="D10" s="48">
+      <c r="D10" s="46">
         <v>10</v>
       </c>
-      <c r="E10" s="48" t="s">
+      <c r="E10" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="49"/>
-    </row>
-    <row r="11" s="18" customFormat="1" spans="2:6">
-      <c r="B11" s="44" t="s">
+      <c r="F10" s="47"/>
+    </row>
+    <row r="11" s="17" customFormat="1" spans="2:6">
+      <c r="B11" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="32">
+      <c r="C11" s="30">
         <v>25.2</v>
       </c>
-      <c r="D11" s="32">
+      <c r="D11" s="30">
         <v>4</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="E11" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="34"/>
-    </row>
-    <row r="12" s="18" customFormat="1" spans="2:6">
-      <c r="B12" s="31" t="s">
+      <c r="F11" s="32"/>
+    </row>
+    <row r="12" s="17" customFormat="1" spans="2:6">
+      <c r="B12" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="32">
+      <c r="C12" s="30">
         <v>6</v>
       </c>
-      <c r="D12" s="32">
+      <c r="D12" s="30">
         <v>5</v>
       </c>
-      <c r="E12" s="32" t="s">
+      <c r="E12" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="34"/>
-    </row>
-    <row r="13" s="23" customFormat="1" spans="1:6">
-      <c r="A13" s="23" t="s">
+      <c r="F12" s="32"/>
+    </row>
+    <row r="13" s="22" customFormat="1" spans="1:6">
+      <c r="A13" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="48">
+      <c r="C13" s="46">
         <v>5.2</v>
       </c>
-      <c r="D13" s="48">
+      <c r="D13" s="46">
         <v>4</v>
       </c>
-      <c r="E13" s="48" t="s">
+      <c r="E13" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="50"/>
-    </row>
-    <row r="14" s="20" customFormat="1" spans="1:6">
-      <c r="A14" s="20" t="s">
+      <c r="F13" s="48"/>
+    </row>
+    <row r="14" s="19" customFormat="1" spans="1:6">
+      <c r="A14" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="40">
+      <c r="C14" s="38">
         <v>10.1</v>
       </c>
-      <c r="D14" s="40">
+      <c r="D14" s="38">
         <v>5</v>
       </c>
-      <c r="E14" s="40" t="s">
+      <c r="E14" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="42"/>
-    </row>
-    <row r="15" s="24" customFormat="1" spans="1:6">
-      <c r="A15" s="24" t="s">
+      <c r="F14" s="40"/>
+    </row>
+    <row r="15" s="23" customFormat="1" spans="1:6">
+      <c r="A15" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="52">
+      <c r="C15" s="50">
         <v>18.01</v>
       </c>
-      <c r="D15" s="52">
+      <c r="D15" s="50">
         <v>2</v>
       </c>
-      <c r="E15" s="53" t="s">
+      <c r="E15" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="54"/>
-    </row>
-    <row r="16" s="24" customFormat="1" spans="2:6">
-      <c r="B16" s="51" t="s">
+      <c r="F15" s="52"/>
+    </row>
+    <row r="16" s="23" customFormat="1" spans="2:6">
+      <c r="B16" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="52">
+      <c r="C16" s="50">
         <v>10</v>
       </c>
-      <c r="D16" s="52">
+      <c r="D16" s="50">
         <v>2</v>
       </c>
-      <c r="E16" s="53" t="s">
+      <c r="E16" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="54"/>
-    </row>
-    <row r="17" s="24" customFormat="1" spans="2:6">
-      <c r="B17" s="51" t="s">
+      <c r="F16" s="52"/>
+    </row>
+    <row r="17" s="23" customFormat="1" spans="2:6">
+      <c r="B17" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="52">
+      <c r="C17" s="50">
         <v>15</v>
       </c>
-      <c r="D17" s="52">
+      <c r="D17" s="50">
         <v>2</v>
       </c>
-      <c r="E17" s="53" t="s">
+      <c r="E17" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="54"/>
-    </row>
-    <row r="18" s="24" customFormat="1" spans="1:6">
-      <c r="A18" s="24" t="s">
+      <c r="F17" s="52"/>
+    </row>
+    <row r="18" s="23" customFormat="1" spans="1:6">
+      <c r="A18" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="52">
+      <c r="C18" s="50">
         <v>20.6</v>
       </c>
-      <c r="D18" s="52">
+      <c r="D18" s="50">
         <v>3.01</v>
       </c>
-      <c r="E18" s="53" t="s">
+      <c r="E18" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="54"/>
-    </row>
-    <row r="19" s="18" customFormat="1" spans="1:6">
-      <c r="A19" s="18" t="s">
+      <c r="F18" s="52"/>
+    </row>
+    <row r="19" s="17" customFormat="1" spans="1:6">
+      <c r="A19" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="32">
+      <c r="C19" s="30">
         <v>3.6</v>
       </c>
-      <c r="D19" s="32">
+      <c r="D19" s="30">
         <v>4</v>
       </c>
-      <c r="E19" s="32" t="s">
+      <c r="E19" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="34"/>
-    </row>
-    <row r="20" s="18" customFormat="1" spans="1:6">
-      <c r="A20" s="18" t="s">
+      <c r="F19" s="32"/>
+    </row>
+    <row r="20" s="17" customFormat="1" spans="1:6">
+      <c r="A20" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="36">
+      <c r="C20" s="34">
         <v>25.1</v>
       </c>
-      <c r="D20" s="36">
+      <c r="D20" s="34">
         <v>4.9</v>
       </c>
-      <c r="E20" s="36" t="s">
+      <c r="E20" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="F20" s="34"/>
-    </row>
-    <row r="21" s="18" customFormat="1" spans="2:6">
-      <c r="B21" s="44" t="s">
+      <c r="F20" s="32"/>
+    </row>
+    <row r="21" s="17" customFormat="1" spans="2:6">
+      <c r="B21" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="32">
+      <c r="C21" s="30">
         <v>20</v>
       </c>
-      <c r="D21" s="32">
+      <c r="D21" s="30">
         <v>5</v>
       </c>
-      <c r="E21" s="32" t="s">
+      <c r="E21" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="34"/>
-    </row>
-    <row r="22" s="18" customFormat="1" spans="1:6">
-      <c r="A22" s="18" t="s">
+      <c r="F21" s="32"/>
+    </row>
+    <row r="22" s="17" customFormat="1" spans="1:6">
+      <c r="A22" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="44" t="s">
+      <c r="B22" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="32">
+      <c r="C22" s="30">
         <v>15</v>
       </c>
-      <c r="D22" s="32">
+      <c r="D22" s="30">
         <v>5</v>
       </c>
-      <c r="E22" s="32" t="s">
+      <c r="E22" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="F22" s="34"/>
-    </row>
-    <row r="23" s="18" customFormat="1" spans="1:6">
-      <c r="A23" s="18" t="s">
+      <c r="F22" s="32"/>
+    </row>
+    <row r="23" s="17" customFormat="1" spans="1:6">
+      <c r="A23" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="44" t="s">
+      <c r="B23" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="32">
+      <c r="C23" s="30">
         <v>30.1</v>
       </c>
-      <c r="D23" s="32">
+      <c r="D23" s="30">
         <v>3</v>
       </c>
-      <c r="E23" s="32" t="s">
+      <c r="E23" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="F23" s="34"/>
-    </row>
-    <row r="24" s="18" customFormat="1" spans="1:6">
-      <c r="A24" s="18" t="s">
+      <c r="F23" s="32"/>
+    </row>
+    <row r="24" s="17" customFormat="1" spans="1:6">
+      <c r="A24" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="44" t="s">
+      <c r="B24" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="32">
+      <c r="C24" s="30">
         <v>4.5</v>
       </c>
-      <c r="D24" s="32">
+      <c r="D24" s="30">
         <v>2.5</v>
       </c>
-      <c r="E24" s="32" t="s">
+      <c r="E24" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="F24" s="34"/>
-    </row>
-    <row r="25" s="18" customFormat="1" spans="1:6">
-      <c r="A25" s="18" t="s">
+      <c r="F24" s="32"/>
+    </row>
+    <row r="25" s="17" customFormat="1" spans="1:6">
+      <c r="A25" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="44" t="s">
+      <c r="B25" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="32">
+      <c r="C25" s="30">
         <v>3.01</v>
       </c>
-      <c r="D25" s="32">
+      <c r="D25" s="30">
         <v>2</v>
       </c>
-      <c r="E25" s="32" t="s">
+      <c r="E25" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="F25" s="34"/>
-    </row>
-    <row r="26" s="19" customFormat="1" spans="1:6">
-      <c r="A26" s="19" t="s">
+      <c r="F25" s="32"/>
+    </row>
+    <row r="26" s="18" customFormat="1" spans="1:6">
+      <c r="A26" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="43" t="s">
+      <c r="B26" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="36">
+      <c r="C26" s="34">
         <v>25</v>
       </c>
-      <c r="D26" s="36">
+      <c r="D26" s="34">
         <v>5</v>
       </c>
-      <c r="E26" s="36" t="s">
+      <c r="E26" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="F26" s="38"/>
-    </row>
-    <row r="27" s="18" customFormat="1" spans="1:6">
-      <c r="A27" s="18" t="s">
+      <c r="F26" s="36"/>
+    </row>
+    <row r="27" s="17" customFormat="1" spans="1:6">
+      <c r="A27" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="44" t="s">
+      <c r="B27" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="32">
+      <c r="C27" s="30">
         <v>20</v>
       </c>
-      <c r="D27" s="32">
+      <c r="D27" s="30">
         <v>5</v>
       </c>
-      <c r="E27" s="32" t="s">
+      <c r="E27" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="F27" s="34"/>
-    </row>
-    <row r="28" s="18" customFormat="1" spans="1:6">
-      <c r="A28" s="18" t="s">
+      <c r="F27" s="32"/>
+    </row>
+    <row r="28" s="17" customFormat="1" spans="1:6">
+      <c r="A28" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="B28" s="44" t="s">
+      <c r="B28" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="32">
+      <c r="C28" s="30">
         <v>6</v>
       </c>
-      <c r="D28" s="32">
+      <c r="D28" s="30">
         <v>5</v>
       </c>
-      <c r="E28" s="32" t="s">
+      <c r="E28" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="F28" s="34"/>
-    </row>
-    <row r="29" s="25" customFormat="1" spans="1:6">
-      <c r="A29" s="25" t="s">
+      <c r="F28" s="32"/>
+    </row>
+    <row r="29" s="24" customFormat="1" spans="1:6">
+      <c r="A29" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="B29" s="55" t="s">
+      <c r="B29" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="C29" s="56">
+      <c r="C29" s="54">
         <v>25.11</v>
       </c>
-      <c r="D29" s="56">
+      <c r="D29" s="54">
         <v>3</v>
       </c>
-      <c r="E29" s="56" t="s">
+      <c r="E29" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="F29" s="57"/>
-    </row>
-    <row r="30" s="18" customFormat="1" spans="1:6">
-      <c r="A30" s="58" t="s">
+      <c r="F29" s="55"/>
+    </row>
+    <row r="30" s="17" customFormat="1" spans="1:6">
+      <c r="A30" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="C30" s="32">
+      <c r="C30" s="30">
         <v>20.1</v>
       </c>
-      <c r="D30" s="32">
+      <c r="D30" s="30">
         <v>5</v>
       </c>
-      <c r="E30" s="32" t="s">
+      <c r="E30" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="F30" s="34"/>
-    </row>
-    <row r="31" s="23" customFormat="1" spans="1:6">
-      <c r="A31" s="59" t="s">
+      <c r="F30" s="32"/>
+    </row>
+    <row r="31" s="22" customFormat="1" spans="1:6">
+      <c r="A31" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="B31" s="60" t="s">
+      <c r="B31" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="48">
+      <c r="C31" s="46">
         <v>10</v>
       </c>
-      <c r="D31" s="48">
+      <c r="D31" s="46">
         <v>5</v>
       </c>
-      <c r="E31" s="48" t="s">
+      <c r="E31" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="F31" s="50"/>
-    </row>
-    <row r="32" s="22" customFormat="1" spans="1:6">
-      <c r="A32" s="61" t="s">
+      <c r="F31" s="48"/>
+    </row>
+    <row r="32" s="21" customFormat="1" spans="1:6">
+      <c r="A32" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="B32" s="62" t="s">
+      <c r="B32" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C32" s="63">
+      <c r="C32" s="61">
         <v>6.2</v>
       </c>
-      <c r="D32" s="63">
+      <c r="D32" s="61">
         <v>3</v>
       </c>
-      <c r="E32" s="63" t="s">
+      <c r="E32" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="F32" s="49"/>
-    </row>
-    <row r="33" s="18" customFormat="1" spans="1:6">
-      <c r="A33" s="58" t="s">
+      <c r="F32" s="47"/>
+    </row>
+    <row r="33" s="17" customFormat="1" spans="1:6">
+      <c r="A33" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="C33" s="32">
+      <c r="C33" s="30">
         <v>20</v>
       </c>
-      <c r="D33" s="32">
+      <c r="D33" s="30">
         <v>5</v>
       </c>
-      <c r="E33" s="32" t="s">
+      <c r="E33" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="F33" s="34"/>
-    </row>
-    <row r="34" s="18" customFormat="1" spans="1:6">
-      <c r="A34" s="58" t="s">
+      <c r="F33" s="32"/>
+    </row>
+    <row r="34" s="17" customFormat="1" spans="1:6">
+      <c r="A34" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="C34" s="32">
+      <c r="C34" s="30">
         <v>15</v>
       </c>
-      <c r="D34" s="32">
+      <c r="D34" s="30">
         <v>5</v>
       </c>
-      <c r="E34" s="32" t="s">
+      <c r="E34" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="F34" s="34"/>
-    </row>
-    <row r="35" s="26" customFormat="1" spans="1:6">
-      <c r="A35" s="64" t="s">
+      <c r="F34" s="32"/>
+    </row>
+    <row r="35" s="22" customFormat="1" spans="1:6">
+      <c r="A35" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="B35" s="65" t="s">
+      <c r="B35" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="C35" s="66">
+      <c r="C35" s="46">
         <v>21</v>
       </c>
-      <c r="D35" s="66">
+      <c r="D35" s="46">
         <v>10</v>
       </c>
-      <c r="E35" s="66" t="s">
+      <c r="E35" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="F35" s="67"/>
-    </row>
-    <row r="36" s="18" customFormat="1" spans="1:6">
-      <c r="A36" s="58" t="s">
+      <c r="F35" s="48"/>
+    </row>
+    <row r="36" s="17" customFormat="1" spans="1:6">
+      <c r="A36" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="B36" s="31" t="s">
+      <c r="B36" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="C36" s="32">
+      <c r="C36" s="30">
         <v>2</v>
       </c>
-      <c r="D36" s="68" t="s">
+      <c r="D36" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="E36" s="32" t="s">
+      <c r="E36" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="F36" s="34"/>
-    </row>
-    <row r="37" s="18" customFormat="1" spans="1:6">
-      <c r="A37" s="58" t="s">
+      <c r="F36" s="32"/>
+    </row>
+    <row r="37" s="17" customFormat="1" spans="1:6">
+      <c r="A37" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="B37" s="31" t="s">
+      <c r="B37" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="C37" s="32">
+      <c r="C37" s="30">
         <v>6.12</v>
       </c>
-      <c r="D37" s="32">
+      <c r="D37" s="30">
         <v>3</v>
       </c>
-      <c r="E37" s="32" t="s">
+      <c r="E37" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="F37" s="34"/>
-    </row>
-    <row r="38" s="18" customFormat="1" spans="1:6">
-      <c r="A38" s="58" t="s">
+      <c r="F37" s="32"/>
+    </row>
+    <row r="38" s="17" customFormat="1" spans="1:6">
+      <c r="A38" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="B38" s="31" t="s">
+      <c r="B38" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="C38" s="32">
+      <c r="C38" s="30">
         <v>10.2</v>
       </c>
-      <c r="D38" s="32">
+      <c r="D38" s="30">
         <v>3</v>
       </c>
-      <c r="E38" s="32" t="s">
+      <c r="E38" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="F38" s="34"/>
+      <c r="F38" s="32"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="69" t="s">
+      <c r="A39" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="B39" s="70" t="s">
+      <c r="B39" s="64" t="s">
         <v>101</v>
       </c>
-      <c r="C39" s="29">
+      <c r="C39" s="27">
         <v>20</v>
       </c>
-      <c r="D39" s="29">
+      <c r="D39" s="27">
         <v>10</v>
       </c>
-      <c r="E39" s="29" t="s">
+      <c r="E39" s="27" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="40" s="19" customFormat="1" spans="1:6">
-      <c r="A40" s="19" t="s">
+    <row r="40" s="18" customFormat="1" spans="1:6">
+      <c r="A40" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="B40" s="71" t="s">
+      <c r="B40" s="65" t="s">
         <v>104</v>
       </c>
-      <c r="C40" s="36">
+      <c r="C40" s="34">
         <v>31</v>
       </c>
-      <c r="D40" s="36">
+      <c r="D40" s="34">
         <v>6</v>
       </c>
-      <c r="E40" s="36" t="s">
+      <c r="E40" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="F40" s="38"/>
+      <c r="F40" s="36"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2368,165 +2344,169 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.1296296296296" customWidth="1"/>
-    <col min="2" max="2" width="53.25" style="8" customWidth="1"/>
-    <col min="3" max="3" width="12.3796296296296" style="6" customWidth="1"/>
-    <col min="4" max="6" width="8.37962962962963" style="6" customWidth="1"/>
-    <col min="7" max="7" width="26.75" style="6" customWidth="1"/>
-    <col min="8" max="8" width="13.25" style="6" customWidth="1"/>
+    <col min="2" max="2" width="53.25" style="7" customWidth="1"/>
+    <col min="3" max="3" width="12.3796296296296" style="5" customWidth="1"/>
+    <col min="4" max="6" width="8.37962962962963" style="5" customWidth="1"/>
+    <col min="7" max="7" width="26.75" style="5" customWidth="1"/>
+    <col min="8" max="8" width="13.25" style="5" customWidth="1"/>
     <col min="9" max="9" width="17.5" style="2" customWidth="1"/>
+    <col min="10" max="10" width="18.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="1" spans="1:9">
-      <c r="A1" s="6" t="s">
+    <row r="1" s="5" customFormat="1" spans="1:10">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>111</v>
       </c>
+      <c r="J1" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>9.9</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>10</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>20</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="5">
         <v>10</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="5">
         <v>326726450</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="15" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="3" spans="2:2">
-      <c r="B3" s="11"/>
+      <c r="B3" s="10"/>
     </row>
     <row r="4" spans="2:2">
-      <c r="B4" s="11"/>
+      <c r="B4" s="10"/>
     </row>
     <row r="5" ht="14.4" spans="2:2">
-      <c r="B5" s="12"/>
+      <c r="B5" s="11"/>
     </row>
     <row r="6" ht="14.4" spans="2:2">
-      <c r="B6" s="12"/>
+      <c r="B6" s="11"/>
     </row>
     <row r="7" spans="2:2">
-      <c r="B7" s="11"/>
+      <c r="B7" s="10"/>
     </row>
     <row r="8" spans="2:2">
-      <c r="B8" s="11"/>
+      <c r="B8" s="10"/>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="11"/>
+      <c r="B9" s="10"/>
     </row>
     <row r="10" ht="14.4" spans="2:2">
-      <c r="B10" s="12"/>
+      <c r="B10" s="11"/>
     </row>
     <row r="11" spans="2:2">
-      <c r="B11" s="11"/>
+      <c r="B11" s="10"/>
     </row>
     <row r="12" spans="2:2">
-      <c r="B12" s="11"/>
+      <c r="B12" s="10"/>
     </row>
     <row r="13" ht="14.4" spans="2:2">
-      <c r="B13" s="12"/>
+      <c r="B13" s="11"/>
     </row>
     <row r="14" spans="2:2">
-      <c r="B14" s="11"/>
+      <c r="B14" s="10"/>
     </row>
     <row r="15" ht="14.4" spans="2:2">
-      <c r="B15" s="12"/>
+      <c r="B15" s="11"/>
     </row>
     <row r="16" ht="14.4" spans="2:2">
-      <c r="B16" s="12"/>
+      <c r="B16" s="11"/>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="11"/>
+      <c r="B17" s="10"/>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="11"/>
+      <c r="B18" s="10"/>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="11"/>
-    </row>
-    <row r="20" s="7" customFormat="1" spans="2:9">
-      <c r="B20" s="11"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="17"/>
+      <c r="B19" s="10"/>
+    </row>
+    <row r="20" s="6" customFormat="1" spans="2:9">
+      <c r="B20" s="10"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="16"/>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="14"/>
+      <c r="B21" s="13"/>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="11"/>
+      <c r="B22" s="10"/>
     </row>
     <row r="23" ht="14.4" spans="2:2">
-      <c r="B23" s="15"/>
+      <c r="B23" s="14"/>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="14"/>
+      <c r="B24" s="13"/>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="11"/>
+      <c r="B25" s="10"/>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="11"/>
+      <c r="B26" s="10"/>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="11"/>
+      <c r="B27" s="10"/>
     </row>
     <row r="28" ht="14.4" spans="2:2">
-      <c r="B28" s="12"/>
+      <c r="B28" s="11"/>
     </row>
   </sheetData>
   <sortState ref="B1:B28">
@@ -2563,25 +2543,25 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15" spans="1:7">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
     </row>

--- a/招商团长/报名活动单.xlsx
+++ b/招商团长/报名活动单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20255" windowHeight="7812" activeTab="1"/>
+    <workbookView windowWidth="21450" windowHeight="9045"/>
   </bookViews>
   <sheets>
     <sheet name="6月报名清单" sheetId="1" r:id="rId1"/>
@@ -466,6 +466,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -474,14 +490,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -495,28 +511,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -534,7 +528,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -563,37 +588,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -616,25 +616,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -646,25 +742,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -676,127 +790,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -827,6 +827,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -839,17 +863,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -872,38 +902,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -915,10 +915,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -927,133 +927,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1606,18 +1606,18 @@
   <sheetPr/>
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="18.5" style="25" customWidth="1"/>
-    <col min="2" max="2" width="39.8796296296296" style="26" customWidth="1"/>
-    <col min="3" max="3" width="19.8796296296296" style="27" customWidth="1"/>
+    <col min="2" max="2" width="39.8833333333333" style="26" customWidth="1"/>
+    <col min="3" max="3" width="19.8833333333333" style="27" customWidth="1"/>
     <col min="4" max="4" width="18.75" style="27" customWidth="1"/>
-    <col min="5" max="5" width="31.6296296296296" style="27" customWidth="1"/>
-    <col min="6" max="6" width="36.3796296296296" style="28" customWidth="1"/>
+    <col min="5" max="5" width="31.6333333333333" style="27" customWidth="1"/>
+    <col min="6" max="6" width="36.3833333333333" style="28" customWidth="1"/>
     <col min="7" max="16384" width="9" style="25"/>
   </cols>
   <sheetData>
@@ -2346,20 +2346,20 @@
   <sheetPr/>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="18.1296296296296" customWidth="1"/>
+    <col min="1" max="1" width="18.1333333333333" customWidth="1"/>
     <col min="2" max="2" width="53.25" style="7" customWidth="1"/>
-    <col min="3" max="3" width="12.3796296296296" style="5" customWidth="1"/>
-    <col min="4" max="6" width="8.37962962962963" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12.3833333333333" style="5" customWidth="1"/>
+    <col min="4" max="6" width="8.38333333333333" style="5" customWidth="1"/>
     <col min="7" max="7" width="26.75" style="5" customWidth="1"/>
     <col min="8" max="8" width="13.25" style="5" customWidth="1"/>
     <col min="9" max="9" width="17.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="18.5555555555556" customWidth="1"/>
+    <col min="10" max="10" width="18.5583333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="1" spans="1:10">
@@ -2429,10 +2429,10 @@
     <row r="4" spans="2:2">
       <c r="B4" s="10"/>
     </row>
-    <row r="5" ht="14.4" spans="2:2">
+    <row r="5" ht="14.25" spans="2:2">
       <c r="B5" s="11"/>
     </row>
-    <row r="6" ht="14.4" spans="2:2">
+    <row r="6" ht="14.25" spans="2:2">
       <c r="B6" s="11"/>
     </row>
     <row r="7" spans="2:2">
@@ -2444,7 +2444,7 @@
     <row r="9" spans="2:2">
       <c r="B9" s="10"/>
     </row>
-    <row r="10" ht="14.4" spans="2:2">
+    <row r="10" ht="14.25" spans="2:2">
       <c r="B10" s="11"/>
     </row>
     <row r="11" spans="2:2">
@@ -2453,16 +2453,16 @@
     <row r="12" spans="2:2">
       <c r="B12" s="10"/>
     </row>
-    <row r="13" ht="14.4" spans="2:2">
+    <row r="13" ht="14.25" spans="2:2">
       <c r="B13" s="11"/>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="10"/>
     </row>
-    <row r="15" ht="14.4" spans="2:2">
+    <row r="15" ht="14.25" spans="2:2">
       <c r="B15" s="11"/>
     </row>
-    <row r="16" ht="14.4" spans="2:2">
+    <row r="16" ht="14.25" spans="2:2">
       <c r="B16" s="11"/>
     </row>
     <row r="17" spans="2:2">
@@ -2490,7 +2490,7 @@
     <row r="22" spans="2:2">
       <c r="B22" s="10"/>
     </row>
-    <row r="23" ht="14.4" spans="2:2">
+    <row r="23" ht="14.25" spans="2:2">
       <c r="B23" s="14"/>
     </row>
     <row r="24" spans="2:2">
@@ -2505,7 +2505,7 @@
     <row r="27" spans="2:2">
       <c r="B27" s="10"/>
     </row>
-    <row r="28" ht="14.4" spans="2:2">
+    <row r="28" ht="14.25" spans="2:2">
       <c r="B28" s="11"/>
     </row>
   </sheetData>
@@ -2531,18 +2531,18 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="20.3333333333333" customWidth="1"/>
     <col min="2" max="2" width="47" customWidth="1"/>
-    <col min="3" max="3" width="19.5555555555556" customWidth="1"/>
+    <col min="3" max="3" width="19.5583333333333" customWidth="1"/>
     <col min="4" max="4" width="17.3333333333333" customWidth="1"/>
-    <col min="5" max="5" width="16.2222222222222" customWidth="1"/>
+    <col min="5" max="5" width="16.225" customWidth="1"/>
     <col min="6" max="6" width="35.6666666666667" customWidth="1"/>
     <col min="7" max="7" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15" spans="1:7">
+    <row r="1" s="1" customFormat="1" ht="16.5" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>116</v>
       </c>
@@ -2581,7 +2581,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/招商团长/报名活动单.xlsx
+++ b/招商团长/报名活动单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21450" windowHeight="9045"/>
+    <workbookView windowWidth="20255" windowHeight="7812"/>
   </bookViews>
   <sheets>
     <sheet name="6月报名清单" sheetId="1" r:id="rId1"/>
@@ -154,7 +154,7 @@
     <t>报名6款女装</t>
   </si>
   <si>
-    <t>起：2019-06-14 止：2019-06-25</t>
+    <t>起：2019-06-26 止：2019-07-15</t>
   </si>
   <si>
     <t>亨茂号食品旗舰店</t>
@@ -378,12 +378,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -453,14 +453,122 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF666666"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -474,120 +582,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -616,6 +610,96 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -628,13 +712,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -646,7 +730,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,37 +742,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -700,103 +790,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -807,45 +801,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -869,17 +824,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -899,6 +863,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -915,10 +909,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -927,16 +921,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -945,119 +939,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1127,7 +1121,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -1205,16 +1202,28 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1246,12 +1255,6 @@
     </xf>
     <xf numFmtId="58" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1607,37 +1610,37 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="18.5" style="25" customWidth="1"/>
-    <col min="2" max="2" width="39.8833333333333" style="26" customWidth="1"/>
-    <col min="3" max="3" width="19.8833333333333" style="27" customWidth="1"/>
-    <col min="4" max="4" width="18.75" style="27" customWidth="1"/>
-    <col min="5" max="5" width="31.6333333333333" style="27" customWidth="1"/>
-    <col min="6" max="6" width="36.3833333333333" style="28" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="25"/>
+    <col min="1" max="1" width="18.5" style="26" customWidth="1"/>
+    <col min="2" max="2" width="39.8796296296296" style="27" customWidth="1"/>
+    <col min="3" max="3" width="19.8796296296296" style="28" customWidth="1"/>
+    <col min="4" max="4" width="18.75" style="28" customWidth="1"/>
+    <col min="5" max="5" width="31.6296296296296" style="28" customWidth="1"/>
+    <col min="6" max="6" width="36.3796296296296" style="29" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="29" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1645,124 +1648,124 @@
       <c r="A2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="30">
+      <c r="C2" s="31">
         <v>20</v>
       </c>
-      <c r="D2" s="30">
+      <c r="D2" s="31">
         <v>5</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="32"/>
+      <c r="F2" s="33"/>
     </row>
     <row r="3" s="17" customFormat="1" spans="2:6">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="30">
+      <c r="C3" s="31">
         <v>20.01</v>
       </c>
-      <c r="D3" s="30">
+      <c r="D3" s="31">
         <v>5</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="32"/>
+      <c r="F3" s="33"/>
     </row>
     <row r="4" s="18" customFormat="1" spans="1:6">
       <c r="A4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="35" t="s">
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="36"/>
+      <c r="F4" s="37"/>
     </row>
     <row r="5" s="19" customFormat="1" spans="1:6">
       <c r="A5" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="38">
+      <c r="C5" s="39">
         <v>10.1</v>
       </c>
-      <c r="D5" s="38">
+      <c r="D5" s="39">
         <v>4</v>
       </c>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="40"/>
+      <c r="F5" s="41"/>
     </row>
     <row r="6" s="18" customFormat="1" spans="1:6">
       <c r="A6" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="35" t="s">
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="36"/>
+      <c r="F6" s="37"/>
     </row>
     <row r="7" s="17" customFormat="1" spans="2:6">
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="30">
+      <c r="C7" s="31">
         <v>15</v>
       </c>
-      <c r="D7" s="30">
+      <c r="D7" s="31">
         <v>3</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="32"/>
+      <c r="F7" s="33"/>
     </row>
     <row r="8" s="17" customFormat="1" spans="2:6">
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="31" t="s">
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="32"/>
+      <c r="F8" s="33"/>
     </row>
     <row r="9" s="20" customFormat="1" spans="1:6">
       <c r="A9" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="44">
+      <c r="C9" s="45">
         <v>10.01</v>
       </c>
-      <c r="D9" s="44">
+      <c r="D9" s="45">
         <v>4.9</v>
       </c>
-      <c r="E9" s="44" t="s">
+      <c r="E9" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="45" t="s">
+      <c r="F9" s="46" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1770,543 +1773,544 @@
       <c r="A10" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="46">
+      <c r="C10" s="47">
         <v>40</v>
       </c>
-      <c r="D10" s="46">
+      <c r="D10" s="47">
         <v>10</v>
       </c>
-      <c r="E10" s="46" t="s">
+      <c r="E10" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="47"/>
+      <c r="F10" s="48"/>
     </row>
     <row r="11" s="17" customFormat="1" spans="2:6">
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="30">
+      <c r="C11" s="31">
         <v>25.2</v>
       </c>
-      <c r="D11" s="30">
+      <c r="D11" s="31">
         <v>4</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="32"/>
+      <c r="F11" s="33"/>
     </row>
     <row r="12" s="17" customFormat="1" spans="2:6">
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="30">
+      <c r="C12" s="31">
         <v>6</v>
       </c>
-      <c r="D12" s="30">
+      <c r="D12" s="31">
         <v>5</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="32"/>
+      <c r="F12" s="33"/>
     </row>
     <row r="13" s="22" customFormat="1" spans="1:6">
       <c r="A13" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="46">
+      <c r="C13" s="47">
         <v>5.2</v>
       </c>
-      <c r="D13" s="46">
+      <c r="D13" s="47">
         <v>4</v>
       </c>
-      <c r="E13" s="46" t="s">
+      <c r="E13" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="48"/>
-    </row>
-    <row r="14" s="19" customFormat="1" spans="1:6">
-      <c r="A14" s="19" t="s">
+      <c r="F13" s="49"/>
+    </row>
+    <row r="14" s="23" customFormat="1" spans="1:6">
+      <c r="A14" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="38">
+      <c r="C14" s="51">
         <v>10.1</v>
       </c>
-      <c r="D14" s="38">
+      <c r="D14" s="51">
         <v>5</v>
       </c>
-      <c r="E14" s="38" t="s">
+      <c r="E14" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="40"/>
+      <c r="F14" s="52"/>
     </row>
     <row r="15" s="23" customFormat="1" spans="1:6">
       <c r="A15" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="50">
+      <c r="C15" s="51">
         <v>18.01</v>
       </c>
-      <c r="D15" s="50">
+      <c r="D15" s="51">
         <v>2</v>
       </c>
-      <c r="E15" s="51" t="s">
+      <c r="E15" s="53" t="s">
         <v>40</v>
       </c>
       <c r="F15" s="52"/>
     </row>
     <row r="16" s="23" customFormat="1" spans="2:6">
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="50">
+      <c r="C16" s="51">
         <v>10</v>
       </c>
-      <c r="D16" s="50">
+      <c r="D16" s="51">
         <v>2</v>
       </c>
-      <c r="E16" s="51" t="s">
+      <c r="E16" s="53" t="s">
         <v>40</v>
       </c>
       <c r="F16" s="52"/>
     </row>
     <row r="17" s="23" customFormat="1" spans="2:6">
-      <c r="B17" s="49" t="s">
+      <c r="B17" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="50">
+      <c r="C17" s="51">
         <v>15</v>
       </c>
-      <c r="D17" s="50">
+      <c r="D17" s="51">
         <v>2</v>
       </c>
-      <c r="E17" s="51" t="s">
+      <c r="E17" s="53" t="s">
         <v>40</v>
       </c>
       <c r="F17" s="52"/>
     </row>
-    <row r="18" s="23" customFormat="1" spans="1:6">
-      <c r="A18" s="23" t="s">
+    <row r="18" s="24" customFormat="1" spans="1:6">
+      <c r="A18" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="50">
-        <v>20.6</v>
-      </c>
-      <c r="D18" s="50">
-        <v>3.01</v>
-      </c>
-      <c r="E18" s="51" t="s">
+      <c r="C18" s="55">
+        <v>15.01</v>
+      </c>
+      <c r="D18" s="55">
+        <v>3</v>
+      </c>
+      <c r="E18" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="52"/>
+      <c r="F18" s="57"/>
     </row>
     <row r="19" s="17" customFormat="1" spans="1:6">
       <c r="A19" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="30">
+      <c r="C19" s="31">
         <v>3.6</v>
       </c>
-      <c r="D19" s="30">
+      <c r="D19" s="31">
         <v>4</v>
       </c>
-      <c r="E19" s="30" t="s">
+      <c r="E19" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="32"/>
+      <c r="F19" s="33"/>
     </row>
     <row r="20" s="17" customFormat="1" spans="1:6">
       <c r="A20" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="34">
+      <c r="C20" s="35">
         <v>25.1</v>
       </c>
-      <c r="D20" s="34">
+      <c r="D20" s="35">
         <v>4.9</v>
       </c>
-      <c r="E20" s="34" t="s">
+      <c r="E20" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="F20" s="32"/>
+      <c r="F20" s="33"/>
     </row>
     <row r="21" s="17" customFormat="1" spans="2:6">
-      <c r="B21" s="42" t="s">
+      <c r="B21" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="30">
+      <c r="C21" s="31">
         <v>20</v>
       </c>
-      <c r="D21" s="30">
+      <c r="D21" s="31">
         <v>5</v>
       </c>
-      <c r="E21" s="30" t="s">
+      <c r="E21" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="32"/>
+      <c r="F21" s="33"/>
     </row>
     <row r="22" s="17" customFormat="1" spans="1:6">
       <c r="A22" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="42" t="s">
+      <c r="B22" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="30">
+      <c r="C22" s="31">
         <v>15</v>
       </c>
-      <c r="D22" s="30">
+      <c r="D22" s="31">
         <v>5</v>
       </c>
-      <c r="E22" s="30" t="s">
+      <c r="E22" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="F22" s="32"/>
+      <c r="F22" s="33"/>
     </row>
     <row r="23" s="17" customFormat="1" spans="1:6">
       <c r="A23" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="42" t="s">
+      <c r="B23" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="30">
+      <c r="C23" s="31">
         <v>30.1</v>
       </c>
-      <c r="D23" s="30">
+      <c r="D23" s="31">
         <v>3</v>
       </c>
-      <c r="E23" s="30" t="s">
+      <c r="E23" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="F23" s="32"/>
+      <c r="F23" s="33"/>
     </row>
     <row r="24" s="17" customFormat="1" spans="1:6">
       <c r="A24" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="42" t="s">
+      <c r="B24" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="30">
+      <c r="C24" s="31">
         <v>4.5</v>
       </c>
-      <c r="D24" s="30">
+      <c r="D24" s="31">
         <v>2.5</v>
       </c>
-      <c r="E24" s="30" t="s">
+      <c r="E24" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="F24" s="32"/>
+      <c r="F24" s="33"/>
     </row>
     <row r="25" s="17" customFormat="1" spans="1:6">
       <c r="A25" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="42" t="s">
+      <c r="B25" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="30">
+      <c r="C25" s="31">
         <v>3.01</v>
       </c>
-      <c r="D25" s="30">
+      <c r="D25" s="31">
         <v>2</v>
       </c>
-      <c r="E25" s="30" t="s">
+      <c r="E25" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="F25" s="32"/>
+      <c r="F25" s="33"/>
     </row>
     <row r="26" s="18" customFormat="1" spans="1:6">
       <c r="A26" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="41" t="s">
+      <c r="B26" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="34">
+      <c r="C26" s="35">
         <v>25</v>
       </c>
-      <c r="D26" s="34">
+      <c r="D26" s="35">
         <v>5</v>
       </c>
-      <c r="E26" s="34" t="s">
+      <c r="E26" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="F26" s="36"/>
+      <c r="F26" s="37"/>
     </row>
     <row r="27" s="17" customFormat="1" spans="1:6">
       <c r="A27" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="42" t="s">
+      <c r="B27" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="30">
+      <c r="C27" s="31">
         <v>20</v>
       </c>
-      <c r="D27" s="30">
+      <c r="D27" s="31">
         <v>5</v>
       </c>
-      <c r="E27" s="30" t="s">
+      <c r="E27" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="F27" s="32"/>
+      <c r="F27" s="33"/>
     </row>
     <row r="28" s="17" customFormat="1" spans="1:6">
       <c r="A28" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="B28" s="42" t="s">
+      <c r="B28" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="30">
+      <c r="C28" s="31">
         <v>6</v>
       </c>
-      <c r="D28" s="30">
+      <c r="D28" s="31">
         <v>5</v>
       </c>
-      <c r="E28" s="30" t="s">
+      <c r="E28" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="F28" s="32"/>
-    </row>
-    <row r="29" s="24" customFormat="1" spans="1:6">
-      <c r="A29" s="24" t="s">
+      <c r="F28" s="33"/>
+    </row>
+    <row r="29" s="25" customFormat="1" spans="1:6">
+      <c r="A29" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="B29" s="53" t="s">
+      <c r="B29" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="C29" s="54">
+      <c r="C29" s="59">
         <v>25.11</v>
       </c>
-      <c r="D29" s="54">
+      <c r="D29" s="59">
         <v>3</v>
       </c>
-      <c r="E29" s="54" t="s">
+      <c r="E29" s="59" t="s">
         <v>75</v>
       </c>
-      <c r="F29" s="55"/>
+      <c r="F29" s="60"/>
     </row>
     <row r="30" s="17" customFormat="1" spans="1:6">
-      <c r="A30" s="56" t="s">
+      <c r="A30" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="B30" s="29" t="s">
+      <c r="B30" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="C30" s="30">
+      <c r="C30" s="31">
         <v>20.1</v>
       </c>
-      <c r="D30" s="30">
+      <c r="D30" s="31">
         <v>5</v>
       </c>
-      <c r="E30" s="30" t="s">
+      <c r="E30" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="F30" s="32"/>
+      <c r="F30" s="33"/>
     </row>
     <row r="31" s="22" customFormat="1" spans="1:6">
-      <c r="A31" s="57" t="s">
+      <c r="A31" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="B31" s="58" t="s">
+      <c r="B31" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="46">
+      <c r="C31" s="47">
         <v>10</v>
       </c>
-      <c r="D31" s="46">
+      <c r="D31" s="47">
         <v>5</v>
       </c>
-      <c r="E31" s="46" t="s">
+      <c r="E31" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="F31" s="48"/>
+      <c r="F31" s="49"/>
     </row>
     <row r="32" s="21" customFormat="1" spans="1:6">
-      <c r="A32" s="59" t="s">
+      <c r="A32" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="B32" s="60" t="s">
+      <c r="B32" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="C32" s="61">
+      <c r="C32" s="66">
         <v>6.2</v>
       </c>
-      <c r="D32" s="61">
+      <c r="D32" s="66">
         <v>3</v>
       </c>
-      <c r="E32" s="61" t="s">
+      <c r="E32" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="F32" s="47"/>
+      <c r="F32" s="48"/>
     </row>
     <row r="33" s="17" customFormat="1" spans="1:6">
-      <c r="A33" s="56" t="s">
+      <c r="A33" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="B33" s="29" t="s">
+      <c r="B33" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="C33" s="30">
+      <c r="C33" s="31">
         <v>20</v>
       </c>
-      <c r="D33" s="30">
+      <c r="D33" s="31">
         <v>5</v>
       </c>
-      <c r="E33" s="30" t="s">
+      <c r="E33" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="F33" s="32"/>
+      <c r="F33" s="33"/>
     </row>
     <row r="34" s="17" customFormat="1" spans="1:6">
-      <c r="A34" s="56" t="s">
+      <c r="A34" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="B34" s="29" t="s">
+      <c r="B34" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="C34" s="30">
+      <c r="C34" s="31">
         <v>15</v>
       </c>
-      <c r="D34" s="30">
+      <c r="D34" s="31">
         <v>5</v>
       </c>
-      <c r="E34" s="30" t="s">
+      <c r="E34" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="F34" s="32"/>
+      <c r="F34" s="33"/>
     </row>
     <row r="35" s="22" customFormat="1" spans="1:6">
-      <c r="A35" s="57" t="s">
+      <c r="A35" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="B35" s="58" t="s">
+      <c r="B35" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="C35" s="46">
+      <c r="C35" s="47">
         <v>21</v>
       </c>
-      <c r="D35" s="46">
+      <c r="D35" s="47">
         <v>10</v>
       </c>
-      <c r="E35" s="46" t="s">
+      <c r="E35" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="F35" s="48"/>
+      <c r="F35" s="49"/>
     </row>
     <row r="36" s="17" customFormat="1" spans="1:6">
-      <c r="A36" s="56" t="s">
+      <c r="A36" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="B36" s="29" t="s">
+      <c r="B36" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="C36" s="30">
+      <c r="C36" s="31">
         <v>2</v>
       </c>
-      <c r="D36" s="62" t="s">
+      <c r="D36" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="E36" s="30" t="s">
+      <c r="E36" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="F36" s="32"/>
+      <c r="F36" s="33"/>
     </row>
     <row r="37" s="17" customFormat="1" spans="1:6">
-      <c r="A37" s="56" t="s">
+      <c r="A37" s="61" t="s">
         <v>95</v>
       </c>
-      <c r="B37" s="29" t="s">
+      <c r="B37" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="C37" s="30">
+      <c r="C37" s="31">
         <v>6.12</v>
       </c>
-      <c r="D37" s="30">
+      <c r="D37" s="31">
         <v>3</v>
       </c>
-      <c r="E37" s="30" t="s">
+      <c r="E37" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="F37" s="32"/>
+      <c r="F37" s="33"/>
     </row>
     <row r="38" s="17" customFormat="1" spans="1:6">
-      <c r="A38" s="56" t="s">
+      <c r="A38" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="B38" s="29" t="s">
+      <c r="B38" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="C38" s="30">
+      <c r="C38" s="31">
         <v>10.2</v>
       </c>
-      <c r="D38" s="30">
+      <c r="D38" s="31">
         <v>3</v>
       </c>
-      <c r="E38" s="30" t="s">
+      <c r="E38" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="F38" s="32"/>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="63" t="s">
+      <c r="F38" s="33"/>
+    </row>
+    <row r="39" s="17" customFormat="1" spans="1:6">
+      <c r="A39" s="61" t="s">
         <v>100</v>
       </c>
-      <c r="B39" s="64" t="s">
+      <c r="B39" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="C39" s="27">
+      <c r="C39" s="31">
         <v>20</v>
       </c>
-      <c r="D39" s="27">
+      <c r="D39" s="31">
         <v>10</v>
       </c>
-      <c r="E39" s="27" t="s">
+      <c r="E39" s="31" t="s">
         <v>102</v>
       </c>
+      <c r="F39" s="33"/>
     </row>
     <row r="40" s="18" customFormat="1" spans="1:6">
       <c r="A40" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="B40" s="65" t="s">
+      <c r="B40" s="68" t="s">
         <v>104</v>
       </c>
-      <c r="C40" s="34">
+      <c r="C40" s="35">
         <v>31</v>
       </c>
-      <c r="D40" s="34">
+      <c r="D40" s="35">
         <v>6</v>
       </c>
-      <c r="E40" s="34" t="s">
+      <c r="E40" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="F40" s="36"/>
+      <c r="F40" s="37"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2350,16 +2354,16 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.1333333333333" customWidth="1"/>
+    <col min="1" max="1" width="18.1296296296296" customWidth="1"/>
     <col min="2" max="2" width="53.25" style="7" customWidth="1"/>
-    <col min="3" max="3" width="12.3833333333333" style="5" customWidth="1"/>
-    <col min="4" max="6" width="8.38333333333333" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12.3796296296296" style="5" customWidth="1"/>
+    <col min="4" max="6" width="8.37962962962963" style="5" customWidth="1"/>
     <col min="7" max="7" width="26.75" style="5" customWidth="1"/>
     <col min="8" max="8" width="13.25" style="5" customWidth="1"/>
     <col min="9" max="9" width="17.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="18.5583333333333" customWidth="1"/>
+    <col min="10" max="10" width="18.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="1" spans="1:10">
@@ -2429,10 +2433,10 @@
     <row r="4" spans="2:2">
       <c r="B4" s="10"/>
     </row>
-    <row r="5" ht="14.25" spans="2:2">
+    <row r="5" ht="14.4" spans="2:2">
       <c r="B5" s="11"/>
     </row>
-    <row r="6" ht="14.25" spans="2:2">
+    <row r="6" ht="14.4" spans="2:2">
       <c r="B6" s="11"/>
     </row>
     <row r="7" spans="2:2">
@@ -2444,7 +2448,7 @@
     <row r="9" spans="2:2">
       <c r="B9" s="10"/>
     </row>
-    <row r="10" ht="14.25" spans="2:2">
+    <row r="10" ht="14.4" spans="2:2">
       <c r="B10" s="11"/>
     </row>
     <row r="11" spans="2:2">
@@ -2453,16 +2457,16 @@
     <row r="12" spans="2:2">
       <c r="B12" s="10"/>
     </row>
-    <row r="13" ht="14.25" spans="2:2">
+    <row r="13" ht="14.4" spans="2:2">
       <c r="B13" s="11"/>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="10"/>
     </row>
-    <row r="15" ht="14.25" spans="2:2">
+    <row r="15" ht="14.4" spans="2:2">
       <c r="B15" s="11"/>
     </row>
-    <row r="16" ht="14.25" spans="2:2">
+    <row r="16" ht="14.4" spans="2:2">
       <c r="B16" s="11"/>
     </row>
     <row r="17" spans="2:2">
@@ -2490,7 +2494,7 @@
     <row r="22" spans="2:2">
       <c r="B22" s="10"/>
     </row>
-    <row r="23" ht="14.25" spans="2:2">
+    <row r="23" ht="14.4" spans="2:2">
       <c r="B23" s="14"/>
     </row>
     <row r="24" spans="2:2">
@@ -2505,7 +2509,7 @@
     <row r="27" spans="2:2">
       <c r="B27" s="10"/>
     </row>
-    <row r="28" ht="14.25" spans="2:2">
+    <row r="28" ht="14.4" spans="2:2">
       <c r="B28" s="11"/>
     </row>
   </sheetData>
@@ -2531,18 +2535,18 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="20.3333333333333" customWidth="1"/>
     <col min="2" max="2" width="47" customWidth="1"/>
-    <col min="3" max="3" width="19.5583333333333" customWidth="1"/>
+    <col min="3" max="3" width="19.5555555555556" customWidth="1"/>
     <col min="4" max="4" width="17.3333333333333" customWidth="1"/>
-    <col min="5" max="5" width="16.225" customWidth="1"/>
+    <col min="5" max="5" width="16.2222222222222" customWidth="1"/>
     <col min="6" max="6" width="35.6666666666667" customWidth="1"/>
     <col min="7" max="7" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="16.5" spans="1:7">
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>116</v>
       </c>
@@ -2581,7 +2585,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/招商团长/报名活动单.xlsx
+++ b/招商团长/报名活动单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20255" windowHeight="7812"/>
+    <workbookView windowWidth="21450" windowHeight="9045"/>
   </bookViews>
   <sheets>
     <sheet name="6月报名清单" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="121">
   <si>
     <t>店铺</t>
   </si>
@@ -335,6 +335,15 @@
   </si>
   <si>
     <t>起：2019-06-18 止：2019-06-24</t>
+  </si>
+  <si>
+    <t>麦稻官方企业店</t>
+  </si>
+  <si>
+    <t>麦稻发膜免蒸倒膜焗油膏顺滑护发 * 6 款洗护</t>
+  </si>
+  <si>
+    <t>起：2019-06-26 止：2019-07-03</t>
   </si>
   <si>
     <t xml:space="preserve">商品 </t>
@@ -378,9 +387,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
@@ -454,7 +463,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -470,6 +515,37 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -485,43 +561,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -535,59 +591,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -610,78 +619,126 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -694,7 +751,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -706,7 +763,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -724,13 +781,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -742,55 +793,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -806,29 +815,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -848,32 +852,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -896,6 +881,30 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -909,10 +918,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -921,16 +930,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -939,119 +948,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1121,12 +1130,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1203,15 +1206,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1223,9 +1217,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1249,9 +1240,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1607,40 +1595,40 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="18.5" style="26" customWidth="1"/>
-    <col min="2" max="2" width="39.8796296296296" style="27" customWidth="1"/>
-    <col min="3" max="3" width="19.8796296296296" style="28" customWidth="1"/>
-    <col min="4" max="4" width="18.75" style="28" customWidth="1"/>
-    <col min="5" max="5" width="31.6296296296296" style="28" customWidth="1"/>
-    <col min="6" max="6" width="36.3796296296296" style="29" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="26"/>
+    <col min="1" max="1" width="18.5" style="24" customWidth="1"/>
+    <col min="2" max="2" width="39.8833333333333" style="25" customWidth="1"/>
+    <col min="3" max="3" width="19.8833333333333" style="26" customWidth="1"/>
+    <col min="4" max="4" width="18.75" style="26" customWidth="1"/>
+    <col min="5" max="5" width="31.6333333333333" style="26" customWidth="1"/>
+    <col min="6" max="6" width="36.3833333333333" style="27" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="27" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1648,124 +1636,124 @@
       <c r="A2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="31">
+      <c r="C2" s="29">
         <v>20</v>
       </c>
-      <c r="D2" s="31">
+      <c r="D2" s="29">
         <v>5</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="33"/>
+      <c r="F2" s="31"/>
     </row>
     <row r="3" s="17" customFormat="1" spans="2:6">
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="31">
+      <c r="C3" s="29">
         <v>20.01</v>
       </c>
-      <c r="D3" s="31">
+      <c r="D3" s="29">
         <v>5</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="33"/>
+      <c r="F3" s="31"/>
     </row>
     <row r="4" s="18" customFormat="1" spans="1:6">
       <c r="A4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="36" t="s">
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="37"/>
+      <c r="F4" s="35"/>
     </row>
     <row r="5" s="19" customFormat="1" spans="1:6">
       <c r="A5" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="39">
+      <c r="C5" s="37">
         <v>10.1</v>
       </c>
-      <c r="D5" s="39">
+      <c r="D5" s="37">
         <v>4</v>
       </c>
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="41"/>
+      <c r="F5" s="39"/>
     </row>
     <row r="6" s="18" customFormat="1" spans="1:6">
       <c r="A6" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="36" t="s">
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="37"/>
+      <c r="F6" s="35"/>
     </row>
     <row r="7" s="17" customFormat="1" spans="2:6">
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="31">
+      <c r="C7" s="29">
         <v>15</v>
       </c>
-      <c r="D7" s="31">
+      <c r="D7" s="29">
         <v>3</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="33"/>
+      <c r="F7" s="31"/>
     </row>
     <row r="8" s="17" customFormat="1" spans="2:6">
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="32" t="s">
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="33"/>
+      <c r="F8" s="31"/>
     </row>
     <row r="9" s="20" customFormat="1" spans="1:6">
       <c r="A9" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="45">
+      <c r="C9" s="43">
         <v>10.01</v>
       </c>
-      <c r="D9" s="45">
+      <c r="D9" s="43">
         <v>4.9</v>
       </c>
-      <c r="E9" s="45" t="s">
+      <c r="E9" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="46" t="s">
+      <c r="F9" s="44" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1773,544 +1761,562 @@
       <c r="A10" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="47">
+      <c r="C10" s="45">
         <v>40</v>
       </c>
-      <c r="D10" s="47">
+      <c r="D10" s="45">
         <v>10</v>
       </c>
-      <c r="E10" s="47" t="s">
+      <c r="E10" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="48"/>
+      <c r="F10" s="46"/>
     </row>
     <row r="11" s="17" customFormat="1" spans="2:6">
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="31">
+      <c r="C11" s="29">
         <v>25.2</v>
       </c>
-      <c r="D11" s="31">
+      <c r="D11" s="29">
         <v>4</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="33"/>
+      <c r="F11" s="31"/>
     </row>
     <row r="12" s="17" customFormat="1" spans="2:6">
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="31">
+      <c r="C12" s="29">
         <v>6</v>
       </c>
-      <c r="D12" s="31">
+      <c r="D12" s="29">
         <v>5</v>
       </c>
-      <c r="E12" s="31" t="s">
+      <c r="E12" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="33"/>
+      <c r="F12" s="31"/>
     </row>
     <row r="13" s="22" customFormat="1" spans="1:6">
       <c r="A13" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="47">
+      <c r="C13" s="45">
         <v>5.2</v>
       </c>
-      <c r="D13" s="47">
+      <c r="D13" s="45">
         <v>4</v>
       </c>
-      <c r="E13" s="47" t="s">
+      <c r="E13" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="49"/>
-    </row>
-    <row r="14" s="23" customFormat="1" spans="1:6">
-      <c r="A14" s="23" t="s">
+      <c r="F13" s="47"/>
+    </row>
+    <row r="14" s="22" customFormat="1" spans="1:6">
+      <c r="A14" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="51">
+      <c r="C14" s="45">
         <v>10.1</v>
       </c>
-      <c r="D14" s="51">
+      <c r="D14" s="45">
         <v>5</v>
       </c>
-      <c r="E14" s="51" t="s">
+      <c r="E14" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="52"/>
-    </row>
-    <row r="15" s="23" customFormat="1" spans="1:6">
-      <c r="A15" s="23" t="s">
+      <c r="F14" s="47"/>
+    </row>
+    <row r="15" s="22" customFormat="1" spans="1:6">
+      <c r="A15" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="51">
+      <c r="C15" s="45">
         <v>18.01</v>
       </c>
-      <c r="D15" s="51">
+      <c r="D15" s="45">
         <v>2</v>
       </c>
-      <c r="E15" s="53" t="s">
+      <c r="E15" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="52"/>
-    </row>
-    <row r="16" s="23" customFormat="1" spans="2:6">
-      <c r="B16" s="50" t="s">
+      <c r="F15" s="47"/>
+    </row>
+    <row r="16" s="22" customFormat="1" spans="2:6">
+      <c r="B16" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="51">
+      <c r="C16" s="45">
         <v>10</v>
       </c>
-      <c r="D16" s="51">
+      <c r="D16" s="45">
         <v>2</v>
       </c>
-      <c r="E16" s="53" t="s">
+      <c r="E16" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="52"/>
-    </row>
-    <row r="17" s="23" customFormat="1" spans="2:6">
-      <c r="B17" s="50" t="s">
+      <c r="F16" s="47"/>
+    </row>
+    <row r="17" s="22" customFormat="1" spans="2:6">
+      <c r="B17" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="51">
+      <c r="C17" s="45">
         <v>15</v>
       </c>
-      <c r="D17" s="51">
+      <c r="D17" s="45">
         <v>2</v>
       </c>
-      <c r="E17" s="53" t="s">
+      <c r="E17" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="52"/>
-    </row>
-    <row r="18" s="24" customFormat="1" spans="1:6">
-      <c r="A18" s="24" t="s">
+      <c r="F17" s="47"/>
+    </row>
+    <row r="18" s="21" customFormat="1" spans="1:6">
+      <c r="A18" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="54" t="s">
+      <c r="B18" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="55">
+      <c r="C18" s="50">
         <v>15.01</v>
       </c>
-      <c r="D18" s="55">
+      <c r="D18" s="50">
         <v>3</v>
       </c>
-      <c r="E18" s="56" t="s">
+      <c r="E18" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="57"/>
+      <c r="F18" s="46"/>
     </row>
     <row r="19" s="17" customFormat="1" spans="1:6">
       <c r="A19" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="31">
+      <c r="C19" s="29">
         <v>3.6</v>
       </c>
-      <c r="D19" s="31">
+      <c r="D19" s="29">
         <v>4</v>
       </c>
-      <c r="E19" s="31" t="s">
+      <c r="E19" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="33"/>
+      <c r="F19" s="31"/>
     </row>
     <row r="20" s="17" customFormat="1" spans="1:6">
       <c r="A20" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="42" t="s">
+      <c r="B20" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="35">
+      <c r="C20" s="33">
         <v>25.1</v>
       </c>
-      <c r="D20" s="35">
+      <c r="D20" s="33">
         <v>4.9</v>
       </c>
-      <c r="E20" s="35" t="s">
+      <c r="E20" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="F20" s="33"/>
+      <c r="F20" s="31"/>
     </row>
     <row r="21" s="17" customFormat="1" spans="2:6">
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="31">
+      <c r="C21" s="29">
         <v>20</v>
       </c>
-      <c r="D21" s="31">
+      <c r="D21" s="29">
         <v>5</v>
       </c>
-      <c r="E21" s="31" t="s">
+      <c r="E21" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="33"/>
+      <c r="F21" s="31"/>
     </row>
     <row r="22" s="17" customFormat="1" spans="1:6">
       <c r="A22" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="43" t="s">
+      <c r="B22" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="31">
+      <c r="C22" s="29">
         <v>15</v>
       </c>
-      <c r="D22" s="31">
+      <c r="D22" s="29">
         <v>5</v>
       </c>
-      <c r="E22" s="31" t="s">
+      <c r="E22" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="F22" s="33"/>
+      <c r="F22" s="31"/>
     </row>
     <row r="23" s="17" customFormat="1" spans="1:6">
       <c r="A23" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="31">
+      <c r="C23" s="29">
         <v>30.1</v>
       </c>
-      <c r="D23" s="31">
+      <c r="D23" s="29">
         <v>3</v>
       </c>
-      <c r="E23" s="31" t="s">
+      <c r="E23" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F23" s="33"/>
+      <c r="F23" s="31"/>
     </row>
     <row r="24" s="17" customFormat="1" spans="1:6">
       <c r="A24" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="43" t="s">
+      <c r="B24" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="31">
+      <c r="C24" s="29">
         <v>4.5</v>
       </c>
-      <c r="D24" s="31">
+      <c r="D24" s="29">
         <v>2.5</v>
       </c>
-      <c r="E24" s="31" t="s">
+      <c r="E24" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="F24" s="33"/>
+      <c r="F24" s="31"/>
     </row>
     <row r="25" s="17" customFormat="1" spans="1:6">
       <c r="A25" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="43" t="s">
+      <c r="B25" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="31">
+      <c r="C25" s="29">
         <v>3.01</v>
       </c>
-      <c r="D25" s="31">
+      <c r="D25" s="29">
         <v>2</v>
       </c>
-      <c r="E25" s="31" t="s">
+      <c r="E25" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="F25" s="33"/>
+      <c r="F25" s="31"/>
     </row>
     <row r="26" s="18" customFormat="1" spans="1:6">
       <c r="A26" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="42" t="s">
+      <c r="B26" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="35">
+      <c r="C26" s="33">
         <v>25</v>
       </c>
-      <c r="D26" s="35">
+      <c r="D26" s="33">
         <v>5</v>
       </c>
-      <c r="E26" s="35" t="s">
+      <c r="E26" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="F26" s="37"/>
+      <c r="F26" s="35"/>
     </row>
     <row r="27" s="17" customFormat="1" spans="1:6">
       <c r="A27" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="43" t="s">
+      <c r="B27" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="31">
+      <c r="C27" s="29">
         <v>20</v>
       </c>
-      <c r="D27" s="31">
+      <c r="D27" s="29">
         <v>5</v>
       </c>
-      <c r="E27" s="31" t="s">
+      <c r="E27" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="F27" s="33"/>
+      <c r="F27" s="31"/>
     </row>
     <row r="28" s="17" customFormat="1" spans="1:6">
       <c r="A28" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="B28" s="43" t="s">
+      <c r="B28" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="31">
+      <c r="C28" s="29">
         <v>6</v>
       </c>
-      <c r="D28" s="31">
+      <c r="D28" s="29">
         <v>5</v>
       </c>
-      <c r="E28" s="31" t="s">
+      <c r="E28" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="F28" s="33"/>
-    </row>
-    <row r="29" s="25" customFormat="1" spans="1:6">
-      <c r="A29" s="25" t="s">
+      <c r="F28" s="31"/>
+    </row>
+    <row r="29" s="23" customFormat="1" spans="1:6">
+      <c r="A29" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B29" s="58" t="s">
+      <c r="B29" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="C29" s="59">
+      <c r="C29" s="53">
         <v>25.11</v>
       </c>
-      <c r="D29" s="59">
+      <c r="D29" s="53">
         <v>3</v>
       </c>
-      <c r="E29" s="59" t="s">
+      <c r="E29" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="F29" s="60"/>
+      <c r="F29" s="54"/>
     </row>
     <row r="30" s="17" customFormat="1" spans="1:6">
-      <c r="A30" s="61" t="s">
+      <c r="A30" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="B30" s="30" t="s">
+      <c r="B30" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="C30" s="31">
+      <c r="C30" s="29">
         <v>20.1</v>
       </c>
-      <c r="D30" s="31">
+      <c r="D30" s="29">
         <v>5</v>
       </c>
-      <c r="E30" s="31" t="s">
+      <c r="E30" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="F30" s="33"/>
+      <c r="F30" s="31"/>
     </row>
     <row r="31" s="22" customFormat="1" spans="1:6">
-      <c r="A31" s="62" t="s">
+      <c r="A31" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="B31" s="63" t="s">
+      <c r="B31" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="47">
+      <c r="C31" s="45">
         <v>10</v>
       </c>
-      <c r="D31" s="47">
+      <c r="D31" s="45">
         <v>5</v>
       </c>
-      <c r="E31" s="47" t="s">
+      <c r="E31" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="F31" s="49"/>
+      <c r="F31" s="47"/>
     </row>
     <row r="32" s="21" customFormat="1" spans="1:6">
-      <c r="A32" s="64" t="s">
+      <c r="A32" s="58" t="s">
         <v>82</v>
       </c>
-      <c r="B32" s="65" t="s">
+      <c r="B32" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="C32" s="66">
+      <c r="C32" s="50">
         <v>6.2</v>
       </c>
-      <c r="D32" s="66">
+      <c r="D32" s="50">
         <v>3</v>
       </c>
-      <c r="E32" s="66" t="s">
+      <c r="E32" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="F32" s="48"/>
+      <c r="F32" s="46"/>
     </row>
     <row r="33" s="17" customFormat="1" spans="1:6">
-      <c r="A33" s="61" t="s">
+      <c r="A33" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C33" s="31">
+      <c r="C33" s="29">
         <v>20</v>
       </c>
-      <c r="D33" s="31">
+      <c r="D33" s="29">
         <v>5</v>
       </c>
-      <c r="E33" s="31" t="s">
+      <c r="E33" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="F33" s="33"/>
+      <c r="F33" s="31"/>
     </row>
     <row r="34" s="17" customFormat="1" spans="1:6">
-      <c r="A34" s="61" t="s">
+      <c r="A34" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="B34" s="30" t="s">
+      <c r="B34" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="C34" s="31">
+      <c r="C34" s="29">
         <v>15</v>
       </c>
-      <c r="D34" s="31">
+      <c r="D34" s="29">
         <v>5</v>
       </c>
-      <c r="E34" s="31" t="s">
+      <c r="E34" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="F34" s="33"/>
+      <c r="F34" s="31"/>
     </row>
     <row r="35" s="22" customFormat="1" spans="1:6">
-      <c r="A35" s="62" t="s">
+      <c r="A35" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="B35" s="63" t="s">
+      <c r="B35" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="C35" s="47">
+      <c r="C35" s="45">
         <v>21</v>
       </c>
-      <c r="D35" s="47">
+      <c r="D35" s="45">
         <v>10</v>
       </c>
-      <c r="E35" s="47" t="s">
+      <c r="E35" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="F35" s="49"/>
+      <c r="F35" s="47"/>
     </row>
     <row r="36" s="17" customFormat="1" spans="1:6">
-      <c r="A36" s="61" t="s">
+      <c r="A36" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="B36" s="30" t="s">
+      <c r="B36" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="C36" s="31">
+      <c r="C36" s="29">
         <v>2</v>
       </c>
-      <c r="D36" s="67" t="s">
+      <c r="D36" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="E36" s="31" t="s">
+      <c r="E36" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="F36" s="33"/>
+      <c r="F36" s="31"/>
     </row>
     <row r="37" s="17" customFormat="1" spans="1:6">
-      <c r="A37" s="61" t="s">
+      <c r="A37" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="B37" s="30" t="s">
+      <c r="B37" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="C37" s="31">
+      <c r="C37" s="29">
         <v>6.12</v>
       </c>
-      <c r="D37" s="31">
+      <c r="D37" s="29">
         <v>3</v>
       </c>
-      <c r="E37" s="31" t="s">
+      <c r="E37" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="F37" s="33"/>
+      <c r="F37" s="31"/>
     </row>
     <row r="38" s="17" customFormat="1" spans="1:6">
-      <c r="A38" s="61" t="s">
+      <c r="A38" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="B38" s="30" t="s">
+      <c r="B38" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="C38" s="31">
+      <c r="C38" s="29">
         <v>10.2</v>
       </c>
-      <c r="D38" s="31">
+      <c r="D38" s="29">
         <v>3</v>
       </c>
-      <c r="E38" s="31" t="s">
+      <c r="E38" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="F38" s="33"/>
+      <c r="F38" s="31"/>
     </row>
     <row r="39" s="17" customFormat="1" spans="1:6">
-      <c r="A39" s="61" t="s">
+      <c r="A39" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="B39" s="30" t="s">
+      <c r="B39" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="C39" s="31">
+      <c r="C39" s="29">
         <v>20</v>
       </c>
-      <c r="D39" s="31">
+      <c r="D39" s="29">
         <v>10</v>
       </c>
-      <c r="E39" s="31" t="s">
+      <c r="E39" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="F39" s="33"/>
+      <c r="F39" s="31"/>
     </row>
     <row r="40" s="18" customFormat="1" spans="1:6">
       <c r="A40" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="B40" s="68" t="s">
+      <c r="B40" s="61" t="s">
         <v>104</v>
       </c>
-      <c r="C40" s="35">
+      <c r="C40" s="33">
         <v>31</v>
       </c>
-      <c r="D40" s="35">
+      <c r="D40" s="33">
         <v>6</v>
       </c>
-      <c r="E40" s="35" t="s">
+      <c r="E40" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="F40" s="37"/>
+      <c r="F40" s="35"/>
+    </row>
+    <row r="41" s="17" customFormat="1" spans="1:6">
+      <c r="A41" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="B41" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="C41" s="29">
+        <v>16</v>
+      </c>
+      <c r="D41" s="29">
+        <v>10</v>
+      </c>
+      <c r="E41" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="F41" s="31"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2338,6 +2344,8 @@
     <hyperlink ref="B3" r:id="rId14" display="华为nova4手机壳硅胶nova3全包防摔nova4e透明no" tooltip="http://item.taobao.com/item.htm?spm=a219t.7900221.1998910419.dafc012e7.346275a5vKGwCR&amp;id=596731806027"/>
     <hyperlink ref="A39" r:id="rId1" display="震番服饰" tooltip="点击进入店铺推广详情页"/>
     <hyperlink ref="B39" r:id="rId15" display="t恤女夏新款2019宽松chic舒适短袖白色ins洋气超" tooltip="http://item.taobao.com/item.htm?id=596139709466"/>
+    <hyperlink ref="A41" r:id="rId1" display="麦稻官方企业店" tooltip="点击进入店铺推广详情页"/>
+    <hyperlink ref="B41" r:id="rId16" display="麦稻发膜免蒸倒膜焗油膏顺滑护发 * 6 款洗护" tooltip="http://item.taobao.com/item.htm?id=552996587277"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2354,16 +2362,16 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="18.1296296296296" customWidth="1"/>
+    <col min="1" max="1" width="18.1333333333333" customWidth="1"/>
     <col min="2" max="2" width="53.25" style="7" customWidth="1"/>
-    <col min="3" max="3" width="12.3796296296296" style="5" customWidth="1"/>
-    <col min="4" max="6" width="8.37962962962963" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12.3833333333333" style="5" customWidth="1"/>
+    <col min="4" max="6" width="8.38333333333333" style="5" customWidth="1"/>
     <col min="7" max="7" width="26.75" style="5" customWidth="1"/>
     <col min="8" max="8" width="13.25" style="5" customWidth="1"/>
     <col min="9" max="9" width="17.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="18.5555555555556" customWidth="1"/>
+    <col min="10" max="10" width="18.5583333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="1" spans="1:10">
@@ -2371,13 +2379,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>2</v>
@@ -2386,13 +2394,13 @@
         <v>3</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>5</v>
@@ -2400,10 +2408,10 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="9" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C2" s="5">
         <v>9.9</v>
@@ -2418,13 +2426,13 @@
         <v>10</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H2" s="5">
         <v>326726450</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="2:2">
@@ -2433,10 +2441,10 @@
     <row r="4" spans="2:2">
       <c r="B4" s="10"/>
     </row>
-    <row r="5" ht="14.4" spans="2:2">
+    <row r="5" ht="14.25" spans="2:2">
       <c r="B5" s="11"/>
     </row>
-    <row r="6" ht="14.4" spans="2:2">
+    <row r="6" ht="14.25" spans="2:2">
       <c r="B6" s="11"/>
     </row>
     <row r="7" spans="2:2">
@@ -2448,7 +2456,7 @@
     <row r="9" spans="2:2">
       <c r="B9" s="10"/>
     </row>
-    <row r="10" ht="14.4" spans="2:2">
+    <row r="10" ht="14.25" spans="2:2">
       <c r="B10" s="11"/>
     </row>
     <row r="11" spans="2:2">
@@ -2457,16 +2465,16 @@
     <row r="12" spans="2:2">
       <c r="B12" s="10"/>
     </row>
-    <row r="13" ht="14.4" spans="2:2">
+    <row r="13" ht="14.25" spans="2:2">
       <c r="B13" s="11"/>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="10"/>
     </row>
-    <row r="15" ht="14.4" spans="2:2">
+    <row r="15" ht="14.25" spans="2:2">
       <c r="B15" s="11"/>
     </row>
-    <row r="16" ht="14.4" spans="2:2">
+    <row r="16" ht="14.25" spans="2:2">
       <c r="B16" s="11"/>
     </row>
     <row r="17" spans="2:2">
@@ -2494,7 +2502,7 @@
     <row r="22" spans="2:2">
       <c r="B22" s="10"/>
     </row>
-    <row r="23" ht="14.4" spans="2:2">
+    <row r="23" ht="14.25" spans="2:2">
       <c r="B23" s="14"/>
     </row>
     <row r="24" spans="2:2">
@@ -2509,7 +2517,7 @@
     <row r="27" spans="2:2">
       <c r="B27" s="10"/>
     </row>
-    <row r="28" ht="14.4" spans="2:2">
+    <row r="28" ht="14.25" spans="2:2">
       <c r="B28" s="11"/>
     </row>
   </sheetData>
@@ -2535,20 +2543,20 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="20.3333333333333" customWidth="1"/>
     <col min="2" max="2" width="47" customWidth="1"/>
-    <col min="3" max="3" width="19.5555555555556" customWidth="1"/>
+    <col min="3" max="3" width="19.5583333333333" customWidth="1"/>
     <col min="4" max="4" width="17.3333333333333" customWidth="1"/>
-    <col min="5" max="5" width="16.2222222222222" customWidth="1"/>
+    <col min="5" max="5" width="16.225" customWidth="1"/>
     <col min="6" max="6" width="35.6666666666667" customWidth="1"/>
     <col min="7" max="7" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15" spans="1:7">
+    <row r="1" s="1" customFormat="1" ht="16.5" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -2560,10 +2568,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>5</v>
@@ -2585,7 +2593,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/招商团长/报名活动单.xlsx
+++ b/招商团长/报名活动单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21450" windowHeight="9045"/>
+    <workbookView windowWidth="23295" windowHeight="9045" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="6月报名清单" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="129">
   <si>
     <t>店铺</t>
   </si>
@@ -355,6 +355,9 @@
     <t>优惠券</t>
   </si>
   <si>
+    <t>报名时间</t>
+  </si>
+  <si>
     <t>推广时间</t>
   </si>
   <si>
@@ -374,6 +377,27 @@
   </si>
   <si>
     <t>https://detail.tmall.com/item.htm?spm=a230r.1.14.6.75a43b61UiE1Wn&amp;id=596977090868&amp;cm_id=140105335569ed55e27b&amp;abbucket=5</t>
+  </si>
+  <si>
+    <t>零语旗舰店</t>
+  </si>
+  <si>
+    <t>脱毛膏女全身抑制男女士专用除私处腋毛腿毛唇部温和去毛膏不永久</t>
+  </si>
+  <si>
+    <t>2019.06.27-2019.07.31</t>
+  </si>
+  <si>
+    <t>2019.06.28-2019.07.02</t>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?spm=a212k0.12153887.0.0.2759687dP5RzZj&amp;id=547078093989&amp;skuId=3566631730189</t>
+  </si>
+  <si>
+    <t>2019.06.28-2019.07.04</t>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?id=573247426562</t>
   </si>
   <si>
     <t>店铺名称</t>
@@ -392,7 +416,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -407,21 +431,32 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="9"/>
       <color rgb="FF888888"/>
-      <name val="Arial"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="major"/>
     </font>
     <font>
       <u/>
@@ -463,7 +498,128 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -476,127 +632,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -619,138 +654,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -758,48 +835,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -810,30 +845,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -848,41 +859,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -904,12 +880,71 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -918,10 +953,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -930,137 +965,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1085,107 +1120,137 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1194,57 +1259,36 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1306,6 +1350,125 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1200150</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>194945</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2" descr="零语旗舰店脱毛膏报名图片"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12308205" y="447675"/>
+          <a:ext cx="714375" cy="166370"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1823720</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>10795</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3" descr="优至美旗舰店胶原蛋白液报名图片"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11898630" y="638175"/>
+          <a:ext cx="1747520" cy="210820"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1847850</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="dd0828535cb8c34e217dfa2a7cfa268"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11908155" y="219075"/>
+          <a:ext cx="1762125" cy="193675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1597,726 +1760,726 @@
   <sheetPr/>
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="18.5" style="24" customWidth="1"/>
-    <col min="2" max="2" width="39.8833333333333" style="25" customWidth="1"/>
-    <col min="3" max="3" width="19.8833333333333" style="26" customWidth="1"/>
-    <col min="4" max="4" width="18.75" style="26" customWidth="1"/>
-    <col min="5" max="5" width="31.6333333333333" style="26" customWidth="1"/>
-    <col min="6" max="6" width="36.3833333333333" style="27" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="24"/>
+    <col min="1" max="1" width="18.5" style="27" customWidth="1"/>
+    <col min="2" max="2" width="39.8833333333333" style="28" customWidth="1"/>
+    <col min="3" max="3" width="19.8833333333333" style="29" customWidth="1"/>
+    <col min="4" max="4" width="18.75" style="29" customWidth="1"/>
+    <col min="5" max="5" width="31.6333333333333" style="29" customWidth="1"/>
+    <col min="6" max="6" width="36.3833333333333" style="30" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="30" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="17" customFormat="1" spans="1:6">
-      <c r="A2" s="17" t="s">
+    <row r="2" s="20" customFormat="1" spans="1:6">
+      <c r="A2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="29">
+      <c r="C2" s="32">
         <v>20</v>
       </c>
-      <c r="D2" s="29">
+      <c r="D2" s="32">
         <v>5</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="31"/>
-    </row>
-    <row r="3" s="17" customFormat="1" spans="2:6">
-      <c r="B3" s="28" t="s">
+      <c r="F2" s="34"/>
+    </row>
+    <row r="3" s="20" customFormat="1" spans="2:6">
+      <c r="B3" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="32">
         <v>20.01</v>
       </c>
-      <c r="D3" s="29">
+      <c r="D3" s="32">
         <v>5</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="31"/>
-    </row>
-    <row r="4" s="18" customFormat="1" spans="1:6">
-      <c r="A4" s="18" t="s">
+      <c r="F3" s="34"/>
+    </row>
+    <row r="4" s="21" customFormat="1" spans="1:6">
+      <c r="A4" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="34" t="s">
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="35"/>
-    </row>
-    <row r="5" s="19" customFormat="1" spans="1:6">
-      <c r="A5" s="19" t="s">
+      <c r="F4" s="38"/>
+    </row>
+    <row r="5" s="22" customFormat="1" spans="1:6">
+      <c r="A5" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="37">
+      <c r="C5" s="40">
         <v>10.1</v>
       </c>
-      <c r="D5" s="37">
+      <c r="D5" s="40">
         <v>4</v>
       </c>
-      <c r="E5" s="38" t="s">
+      <c r="E5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="39"/>
-    </row>
-    <row r="6" s="18" customFormat="1" spans="1:6">
-      <c r="A6" s="18" t="s">
+      <c r="F5" s="42"/>
+    </row>
+    <row r="6" s="21" customFormat="1" spans="1:6">
+      <c r="A6" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="34" t="s">
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="35"/>
-    </row>
-    <row r="7" s="17" customFormat="1" spans="2:6">
-      <c r="B7" s="41" t="s">
+      <c r="F6" s="38"/>
+    </row>
+    <row r="7" s="20" customFormat="1" spans="2:6">
+      <c r="B7" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="32">
         <v>15</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D7" s="32">
         <v>3</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="31"/>
-    </row>
-    <row r="8" s="17" customFormat="1" spans="2:6">
-      <c r="B8" s="28" t="s">
+      <c r="F7" s="34"/>
+    </row>
+    <row r="8" s="20" customFormat="1" spans="2:6">
+      <c r="B8" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="30" t="s">
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="31"/>
-    </row>
-    <row r="9" s="20" customFormat="1" spans="1:6">
-      <c r="A9" s="20" t="s">
+      <c r="F8" s="34"/>
+    </row>
+    <row r="9" s="23" customFormat="1" spans="1:6">
+      <c r="A9" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="43">
+      <c r="C9" s="46">
         <v>10.01</v>
       </c>
-      <c r="D9" s="43">
+      <c r="D9" s="46">
         <v>4.9</v>
       </c>
-      <c r="E9" s="43" t="s">
+      <c r="E9" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="44" t="s">
+      <c r="F9" s="47" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" s="21" customFormat="1" spans="1:6">
-      <c r="A10" s="21" t="s">
+    <row r="10" s="24" customFormat="1" spans="1:6">
+      <c r="A10" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="45">
+      <c r="C10" s="48">
         <v>40</v>
       </c>
-      <c r="D10" s="45">
+      <c r="D10" s="48">
         <v>10</v>
       </c>
-      <c r="E10" s="45" t="s">
+      <c r="E10" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="46"/>
-    </row>
-    <row r="11" s="17" customFormat="1" spans="2:6">
-      <c r="B11" s="41" t="s">
+      <c r="F10" s="49"/>
+    </row>
+    <row r="11" s="20" customFormat="1" spans="2:6">
+      <c r="B11" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="29">
+      <c r="C11" s="32">
         <v>25.2</v>
       </c>
-      <c r="D11" s="29">
+      <c r="D11" s="32">
         <v>4</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="31"/>
-    </row>
-    <row r="12" s="17" customFormat="1" spans="2:6">
-      <c r="B12" s="28" t="s">
+      <c r="F11" s="34"/>
+    </row>
+    <row r="12" s="20" customFormat="1" spans="2:6">
+      <c r="B12" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="29">
+      <c r="C12" s="32">
         <v>6</v>
       </c>
-      <c r="D12" s="29">
+      <c r="D12" s="32">
         <v>5</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="31"/>
-    </row>
-    <row r="13" s="22" customFormat="1" spans="1:6">
-      <c r="A13" s="22" t="s">
+      <c r="F12" s="34"/>
+    </row>
+    <row r="13" s="25" customFormat="1" spans="1:6">
+      <c r="A13" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="45">
+      <c r="C13" s="48">
         <v>5.2</v>
       </c>
-      <c r="D13" s="45">
+      <c r="D13" s="48">
         <v>4</v>
       </c>
-      <c r="E13" s="45" t="s">
+      <c r="E13" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="47"/>
-    </row>
-    <row r="14" s="22" customFormat="1" spans="1:6">
-      <c r="A14" s="22" t="s">
+      <c r="F13" s="50"/>
+    </row>
+    <row r="14" s="25" customFormat="1" spans="1:6">
+      <c r="A14" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="45">
+      <c r="C14" s="48">
         <v>10.1</v>
       </c>
-      <c r="D14" s="45">
+      <c r="D14" s="48">
         <v>5</v>
       </c>
-      <c r="E14" s="45" t="s">
+      <c r="E14" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="47"/>
-    </row>
-    <row r="15" s="22" customFormat="1" spans="1:6">
-      <c r="A15" s="22" t="s">
+      <c r="F14" s="50"/>
+    </row>
+    <row r="15" s="25" customFormat="1" spans="1:6">
+      <c r="A15" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="45">
+      <c r="C15" s="48">
         <v>18.01</v>
       </c>
-      <c r="D15" s="45">
+      <c r="D15" s="48">
         <v>2</v>
       </c>
-      <c r="E15" s="48" t="s">
+      <c r="E15" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="47"/>
-    </row>
-    <row r="16" s="22" customFormat="1" spans="2:6">
-      <c r="B16" s="32" t="s">
+      <c r="F15" s="50"/>
+    </row>
+    <row r="16" s="25" customFormat="1" spans="2:6">
+      <c r="B16" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="45">
+      <c r="C16" s="48">
         <v>10</v>
       </c>
-      <c r="D16" s="45">
+      <c r="D16" s="48">
         <v>2</v>
       </c>
-      <c r="E16" s="48" t="s">
+      <c r="E16" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="47"/>
-    </row>
-    <row r="17" s="22" customFormat="1" spans="2:6">
-      <c r="B17" s="32" t="s">
+      <c r="F16" s="50"/>
+    </row>
+    <row r="17" s="25" customFormat="1" spans="2:6">
+      <c r="B17" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="45">
+      <c r="C17" s="48">
         <v>15</v>
       </c>
-      <c r="D17" s="45">
+      <c r="D17" s="48">
         <v>2</v>
       </c>
-      <c r="E17" s="48" t="s">
+      <c r="E17" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="47"/>
-    </row>
-    <row r="18" s="21" customFormat="1" spans="1:6">
-      <c r="A18" s="21" t="s">
+      <c r="F17" s="50"/>
+    </row>
+    <row r="18" s="24" customFormat="1" spans="1:6">
+      <c r="A18" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="50">
+      <c r="C18" s="53">
         <v>15.01</v>
       </c>
-      <c r="D18" s="50">
+      <c r="D18" s="53">
         <v>3</v>
       </c>
-      <c r="E18" s="51" t="s">
+      <c r="E18" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="46"/>
-    </row>
-    <row r="19" s="17" customFormat="1" spans="1:6">
-      <c r="A19" s="17" t="s">
+      <c r="F18" s="49"/>
+    </row>
+    <row r="19" s="20" customFormat="1" spans="1:6">
+      <c r="A19" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="29">
+      <c r="C19" s="32">
         <v>3.6</v>
       </c>
-      <c r="D19" s="29">
+      <c r="D19" s="32">
         <v>4</v>
       </c>
-      <c r="E19" s="29" t="s">
+      <c r="E19" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="31"/>
-    </row>
-    <row r="20" s="17" customFormat="1" spans="1:6">
-      <c r="A20" s="17" t="s">
+      <c r="F19" s="34"/>
+    </row>
+    <row r="20" s="20" customFormat="1" spans="1:6">
+      <c r="A20" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="40" t="s">
+      <c r="B20" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="33">
+      <c r="C20" s="36">
         <v>25.1</v>
       </c>
-      <c r="D20" s="33">
+      <c r="D20" s="36">
         <v>4.9</v>
       </c>
-      <c r="E20" s="33" t="s">
+      <c r="E20" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="F20" s="31"/>
-    </row>
-    <row r="21" s="17" customFormat="1" spans="2:6">
-      <c r="B21" s="41" t="s">
+      <c r="F20" s="34"/>
+    </row>
+    <row r="21" s="20" customFormat="1" spans="2:6">
+      <c r="B21" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="29">
+      <c r="C21" s="32">
         <v>20</v>
       </c>
-      <c r="D21" s="29">
+      <c r="D21" s="32">
         <v>5</v>
       </c>
-      <c r="E21" s="29" t="s">
+      <c r="E21" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="31"/>
-    </row>
-    <row r="22" s="17" customFormat="1" spans="1:6">
-      <c r="A22" s="17" t="s">
+      <c r="F21" s="34"/>
+    </row>
+    <row r="22" s="20" customFormat="1" spans="1:6">
+      <c r="A22" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="41" t="s">
+      <c r="B22" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="29">
+      <c r="C22" s="32">
         <v>15</v>
       </c>
-      <c r="D22" s="29">
+      <c r="D22" s="32">
         <v>5</v>
       </c>
-      <c r="E22" s="29" t="s">
+      <c r="E22" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="F22" s="31"/>
-    </row>
-    <row r="23" s="17" customFormat="1" spans="1:6">
-      <c r="A23" s="17" t="s">
+      <c r="F22" s="34"/>
+    </row>
+    <row r="23" s="20" customFormat="1" spans="1:6">
+      <c r="A23" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="41" t="s">
+      <c r="B23" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="29">
+      <c r="C23" s="32">
         <v>30.1</v>
       </c>
-      <c r="D23" s="29">
+      <c r="D23" s="32">
         <v>3</v>
       </c>
-      <c r="E23" s="29" t="s">
+      <c r="E23" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="F23" s="31"/>
-    </row>
-    <row r="24" s="17" customFormat="1" spans="1:6">
-      <c r="A24" s="17" t="s">
+      <c r="F23" s="34"/>
+    </row>
+    <row r="24" s="20" customFormat="1" spans="1:6">
+      <c r="A24" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="41" t="s">
+      <c r="B24" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="29">
+      <c r="C24" s="32">
         <v>4.5</v>
       </c>
-      <c r="D24" s="29">
+      <c r="D24" s="32">
         <v>2.5</v>
       </c>
-      <c r="E24" s="29" t="s">
+      <c r="E24" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="F24" s="31"/>
-    </row>
-    <row r="25" s="17" customFormat="1" spans="1:6">
-      <c r="A25" s="17" t="s">
+      <c r="F24" s="34"/>
+    </row>
+    <row r="25" s="20" customFormat="1" spans="1:6">
+      <c r="A25" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="41" t="s">
+      <c r="B25" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="29">
+      <c r="C25" s="32">
         <v>3.01</v>
       </c>
-      <c r="D25" s="29">
+      <c r="D25" s="32">
         <v>2</v>
       </c>
-      <c r="E25" s="29" t="s">
+      <c r="E25" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="F25" s="31"/>
-    </row>
-    <row r="26" s="18" customFormat="1" spans="1:6">
-      <c r="A26" s="18" t="s">
+      <c r="F25" s="34"/>
+    </row>
+    <row r="26" s="21" customFormat="1" spans="1:6">
+      <c r="A26" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="40" t="s">
+      <c r="B26" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="33">
+      <c r="C26" s="36">
         <v>25</v>
       </c>
-      <c r="D26" s="33">
+      <c r="D26" s="36">
         <v>5</v>
       </c>
-      <c r="E26" s="33" t="s">
+      <c r="E26" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="F26" s="35"/>
-    </row>
-    <row r="27" s="17" customFormat="1" spans="1:6">
-      <c r="A27" s="17" t="s">
+      <c r="F26" s="38"/>
+    </row>
+    <row r="27" s="20" customFormat="1" spans="1:6">
+      <c r="A27" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="41" t="s">
+      <c r="B27" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="29">
+      <c r="C27" s="32">
         <v>20</v>
       </c>
-      <c r="D27" s="29">
+      <c r="D27" s="32">
         <v>5</v>
       </c>
-      <c r="E27" s="29" t="s">
+      <c r="E27" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="F27" s="31"/>
-    </row>
-    <row r="28" s="17" customFormat="1" spans="1:6">
-      <c r="A28" s="17" t="s">
+      <c r="F27" s="34"/>
+    </row>
+    <row r="28" s="20" customFormat="1" spans="1:6">
+      <c r="A28" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="B28" s="41" t="s">
+      <c r="B28" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="29">
+      <c r="C28" s="32">
         <v>6</v>
       </c>
-      <c r="D28" s="29">
+      <c r="D28" s="32">
         <v>5</v>
       </c>
-      <c r="E28" s="29" t="s">
+      <c r="E28" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="F28" s="31"/>
-    </row>
-    <row r="29" s="23" customFormat="1" spans="1:6">
-      <c r="A29" s="23" t="s">
+      <c r="F28" s="34"/>
+    </row>
+    <row r="29" s="26" customFormat="1" spans="1:6">
+      <c r="A29" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="B29" s="52" t="s">
+      <c r="B29" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="C29" s="53">
+      <c r="C29" s="56">
         <v>25.11</v>
       </c>
-      <c r="D29" s="53">
+      <c r="D29" s="56">
         <v>3</v>
       </c>
-      <c r="E29" s="53" t="s">
+      <c r="E29" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="F29" s="54"/>
-    </row>
-    <row r="30" s="17" customFormat="1" spans="1:6">
-      <c r="A30" s="55" t="s">
+      <c r="F29" s="57"/>
+    </row>
+    <row r="30" s="20" customFormat="1" spans="1:6">
+      <c r="A30" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="C30" s="29">
+      <c r="C30" s="32">
         <v>20.1</v>
       </c>
-      <c r="D30" s="29">
+      <c r="D30" s="32">
         <v>5</v>
       </c>
-      <c r="E30" s="29" t="s">
+      <c r="E30" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="F30" s="31"/>
-    </row>
-    <row r="31" s="22" customFormat="1" spans="1:6">
-      <c r="A31" s="56" t="s">
+      <c r="F30" s="34"/>
+    </row>
+    <row r="31" s="25" customFormat="1" spans="1:6">
+      <c r="A31" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="B31" s="57" t="s">
+      <c r="B31" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="45">
+      <c r="C31" s="48">
         <v>10</v>
       </c>
-      <c r="D31" s="45">
+      <c r="D31" s="48">
         <v>5</v>
       </c>
-      <c r="E31" s="45" t="s">
+      <c r="E31" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="F31" s="47"/>
-    </row>
-    <row r="32" s="21" customFormat="1" spans="1:6">
-      <c r="A32" s="58" t="s">
+      <c r="F31" s="50"/>
+    </row>
+    <row r="32" s="24" customFormat="1" spans="1:6">
+      <c r="A32" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="B32" s="59" t="s">
+      <c r="B32" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="C32" s="50">
+      <c r="C32" s="53">
         <v>6.2</v>
       </c>
-      <c r="D32" s="50">
+      <c r="D32" s="53">
         <v>3</v>
       </c>
-      <c r="E32" s="50" t="s">
+      <c r="E32" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="F32" s="46"/>
-    </row>
-    <row r="33" s="17" customFormat="1" spans="1:6">
-      <c r="A33" s="55" t="s">
+      <c r="F32" s="49"/>
+    </row>
+    <row r="33" s="20" customFormat="1" spans="1:6">
+      <c r="A33" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="B33" s="28" t="s">
+      <c r="B33" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="C33" s="29">
+      <c r="C33" s="32">
         <v>20</v>
       </c>
-      <c r="D33" s="29">
+      <c r="D33" s="32">
         <v>5</v>
       </c>
-      <c r="E33" s="29" t="s">
+      <c r="E33" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="F33" s="31"/>
-    </row>
-    <row r="34" s="17" customFormat="1" spans="1:6">
-      <c r="A34" s="55" t="s">
+      <c r="F33" s="34"/>
+    </row>
+    <row r="34" s="20" customFormat="1" spans="1:6">
+      <c r="A34" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="B34" s="28" t="s">
+      <c r="B34" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="C34" s="29">
+      <c r="C34" s="32">
         <v>15</v>
       </c>
-      <c r="D34" s="29">
+      <c r="D34" s="32">
         <v>5</v>
       </c>
-      <c r="E34" s="29" t="s">
+      <c r="E34" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="F34" s="31"/>
-    </row>
-    <row r="35" s="22" customFormat="1" spans="1:6">
-      <c r="A35" s="56" t="s">
+      <c r="F34" s="34"/>
+    </row>
+    <row r="35" s="25" customFormat="1" spans="1:6">
+      <c r="A35" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="B35" s="57" t="s">
+      <c r="B35" s="60" t="s">
         <v>90</v>
       </c>
-      <c r="C35" s="45">
+      <c r="C35" s="48">
         <v>21</v>
       </c>
-      <c r="D35" s="45">
+      <c r="D35" s="48">
         <v>10</v>
       </c>
-      <c r="E35" s="45" t="s">
+      <c r="E35" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="F35" s="47"/>
-    </row>
-    <row r="36" s="17" customFormat="1" spans="1:6">
-      <c r="A36" s="55" t="s">
+      <c r="F35" s="50"/>
+    </row>
+    <row r="36" s="20" customFormat="1" spans="1:6">
+      <c r="A36" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="B36" s="28" t="s">
+      <c r="B36" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="C36" s="29">
+      <c r="C36" s="32">
         <v>2</v>
       </c>
-      <c r="D36" s="60" t="s">
+      <c r="D36" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="E36" s="29" t="s">
+      <c r="E36" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="F36" s="31"/>
-    </row>
-    <row r="37" s="17" customFormat="1" spans="1:6">
-      <c r="A37" s="55" t="s">
+      <c r="F36" s="34"/>
+    </row>
+    <row r="37" s="20" customFormat="1" spans="1:6">
+      <c r="A37" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="B37" s="28" t="s">
+      <c r="B37" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="C37" s="29">
+      <c r="C37" s="32">
         <v>6.12</v>
       </c>
-      <c r="D37" s="29">
+      <c r="D37" s="32">
         <v>3</v>
       </c>
-      <c r="E37" s="29" t="s">
+      <c r="E37" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="F37" s="31"/>
-    </row>
-    <row r="38" s="17" customFormat="1" spans="1:6">
-      <c r="A38" s="55" t="s">
+      <c r="F37" s="34"/>
+    </row>
+    <row r="38" s="20" customFormat="1" spans="1:6">
+      <c r="A38" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="B38" s="28" t="s">
+      <c r="B38" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="C38" s="29">
+      <c r="C38" s="32">
         <v>10.2</v>
       </c>
-      <c r="D38" s="29">
+      <c r="D38" s="32">
         <v>3</v>
       </c>
-      <c r="E38" s="29" t="s">
+      <c r="E38" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="F38" s="31"/>
-    </row>
-    <row r="39" s="17" customFormat="1" spans="1:6">
-      <c r="A39" s="55" t="s">
+      <c r="F38" s="34"/>
+    </row>
+    <row r="39" s="20" customFormat="1" spans="1:6">
+      <c r="A39" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="B39" s="28" t="s">
+      <c r="B39" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="C39" s="29">
+      <c r="C39" s="32">
         <v>20</v>
       </c>
-      <c r="D39" s="29">
+      <c r="D39" s="32">
         <v>10</v>
       </c>
-      <c r="E39" s="29" t="s">
+      <c r="E39" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="F39" s="31"/>
-    </row>
-    <row r="40" s="18" customFormat="1" spans="1:6">
-      <c r="A40" s="18" t="s">
+      <c r="F39" s="34"/>
+    </row>
+    <row r="40" s="21" customFormat="1" spans="1:6">
+      <c r="A40" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="B40" s="61" t="s">
+      <c r="B40" s="64" t="s">
         <v>104</v>
       </c>
-      <c r="C40" s="33">
+      <c r="C40" s="36">
         <v>31</v>
       </c>
-      <c r="D40" s="33">
+      <c r="D40" s="36">
         <v>6</v>
       </c>
-      <c r="E40" s="33" t="s">
+      <c r="E40" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="F40" s="35"/>
-    </row>
-    <row r="41" s="17" customFormat="1" spans="1:6">
-      <c r="A41" s="55" t="s">
+      <c r="F40" s="38"/>
+    </row>
+    <row r="41" s="20" customFormat="1" spans="1:6">
+      <c r="A41" s="58" t="s">
         <v>106</v>
       </c>
-      <c r="B41" s="28" t="s">
+      <c r="B41" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="C41" s="29">
+      <c r="C41" s="32">
         <v>16</v>
       </c>
-      <c r="D41" s="29">
+      <c r="D41" s="32">
         <v>10</v>
       </c>
-      <c r="E41" s="29" t="s">
+      <c r="E41" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="F41" s="31"/>
+      <c r="F41" s="34"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2356,29 +2519,30 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="18.1333333333333" customWidth="1"/>
-    <col min="2" max="2" width="53.25" style="7" customWidth="1"/>
-    <col min="3" max="3" width="12.3833333333333" style="5" customWidth="1"/>
+    <col min="1" max="1" width="12.875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="31.375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="9.875" style="5" customWidth="1"/>
     <col min="4" max="6" width="8.38333333333333" style="5" customWidth="1"/>
-    <col min="7" max="7" width="26.75" style="5" customWidth="1"/>
-    <col min="8" max="8" width="13.25" style="5" customWidth="1"/>
-    <col min="9" max="9" width="17.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="18.5583333333333" customWidth="1"/>
+    <col min="7" max="7" width="22.75" style="5" customWidth="1"/>
+    <col min="8" max="8" width="22.375" style="5" customWidth="1"/>
+    <col min="9" max="9" width="13.25" style="5" customWidth="1"/>
+    <col min="10" max="10" width="17.5" style="2" customWidth="1"/>
+    <col min="11" max="11" width="24.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" spans="1:10">
+    <row r="1" s="5" customFormat="1" spans="1:11">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>109</v>
       </c>
       <c r="C1" s="5" t="s">
@@ -2403,15 +2567,18 @@
         <v>114</v>
       </c>
       <c r="J1" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="1:10">
+      <c r="A2" s="10" t="s">
         <v>116</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>117</v>
       </c>
       <c r="C2" s="5">
         <v>9.9</v>
@@ -2426,111 +2593,176 @@
         <v>10</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="H2" s="5">
+        <v>118</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="I2" s="5">
         <v>326726450</v>
       </c>
-      <c r="I2" s="15" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2">
-      <c r="B3" s="10"/>
-    </row>
-    <row r="4" spans="2:2">
-      <c r="B4" s="10"/>
+      <c r="J2" s="18" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="5">
+        <v>15.8</v>
+      </c>
+      <c r="D3" s="5">
+        <v>20</v>
+      </c>
+      <c r="E3" s="5">
+        <v>50</v>
+      </c>
+      <c r="F3" s="5">
+        <v>10</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="I3" s="5">
+        <v>329827419</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="5">
+        <v>69</v>
+      </c>
+      <c r="D4" s="5">
+        <v>130</v>
+      </c>
+      <c r="E4" s="5">
+        <v>25.1</v>
+      </c>
+      <c r="F4" s="5">
+        <v>8</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="I4" s="5">
+        <v>329827419</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="5" ht="14.25" spans="2:2">
-      <c r="B5" s="11"/>
+      <c r="B5" s="12"/>
     </row>
     <row r="6" ht="14.25" spans="2:2">
-      <c r="B6" s="11"/>
+      <c r="B6" s="12"/>
     </row>
     <row r="7" spans="2:2">
-      <c r="B7" s="10"/>
+      <c r="B7" s="11"/>
     </row>
     <row r="8" spans="2:2">
-      <c r="B8" s="10"/>
-    </row>
-    <row r="9" spans="2:2">
-      <c r="B9" s="10"/>
+      <c r="B8" s="11"/>
+    </row>
+    <row r="9" ht="13.5" spans="2:2">
+      <c r="B9" s="13"/>
     </row>
     <row r="10" ht="14.25" spans="2:2">
-      <c r="B10" s="11"/>
+      <c r="B10" s="12"/>
     </row>
     <row r="11" spans="2:2">
-      <c r="B11" s="10"/>
+      <c r="B11" s="11"/>
     </row>
     <row r="12" spans="2:2">
-      <c r="B12" s="10"/>
+      <c r="B12" s="11"/>
     </row>
     <row r="13" ht="14.25" spans="2:2">
-      <c r="B13" s="11"/>
+      <c r="B13" s="12"/>
     </row>
     <row r="14" spans="2:2">
-      <c r="B14" s="10"/>
+      <c r="B14" s="11"/>
     </row>
     <row r="15" ht="14.25" spans="2:2">
-      <c r="B15" s="11"/>
+      <c r="B15" s="12"/>
     </row>
     <row r="16" ht="14.25" spans="2:2">
-      <c r="B16" s="11"/>
+      <c r="B16" s="12"/>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="10"/>
+      <c r="B17" s="11"/>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="10"/>
+      <c r="B18" s="11"/>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="10"/>
-    </row>
-    <row r="20" s="6" customFormat="1" spans="2:9">
-      <c r="B20" s="10"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="16"/>
+      <c r="B19" s="11"/>
+    </row>
+    <row r="20" s="6" customFormat="1" spans="1:10">
+      <c r="A20" s="14"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="19"/>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="13"/>
+      <c r="B21" s="16"/>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="10"/>
+      <c r="B22" s="11"/>
     </row>
     <row r="23" ht="14.25" spans="2:2">
-      <c r="B23" s="14"/>
+      <c r="B23" s="17"/>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="13"/>
+      <c r="B24" s="16"/>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="10"/>
+      <c r="B25" s="11"/>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="10"/>
+      <c r="B26" s="11"/>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="10"/>
+      <c r="B27" s="11"/>
     </row>
     <row r="28" ht="14.25" spans="2:2">
-      <c r="B28" s="11"/>
+      <c r="B28" s="12"/>
     </row>
   </sheetData>
   <sortState ref="B1:B28">
     <sortCondition ref="B16"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="援邦旗舰店" tooltip="https://store.taobao.com/shop/view_shop.htm?user_number_id=4081911013"/>
-    <hyperlink ref="I2" r:id="rId2" display="https://detail.tmall.com/item.htm?spm=a230r.1.14.6.75a43b61UiE1Wn&amp;id=596977090868&amp;cm_id=140105335569ed55e27b&amp;abbucket=5" tooltip="https://detail.tmall.com/item.htm?spm=a230r.1.14.6.75a43b61UiE1Wn&amp;id=596977090868&amp;cm_id=140105335569ed55e27b&amp;abbucket=5"/>
+    <hyperlink ref="J2" r:id="rId2" display="https://detail.tmall.com/item.htm?spm=a230r.1.14.6.75a43b61UiE1Wn&amp;id=596977090868&amp;cm_id=140105335569ed55e27b&amp;abbucket=5" tooltip="https://detail.tmall.com/item.htm?spm=a230r.1.14.6.75a43b61UiE1Wn&amp;id=596977090868&amp;cm_id=140105335569ed55e27b&amp;abbucket=5"/>
+    <hyperlink ref="J3" r:id="rId3" display="https://detail.tmall.com/item.htm?spm=a212k0.12153887.0.0.2759687dP5RzZj&amp;id=547078093989&amp;skuId=3566631730189"/>
+    <hyperlink ref="J4" r:id="rId4" display="https://detail.tmall.com/item.htm?id=573247426562"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2556,7 +2788,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="16.5" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -2568,10 +2800,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>5</v>

--- a/招商团长/报名活动单.xlsx
+++ b/招商团长/报名活动单.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="6月报名清单" sheetId="1" r:id="rId1"/>
-    <sheet name="线下跑单list" sheetId="2" r:id="rId2"/>
+    <sheet name="晓彬线下跑单list" sheetId="2" r:id="rId2"/>
     <sheet name="7月报名单" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="134">
   <si>
     <t>店铺</t>
   </si>
@@ -346,6 +346,15 @@
     <t>起：2019-06-26 止：2019-07-03</t>
   </si>
   <si>
+    <t>回头客山东专卖店</t>
+  </si>
+  <si>
+    <t>回头客华夫饼干铜锣烧蛋糕点心营养早餐年货</t>
+  </si>
+  <si>
+    <t>起：2019-06-29 止：2019-07-05</t>
+  </si>
+  <si>
     <t xml:space="preserve">商品 </t>
   </si>
   <si>
@@ -373,6 +382,9 @@
     <t>车载水基型灭火器车用私家车小型便携汽车内家用小车轿车消防器材</t>
   </si>
   <si>
+    <t>2019.06.28-2019.08.01</t>
+  </si>
+  <si>
     <t>2019.06.23-2019.06.28</t>
   </si>
   <si>
@@ -398,6 +410,9 @@
   </si>
   <si>
     <t>https://detail.tmall.com/item.htm?id=573247426562</t>
+  </si>
+  <si>
+    <t>火灾逃生应急箱 * 7款 引流产品</t>
   </si>
   <si>
     <t>店铺名称</t>
@@ -411,10 +426,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -498,14 +513,67 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -515,6 +583,21 @@
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -526,13 +609,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -541,61 +617,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -609,29 +641,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -654,187 +669,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -845,6 +860,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -859,6 +883,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -889,33 +946,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -930,21 +960,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -953,10 +968,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -965,16 +980,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -983,115 +998,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1758,10 +1773,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+      <selection activeCell="A42" sqref="$A42:$XFD42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
@@ -2480,6 +2495,24 @@
         <v>108</v>
       </c>
       <c r="F41" s="34"/>
+    </row>
+    <row r="42" s="20" customFormat="1" spans="1:6">
+      <c r="A42" s="58" t="s">
+        <v>109</v>
+      </c>
+      <c r="B42" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="C42" s="32">
+        <v>20.4</v>
+      </c>
+      <c r="D42" s="32">
+        <v>4</v>
+      </c>
+      <c r="E42" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="F42" s="34"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2509,6 +2542,8 @@
     <hyperlink ref="B39" r:id="rId15" display="t恤女夏新款2019宽松chic舒适短袖白色ins洋气超" tooltip="http://item.taobao.com/item.htm?id=596139709466"/>
     <hyperlink ref="A41" r:id="rId1" display="麦稻官方企业店" tooltip="点击进入店铺推广详情页"/>
     <hyperlink ref="B41" r:id="rId16" display="麦稻发膜免蒸倒膜焗油膏顺滑护发 * 6 款洗护" tooltip="http://item.taobao.com/item.htm?id=552996587277"/>
+    <hyperlink ref="A42" r:id="rId1" display="回头客山东专卖店" tooltip="点击进入店铺推广详情页"/>
+    <hyperlink ref="B42" r:id="rId17" display="回头客华夫饼干铜锣烧蛋糕点心营养早餐年货" tooltip="http://item.taobao.com/item.htm?spm=a219t.11816989.1998910419.dafc012e7.cd7575a540bv2R&amp;id=560320045979"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2519,10 +2554,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2543,13 +2578,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>2</v>
@@ -2558,16 +2593,16 @@
         <v>3</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>5</v>
@@ -2575,10 +2610,10 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="10" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C2" s="5">
         <v>9.9</v>
@@ -2593,24 +2628,24 @@
         <v>10</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="I2" s="5">
-        <v>326726450</v>
+        <v>330336629</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="10" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C3" s="5">
         <v>15.8</v>
@@ -2625,16 +2660,16 @@
         <v>10</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="I3" s="5">
         <v>329827419</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2657,16 +2692,16 @@
         <v>8</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="I4" s="5">
         <v>329827419</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="2:2">
@@ -2693,20 +2728,34 @@
     <row r="12" spans="2:2">
       <c r="B12" s="11"/>
     </row>
-    <row r="13" ht="14.25" spans="2:2">
-      <c r="B13" s="12"/>
-    </row>
-    <row r="14" spans="2:2">
-      <c r="B14" s="11"/>
-    </row>
-    <row r="15" ht="14.25" spans="2:2">
-      <c r="B15" s="12"/>
+    <row r="13" spans="2:2">
+      <c r="B13" s="11"/>
+    </row>
+    <row r="14" ht="14.25" spans="1:7">
+      <c r="A14" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="E14" s="5">
+        <v>6</v>
+      </c>
+      <c r="F14" s="5">
+        <v>3</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" s="11"/>
     </row>
     <row r="16" ht="14.25" spans="2:2">
       <c r="B16" s="12"/>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="11"/>
+    <row r="17" ht="14.25" spans="2:2">
+      <c r="B17" s="12"/>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="11"/>
@@ -2714,32 +2763,32 @@
     <row r="19" spans="2:2">
       <c r="B19" s="11"/>
     </row>
-    <row r="20" s="6" customFormat="1" spans="1:10">
-      <c r="A20" s="14"/>
+    <row r="20" spans="2:2">
       <c r="B20" s="11"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="19"/>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="16"/>
+    </row>
+    <row r="21" s="6" customFormat="1" spans="1:10">
+      <c r="A21" s="14"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="19"/>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="11"/>
-    </row>
-    <row r="23" ht="14.25" spans="2:2">
-      <c r="B23" s="17"/>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" s="16"/>
+      <c r="B22" s="16"/>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="11"/>
+    </row>
+    <row r="24" ht="14.25" spans="2:2">
+      <c r="B24" s="17"/>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="11"/>
+      <c r="B25" s="16"/>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="11"/>
@@ -2747,8 +2796,11 @@
     <row r="27" spans="2:2">
       <c r="B27" s="11"/>
     </row>
-    <row r="28" ht="14.25" spans="2:2">
-      <c r="B28" s="12"/>
+    <row r="28" spans="2:2">
+      <c r="B28" s="11"/>
+    </row>
+    <row r="29" ht="14.25" spans="2:2">
+      <c r="B29" s="12"/>
     </row>
   </sheetData>
   <sortState ref="B1:B28">
@@ -2788,7 +2840,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="16.5" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -2800,10 +2852,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>5</v>

--- a/招商团长/报名活动单.xlsx
+++ b/招商团长/报名活动单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23295" windowHeight="9045" activeTab="1"/>
+    <workbookView windowWidth="22035" windowHeight="8745"/>
   </bookViews>
   <sheets>
     <sheet name="6月报名清单" sheetId="1" r:id="rId1"/>
@@ -426,10 +426,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -519,6 +519,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -527,7 +535,66 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -549,45 +616,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -600,53 +647,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -669,187 +669,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -863,11 +863,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -890,6 +896,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -898,9 +913,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -919,47 +960,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -968,10 +968,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -980,10 +980,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -998,115 +998,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1775,8 +1775,8 @@
   <sheetPr/>
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A42" sqref="$A42:$XFD42"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
@@ -2556,7 +2556,7 @@
   <sheetPr/>
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>

--- a/招商团长/报名活动单.xlsx
+++ b/招商团长/报名活动单.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22035" windowHeight="8745"/>
+    <workbookView windowWidth="20688" windowHeight="8940"/>
   </bookViews>
   <sheets>
     <sheet name="6月报名清单" sheetId="1" r:id="rId1"/>
-    <sheet name="晓彬线下跑单list" sheetId="2" r:id="rId2"/>
-    <sheet name="7月报名单" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="7月报名单" sheetId="3" r:id="rId2"/>
+    <sheet name="晓彬线下跑单list" sheetId="2" r:id="rId3"/>
+    <sheet name="晓彬团长报名单" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="137">
   <si>
     <t>店铺</t>
   </si>
@@ -355,6 +355,15 @@
     <t>起：2019-06-29 止：2019-07-05</t>
   </si>
   <si>
+    <t>店铺名称</t>
+  </si>
+  <si>
+    <t>活动ID</t>
+  </si>
+  <si>
+    <t>活动起止时间</t>
+  </si>
+  <si>
     <t xml:space="preserve">商品 </t>
   </si>
   <si>
@@ -370,9 +379,6 @@
     <t>推广时间</t>
   </si>
   <si>
-    <t>活动ID</t>
-  </si>
-  <si>
     <t>商品链接</t>
   </si>
   <si>
@@ -385,7 +391,7 @@
     <t>2019.06.28-2019.08.01</t>
   </si>
   <si>
-    <t>2019.06.23-2019.06.28</t>
+    <t>2019.06.28-2019.07.05</t>
   </si>
   <si>
     <t>https://detail.tmall.com/item.htm?spm=a230r.1.14.6.75a43b61UiE1Wn&amp;id=596977090868&amp;cm_id=140105335569ed55e27b&amp;abbucket=5</t>
@@ -412,13 +418,16 @@
     <t>https://detail.tmall.com/item.htm?id=573247426562</t>
   </si>
   <si>
+    <t>回头客华夫饼干铜锣烧蛋糕点心营养早餐年货小吃面包干零食大礼包</t>
+  </si>
+  <si>
+    <t>2019.07.02-2019.07.08</t>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?id=560320045979&amp;spm=a219t.11816989.1998910419.dafc012e7.cd7575a540bv2R</t>
+  </si>
+  <si>
     <t>火灾逃生应急箱 * 7款 引流产品</t>
-  </si>
-  <si>
-    <t>店铺名称</t>
-  </si>
-  <si>
-    <t>活动起止时间</t>
   </si>
 </sst>
 </file>
@@ -426,8 +435,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -438,18 +447,6 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1" tint="0.0499893185216834"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -464,6 +461,12 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -483,6 +486,18 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1" tint="0.0499893185216834"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
@@ -490,12 +505,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FF0070C0"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -519,9 +528,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -534,35 +556,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -580,13 +582,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -616,9 +611,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -640,6 +634,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -669,25 +678,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -699,145 +816,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -863,16 +872,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -889,15 +907,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -931,16 +940,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -968,10 +977,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -980,253 +989,289 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="57" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1235,16 +1280,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1255,34 +1291,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1300,11 +1315,14 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1379,8 +1397,8 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1200150</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>194945</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>4445</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1397,7 +1415,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12308205" y="447675"/>
+          <a:off x="11188065" y="409575"/>
           <a:ext cx="714375" cy="166370"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1415,8 +1433,8 @@
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1823720</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>10795</xdr:rowOff>
     </xdr:to>
@@ -1435,8 +1453,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11898630" y="638175"/>
-          <a:ext cx="1747520" cy="210820"/>
+          <a:off x="10778490" y="581025"/>
+          <a:ext cx="1595755" cy="191770"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1453,10 +1471,10 @@
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1847850</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1473,8 +1491,46 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11908155" y="219075"/>
-          <a:ext cx="1762125" cy="193675"/>
+          <a:off x="10788015" y="200025"/>
+          <a:ext cx="1586230" cy="193675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>11430</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1638935</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>14605</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4" descr="46aec8dd05d2993a04c807e72676990"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10713720" y="2865120"/>
+          <a:ext cx="1627505" cy="197485"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1775,18 +1831,18 @@
   <sheetPr/>
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="18.5" style="27" customWidth="1"/>
-    <col min="2" max="2" width="39.8833333333333" style="28" customWidth="1"/>
-    <col min="3" max="3" width="19.8833333333333" style="29" customWidth="1"/>
+    <col min="2" max="2" width="39.8796296296296" style="28" customWidth="1"/>
+    <col min="3" max="3" width="19.8796296296296" style="29" customWidth="1"/>
     <col min="4" max="4" width="18.75" style="29" customWidth="1"/>
-    <col min="5" max="5" width="31.6333333333333" style="29" customWidth="1"/>
-    <col min="6" max="6" width="36.3833333333333" style="30" customWidth="1"/>
+    <col min="5" max="5" width="31.6296296296296" style="29" customWidth="1"/>
+    <col min="6" max="6" width="36.3796296296296" style="30" customWidth="1"/>
     <col min="7" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
@@ -1810,8 +1866,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="20" customFormat="1" spans="1:6">
-      <c r="A2" s="20" t="s">
+    <row r="2" s="19" customFormat="1" spans="1:6">
+      <c r="A2" s="19" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="31" t="s">
@@ -1828,7 +1884,7 @@
       </c>
       <c r="F2" s="34"/>
     </row>
-    <row r="3" s="20" customFormat="1" spans="2:6">
+    <row r="3" s="19" customFormat="1" spans="2:6">
       <c r="B3" s="31" t="s">
         <v>9</v>
       </c>
@@ -1843,8 +1899,8 @@
       </c>
       <c r="F3" s="34"/>
     </row>
-    <row r="4" s="21" customFormat="1" spans="1:6">
-      <c r="A4" s="21" t="s">
+    <row r="4" s="20" customFormat="1" spans="1:6">
+      <c r="A4" s="20" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="35" t="s">
@@ -1857,29 +1913,29 @@
       </c>
       <c r="F4" s="38"/>
     </row>
-    <row r="5" s="22" customFormat="1" spans="1:6">
-      <c r="A5" s="22" t="s">
+    <row r="5" s="21" customFormat="1" spans="1:6">
+      <c r="A5" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="40">
+      <c r="C5" s="39">
         <v>10.1</v>
       </c>
-      <c r="D5" s="40">
+      <c r="D5" s="39">
         <v>4</v>
       </c>
-      <c r="E5" s="41" t="s">
+      <c r="E5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="42"/>
-    </row>
-    <row r="6" s="21" customFormat="1" spans="1:6">
-      <c r="A6" s="21" t="s">
+      <c r="F5" s="41"/>
+    </row>
+    <row r="6" s="20" customFormat="1" spans="1:6">
+      <c r="A6" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="42" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="36"/>
@@ -1889,8 +1945,8 @@
       </c>
       <c r="F6" s="38"/>
     </row>
-    <row r="7" s="20" customFormat="1" spans="2:6">
-      <c r="B7" s="44" t="s">
+    <row r="7" s="19" customFormat="1" spans="2:6">
+      <c r="B7" s="43" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="32">
@@ -1904,7 +1960,7 @@
       </c>
       <c r="F7" s="34"/>
     </row>
-    <row r="8" s="20" customFormat="1" spans="2:6">
+    <row r="8" s="19" customFormat="1" spans="2:6">
       <c r="B8" s="31" t="s">
         <v>21</v>
       </c>
@@ -1915,46 +1971,46 @@
       </c>
       <c r="F8" s="34"/>
     </row>
-    <row r="9" s="23" customFormat="1" spans="1:6">
-      <c r="A9" s="23" t="s">
+    <row r="9" s="22" customFormat="1" spans="1:6">
+      <c r="A9" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="46">
+      <c r="C9" s="45">
         <v>10.01</v>
       </c>
-      <c r="D9" s="46">
+      <c r="D9" s="45">
         <v>4.9</v>
       </c>
-      <c r="E9" s="46" t="s">
+      <c r="E9" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="47" t="s">
+      <c r="F9" s="46" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" s="24" customFormat="1" spans="1:6">
-      <c r="A10" s="24" t="s">
+    <row r="10" s="23" customFormat="1" spans="1:6">
+      <c r="A10" s="23" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="48">
+      <c r="C10" s="39">
         <v>40</v>
       </c>
-      <c r="D10" s="48">
+      <c r="D10" s="39">
         <v>10</v>
       </c>
-      <c r="E10" s="48" t="s">
+      <c r="E10" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="49"/>
-    </row>
-    <row r="11" s="20" customFormat="1" spans="2:6">
-      <c r="B11" s="44" t="s">
+      <c r="F10" s="47"/>
+    </row>
+    <row r="11" s="19" customFormat="1" spans="2:6">
+      <c r="B11" s="43" t="s">
         <v>30</v>
       </c>
       <c r="C11" s="32">
@@ -1968,7 +2024,7 @@
       </c>
       <c r="F11" s="34"/>
     </row>
-    <row r="12" s="20" customFormat="1" spans="2:6">
+    <row r="12" s="19" customFormat="1" spans="2:6">
       <c r="B12" s="31" t="s">
         <v>32</v>
       </c>
@@ -1983,131 +2039,131 @@
       </c>
       <c r="F12" s="34"/>
     </row>
-    <row r="13" s="25" customFormat="1" spans="1:6">
-      <c r="A13" s="25" t="s">
+    <row r="13" s="21" customFormat="1" spans="1:6">
+      <c r="A13" s="21" t="s">
         <v>33</v>
       </c>
       <c r="B13" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="48">
+      <c r="C13" s="39">
         <v>5.2</v>
       </c>
-      <c r="D13" s="48">
+      <c r="D13" s="39">
         <v>4</v>
       </c>
-      <c r="E13" s="48" t="s">
+      <c r="E13" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="50"/>
-    </row>
-    <row r="14" s="25" customFormat="1" spans="1:6">
-      <c r="A14" s="25" t="s">
+      <c r="F13" s="41"/>
+    </row>
+    <row r="14" s="21" customFormat="1" spans="1:6">
+      <c r="A14" s="21" t="s">
         <v>36</v>
       </c>
       <c r="B14" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="48">
+      <c r="C14" s="39">
         <v>10.1</v>
       </c>
-      <c r="D14" s="48">
+      <c r="D14" s="39">
         <v>5</v>
       </c>
-      <c r="E14" s="48" t="s">
+      <c r="E14" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="50"/>
-    </row>
-    <row r="15" s="25" customFormat="1" spans="1:6">
-      <c r="A15" s="25" t="s">
+      <c r="F14" s="41"/>
+    </row>
+    <row r="15" s="21" customFormat="1" spans="1:6">
+      <c r="A15" s="21" t="s">
         <v>38</v>
       </c>
       <c r="B15" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="48">
+      <c r="C15" s="39">
         <v>18.01</v>
       </c>
-      <c r="D15" s="48">
+      <c r="D15" s="39">
         <v>2</v>
       </c>
-      <c r="E15" s="51" t="s">
+      <c r="E15" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="50"/>
-    </row>
-    <row r="16" s="25" customFormat="1" spans="2:6">
+      <c r="F15" s="41"/>
+    </row>
+    <row r="16" s="21" customFormat="1" spans="2:6">
       <c r="B16" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="48">
+      <c r="C16" s="39">
         <v>10</v>
       </c>
-      <c r="D16" s="48">
+      <c r="D16" s="39">
         <v>2</v>
       </c>
-      <c r="E16" s="51" t="s">
+      <c r="E16" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="50"/>
-    </row>
-    <row r="17" s="25" customFormat="1" spans="2:6">
+      <c r="F16" s="41"/>
+    </row>
+    <row r="17" s="21" customFormat="1" spans="2:6">
       <c r="B17" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="48">
+      <c r="C17" s="39">
         <v>15</v>
       </c>
-      <c r="D17" s="48">
+      <c r="D17" s="39">
         <v>2</v>
       </c>
-      <c r="E17" s="51" t="s">
+      <c r="E17" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="50"/>
-    </row>
-    <row r="18" s="24" customFormat="1" spans="1:6">
-      <c r="A18" s="24" t="s">
+      <c r="F17" s="41"/>
+    </row>
+    <row r="18" s="23" customFormat="1" spans="1:6">
+      <c r="A18" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="52" t="s">
+      <c r="B18" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="53">
+      <c r="C18" s="49">
         <v>15.01</v>
       </c>
-      <c r="D18" s="53">
+      <c r="D18" s="49">
         <v>3</v>
       </c>
-      <c r="E18" s="54" t="s">
+      <c r="E18" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="49"/>
+      <c r="F18" s="47"/>
     </row>
     <row r="19" s="20" customFormat="1" spans="1:6">
       <c r="A19" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="32">
+      <c r="C19" s="36">
         <v>3.6</v>
       </c>
-      <c r="D19" s="32">
+      <c r="D19" s="36">
         <v>4</v>
       </c>
-      <c r="E19" s="32" t="s">
+      <c r="E19" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="34"/>
-    </row>
-    <row r="20" s="20" customFormat="1" spans="1:6">
-      <c r="A20" s="20" t="s">
+      <c r="F19" s="38"/>
+    </row>
+    <row r="20" s="19" customFormat="1" spans="1:6">
+      <c r="A20" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="42" t="s">
         <v>50</v>
       </c>
       <c r="C20" s="36">
@@ -2121,8 +2177,8 @@
       </c>
       <c r="F20" s="34"/>
     </row>
-    <row r="21" s="20" customFormat="1" spans="2:6">
-      <c r="B21" s="44" t="s">
+    <row r="21" s="19" customFormat="1" spans="2:6">
+      <c r="B21" s="43" t="s">
         <v>52</v>
       </c>
       <c r="C21" s="32">
@@ -2136,47 +2192,47 @@
       </c>
       <c r="F21" s="34"/>
     </row>
-    <row r="22" s="20" customFormat="1" spans="1:6">
-      <c r="A22" s="20" t="s">
+    <row r="22" s="24" customFormat="1" spans="1:6">
+      <c r="A22" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="44" t="s">
+      <c r="B22" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="32">
+      <c r="C22" s="52">
         <v>15</v>
       </c>
-      <c r="D22" s="32">
+      <c r="D22" s="52">
         <v>5</v>
       </c>
-      <c r="E22" s="32" t="s">
+      <c r="E22" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="F22" s="34"/>
-    </row>
-    <row r="23" s="20" customFormat="1" spans="1:6">
-      <c r="A23" s="20" t="s">
+      <c r="F22" s="53"/>
+    </row>
+    <row r="23" s="25" customFormat="1" spans="1:6">
+      <c r="A23" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="44" t="s">
+      <c r="B23" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="32">
+      <c r="C23" s="55">
         <v>30.1</v>
       </c>
-      <c r="D23" s="32">
+      <c r="D23" s="55">
         <v>3</v>
       </c>
-      <c r="E23" s="32" t="s">
+      <c r="E23" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="F23" s="34"/>
-    </row>
-    <row r="24" s="20" customFormat="1" spans="1:6">
-      <c r="A24" s="20" t="s">
+      <c r="F23" s="56"/>
+    </row>
+    <row r="24" s="19" customFormat="1" spans="1:6">
+      <c r="A24" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="44" t="s">
+      <c r="B24" s="43" t="s">
         <v>60</v>
       </c>
       <c r="C24" s="32">
@@ -2190,11 +2246,11 @@
       </c>
       <c r="F24" s="34"/>
     </row>
-    <row r="25" s="20" customFormat="1" spans="1:6">
-      <c r="A25" s="20" t="s">
+    <row r="25" s="19" customFormat="1" spans="1:6">
+      <c r="A25" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="44" t="s">
+      <c r="B25" s="43" t="s">
         <v>63</v>
       </c>
       <c r="C25" s="32">
@@ -2208,11 +2264,11 @@
       </c>
       <c r="F25" s="34"/>
     </row>
-    <row r="26" s="21" customFormat="1" spans="1:6">
-      <c r="A26" s="21" t="s">
+    <row r="26" s="20" customFormat="1" spans="1:6">
+      <c r="A26" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="43" t="s">
+      <c r="B26" s="42" t="s">
         <v>65</v>
       </c>
       <c r="C26" s="36">
@@ -2226,11 +2282,11 @@
       </c>
       <c r="F26" s="38"/>
     </row>
-    <row r="27" s="20" customFormat="1" spans="1:6">
-      <c r="A27" s="20" t="s">
+    <row r="27" s="19" customFormat="1" spans="1:6">
+      <c r="A27" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="44" t="s">
+      <c r="B27" s="43" t="s">
         <v>68</v>
       </c>
       <c r="C27" s="32">
@@ -2244,11 +2300,11 @@
       </c>
       <c r="F27" s="34"/>
     </row>
-    <row r="28" s="20" customFormat="1" spans="1:6">
-      <c r="A28" s="20" t="s">
+    <row r="28" s="19" customFormat="1" spans="1:6">
+      <c r="A28" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="B28" s="44" t="s">
+      <c r="B28" s="43" t="s">
         <v>71</v>
       </c>
       <c r="C28" s="32">
@@ -2266,22 +2322,22 @@
       <c r="A29" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="B29" s="55" t="s">
+      <c r="B29" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="C29" s="56">
+      <c r="C29" s="58">
         <v>25.11</v>
       </c>
-      <c r="D29" s="56">
+      <c r="D29" s="58">
         <v>3</v>
       </c>
-      <c r="E29" s="56" t="s">
+      <c r="E29" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="F29" s="57"/>
-    </row>
-    <row r="30" s="20" customFormat="1" spans="1:6">
-      <c r="A30" s="58" t="s">
+      <c r="F29" s="59"/>
+    </row>
+    <row r="30" s="19" customFormat="1" spans="1:6">
+      <c r="A30" s="60" t="s">
         <v>76</v>
       </c>
       <c r="B30" s="31" t="s">
@@ -2298,44 +2354,44 @@
       </c>
       <c r="F30" s="34"/>
     </row>
-    <row r="31" s="25" customFormat="1" spans="1:6">
-      <c r="A31" s="59" t="s">
+    <row r="31" s="21" customFormat="1" spans="1:6">
+      <c r="A31" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="B31" s="60" t="s">
+      <c r="B31" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="48">
+      <c r="C31" s="39">
         <v>10</v>
       </c>
-      <c r="D31" s="48">
+      <c r="D31" s="39">
         <v>5</v>
       </c>
-      <c r="E31" s="48" t="s">
+      <c r="E31" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="F31" s="50"/>
-    </row>
-    <row r="32" s="24" customFormat="1" spans="1:6">
-      <c r="A32" s="61" t="s">
+      <c r="F31" s="41"/>
+    </row>
+    <row r="32" s="23" customFormat="1" spans="1:6">
+      <c r="A32" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="B32" s="62" t="s">
+      <c r="B32" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="C32" s="53">
+      <c r="C32" s="49">
         <v>6.2</v>
       </c>
-      <c r="D32" s="53">
+      <c r="D32" s="49">
         <v>3</v>
       </c>
-      <c r="E32" s="53" t="s">
+      <c r="E32" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="F32" s="49"/>
-    </row>
-    <row r="33" s="20" customFormat="1" spans="1:6">
-      <c r="A33" s="58" t="s">
+      <c r="F32" s="47"/>
+    </row>
+    <row r="33" s="19" customFormat="1" spans="1:6">
+      <c r="A33" s="60" t="s">
         <v>85</v>
       </c>
       <c r="B33" s="31" t="s">
@@ -2352,8 +2408,8 @@
       </c>
       <c r="F33" s="34"/>
     </row>
-    <row r="34" s="20" customFormat="1" spans="1:6">
-      <c r="A34" s="58" t="s">
+    <row r="34" s="19" customFormat="1" spans="1:6">
+      <c r="A34" s="60" t="s">
         <v>87</v>
       </c>
       <c r="B34" s="31" t="s">
@@ -2370,26 +2426,26 @@
       </c>
       <c r="F34" s="34"/>
     </row>
-    <row r="35" s="25" customFormat="1" spans="1:6">
-      <c r="A35" s="59" t="s">
+    <row r="35" s="21" customFormat="1" spans="1:6">
+      <c r="A35" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="B35" s="60" t="s">
+      <c r="B35" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="C35" s="48">
+      <c r="C35" s="39">
         <v>21</v>
       </c>
-      <c r="D35" s="48">
+      <c r="D35" s="39">
         <v>10</v>
       </c>
-      <c r="E35" s="48" t="s">
+      <c r="E35" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="F35" s="50"/>
-    </row>
-    <row r="36" s="20" customFormat="1" spans="1:6">
-      <c r="A36" s="58" t="s">
+      <c r="F35" s="41"/>
+    </row>
+    <row r="36" s="19" customFormat="1" spans="1:6">
+      <c r="A36" s="60" t="s">
         <v>92</v>
       </c>
       <c r="B36" s="31" t="s">
@@ -2398,7 +2454,7 @@
       <c r="C36" s="32">
         <v>2</v>
       </c>
-      <c r="D36" s="63" t="s">
+      <c r="D36" s="65" t="s">
         <v>94</v>
       </c>
       <c r="E36" s="32" t="s">
@@ -2406,8 +2462,8 @@
       </c>
       <c r="F36" s="34"/>
     </row>
-    <row r="37" s="20" customFormat="1" spans="1:6">
-      <c r="A37" s="58" t="s">
+    <row r="37" s="19" customFormat="1" spans="1:6">
+      <c r="A37" s="60" t="s">
         <v>95</v>
       </c>
       <c r="B37" s="31" t="s">
@@ -2424,8 +2480,8 @@
       </c>
       <c r="F37" s="34"/>
     </row>
-    <row r="38" s="20" customFormat="1" spans="1:6">
-      <c r="A38" s="58" t="s">
+    <row r="38" s="19" customFormat="1" spans="1:6">
+      <c r="A38" s="60" t="s">
         <v>97</v>
       </c>
       <c r="B38" s="31" t="s">
@@ -2442,8 +2498,8 @@
       </c>
       <c r="F38" s="34"/>
     </row>
-    <row r="39" s="20" customFormat="1" spans="1:6">
-      <c r="A39" s="58" t="s">
+    <row r="39" s="19" customFormat="1" spans="1:6">
+      <c r="A39" s="60" t="s">
         <v>100</v>
       </c>
       <c r="B39" s="31" t="s">
@@ -2460,11 +2516,11 @@
       </c>
       <c r="F39" s="34"/>
     </row>
-    <row r="40" s="21" customFormat="1" spans="1:6">
-      <c r="A40" s="21" t="s">
+    <row r="40" s="20" customFormat="1" spans="1:6">
+      <c r="A40" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="B40" s="64" t="s">
+      <c r="B40" s="66" t="s">
         <v>104</v>
       </c>
       <c r="C40" s="36">
@@ -2478,8 +2534,8 @@
       </c>
       <c r="F40" s="38"/>
     </row>
-    <row r="41" s="20" customFormat="1" spans="1:6">
-      <c r="A41" s="58" t="s">
+    <row r="41" s="19" customFormat="1" spans="1:6">
+      <c r="A41" s="60" t="s">
         <v>106</v>
       </c>
       <c r="B41" s="31" t="s">
@@ -2497,22 +2553,22 @@
       <c r="F41" s="34"/>
     </row>
     <row r="42" s="20" customFormat="1" spans="1:6">
-      <c r="A42" s="58" t="s">
+      <c r="A42" s="67" t="s">
         <v>109</v>
       </c>
-      <c r="B42" s="58" t="s">
+      <c r="B42" s="67" t="s">
         <v>110</v>
       </c>
-      <c r="C42" s="32">
+      <c r="C42" s="36">
         <v>20.4</v>
       </c>
-      <c r="D42" s="32">
+      <c r="D42" s="36">
         <v>4</v>
       </c>
-      <c r="E42" s="32" t="s">
+      <c r="E42" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="F42" s="34"/>
+      <c r="F42" s="38"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2554,253 +2610,354 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="12.875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="31.375" style="8" customWidth="1"/>
-    <col min="3" max="3" width="9.875" style="5" customWidth="1"/>
-    <col min="4" max="6" width="8.38333333333333" style="5" customWidth="1"/>
-    <col min="7" max="7" width="22.75" style="5" customWidth="1"/>
-    <col min="8" max="8" width="22.375" style="5" customWidth="1"/>
-    <col min="9" max="9" width="13.25" style="5" customWidth="1"/>
-    <col min="10" max="10" width="17.5" style="2" customWidth="1"/>
-    <col min="11" max="11" width="24.375" customWidth="1"/>
+    <col min="1" max="1" width="20.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="47.4444444444444" customWidth="1"/>
+    <col min="3" max="3" width="19.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="17.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="16.2222222222222" customWidth="1"/>
+    <col min="6" max="6" width="35.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" spans="1:11">
-      <c r="A1" s="5" t="s">
+    <row r="1" s="16" customFormat="1" ht="15" spans="1:7">
+      <c r="A1" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="$A26:$XFD26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.7777777777778" style="5" customWidth="1"/>
+    <col min="2" max="2" width="31.3796296296296" style="6" customWidth="1"/>
+    <col min="3" max="3" width="9.87962962962963" style="1" customWidth="1"/>
+    <col min="4" max="6" width="8.37962962962963" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.3796296296296" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.25" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5" style="7" customWidth="1"/>
+    <col min="11" max="11" width="24.3796296296296" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:11">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="J1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="1">
+        <v>9.9</v>
+      </c>
+      <c r="D2" s="1">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I2" s="1">
+        <v>330336629</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="1">
+        <v>15.8</v>
+      </c>
+      <c r="D3" s="1">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1">
+        <v>50</v>
+      </c>
+      <c r="F3" s="1">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I3" s="1">
+        <v>329827419</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="1">
+        <v>69</v>
+      </c>
+      <c r="D4" s="1">
+        <v>130</v>
+      </c>
+      <c r="E4" s="1">
+        <v>25.1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>8</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I4" s="1">
+        <v>329827419</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="4"/>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="8"/>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" s="8"/>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="8"/>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="8"/>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="8"/>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="8"/>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" s="8"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="9">
+        <v>43647</v>
+      </c>
+      <c r="B14" s="10"/>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:11">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="J1" s="5" t="s">
+      <c r="G15" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="H15" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K15" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="C2" s="5">
-        <v>9.9</v>
-      </c>
-      <c r="D2" s="5">
-        <v>10</v>
-      </c>
-      <c r="E2" s="5">
-        <v>20</v>
-      </c>
-      <c r="F2" s="5">
-        <v>10</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="I2" s="5">
-        <v>330336629</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="C3" s="5">
+    <row r="16" spans="1:10">
+      <c r="A16" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C16" s="1">
         <v>15.8</v>
       </c>
-      <c r="D3" s="5">
-        <v>20</v>
-      </c>
-      <c r="E3" s="5">
-        <v>50</v>
-      </c>
-      <c r="F3" s="5">
-        <v>10</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="I3" s="5">
-        <v>329827419</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="C4" s="5">
-        <v>69</v>
-      </c>
-      <c r="D4" s="5">
-        <v>130</v>
-      </c>
-      <c r="E4" s="5">
-        <v>25.1</v>
-      </c>
-      <c r="F4" s="5">
-        <v>8</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="I4" s="5">
-        <v>329827419</v>
-      </c>
-      <c r="J4" s="18" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25" spans="2:2">
-      <c r="B5" s="12"/>
-    </row>
-    <row r="6" ht="14.25" spans="2:2">
-      <c r="B6" s="12"/>
-    </row>
-    <row r="7" spans="2:2">
-      <c r="B7" s="11"/>
-    </row>
-    <row r="8" spans="2:2">
-      <c r="B8" s="11"/>
-    </row>
-    <row r="9" ht="13.5" spans="2:2">
-      <c r="B9" s="13"/>
-    </row>
-    <row r="10" ht="14.25" spans="2:2">
-      <c r="B10" s="12"/>
-    </row>
-    <row r="11" spans="2:2">
-      <c r="B11" s="11"/>
-    </row>
-    <row r="12" spans="2:2">
-      <c r="B12" s="11"/>
-    </row>
-    <row r="13" spans="2:2">
-      <c r="B13" s="11"/>
-    </row>
-    <row r="14" ht="14.25" spans="1:7">
-      <c r="A14" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="E14" s="5">
-        <v>6</v>
-      </c>
-      <c r="F14" s="5">
-        <v>3</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2">
-      <c r="B15" s="11"/>
-    </row>
-    <row r="16" ht="14.25" spans="2:2">
-      <c r="B16" s="12"/>
-    </row>
-    <row r="17" ht="14.25" spans="2:2">
-      <c r="B17" s="12"/>
+      <c r="D16" s="1">
+        <v>5</v>
+      </c>
+      <c r="E16" s="1">
+        <v>20.5</v>
+      </c>
+      <c r="F16" s="1">
+        <v>4</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I16" s="15">
+        <v>331251512</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="8"/>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="11"/>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="11"/>
+      <c r="B18" s="8"/>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="11"/>
-    </row>
-    <row r="21" s="6" customFormat="1" spans="1:10">
-      <c r="A21" s="14"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="19"/>
+      <c r="B20" s="8"/>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="4"/>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="16"/>
+      <c r="B22" s="4"/>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="11"/>
-    </row>
-    <row r="24" ht="14.25" spans="2:2">
-      <c r="B24" s="17"/>
+      <c r="B23" s="8"/>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="8"/>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="16"/>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" s="11"/>
-    </row>
+      <c r="B25" s="8"/>
+    </row>
+    <row r="26" customFormat="1" ht="14.4"/>
     <row r="27" spans="2:2">
-      <c r="B27" s="11"/>
+      <c r="B27" s="12"/>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="11"/>
-    </row>
-    <row r="29" ht="14.25" spans="2:2">
-      <c r="B29" s="12"/>
+      <c r="B28" s="8"/>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="13"/>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="12"/>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="8"/>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="8"/>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="8"/>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="4"/>
     </row>
   </sheetData>
   <sortState ref="B1:B28">
@@ -2808,8 +2965,9 @@
   </sortState>
   <hyperlinks>
     <hyperlink ref="J2" r:id="rId2" display="https://detail.tmall.com/item.htm?spm=a230r.1.14.6.75a43b61UiE1Wn&amp;id=596977090868&amp;cm_id=140105335569ed55e27b&amp;abbucket=5" tooltip="https://detail.tmall.com/item.htm?spm=a230r.1.14.6.75a43b61UiE1Wn&amp;id=596977090868&amp;cm_id=140105335569ed55e27b&amp;abbucket=5"/>
-    <hyperlink ref="J3" r:id="rId3" display="https://detail.tmall.com/item.htm?spm=a212k0.12153887.0.0.2759687dP5RzZj&amp;id=547078093989&amp;skuId=3566631730189"/>
-    <hyperlink ref="J4" r:id="rId4" display="https://detail.tmall.com/item.htm?id=573247426562"/>
+    <hyperlink ref="J3" r:id="rId3" display="https://detail.tmall.com/item.htm?spm=a212k0.12153887.0.0.2759687dP5RzZj&amp;id=547078093989&amp;skuId=3566631730189" tooltip="https://detail.tmall.com/item.htm?spm=a212k0.12153887.0.0.2759687dP5RzZj&amp;id=547078093989&amp;skuId=3566631730189"/>
+    <hyperlink ref="J4" r:id="rId4" display="https://detail.tmall.com/item.htm?id=573247426562" tooltip="https://detail.tmall.com/item.htm?id=573247426562"/>
+    <hyperlink ref="I16" r:id="rId5" display="331251512"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2818,67 +2976,75 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
-  <cols>
-    <col min="1" max="1" width="20.3333333333333" customWidth="1"/>
-    <col min="2" max="2" width="47" customWidth="1"/>
-    <col min="3" max="3" width="19.5583333333333" customWidth="1"/>
-    <col min="4" max="4" width="17.3333333333333" customWidth="1"/>
-    <col min="5" max="5" width="16.225" customWidth="1"/>
-    <col min="6" max="6" width="35.6666666666667" customWidth="1"/>
-    <col min="7" max="7" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" ht="16.5" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <cols>
+    <col min="2" max="2" width="37.7777777777778" customWidth="1"/>
+    <col min="7" max="7" width="21.6666666666667" customWidth="1"/>
+    <col min="8" max="8" width="11.6666666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" s="1">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/招商团长/报名活动单.xlsx
+++ b/招商团长/报名活动单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20688" windowHeight="8940"/>
+    <workbookView windowWidth="21105" windowHeight="9165" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="6月报名清单" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="143">
   <si>
     <t>店铺</t>
   </si>
@@ -427,7 +427,25 @@
     <t>https://detail.tmall.com/item.htm?id=560320045979&amp;spm=a219t.11816989.1998910419.dafc012e7.cd7575a540bv2R</t>
   </si>
   <si>
+    <t>博友家居专营店</t>
+  </si>
+  <si>
+    <t>安而康成人拉拉裤老人用内裤式纸尿裤男女老年人尿不湿L码60片</t>
+  </si>
+  <si>
+    <t>2019.07.02-2019.08.01</t>
+  </si>
+  <si>
+    <t>2019.07.03-2019.07.09</t>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?spm=a21ag.8198216.0.0.7759410c42fSSR&amp;id=559313568102</t>
+  </si>
+  <si>
     <t>火灾逃生应急箱 * 7款 引流产品</t>
+  </si>
+  <si>
+    <t>安而康成人拉拉裤老人用内裤式纸尿裤 * 16款引流产品</t>
   </si>
 </sst>
 </file>
@@ -436,9 +454,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -522,21 +540,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -549,8 +575,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -558,7 +593,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -589,25 +639,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -618,17 +652,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -642,33 +668,19 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -678,7 +690,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -690,7 +726,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -702,13 +780,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -720,49 +804,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -774,25 +840,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -804,61 +864,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -875,8 +887,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -896,6 +923,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -911,11 +947,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -939,36 +981,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -977,10 +989,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -989,16 +1001,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1007,125 +1019,128 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1133,7 +1148,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1147,6 +1162,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="57" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1154,7 +1172,7 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1165,8 +1183,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1192,13 +1210,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1219,59 +1234,68 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1280,24 +1304,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1415,8 +1421,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11188065" y="409575"/>
-          <a:ext cx="714375" cy="166370"/>
+          <a:off x="12378690" y="447675"/>
+          <a:ext cx="714375" cy="185420"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1453,8 +1459,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10778490" y="581025"/>
-          <a:ext cx="1595755" cy="191770"/>
+          <a:off x="11969115" y="638175"/>
+          <a:ext cx="1781810" cy="210820"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1491,8 +1497,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10788015" y="200025"/>
-          <a:ext cx="1586230" cy="193675"/>
+          <a:off x="11978640" y="219075"/>
+          <a:ext cx="1772285" cy="212725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1529,8 +1535,160 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10713720" y="2865120"/>
-          <a:ext cx="1627505" cy="197485"/>
+          <a:off x="11904345" y="3122295"/>
+          <a:ext cx="1627505" cy="216535"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1810385</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5" descr="2f243b2cbbc45f506828b21f6422bbb"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12064365" y="3362325"/>
+          <a:ext cx="1638935" cy="125730"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1857375</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>108585</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6" descr="459ab3032f7db63319344998ee9ce6f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13750290" y="3343275"/>
+          <a:ext cx="762635" cy="89535"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7" descr="ea95fded69107ad4dd607b65e5ca05d"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14484350" y="3390900"/>
+          <a:ext cx="682625" cy="76200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>17145</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8" descr="211bf05bdf5a21b5f5019ed8d01fd8f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15132050" y="3343275"/>
+          <a:ext cx="693420" cy="101600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1831,93 +1989,93 @@
   <sheetPr/>
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="18.5" style="27" customWidth="1"/>
-    <col min="2" max="2" width="39.8796296296296" style="28" customWidth="1"/>
-    <col min="3" max="3" width="19.8796296296296" style="29" customWidth="1"/>
-    <col min="4" max="4" width="18.75" style="29" customWidth="1"/>
-    <col min="5" max="5" width="31.6296296296296" style="29" customWidth="1"/>
-    <col min="6" max="6" width="36.3796296296296" style="30" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="27"/>
+    <col min="1" max="1" width="18.5" style="28" customWidth="1"/>
+    <col min="2" max="2" width="39.8833333333333" style="29" customWidth="1"/>
+    <col min="3" max="3" width="19.8833333333333" style="30" customWidth="1"/>
+    <col min="4" max="4" width="18.75" style="30" customWidth="1"/>
+    <col min="5" max="5" width="31.6333333333333" style="30" customWidth="1"/>
+    <col min="6" max="6" width="36.3833333333333" style="31" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="31" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="19" customFormat="1" spans="1:6">
-      <c r="A2" s="19" t="s">
+    <row r="2" s="21" customFormat="1" spans="1:6">
+      <c r="A2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="32">
+      <c r="C2" s="33">
         <v>20</v>
       </c>
-      <c r="D2" s="32">
+      <c r="D2" s="33">
         <v>5</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="34"/>
-    </row>
-    <row r="3" s="19" customFormat="1" spans="2:6">
-      <c r="B3" s="31" t="s">
+      <c r="F2" s="35"/>
+    </row>
+    <row r="3" s="21" customFormat="1" spans="2:6">
+      <c r="B3" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="32">
+      <c r="C3" s="33">
         <v>20.01</v>
       </c>
-      <c r="D3" s="32">
+      <c r="D3" s="33">
         <v>5</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="34"/>
-    </row>
-    <row r="4" s="20" customFormat="1" spans="1:6">
-      <c r="A4" s="20" t="s">
+      <c r="F3" s="35"/>
+    </row>
+    <row r="4" s="22" customFormat="1" spans="1:6">
+      <c r="A4" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="37" t="s">
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="34" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="38"/>
     </row>
-    <row r="5" s="21" customFormat="1" spans="1:6">
-      <c r="A5" s="21" t="s">
+    <row r="5" s="23" customFormat="1" spans="1:6">
+      <c r="A5" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="36" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="39">
@@ -1931,71 +2089,71 @@
       </c>
       <c r="F5" s="41"/>
     </row>
-    <row r="6" s="20" customFormat="1" spans="1:6">
-      <c r="A6" s="20" t="s">
+    <row r="6" s="22" customFormat="1" spans="1:6">
+      <c r="A6" s="22" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="37" t="s">
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="34" t="s">
         <v>18</v>
       </c>
       <c r="F6" s="38"/>
     </row>
-    <row r="7" s="19" customFormat="1" spans="2:6">
+    <row r="7" s="21" customFormat="1" spans="2:6">
       <c r="B7" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="32">
+      <c r="C7" s="33">
         <v>15</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D7" s="33">
         <v>3</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="34"/>
-    </row>
-    <row r="8" s="19" customFormat="1" spans="2:6">
-      <c r="B8" s="31" t="s">
+      <c r="F7" s="35"/>
+    </row>
+    <row r="8" s="21" customFormat="1" spans="2:6">
+      <c r="B8" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="33" t="s">
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="34"/>
-    </row>
-    <row r="9" s="22" customFormat="1" spans="1:6">
-      <c r="A9" s="22" t="s">
+      <c r="F8" s="35"/>
+    </row>
+    <row r="9" s="24" customFormat="1" spans="1:6">
+      <c r="A9" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="45">
+      <c r="C9" s="46">
         <v>10.01</v>
       </c>
-      <c r="D9" s="45">
+      <c r="D9" s="46">
         <v>4.9</v>
       </c>
-      <c r="E9" s="45" t="s">
+      <c r="E9" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="46" t="s">
+      <c r="F9" s="47" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" s="23" customFormat="1" spans="1:6">
-      <c r="A10" s="23" t="s">
+    <row r="10" s="25" customFormat="1" spans="1:6">
+      <c r="A10" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="36" t="s">
         <v>28</v>
       </c>
       <c r="C10" s="39">
@@ -2007,43 +2165,43 @@
       <c r="E10" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="47"/>
-    </row>
-    <row r="11" s="19" customFormat="1" spans="2:6">
+      <c r="F10" s="48"/>
+    </row>
+    <row r="11" s="21" customFormat="1" spans="2:6">
       <c r="B11" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="32">
+      <c r="C11" s="33">
         <v>25.2</v>
       </c>
-      <c r="D11" s="32">
+      <c r="D11" s="33">
         <v>4</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="E11" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="34"/>
-    </row>
-    <row r="12" s="19" customFormat="1" spans="2:6">
-      <c r="B12" s="31" t="s">
+      <c r="F11" s="35"/>
+    </row>
+    <row r="12" s="21" customFormat="1" spans="2:6">
+      <c r="B12" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="32">
+      <c r="C12" s="33">
         <v>6</v>
       </c>
-      <c r="D12" s="32">
+      <c r="D12" s="33">
         <v>5</v>
       </c>
-      <c r="E12" s="32" t="s">
+      <c r="E12" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="34"/>
-    </row>
-    <row r="13" s="21" customFormat="1" spans="1:6">
-      <c r="A13" s="21" t="s">
+      <c r="F12" s="35"/>
+    </row>
+    <row r="13" s="23" customFormat="1" spans="1:6">
+      <c r="A13" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="36" t="s">
         <v>34</v>
       </c>
       <c r="C13" s="39">
@@ -2057,11 +2215,11 @@
       </c>
       <c r="F13" s="41"/>
     </row>
-    <row r="14" s="21" customFormat="1" spans="1:6">
-      <c r="A14" s="21" t="s">
+    <row r="14" s="23" customFormat="1" spans="1:6">
+      <c r="A14" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="36" t="s">
         <v>37</v>
       </c>
       <c r="C14" s="39">
@@ -2075,11 +2233,11 @@
       </c>
       <c r="F14" s="41"/>
     </row>
-    <row r="15" s="21" customFormat="1" spans="1:6">
-      <c r="A15" s="21" t="s">
+    <row r="15" s="23" customFormat="1" spans="1:6">
+      <c r="A15" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="36" t="s">
         <v>39</v>
       </c>
       <c r="C15" s="39">
@@ -2093,8 +2251,8 @@
       </c>
       <c r="F15" s="41"/>
     </row>
-    <row r="16" s="21" customFormat="1" spans="2:6">
-      <c r="B16" s="35" t="s">
+    <row r="16" s="23" customFormat="1" spans="2:6">
+      <c r="B16" s="36" t="s">
         <v>41</v>
       </c>
       <c r="C16" s="39">
@@ -2108,8 +2266,8 @@
       </c>
       <c r="F16" s="41"/>
     </row>
-    <row r="17" s="21" customFormat="1" spans="2:6">
-      <c r="B17" s="35" t="s">
+    <row r="17" s="23" customFormat="1" spans="2:6">
+      <c r="B17" s="36" t="s">
         <v>42</v>
       </c>
       <c r="C17" s="39">
@@ -2123,242 +2281,242 @@
       </c>
       <c r="F17" s="41"/>
     </row>
-    <row r="18" s="23" customFormat="1" spans="1:6">
-      <c r="A18" s="23" t="s">
+    <row r="18" s="25" customFormat="1" spans="1:6">
+      <c r="A18" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="49">
+      <c r="C18" s="50">
         <v>15.01</v>
       </c>
-      <c r="D18" s="49">
+      <c r="D18" s="50">
         <v>3</v>
       </c>
-      <c r="E18" s="50" t="s">
+      <c r="E18" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="47"/>
-    </row>
-    <row r="19" s="20" customFormat="1" spans="1:6">
-      <c r="A19" s="20" t="s">
+      <c r="F18" s="48"/>
+    </row>
+    <row r="19" s="22" customFormat="1" spans="1:6">
+      <c r="A19" s="22" t="s">
         <v>46</v>
       </c>
       <c r="B19" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="36">
+      <c r="C19" s="37">
         <v>3.6</v>
       </c>
-      <c r="D19" s="36">
+      <c r="D19" s="37">
         <v>4</v>
       </c>
-      <c r="E19" s="36" t="s">
+      <c r="E19" s="37" t="s">
         <v>48</v>
       </c>
       <c r="F19" s="38"/>
     </row>
-    <row r="20" s="19" customFormat="1" spans="1:6">
-      <c r="A20" s="19" t="s">
+    <row r="20" s="21" customFormat="1" spans="1:6">
+      <c r="A20" s="21" t="s">
         <v>49</v>
       </c>
       <c r="B20" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="36">
+      <c r="C20" s="37">
         <v>25.1</v>
       </c>
-      <c r="D20" s="36">
+      <c r="D20" s="37">
         <v>4.9</v>
       </c>
-      <c r="E20" s="36" t="s">
+      <c r="E20" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="F20" s="34"/>
-    </row>
-    <row r="21" s="19" customFormat="1" spans="2:6">
+      <c r="F20" s="35"/>
+    </row>
+    <row r="21" s="21" customFormat="1" spans="2:6">
       <c r="B21" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="32">
+      <c r="C21" s="33">
         <v>20</v>
       </c>
-      <c r="D21" s="32">
+      <c r="D21" s="33">
         <v>5</v>
       </c>
-      <c r="E21" s="32" t="s">
+      <c r="E21" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="34"/>
-    </row>
-    <row r="22" s="24" customFormat="1" spans="1:6">
-      <c r="A22" s="24" t="s">
+      <c r="F21" s="35"/>
+    </row>
+    <row r="22" s="26" customFormat="1" spans="1:6">
+      <c r="A22" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="51" t="s">
+      <c r="B22" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="52">
+      <c r="C22" s="53">
         <v>15</v>
       </c>
-      <c r="D22" s="52">
+      <c r="D22" s="53">
         <v>5</v>
       </c>
-      <c r="E22" s="52" t="s">
+      <c r="E22" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="F22" s="53"/>
-    </row>
-    <row r="23" s="25" customFormat="1" spans="1:6">
-      <c r="A23" s="25" t="s">
+      <c r="F22" s="54"/>
+    </row>
+    <row r="23" s="23" customFormat="1" spans="1:6">
+      <c r="A23" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="54" t="s">
+      <c r="B23" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="55">
+      <c r="C23" s="39">
         <v>30.1</v>
       </c>
-      <c r="D23" s="55">
+      <c r="D23" s="39">
         <v>3</v>
       </c>
-      <c r="E23" s="55" t="s">
+      <c r="E23" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="F23" s="56"/>
-    </row>
-    <row r="24" s="19" customFormat="1" spans="1:6">
-      <c r="A24" s="19" t="s">
+      <c r="F23" s="41"/>
+    </row>
+    <row r="24" s="21" customFormat="1" spans="1:6">
+      <c r="A24" s="21" t="s">
         <v>59</v>
       </c>
       <c r="B24" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="32">
+      <c r="C24" s="33">
         <v>4.5</v>
       </c>
-      <c r="D24" s="32">
+      <c r="D24" s="33">
         <v>2.5</v>
       </c>
-      <c r="E24" s="32" t="s">
+      <c r="E24" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="F24" s="34"/>
-    </row>
-    <row r="25" s="19" customFormat="1" spans="1:6">
-      <c r="A25" s="19" t="s">
+      <c r="F24" s="35"/>
+    </row>
+    <row r="25" s="21" customFormat="1" spans="1:6">
+      <c r="A25" s="21" t="s">
         <v>62</v>
       </c>
       <c r="B25" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="32">
+      <c r="C25" s="33">
         <v>3.01</v>
       </c>
-      <c r="D25" s="32">
+      <c r="D25" s="33">
         <v>2</v>
       </c>
-      <c r="E25" s="32" t="s">
+      <c r="E25" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="F25" s="34"/>
-    </row>
-    <row r="26" s="20" customFormat="1" spans="1:6">
-      <c r="A26" s="20" t="s">
+      <c r="F25" s="35"/>
+    </row>
+    <row r="26" s="22" customFormat="1" spans="1:6">
+      <c r="A26" s="22" t="s">
         <v>64</v>
       </c>
       <c r="B26" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="36">
+      <c r="C26" s="37">
         <v>25</v>
       </c>
-      <c r="D26" s="36">
+      <c r="D26" s="37">
         <v>5</v>
       </c>
-      <c r="E26" s="36" t="s">
+      <c r="E26" s="37" t="s">
         <v>66</v>
       </c>
       <c r="F26" s="38"/>
     </row>
-    <row r="27" s="19" customFormat="1" spans="1:6">
-      <c r="A27" s="19" t="s">
+    <row r="27" s="21" customFormat="1" spans="1:6">
+      <c r="A27" s="21" t="s">
         <v>67</v>
       </c>
       <c r="B27" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="32">
+      <c r="C27" s="33">
         <v>20</v>
       </c>
-      <c r="D27" s="32">
+      <c r="D27" s="33">
         <v>5</v>
       </c>
-      <c r="E27" s="32" t="s">
+      <c r="E27" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="F27" s="34"/>
-    </row>
-    <row r="28" s="19" customFormat="1" spans="1:6">
-      <c r="A28" s="19" t="s">
+      <c r="F27" s="35"/>
+    </row>
+    <row r="28" s="21" customFormat="1" spans="1:6">
+      <c r="A28" s="21" t="s">
         <v>70</v>
       </c>
       <c r="B28" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="32">
+      <c r="C28" s="33">
         <v>6</v>
       </c>
-      <c r="D28" s="32">
+      <c r="D28" s="33">
         <v>5</v>
       </c>
-      <c r="E28" s="32" t="s">
+      <c r="E28" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="F28" s="34"/>
-    </row>
-    <row r="29" s="26" customFormat="1" spans="1:6">
-      <c r="A29" s="26" t="s">
+      <c r="F28" s="35"/>
+    </row>
+    <row r="29" s="27" customFormat="1" spans="1:6">
+      <c r="A29" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="B29" s="57" t="s">
+      <c r="B29" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="C29" s="58">
+      <c r="C29" s="56">
         <v>25.11</v>
       </c>
-      <c r="D29" s="58">
+      <c r="D29" s="56">
         <v>3</v>
       </c>
-      <c r="E29" s="58" t="s">
+      <c r="E29" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="F29" s="59"/>
-    </row>
-    <row r="30" s="19" customFormat="1" spans="1:6">
-      <c r="A30" s="60" t="s">
+      <c r="F29" s="57"/>
+    </row>
+    <row r="30" s="21" customFormat="1" spans="1:6">
+      <c r="A30" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="C30" s="32">
+      <c r="C30" s="33">
         <v>20.1</v>
       </c>
-      <c r="D30" s="32">
+      <c r="D30" s="33">
         <v>5</v>
       </c>
-      <c r="E30" s="32" t="s">
+      <c r="E30" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="F30" s="34"/>
-    </row>
-    <row r="31" s="21" customFormat="1" spans="1:6">
-      <c r="A31" s="61" t="s">
+      <c r="F30" s="35"/>
+    </row>
+    <row r="31" s="23" customFormat="1" spans="1:6">
+      <c r="A31" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="B31" s="62" t="s">
+      <c r="B31" s="60" t="s">
         <v>80</v>
       </c>
       <c r="C31" s="39">
@@ -2372,65 +2530,65 @@
       </c>
       <c r="F31" s="41"/>
     </row>
-    <row r="32" s="23" customFormat="1" spans="1:6">
-      <c r="A32" s="63" t="s">
+    <row r="32" s="25" customFormat="1" spans="1:6">
+      <c r="A32" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="B32" s="64" t="s">
+      <c r="B32" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="C32" s="49">
+      <c r="C32" s="50">
         <v>6.2</v>
       </c>
-      <c r="D32" s="49">
+      <c r="D32" s="50">
         <v>3</v>
       </c>
-      <c r="E32" s="49" t="s">
+      <c r="E32" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="F32" s="47"/>
-    </row>
-    <row r="33" s="19" customFormat="1" spans="1:6">
-      <c r="A33" s="60" t="s">
+      <c r="F32" s="48"/>
+    </row>
+    <row r="33" s="21" customFormat="1" spans="1:6">
+      <c r="A33" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="C33" s="32">
+      <c r="C33" s="33">
         <v>20</v>
       </c>
-      <c r="D33" s="32">
+      <c r="D33" s="33">
         <v>5</v>
       </c>
-      <c r="E33" s="32" t="s">
+      <c r="E33" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="F33" s="34"/>
-    </row>
-    <row r="34" s="19" customFormat="1" spans="1:6">
-      <c r="A34" s="60" t="s">
+      <c r="F33" s="35"/>
+    </row>
+    <row r="34" s="21" customFormat="1" spans="1:6">
+      <c r="A34" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="C34" s="32">
+      <c r="C34" s="33">
         <v>15</v>
       </c>
-      <c r="D34" s="32">
+      <c r="D34" s="33">
         <v>5</v>
       </c>
-      <c r="E34" s="32" t="s">
+      <c r="E34" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="F34" s="34"/>
-    </row>
-    <row r="35" s="21" customFormat="1" spans="1:6">
-      <c r="A35" s="61" t="s">
+      <c r="F34" s="35"/>
+    </row>
+    <row r="35" s="23" customFormat="1" spans="1:6">
+      <c r="A35" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="B35" s="62" t="s">
+      <c r="B35" s="60" t="s">
         <v>90</v>
       </c>
       <c r="C35" s="39">
@@ -2444,128 +2602,128 @@
       </c>
       <c r="F35" s="41"/>
     </row>
-    <row r="36" s="19" customFormat="1" spans="1:6">
-      <c r="A36" s="60" t="s">
+    <row r="36" s="21" customFormat="1" spans="1:6">
+      <c r="A36" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="B36" s="31" t="s">
+      <c r="B36" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="C36" s="32">
+      <c r="C36" s="33">
         <v>2</v>
       </c>
-      <c r="D36" s="65" t="s">
+      <c r="D36" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="E36" s="32" t="s">
+      <c r="E36" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="F36" s="34"/>
-    </row>
-    <row r="37" s="19" customFormat="1" spans="1:6">
-      <c r="A37" s="60" t="s">
+      <c r="F36" s="35"/>
+    </row>
+    <row r="37" s="21" customFormat="1" spans="1:6">
+      <c r="A37" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="B37" s="31" t="s">
+      <c r="B37" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="C37" s="32">
+      <c r="C37" s="33">
         <v>6.12</v>
       </c>
-      <c r="D37" s="32">
+      <c r="D37" s="33">
         <v>3</v>
       </c>
-      <c r="E37" s="32" t="s">
+      <c r="E37" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="F37" s="34"/>
-    </row>
-    <row r="38" s="19" customFormat="1" spans="1:6">
-      <c r="A38" s="60" t="s">
+      <c r="F37" s="35"/>
+    </row>
+    <row r="38" s="21" customFormat="1" spans="1:6">
+      <c r="A38" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="B38" s="31" t="s">
+      <c r="B38" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="C38" s="32">
+      <c r="C38" s="33">
         <v>10.2</v>
       </c>
-      <c r="D38" s="32">
+      <c r="D38" s="33">
         <v>3</v>
       </c>
-      <c r="E38" s="32" t="s">
+      <c r="E38" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="F38" s="34"/>
-    </row>
-    <row r="39" s="19" customFormat="1" spans="1:6">
-      <c r="A39" s="60" t="s">
+      <c r="F38" s="35"/>
+    </row>
+    <row r="39" s="21" customFormat="1" spans="1:6">
+      <c r="A39" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="B39" s="31" t="s">
+      <c r="B39" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="C39" s="32">
+      <c r="C39" s="33">
         <v>20</v>
       </c>
-      <c r="D39" s="32">
+      <c r="D39" s="33">
         <v>10</v>
       </c>
-      <c r="E39" s="32" t="s">
+      <c r="E39" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="F39" s="34"/>
-    </row>
-    <row r="40" s="20" customFormat="1" spans="1:6">
-      <c r="A40" s="20" t="s">
+      <c r="F39" s="35"/>
+    </row>
+    <row r="40" s="22" customFormat="1" spans="1:6">
+      <c r="A40" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="B40" s="66" t="s">
+      <c r="B40" s="64" t="s">
         <v>104</v>
       </c>
-      <c r="C40" s="36">
+      <c r="C40" s="37">
         <v>31</v>
       </c>
-      <c r="D40" s="36">
+      <c r="D40" s="37">
         <v>6</v>
       </c>
-      <c r="E40" s="36" t="s">
+      <c r="E40" s="37" t="s">
         <v>105</v>
       </c>
       <c r="F40" s="38"/>
     </row>
-    <row r="41" s="19" customFormat="1" spans="1:6">
-      <c r="A41" s="60" t="s">
+    <row r="41" s="21" customFormat="1" spans="1:6">
+      <c r="A41" s="58" t="s">
         <v>106</v>
       </c>
-      <c r="B41" s="31" t="s">
+      <c r="B41" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="C41" s="32">
+      <c r="C41" s="33">
         <v>16</v>
       </c>
-      <c r="D41" s="32">
+      <c r="D41" s="33">
         <v>10</v>
       </c>
-      <c r="E41" s="32" t="s">
+      <c r="E41" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="F41" s="34"/>
-    </row>
-    <row r="42" s="20" customFormat="1" spans="1:6">
-      <c r="A42" s="67" t="s">
+      <c r="F41" s="35"/>
+    </row>
+    <row r="42" s="22" customFormat="1" spans="1:6">
+      <c r="A42" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="B42" s="67" t="s">
+      <c r="B42" s="65" t="s">
         <v>110</v>
       </c>
-      <c r="C42" s="36">
+      <c r="C42" s="37">
         <v>20.4</v>
       </c>
-      <c r="D42" s="36">
+      <c r="D42" s="37">
         <v>4</v>
       </c>
-      <c r="E42" s="36" t="s">
+      <c r="E42" s="37" t="s">
         <v>111</v>
       </c>
       <c r="F42" s="38"/>
@@ -2616,37 +2774,37 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="20.3333333333333" customWidth="1"/>
-    <col min="2" max="2" width="47.4444444444444" customWidth="1"/>
-    <col min="3" max="3" width="19.5555555555556" customWidth="1"/>
+    <col min="2" max="2" width="47.4416666666667" customWidth="1"/>
+    <col min="3" max="3" width="19.5583333333333" customWidth="1"/>
     <col min="4" max="4" width="17.3333333333333" customWidth="1"/>
-    <col min="5" max="5" width="16.2222222222222" customWidth="1"/>
+    <col min="5" max="5" width="16.225" customWidth="1"/>
     <col min="6" max="6" width="35.6666666666667" customWidth="1"/>
-    <col min="7" max="7" width="9" style="7"/>
+    <col min="7" max="7" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" s="16" customFormat="1" ht="15" spans="1:7">
-      <c r="A1" s="16" t="s">
+    <row r="1" s="18" customFormat="1" ht="16.5" spans="1:7">
+      <c r="A1" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="20" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2662,28 +2820,28 @@
   <sheetPr/>
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="$A26:$XFD26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="13.7777777777778" style="5" customWidth="1"/>
-    <col min="2" max="2" width="31.3796296296296" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.87962962962963" style="1" customWidth="1"/>
-    <col min="4" max="6" width="8.37962962962963" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.775" style="6" customWidth="1"/>
+    <col min="2" max="2" width="31.3833333333333" style="7" customWidth="1"/>
+    <col min="3" max="3" width="9.88333333333333" style="1" customWidth="1"/>
+    <col min="4" max="6" width="8.38333333333333" style="1" customWidth="1"/>
     <col min="7" max="7" width="22.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="22.3796296296296" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.3833333333333" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.25" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.5" style="7" customWidth="1"/>
-    <col min="11" max="11" width="24.3796296296296" customWidth="1"/>
+    <col min="10" max="10" width="17.5" style="8" customWidth="1"/>
+    <col min="11" max="11" width="24.3833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>115</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -2715,10 +2873,10 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>122</v>
       </c>
       <c r="C2" s="1">
@@ -2742,15 +2900,15 @@
       <c r="I2" s="1">
         <v>330336629</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="16" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>127</v>
       </c>
       <c r="C3" s="1">
@@ -2774,15 +2932,15 @@
       <c r="I3" s="1">
         <v>329827419</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="16" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>104</v>
       </c>
       <c r="C4" s="1">
@@ -2806,48 +2964,45 @@
       <c r="I4" s="1">
         <v>329827419</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="16" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
-      <c r="B5" s="4"/>
-    </row>
     <row r="6" spans="2:2">
-      <c r="B6" s="4"/>
+      <c r="B6" s="10"/>
     </row>
     <row r="7" spans="2:2">
-      <c r="B7" s="8"/>
+      <c r="B7" s="9"/>
     </row>
     <row r="8" spans="2:2">
-      <c r="B8" s="8"/>
+      <c r="B8" s="9"/>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="8"/>
+      <c r="B9" s="9"/>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="8"/>
+      <c r="B10" s="9"/>
     </row>
     <row r="11" spans="2:2">
-      <c r="B11" s="8"/>
+      <c r="B11" s="9"/>
     </row>
     <row r="12" spans="2:2">
-      <c r="B12" s="8"/>
+      <c r="B12" s="9"/>
     </row>
     <row r="13" spans="2:2">
-      <c r="B13" s="8"/>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="9">
+      <c r="B13" s="9"/>
+    </row>
+    <row r="14" ht="14.25" spans="1:2">
+      <c r="A14" s="11">
         <v>43647</v>
       </c>
-      <c r="B14" s="10"/>
+      <c r="B14" s="12"/>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:11">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>115</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -2879,10 +3034,10 @@
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="9" t="s">
         <v>133</v>
       </c>
       <c r="C16" s="1">
@@ -2903,61 +3058,89 @@
       <c r="H16" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="I16" s="15">
+      <c r="I16" s="17">
         <v>331251512</v>
       </c>
-      <c r="J16" s="7" t="s">
+      <c r="J16" s="16" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="8"/>
+    <row r="17" spans="1:10">
+      <c r="A17" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" s="1">
+        <v>223</v>
+      </c>
+      <c r="E17" s="1">
+        <v>20</v>
+      </c>
+      <c r="F17" s="1">
+        <v>5</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="I17" s="1">
+        <v>332139409</v>
+      </c>
+      <c r="J17" s="16" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="8"/>
+      <c r="B18" s="9"/>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="8"/>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="4"/>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="4"/>
+      <c r="B20" s="9"/>
+    </row>
+    <row r="21" ht="14.25" spans="2:2">
+      <c r="B21" s="10"/>
+    </row>
+    <row r="22" ht="14.25" spans="2:2">
+      <c r="B22" s="10"/>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="8"/>
+      <c r="B23" s="9"/>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="8"/>
+      <c r="B24" s="9"/>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="8"/>
-    </row>
-    <row r="26" customFormat="1" ht="14.4"/>
+      <c r="B25" s="9"/>
+    </row>
+    <row r="26" customFormat="1" spans="9:9">
+      <c r="I26" s="2"/>
+    </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="12"/>
+      <c r="B27" s="14"/>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="8"/>
-    </row>
-    <row r="29" spans="2:2">
-      <c r="B29" s="13"/>
+      <c r="B28" s="9"/>
+    </row>
+    <row r="29" ht="14.25" spans="2:2">
+      <c r="B29" s="15"/>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" s="12"/>
+      <c r="B30" s="14"/>
     </row>
     <row r="31" spans="2:2">
-      <c r="B31" s="8"/>
+      <c r="B31" s="9"/>
     </row>
     <row r="32" spans="2:2">
-      <c r="B32" s="8"/>
+      <c r="B32" s="9"/>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="8"/>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34" s="4"/>
+      <c r="B33" s="9"/>
+    </row>
+    <row r="34" ht="14.25" spans="2:2">
+      <c r="B34" s="10"/>
     </row>
   </sheetData>
   <sortState ref="B1:B28">
@@ -2968,6 +3151,8 @@
     <hyperlink ref="J3" r:id="rId3" display="https://detail.tmall.com/item.htm?spm=a212k0.12153887.0.0.2759687dP5RzZj&amp;id=547078093989&amp;skuId=3566631730189" tooltip="https://detail.tmall.com/item.htm?spm=a212k0.12153887.0.0.2759687dP5RzZj&amp;id=547078093989&amp;skuId=3566631730189"/>
     <hyperlink ref="J4" r:id="rId4" display="https://detail.tmall.com/item.htm?id=573247426562" tooltip="https://detail.tmall.com/item.htm?id=573247426562"/>
     <hyperlink ref="I16" r:id="rId5" display="331251512"/>
+    <hyperlink ref="J17" r:id="rId6" display="https://detail.tmall.com/item.htm?spm=a21ag.8198216.0.0.7759410c42fSSR&amp;id=559313568102"/>
+    <hyperlink ref="J16" r:id="rId7" display="https://detail.tmall.com/item.htm?id=560320045979&amp;spm=a219t.11816989.1998910419.dafc012e7.cd7575a540bv2R" tooltip="https://detail.tmall.com/item.htm?id=560320045979&amp;spm=a219t.11816989.1998910419.dafc012e7.cd7575a540bv2R"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2979,24 +3164,26 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col min="2" max="2" width="37.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="37.775" style="2" customWidth="1"/>
+    <col min="5" max="6" width="9" style="2"/>
     <col min="7" max="7" width="21.6666666666667" customWidth="1"/>
     <col min="8" max="8" width="11.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15" spans="1:11">
+    <row r="1" s="1" customFormat="1" ht="16.5" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>115</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -3027,12 +3214,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="3" t="s">
+    <row r="2" ht="14.25" spans="1:7">
+      <c r="A2" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>136</v>
+      <c r="B2" s="5" t="s">
+        <v>141</v>
       </c>
       <c r="E2" s="1">
         <v>6</v>
@@ -3042,6 +3229,23 @@
       </c>
       <c r="G2" s="1" t="s">
         <v>123</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:7">
+      <c r="A3" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E3" s="2">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/招商团长/报名活动单.xlsx
+++ b/招商团长/报名活动单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21105" windowHeight="9165" activeTab="2"/>
+    <workbookView windowWidth="20688" windowHeight="8940" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="6月报名清单" sheetId="1" r:id="rId1"/>
@@ -453,9 +453,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
@@ -540,6 +540,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -547,7 +554,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -561,15 +568,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -577,46 +578,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -637,14 +599,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -652,9 +606,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -667,11 +659,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -690,7 +690,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -702,19 +762,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -732,145 +870,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -908,26 +908,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -947,28 +949,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -989,10 +989,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1001,16 +1001,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1019,128 +1019,125 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1210,9 +1207,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1223,9 +1217,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1287,15 +1278,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1421,8 +1403,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12378690" y="447675"/>
-          <a:ext cx="714375" cy="185420"/>
+          <a:off x="11188065" y="409575"/>
+          <a:ext cx="714375" cy="166370"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1459,8 +1441,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11969115" y="638175"/>
-          <a:ext cx="1781810" cy="210820"/>
+          <a:off x="10778490" y="581025"/>
+          <a:ext cx="1595755" cy="191770"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1497,8 +1479,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11978640" y="219075"/>
-          <a:ext cx="1772285" cy="212725"/>
+          <a:off x="10788015" y="200025"/>
+          <a:ext cx="1586230" cy="193675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1535,8 +1517,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11904345" y="3122295"/>
-          <a:ext cx="1627505" cy="216535"/>
+          <a:off x="10713720" y="2849880"/>
+          <a:ext cx="1627505" cy="197485"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1553,8 +1535,8 @@
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1810385</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>163830</xdr:rowOff>
     </xdr:to>
@@ -1573,8 +1555,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12064365" y="3362325"/>
-          <a:ext cx="1638935" cy="125730"/>
+          <a:off x="10873740" y="3070860"/>
+          <a:ext cx="1500505" cy="125730"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1611,8 +1593,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13750290" y="3343275"/>
-          <a:ext cx="762635" cy="89535"/>
+          <a:off x="12374245" y="3051810"/>
+          <a:ext cx="693420" cy="89535"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1649,8 +1631,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14484350" y="3390900"/>
-          <a:ext cx="682625" cy="76200"/>
+          <a:off x="13039090" y="3099435"/>
+          <a:ext cx="614045" cy="76200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1687,8 +1669,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15132050" y="3343275"/>
-          <a:ext cx="693420" cy="101600"/>
+          <a:off x="13618210" y="3051810"/>
+          <a:ext cx="624840" cy="101600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1993,740 +1975,740 @@
       <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="18.5" style="28" customWidth="1"/>
-    <col min="2" max="2" width="39.8833333333333" style="29" customWidth="1"/>
-    <col min="3" max="3" width="19.8833333333333" style="30" customWidth="1"/>
-    <col min="4" max="4" width="18.75" style="30" customWidth="1"/>
-    <col min="5" max="5" width="31.6333333333333" style="30" customWidth="1"/>
-    <col min="6" max="6" width="36.3833333333333" style="31" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="28"/>
+    <col min="1" max="1" width="18.5" style="26" customWidth="1"/>
+    <col min="2" max="2" width="39.8796296296296" style="27" customWidth="1"/>
+    <col min="3" max="3" width="19.8796296296296" style="16" customWidth="1"/>
+    <col min="4" max="4" width="18.75" style="16" customWidth="1"/>
+    <col min="5" max="5" width="31.6296296296296" style="16" customWidth="1"/>
+    <col min="6" max="6" width="36.3796296296296" style="28" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="28" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="21" customFormat="1" spans="1:6">
-      <c r="A2" s="21" t="s">
+    <row r="2" s="20" customFormat="1" spans="1:6">
+      <c r="A2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="33">
+      <c r="C2" s="30">
         <v>20</v>
       </c>
-      <c r="D2" s="33">
+      <c r="D2" s="30">
         <v>5</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="35"/>
-    </row>
-    <row r="3" s="21" customFormat="1" spans="2:6">
-      <c r="B3" s="32" t="s">
+      <c r="F2" s="32"/>
+    </row>
+    <row r="3" s="20" customFormat="1" spans="2:6">
+      <c r="B3" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="33">
+      <c r="C3" s="30">
         <v>20.01</v>
       </c>
-      <c r="D3" s="33">
+      <c r="D3" s="30">
         <v>5</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="35"/>
-    </row>
-    <row r="4" s="22" customFormat="1" spans="1:6">
-      <c r="A4" s="22" t="s">
+      <c r="F3" s="32"/>
+    </row>
+    <row r="4" s="21" customFormat="1" spans="1:6">
+      <c r="A4" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="34" t="s">
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="38"/>
-    </row>
-    <row r="5" s="23" customFormat="1" spans="1:6">
-      <c r="A5" s="23" t="s">
+      <c r="F4" s="35"/>
+    </row>
+    <row r="5" s="22" customFormat="1" spans="1:6">
+      <c r="A5" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="39">
+      <c r="C5" s="36">
         <v>10.1</v>
       </c>
-      <c r="D5" s="39">
+      <c r="D5" s="36">
         <v>4</v>
       </c>
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="41"/>
-    </row>
-    <row r="6" s="22" customFormat="1" spans="1:6">
-      <c r="A6" s="22" t="s">
+      <c r="F5" s="38"/>
+    </row>
+    <row r="6" s="21" customFormat="1" spans="1:6">
+      <c r="A6" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="34" t="s">
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="38"/>
-    </row>
-    <row r="7" s="21" customFormat="1" spans="2:6">
-      <c r="B7" s="43" t="s">
+      <c r="F6" s="35"/>
+    </row>
+    <row r="7" s="20" customFormat="1" spans="2:6">
+      <c r="B7" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="33">
+      <c r="C7" s="30">
         <v>15</v>
       </c>
-      <c r="D7" s="33">
+      <c r="D7" s="30">
         <v>3</v>
       </c>
-      <c r="E7" s="44" t="s">
+      <c r="E7" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="35"/>
-    </row>
-    <row r="8" s="21" customFormat="1" spans="2:6">
-      <c r="B8" s="32" t="s">
+      <c r="F7" s="32"/>
+    </row>
+    <row r="8" s="20" customFormat="1" spans="2:6">
+      <c r="B8" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="44" t="s">
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="35"/>
-    </row>
-    <row r="9" s="24" customFormat="1" spans="1:6">
-      <c r="A9" s="24" t="s">
+      <c r="F8" s="32"/>
+    </row>
+    <row r="9" s="23" customFormat="1" spans="1:6">
+      <c r="A9" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="46">
+      <c r="C9" s="43">
         <v>10.01</v>
       </c>
-      <c r="D9" s="46">
+      <c r="D9" s="43">
         <v>4.9</v>
       </c>
-      <c r="E9" s="46" t="s">
+      <c r="E9" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="47" t="s">
+      <c r="F9" s="44" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" s="25" customFormat="1" spans="1:6">
-      <c r="A10" s="25" t="s">
+    <row r="10" s="24" customFormat="1" spans="1:6">
+      <c r="A10" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="39">
+      <c r="C10" s="36">
         <v>40</v>
       </c>
-      <c r="D10" s="39">
+      <c r="D10" s="36">
         <v>10</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="48"/>
-    </row>
-    <row r="11" s="21" customFormat="1" spans="2:6">
-      <c r="B11" s="43" t="s">
+      <c r="F10" s="45"/>
+    </row>
+    <row r="11" s="20" customFormat="1" spans="2:6">
+      <c r="B11" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="33">
+      <c r="C11" s="30">
         <v>25.2</v>
       </c>
-      <c r="D11" s="33">
+      <c r="D11" s="30">
         <v>4</v>
       </c>
-      <c r="E11" s="33" t="s">
+      <c r="E11" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="35"/>
-    </row>
-    <row r="12" s="21" customFormat="1" spans="2:6">
-      <c r="B12" s="32" t="s">
+      <c r="F11" s="32"/>
+    </row>
+    <row r="12" s="20" customFormat="1" spans="2:6">
+      <c r="B12" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="33">
+      <c r="C12" s="30">
         <v>6</v>
       </c>
-      <c r="D12" s="33">
+      <c r="D12" s="30">
         <v>5</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="35"/>
-    </row>
-    <row r="13" s="23" customFormat="1" spans="1:6">
-      <c r="A13" s="23" t="s">
+      <c r="F12" s="32"/>
+    </row>
+    <row r="13" s="22" customFormat="1" spans="1:6">
+      <c r="A13" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="39">
+      <c r="C13" s="36">
         <v>5.2</v>
       </c>
-      <c r="D13" s="39">
+      <c r="D13" s="36">
         <v>4</v>
       </c>
-      <c r="E13" s="39" t="s">
+      <c r="E13" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="41"/>
-    </row>
-    <row r="14" s="23" customFormat="1" spans="1:6">
-      <c r="A14" s="23" t="s">
+      <c r="F13" s="38"/>
+    </row>
+    <row r="14" s="22" customFormat="1" spans="1:6">
+      <c r="A14" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="39">
+      <c r="C14" s="36">
         <v>10.1</v>
       </c>
-      <c r="D14" s="39">
+      <c r="D14" s="36">
         <v>5</v>
       </c>
-      <c r="E14" s="39" t="s">
+      <c r="E14" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="41"/>
-    </row>
-    <row r="15" s="23" customFormat="1" spans="1:6">
-      <c r="A15" s="23" t="s">
+      <c r="F14" s="38"/>
+    </row>
+    <row r="15" s="22" customFormat="1" spans="1:6">
+      <c r="A15" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="39">
+      <c r="C15" s="36">
         <v>18.01</v>
       </c>
-      <c r="D15" s="39">
+      <c r="D15" s="36">
         <v>2</v>
       </c>
-      <c r="E15" s="40" t="s">
+      <c r="E15" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="41"/>
-    </row>
-    <row r="16" s="23" customFormat="1" spans="2:6">
-      <c r="B16" s="36" t="s">
+      <c r="F15" s="38"/>
+    </row>
+    <row r="16" s="22" customFormat="1" spans="2:6">
+      <c r="B16" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="39">
+      <c r="C16" s="36">
         <v>10</v>
       </c>
-      <c r="D16" s="39">
+      <c r="D16" s="36">
         <v>2</v>
       </c>
-      <c r="E16" s="40" t="s">
+      <c r="E16" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="41"/>
-    </row>
-    <row r="17" s="23" customFormat="1" spans="2:6">
-      <c r="B17" s="36" t="s">
+      <c r="F16" s="38"/>
+    </row>
+    <row r="17" s="22" customFormat="1" spans="2:6">
+      <c r="B17" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="39">
+      <c r="C17" s="36">
         <v>15</v>
       </c>
-      <c r="D17" s="39">
+      <c r="D17" s="36">
         <v>2</v>
       </c>
-      <c r="E17" s="40" t="s">
+      <c r="E17" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="41"/>
-    </row>
-    <row r="18" s="25" customFormat="1" spans="1:6">
-      <c r="A18" s="25" t="s">
+      <c r="F17" s="38"/>
+    </row>
+    <row r="18" s="24" customFormat="1" spans="1:6">
+      <c r="A18" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="50">
+      <c r="C18" s="47">
         <v>15.01</v>
       </c>
-      <c r="D18" s="50">
+      <c r="D18" s="47">
         <v>3</v>
       </c>
-      <c r="E18" s="51" t="s">
+      <c r="E18" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="48"/>
-    </row>
-    <row r="19" s="22" customFormat="1" spans="1:6">
-      <c r="A19" s="22" t="s">
+      <c r="F18" s="45"/>
+    </row>
+    <row r="19" s="21" customFormat="1" spans="1:6">
+      <c r="A19" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="37">
+      <c r="C19" s="34">
         <v>3.6</v>
       </c>
-      <c r="D19" s="37">
+      <c r="D19" s="34">
         <v>4</v>
       </c>
-      <c r="E19" s="37" t="s">
+      <c r="E19" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="38"/>
-    </row>
-    <row r="20" s="21" customFormat="1" spans="1:6">
-      <c r="A20" s="21" t="s">
+      <c r="F19" s="35"/>
+    </row>
+    <row r="20" s="20" customFormat="1" spans="1:6">
+      <c r="A20" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="42" t="s">
+      <c r="B20" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="37">
+      <c r="C20" s="34">
         <v>25.1</v>
       </c>
-      <c r="D20" s="37">
+      <c r="D20" s="34">
         <v>4.9</v>
       </c>
-      <c r="E20" s="37" t="s">
+      <c r="E20" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="F20" s="35"/>
-    </row>
-    <row r="21" s="21" customFormat="1" spans="2:6">
-      <c r="B21" s="43" t="s">
+      <c r="F20" s="32"/>
+    </row>
+    <row r="21" s="20" customFormat="1" spans="2:6">
+      <c r="B21" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="33">
+      <c r="C21" s="30">
         <v>20</v>
       </c>
-      <c r="D21" s="33">
+      <c r="D21" s="30">
         <v>5</v>
       </c>
-      <c r="E21" s="33" t="s">
+      <c r="E21" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="35"/>
-    </row>
-    <row r="22" s="26" customFormat="1" spans="1:6">
-      <c r="A22" s="26" t="s">
+      <c r="F21" s="32"/>
+    </row>
+    <row r="22" s="22" customFormat="1" spans="1:6">
+      <c r="A22" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="52" t="s">
+      <c r="B22" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="53">
+      <c r="C22" s="36">
         <v>15</v>
       </c>
-      <c r="D22" s="53">
+      <c r="D22" s="36">
         <v>5</v>
       </c>
-      <c r="E22" s="53" t="s">
+      <c r="E22" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="F22" s="54"/>
-    </row>
-    <row r="23" s="23" customFormat="1" spans="1:6">
-      <c r="A23" s="23" t="s">
+      <c r="F22" s="38"/>
+    </row>
+    <row r="23" s="22" customFormat="1" spans="1:6">
+      <c r="A23" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="39">
+      <c r="C23" s="36">
         <v>30.1</v>
       </c>
-      <c r="D23" s="39">
+      <c r="D23" s="36">
         <v>3</v>
       </c>
-      <c r="E23" s="39" t="s">
+      <c r="E23" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="F23" s="41"/>
-    </row>
-    <row r="24" s="21" customFormat="1" spans="1:6">
-      <c r="A24" s="21" t="s">
+      <c r="F23" s="38"/>
+    </row>
+    <row r="24" s="20" customFormat="1" spans="1:6">
+      <c r="A24" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="43" t="s">
+      <c r="B24" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="33">
+      <c r="C24" s="30">
         <v>4.5</v>
       </c>
-      <c r="D24" s="33">
+      <c r="D24" s="30">
         <v>2.5</v>
       </c>
-      <c r="E24" s="33" t="s">
+      <c r="E24" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="F24" s="35"/>
-    </row>
-    <row r="25" s="21" customFormat="1" spans="1:6">
-      <c r="A25" s="21" t="s">
+      <c r="F24" s="32"/>
+    </row>
+    <row r="25" s="20" customFormat="1" spans="1:6">
+      <c r="A25" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="43" t="s">
+      <c r="B25" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="33">
+      <c r="C25" s="30">
         <v>3.01</v>
       </c>
-      <c r="D25" s="33">
+      <c r="D25" s="30">
         <v>2</v>
       </c>
-      <c r="E25" s="33" t="s">
+      <c r="E25" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="F25" s="35"/>
-    </row>
-    <row r="26" s="22" customFormat="1" spans="1:6">
-      <c r="A26" s="22" t="s">
+      <c r="F25" s="32"/>
+    </row>
+    <row r="26" s="21" customFormat="1" spans="1:6">
+      <c r="A26" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="42" t="s">
+      <c r="B26" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="37">
+      <c r="C26" s="34">
         <v>25</v>
       </c>
-      <c r="D26" s="37">
+      <c r="D26" s="34">
         <v>5</v>
       </c>
-      <c r="E26" s="37" t="s">
+      <c r="E26" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="F26" s="38"/>
-    </row>
-    <row r="27" s="21" customFormat="1" spans="1:6">
-      <c r="A27" s="21" t="s">
+      <c r="F26" s="35"/>
+    </row>
+    <row r="27" s="20" customFormat="1" spans="1:6">
+      <c r="A27" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="43" t="s">
+      <c r="B27" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="33">
+      <c r="C27" s="30">
         <v>20</v>
       </c>
-      <c r="D27" s="33">
+      <c r="D27" s="30">
         <v>5</v>
       </c>
-      <c r="E27" s="33" t="s">
+      <c r="E27" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="F27" s="35"/>
-    </row>
-    <row r="28" s="21" customFormat="1" spans="1:6">
-      <c r="A28" s="21" t="s">
+      <c r="F27" s="32"/>
+    </row>
+    <row r="28" s="20" customFormat="1" spans="1:6">
+      <c r="A28" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="B28" s="43" t="s">
+      <c r="B28" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="33">
+      <c r="C28" s="30">
         <v>6</v>
       </c>
-      <c r="D28" s="33">
+      <c r="D28" s="30">
         <v>5</v>
       </c>
-      <c r="E28" s="33" t="s">
+      <c r="E28" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="F28" s="35"/>
-    </row>
-    <row r="29" s="27" customFormat="1" spans="1:6">
-      <c r="A29" s="27" t="s">
+      <c r="F28" s="32"/>
+    </row>
+    <row r="29" s="25" customFormat="1" spans="1:6">
+      <c r="A29" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="B29" s="55" t="s">
+      <c r="B29" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="C29" s="56">
+      <c r="C29" s="50">
         <v>25.11</v>
       </c>
-      <c r="D29" s="56">
+      <c r="D29" s="50">
         <v>3</v>
       </c>
-      <c r="E29" s="56" t="s">
+      <c r="E29" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="F29" s="57"/>
-    </row>
-    <row r="30" s="21" customFormat="1" spans="1:6">
-      <c r="A30" s="58" t="s">
+      <c r="F29" s="51"/>
+    </row>
+    <row r="30" s="20" customFormat="1" spans="1:6">
+      <c r="A30" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="B30" s="32" t="s">
+      <c r="B30" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="C30" s="33">
+      <c r="C30" s="30">
         <v>20.1</v>
       </c>
-      <c r="D30" s="33">
+      <c r="D30" s="30">
         <v>5</v>
       </c>
-      <c r="E30" s="33" t="s">
+      <c r="E30" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="F30" s="35"/>
-    </row>
-    <row r="31" s="23" customFormat="1" spans="1:6">
-      <c r="A31" s="59" t="s">
+      <c r="F30" s="32"/>
+    </row>
+    <row r="31" s="22" customFormat="1" spans="1:6">
+      <c r="A31" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="B31" s="60" t="s">
+      <c r="B31" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="39">
+      <c r="C31" s="36">
         <v>10</v>
       </c>
-      <c r="D31" s="39">
+      <c r="D31" s="36">
         <v>5</v>
       </c>
-      <c r="E31" s="39" t="s">
+      <c r="E31" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="F31" s="41"/>
-    </row>
-    <row r="32" s="25" customFormat="1" spans="1:6">
-      <c r="A32" s="61" t="s">
+      <c r="F31" s="38"/>
+    </row>
+    <row r="32" s="24" customFormat="1" spans="1:6">
+      <c r="A32" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="B32" s="62" t="s">
+      <c r="B32" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="C32" s="50">
+      <c r="C32" s="47">
         <v>6.2</v>
       </c>
-      <c r="D32" s="50">
+      <c r="D32" s="47">
         <v>3</v>
       </c>
-      <c r="E32" s="50" t="s">
+      <c r="E32" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="F32" s="48"/>
-    </row>
-    <row r="33" s="21" customFormat="1" spans="1:6">
-      <c r="A33" s="58" t="s">
+      <c r="F32" s="45"/>
+    </row>
+    <row r="33" s="20" customFormat="1" spans="1:6">
+      <c r="A33" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="B33" s="32" t="s">
+      <c r="B33" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="C33" s="33">
+      <c r="C33" s="30">
         <v>20</v>
       </c>
-      <c r="D33" s="33">
+      <c r="D33" s="30">
         <v>5</v>
       </c>
-      <c r="E33" s="33" t="s">
+      <c r="E33" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="F33" s="35"/>
-    </row>
-    <row r="34" s="21" customFormat="1" spans="1:6">
-      <c r="A34" s="58" t="s">
+      <c r="F33" s="32"/>
+    </row>
+    <row r="34" s="20" customFormat="1" spans="1:6">
+      <c r="A34" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="B34" s="32" t="s">
+      <c r="B34" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="C34" s="33">
+      <c r="C34" s="30">
         <v>15</v>
       </c>
-      <c r="D34" s="33">
+      <c r="D34" s="30">
         <v>5</v>
       </c>
-      <c r="E34" s="33" t="s">
+      <c r="E34" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="F34" s="35"/>
-    </row>
-    <row r="35" s="23" customFormat="1" spans="1:6">
-      <c r="A35" s="59" t="s">
+      <c r="F34" s="32"/>
+    </row>
+    <row r="35" s="22" customFormat="1" spans="1:6">
+      <c r="A35" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="B35" s="60" t="s">
+      <c r="B35" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="C35" s="39">
+      <c r="C35" s="36">
         <v>21</v>
       </c>
-      <c r="D35" s="39">
+      <c r="D35" s="36">
         <v>10</v>
       </c>
-      <c r="E35" s="39" t="s">
+      <c r="E35" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="F35" s="41"/>
-    </row>
-    <row r="36" s="21" customFormat="1" spans="1:6">
-      <c r="A36" s="58" t="s">
+      <c r="F35" s="38"/>
+    </row>
+    <row r="36" s="20" customFormat="1" spans="1:6">
+      <c r="A36" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="B36" s="32" t="s">
+      <c r="B36" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="C36" s="33">
+      <c r="C36" s="30">
         <v>2</v>
       </c>
-      <c r="D36" s="63" t="s">
+      <c r="D36" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="E36" s="33" t="s">
+      <c r="E36" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="F36" s="35"/>
-    </row>
-    <row r="37" s="21" customFormat="1" spans="1:6">
-      <c r="A37" s="58" t="s">
+      <c r="F36" s="32"/>
+    </row>
+    <row r="37" s="20" customFormat="1" spans="1:6">
+      <c r="A37" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="B37" s="32" t="s">
+      <c r="B37" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="C37" s="33">
+      <c r="C37" s="30">
         <v>6.12</v>
       </c>
-      <c r="D37" s="33">
+      <c r="D37" s="30">
         <v>3</v>
       </c>
-      <c r="E37" s="33" t="s">
+      <c r="E37" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="F37" s="35"/>
-    </row>
-    <row r="38" s="21" customFormat="1" spans="1:6">
-      <c r="A38" s="58" t="s">
+      <c r="F37" s="32"/>
+    </row>
+    <row r="38" s="20" customFormat="1" spans="1:6">
+      <c r="A38" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="B38" s="32" t="s">
+      <c r="B38" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="C38" s="33">
+      <c r="C38" s="30">
         <v>10.2</v>
       </c>
-      <c r="D38" s="33">
+      <c r="D38" s="30">
         <v>3</v>
       </c>
-      <c r="E38" s="33" t="s">
+      <c r="E38" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="F38" s="35"/>
-    </row>
-    <row r="39" s="21" customFormat="1" spans="1:6">
-      <c r="A39" s="58" t="s">
+      <c r="F38" s="32"/>
+    </row>
+    <row r="39" s="20" customFormat="1" spans="1:6">
+      <c r="A39" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="B39" s="32" t="s">
+      <c r="B39" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="C39" s="33">
+      <c r="C39" s="30">
         <v>20</v>
       </c>
-      <c r="D39" s="33">
+      <c r="D39" s="30">
         <v>10</v>
       </c>
-      <c r="E39" s="33" t="s">
+      <c r="E39" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="F39" s="35"/>
-    </row>
-    <row r="40" s="22" customFormat="1" spans="1:6">
-      <c r="A40" s="22" t="s">
+      <c r="F39" s="32"/>
+    </row>
+    <row r="40" s="21" customFormat="1" spans="1:6">
+      <c r="A40" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="B40" s="64" t="s">
+      <c r="B40" s="58" t="s">
         <v>104</v>
       </c>
-      <c r="C40" s="37">
+      <c r="C40" s="34">
         <v>31</v>
       </c>
-      <c r="D40" s="37">
+      <c r="D40" s="34">
         <v>6</v>
       </c>
-      <c r="E40" s="37" t="s">
+      <c r="E40" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="F40" s="38"/>
-    </row>
-    <row r="41" s="21" customFormat="1" spans="1:6">
-      <c r="A41" s="58" t="s">
+      <c r="F40" s="35"/>
+    </row>
+    <row r="41" s="20" customFormat="1" spans="1:6">
+      <c r="A41" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="B41" s="32" t="s">
+      <c r="B41" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="C41" s="33">
+      <c r="C41" s="30">
         <v>16</v>
       </c>
-      <c r="D41" s="33">
+      <c r="D41" s="30">
         <v>10</v>
       </c>
-      <c r="E41" s="33" t="s">
+      <c r="E41" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="F41" s="35"/>
-    </row>
-    <row r="42" s="22" customFormat="1" spans="1:6">
-      <c r="A42" s="65" t="s">
+      <c r="F41" s="32"/>
+    </row>
+    <row r="42" s="21" customFormat="1" spans="1:6">
+      <c r="A42" s="59" t="s">
         <v>109</v>
       </c>
-      <c r="B42" s="65" t="s">
+      <c r="B42" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="C42" s="37">
+      <c r="C42" s="34">
         <v>20.4</v>
       </c>
-      <c r="D42" s="37">
+      <c r="D42" s="34">
         <v>4</v>
       </c>
-      <c r="E42" s="37" t="s">
+      <c r="E42" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="F42" s="38"/>
+      <c r="F42" s="35"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2774,37 +2756,37 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="20.3333333333333" customWidth="1"/>
-    <col min="2" max="2" width="47.4416666666667" customWidth="1"/>
-    <col min="3" max="3" width="19.5583333333333" customWidth="1"/>
+    <col min="2" max="2" width="47.4444444444444" customWidth="1"/>
+    <col min="3" max="3" width="19.5555555555556" customWidth="1"/>
     <col min="4" max="4" width="17.3333333333333" customWidth="1"/>
-    <col min="5" max="5" width="16.225" customWidth="1"/>
+    <col min="5" max="5" width="16.2222222222222" customWidth="1"/>
     <col min="6" max="6" width="35.6666666666667" customWidth="1"/>
-    <col min="7" max="7" width="9" style="8"/>
+    <col min="7" max="7" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" s="18" customFormat="1" ht="16.5" spans="1:7">
-      <c r="A1" s="18" t="s">
+    <row r="1" s="17" customFormat="1" ht="15" spans="1:7">
+      <c r="A1" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="19" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2821,27 +2803,27 @@
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.775" style="6" customWidth="1"/>
-    <col min="2" max="2" width="31.3833333333333" style="7" customWidth="1"/>
-    <col min="3" max="3" width="9.88333333333333" style="1" customWidth="1"/>
-    <col min="4" max="6" width="8.38333333333333" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7777777777778" style="5" customWidth="1"/>
+    <col min="2" max="2" width="31.3796296296296" style="6" customWidth="1"/>
+    <col min="3" max="3" width="9.87962962962963" style="1" customWidth="1"/>
+    <col min="4" max="6" width="8.37962962962963" style="1" customWidth="1"/>
     <col min="7" max="7" width="22.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="22.3833333333333" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.3796296296296" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.25" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.5" style="8" customWidth="1"/>
-    <col min="11" max="11" width="24.3833333333333" customWidth="1"/>
+    <col min="10" max="10" width="17.5" style="7" customWidth="1"/>
+    <col min="11" max="11" width="24.3796296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -2873,10 +2855,10 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>122</v>
       </c>
       <c r="C2" s="1">
@@ -2900,15 +2882,15 @@
       <c r="I2" s="1">
         <v>330336629</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="15" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>127</v>
       </c>
       <c r="C3" s="1">
@@ -2932,15 +2914,15 @@
       <c r="I3" s="1">
         <v>329827419</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="15" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>104</v>
       </c>
       <c r="C4" s="1">
@@ -2964,45 +2946,45 @@
       <c r="I4" s="1">
         <v>329827419</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="J4" s="15" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
-      <c r="B6" s="10"/>
+    <row r="6" ht="14.4" spans="2:2">
+      <c r="B6" s="9"/>
     </row>
     <row r="7" spans="2:2">
-      <c r="B7" s="9"/>
+      <c r="B7" s="8"/>
     </row>
     <row r="8" spans="2:2">
-      <c r="B8" s="9"/>
+      <c r="B8" s="8"/>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="9"/>
+      <c r="B9" s="8"/>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="9"/>
+      <c r="B10" s="8"/>
     </row>
     <row r="11" spans="2:2">
-      <c r="B11" s="9"/>
+      <c r="B11" s="8"/>
     </row>
     <row r="12" spans="2:2">
-      <c r="B12" s="9"/>
+      <c r="B12" s="8"/>
     </row>
     <row r="13" spans="2:2">
-      <c r="B13" s="9"/>
-    </row>
-    <row r="14" ht="14.25" spans="1:2">
-      <c r="A14" s="11">
+      <c r="B13" s="8"/>
+    </row>
+    <row r="14" ht="14.4" spans="1:2">
+      <c r="A14" s="10">
         <v>43647</v>
       </c>
-      <c r="B14" s="12"/>
+      <c r="B14" s="11"/>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:11">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -3034,10 +3016,10 @@
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>133</v>
       </c>
       <c r="C16" s="1">
@@ -3058,18 +3040,18 @@
       <c r="H16" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="I16" s="17">
+      <c r="I16" s="16">
         <v>331251512</v>
       </c>
-      <c r="J16" s="16" t="s">
+      <c r="J16" s="15" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="4" t="s">
+    <row r="17" ht="14.4" spans="1:10">
+      <c r="A17" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>137</v>
       </c>
       <c r="C17" s="1">
@@ -3090,57 +3072,57 @@
       <c r="I17" s="1">
         <v>332139409</v>
       </c>
-      <c r="J17" s="16" t="s">
+      <c r="J17" s="15" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="9"/>
+      <c r="B18" s="8"/>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="9"/>
-    </row>
-    <row r="21" ht="14.25" spans="2:2">
-      <c r="B21" s="10"/>
-    </row>
-    <row r="22" ht="14.25" spans="2:2">
-      <c r="B22" s="10"/>
+      <c r="B20" s="8"/>
+    </row>
+    <row r="21" ht="14.4" spans="2:2">
+      <c r="B21" s="9"/>
+    </row>
+    <row r="22" ht="14.4" spans="2:2">
+      <c r="B22" s="9"/>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="9"/>
+      <c r="B23" s="8"/>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="9"/>
+      <c r="B24" s="8"/>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="9"/>
-    </row>
-    <row r="26" customFormat="1" spans="9:9">
-      <c r="I26" s="2"/>
+      <c r="B25" s="8"/>
+    </row>
+    <row r="26" customFormat="1" ht="14.4" spans="9:9">
+      <c r="I26" s="1"/>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="14"/>
+      <c r="B27" s="13"/>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="9"/>
-    </row>
-    <row r="29" ht="14.25" spans="2:2">
-      <c r="B29" s="15"/>
+      <c r="B28" s="8"/>
+    </row>
+    <row r="29" ht="14.4" spans="2:2">
+      <c r="B29" s="14"/>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" s="14"/>
+      <c r="B30" s="13"/>
     </row>
     <row r="31" spans="2:2">
-      <c r="B31" s="9"/>
+      <c r="B31" s="8"/>
     </row>
     <row r="32" spans="2:2">
-      <c r="B32" s="9"/>
+      <c r="B32" s="8"/>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="9"/>
-    </row>
-    <row r="34" ht="14.25" spans="2:2">
-      <c r="B34" s="10"/>
+      <c r="B33" s="8"/>
+    </row>
+    <row r="34" ht="14.4" spans="2:2">
+      <c r="B34" s="9"/>
     </row>
   </sheetData>
   <sortState ref="B1:B28">
@@ -3170,20 +3152,20 @@
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="37.775" style="2" customWidth="1"/>
-    <col min="5" max="6" width="9" style="2"/>
+    <col min="2" max="2" width="37.7777777777778" style="1" customWidth="1"/>
+    <col min="5" max="6" width="9" style="1"/>
     <col min="7" max="7" width="21.6666666666667" customWidth="1"/>
     <col min="8" max="8" width="11.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="16.5" spans="1:11">
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -3214,11 +3196,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:7">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>141</v>
       </c>
       <c r="E2" s="1">
@@ -3231,17 +3213,17 @@
         <v>123</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:7">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>3</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>3</v>
       </c>
       <c r="G3" s="1" t="s">

--- a/招商团长/报名活动单.xlsx
+++ b/招商团长/报名活动单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20688" windowHeight="8940" activeTab="2"/>
+    <workbookView windowWidth="21105" windowHeight="9165"/>
   </bookViews>
   <sheets>
     <sheet name="6月报名清单" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="145">
   <si>
     <t>店铺</t>
   </si>
@@ -362,6 +362,12 @@
   </si>
   <si>
     <t>活动起止时间</t>
+  </si>
+  <si>
+    <t>俄罗斯Organic shop有机芒果维他命身体磨砂膏保 * 20 款美妆</t>
+  </si>
+  <si>
+    <t>起：2019-07-03 止：2019-08-04</t>
   </si>
   <si>
     <t xml:space="preserve">商品 </t>
@@ -458,7 +464,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -515,6 +521,33 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.05"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1" tint="0.05"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="0" tint="-0.5"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
@@ -537,6 +570,21 @@
       <color rgb="FF0070C0"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -547,14 +595,82 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -570,6 +686,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -578,98 +702,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -690,7 +723,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -702,13 +735,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -720,49 +813,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -774,19 +849,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -804,19 +879,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -828,49 +897,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -894,6 +927,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -910,11 +958,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -930,30 +985,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -975,9 +1006,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -989,10 +1022,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1001,16 +1034,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1019,119 +1052,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1186,28 +1219,58 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1219,43 +1282,43 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1267,50 +1330,62 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1403,8 +1478,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11188065" y="409575"/>
-          <a:ext cx="714375" cy="166370"/>
+          <a:off x="12378690" y="447675"/>
+          <a:ext cx="714375" cy="185420"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1441,8 +1516,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10778490" y="581025"/>
-          <a:ext cx="1595755" cy="191770"/>
+          <a:off x="11969115" y="638175"/>
+          <a:ext cx="1781810" cy="210820"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1479,8 +1554,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10788015" y="200025"/>
-          <a:ext cx="1586230" cy="193675"/>
+          <a:off x="11978640" y="219075"/>
+          <a:ext cx="1772285" cy="212725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1517,8 +1592,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10713720" y="2849880"/>
-          <a:ext cx="1627505" cy="197485"/>
+          <a:off x="11904345" y="3093720"/>
+          <a:ext cx="1627505" cy="216535"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1555,8 +1630,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10873740" y="3070860"/>
-          <a:ext cx="1500505" cy="125730"/>
+          <a:off x="12064365" y="3333750"/>
+          <a:ext cx="1686560" cy="125730"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1593,8 +1668,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12374245" y="3051810"/>
-          <a:ext cx="693420" cy="89535"/>
+          <a:off x="13750290" y="3314700"/>
+          <a:ext cx="762635" cy="89535"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1631,8 +1706,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13039090" y="3099435"/>
-          <a:ext cx="614045" cy="76200"/>
+          <a:off x="14484350" y="3362325"/>
+          <a:ext cx="682625" cy="76200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1669,8 +1744,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13618210" y="3051810"/>
-          <a:ext cx="624840" cy="101600"/>
+          <a:off x="15132050" y="3314700"/>
+          <a:ext cx="693420" cy="101600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1971,26 +2046,26 @@
   <sheetPr/>
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="18.5" style="26" customWidth="1"/>
-    <col min="2" max="2" width="39.8796296296296" style="27" customWidth="1"/>
-    <col min="3" max="3" width="19.8796296296296" style="16" customWidth="1"/>
+    <col min="1" max="1" width="18.5" style="36" customWidth="1"/>
+    <col min="2" max="2" width="39.8833333333333" style="37" customWidth="1"/>
+    <col min="3" max="3" width="19.8833333333333" style="16" customWidth="1"/>
     <col min="4" max="4" width="18.75" style="16" customWidth="1"/>
-    <col min="5" max="5" width="31.6296296296296" style="16" customWidth="1"/>
-    <col min="6" max="6" width="36.3796296296296" style="28" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="26"/>
+    <col min="5" max="5" width="31.6333333333333" style="16" customWidth="1"/>
+    <col min="6" max="6" width="36.3833333333333" style="38" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="37" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="16" t="s">
@@ -2002,713 +2077,713 @@
       <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="38" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="20" customFormat="1" spans="1:6">
-      <c r="A2" s="20" t="s">
+    <row r="2" s="29" customFormat="1" spans="1:6">
+      <c r="A2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="30">
+      <c r="C2" s="40">
         <v>20</v>
       </c>
-      <c r="D2" s="30">
+      <c r="D2" s="40">
         <v>5</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="32"/>
-    </row>
-    <row r="3" s="20" customFormat="1" spans="2:6">
-      <c r="B3" s="29" t="s">
+      <c r="F2" s="42"/>
+    </row>
+    <row r="3" s="29" customFormat="1" spans="2:6">
+      <c r="B3" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="30">
+      <c r="C3" s="40">
         <v>20.01</v>
       </c>
-      <c r="D3" s="30">
+      <c r="D3" s="40">
         <v>5</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="32"/>
-    </row>
-    <row r="4" s="21" customFormat="1" spans="1:6">
-      <c r="A4" s="21" t="s">
+      <c r="F3" s="42"/>
+    </row>
+    <row r="4" s="30" customFormat="1" spans="1:6">
+      <c r="A4" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="31" t="s">
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="35"/>
-    </row>
-    <row r="5" s="22" customFormat="1" spans="1:6">
-      <c r="A5" s="22" t="s">
+      <c r="F4" s="45"/>
+    </row>
+    <row r="5" s="31" customFormat="1" spans="1:6">
+      <c r="A5" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="36">
+      <c r="C5" s="46">
         <v>10.1</v>
       </c>
-      <c r="D5" s="36">
+      <c r="D5" s="46">
         <v>4</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="38"/>
-    </row>
-    <row r="6" s="21" customFormat="1" spans="1:6">
-      <c r="A6" s="21" t="s">
+      <c r="F5" s="48"/>
+    </row>
+    <row r="6" s="30" customFormat="1" spans="1:6">
+      <c r="A6" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="31" t="s">
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="35"/>
-    </row>
-    <row r="7" s="20" customFormat="1" spans="2:6">
-      <c r="B7" s="40" t="s">
+      <c r="F6" s="45"/>
+    </row>
+    <row r="7" s="29" customFormat="1" spans="2:6">
+      <c r="B7" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="30">
+      <c r="C7" s="40">
         <v>15</v>
       </c>
-      <c r="D7" s="30">
+      <c r="D7" s="40">
         <v>3</v>
       </c>
-      <c r="E7" s="41" t="s">
+      <c r="E7" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="32"/>
-    </row>
-    <row r="8" s="20" customFormat="1" spans="2:6">
-      <c r="B8" s="29" t="s">
+      <c r="F7" s="42"/>
+    </row>
+    <row r="8" s="29" customFormat="1" spans="2:6">
+      <c r="B8" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="41" t="s">
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="32"/>
-    </row>
-    <row r="9" s="23" customFormat="1" spans="1:6">
-      <c r="A9" s="23" t="s">
+      <c r="F8" s="42"/>
+    </row>
+    <row r="9" s="32" customFormat="1" spans="1:6">
+      <c r="A9" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="43">
+      <c r="C9" s="53">
         <v>10.01</v>
       </c>
-      <c r="D9" s="43">
+      <c r="D9" s="53">
         <v>4.9</v>
       </c>
-      <c r="E9" s="43" t="s">
+      <c r="E9" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="44" t="s">
+      <c r="F9" s="54" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" s="24" customFormat="1" spans="1:6">
-      <c r="A10" s="24" t="s">
+    <row r="10" s="33" customFormat="1" spans="1:6">
+      <c r="A10" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="36">
+      <c r="C10" s="46">
         <v>40</v>
       </c>
-      <c r="D10" s="36">
+      <c r="D10" s="46">
         <v>10</v>
       </c>
-      <c r="E10" s="36" t="s">
+      <c r="E10" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="45"/>
-    </row>
-    <row r="11" s="20" customFormat="1" spans="2:6">
-      <c r="B11" s="40" t="s">
+      <c r="F10" s="55"/>
+    </row>
+    <row r="11" s="29" customFormat="1" spans="2:6">
+      <c r="B11" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="30">
+      <c r="C11" s="40">
         <v>25.2</v>
       </c>
-      <c r="D11" s="30">
+      <c r="D11" s="40">
         <v>4</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="32"/>
-    </row>
-    <row r="12" s="20" customFormat="1" spans="2:6">
-      <c r="B12" s="29" t="s">
+      <c r="F11" s="42"/>
+    </row>
+    <row r="12" s="29" customFormat="1" spans="2:6">
+      <c r="B12" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="30">
+      <c r="C12" s="40">
         <v>6</v>
       </c>
-      <c r="D12" s="30">
+      <c r="D12" s="40">
         <v>5</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="32"/>
-    </row>
-    <row r="13" s="22" customFormat="1" spans="1:6">
-      <c r="A13" s="22" t="s">
+      <c r="F12" s="42"/>
+    </row>
+    <row r="13" s="31" customFormat="1" spans="1:6">
+      <c r="A13" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="36">
+      <c r="C13" s="46">
         <v>5.2</v>
       </c>
-      <c r="D13" s="36">
+      <c r="D13" s="46">
         <v>4</v>
       </c>
-      <c r="E13" s="36" t="s">
+      <c r="E13" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="38"/>
-    </row>
-    <row r="14" s="22" customFormat="1" spans="1:6">
-      <c r="A14" s="22" t="s">
+      <c r="F13" s="48"/>
+    </row>
+    <row r="14" s="31" customFormat="1" spans="1:6">
+      <c r="A14" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="36">
+      <c r="C14" s="46">
         <v>10.1</v>
       </c>
-      <c r="D14" s="36">
+      <c r="D14" s="46">
         <v>5</v>
       </c>
-      <c r="E14" s="36" t="s">
+      <c r="E14" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="38"/>
-    </row>
-    <row r="15" s="22" customFormat="1" spans="1:6">
-      <c r="A15" s="22" t="s">
+      <c r="F14" s="48"/>
+    </row>
+    <row r="15" s="31" customFormat="1" spans="1:6">
+      <c r="A15" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="36">
+      <c r="C15" s="46">
         <v>18.01</v>
       </c>
-      <c r="D15" s="36">
+      <c r="D15" s="46">
         <v>2</v>
       </c>
-      <c r="E15" s="37" t="s">
+      <c r="E15" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="38"/>
-    </row>
-    <row r="16" s="22" customFormat="1" spans="2:6">
-      <c r="B16" s="33" t="s">
+      <c r="F15" s="48"/>
+    </row>
+    <row r="16" s="31" customFormat="1" spans="2:6">
+      <c r="B16" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="36">
+      <c r="C16" s="46">
         <v>10</v>
       </c>
-      <c r="D16" s="36">
+      <c r="D16" s="46">
         <v>2</v>
       </c>
-      <c r="E16" s="37" t="s">
+      <c r="E16" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="38"/>
-    </row>
-    <row r="17" s="22" customFormat="1" spans="2:6">
-      <c r="B17" s="33" t="s">
+      <c r="F16" s="48"/>
+    </row>
+    <row r="17" s="31" customFormat="1" spans="2:6">
+      <c r="B17" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="36">
+      <c r="C17" s="46">
         <v>15</v>
       </c>
-      <c r="D17" s="36">
+      <c r="D17" s="46">
         <v>2</v>
       </c>
-      <c r="E17" s="37" t="s">
+      <c r="E17" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="38"/>
-    </row>
-    <row r="18" s="24" customFormat="1" spans="1:6">
-      <c r="A18" s="24" t="s">
+      <c r="F17" s="48"/>
+    </row>
+    <row r="18" s="33" customFormat="1" spans="1:6">
+      <c r="A18" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="47">
+      <c r="C18" s="57">
         <v>15.01</v>
       </c>
-      <c r="D18" s="47">
+      <c r="D18" s="57">
         <v>3</v>
       </c>
-      <c r="E18" s="48" t="s">
+      <c r="E18" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="45"/>
-    </row>
-    <row r="19" s="21" customFormat="1" spans="1:6">
-      <c r="A19" s="21" t="s">
+      <c r="F18" s="55"/>
+    </row>
+    <row r="19" s="30" customFormat="1" spans="1:6">
+      <c r="A19" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="34">
+      <c r="C19" s="44">
         <v>3.6</v>
       </c>
-      <c r="D19" s="34">
+      <c r="D19" s="44">
         <v>4</v>
       </c>
-      <c r="E19" s="34" t="s">
+      <c r="E19" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="35"/>
-    </row>
-    <row r="20" s="20" customFormat="1" spans="1:6">
-      <c r="A20" s="20" t="s">
+      <c r="F19" s="45"/>
+    </row>
+    <row r="20" s="29" customFormat="1" spans="1:6">
+      <c r="A20" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="39" t="s">
+      <c r="B20" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="34">
+      <c r="C20" s="44">
         <v>25.1</v>
       </c>
-      <c r="D20" s="34">
+      <c r="D20" s="44">
         <v>4.9</v>
       </c>
-      <c r="E20" s="34" t="s">
+      <c r="E20" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="F20" s="32"/>
-    </row>
-    <row r="21" s="20" customFormat="1" spans="2:6">
-      <c r="B21" s="40" t="s">
+      <c r="F20" s="42"/>
+    </row>
+    <row r="21" s="29" customFormat="1" spans="2:6">
+      <c r="B21" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="30">
+      <c r="C21" s="40">
         <v>20</v>
       </c>
-      <c r="D21" s="30">
+      <c r="D21" s="40">
         <v>5</v>
       </c>
-      <c r="E21" s="30" t="s">
+      <c r="E21" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="32"/>
-    </row>
-    <row r="22" s="22" customFormat="1" spans="1:6">
-      <c r="A22" s="22" t="s">
+      <c r="F21" s="42"/>
+    </row>
+    <row r="22" s="31" customFormat="1" spans="1:6">
+      <c r="A22" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="36">
+      <c r="C22" s="46">
         <v>15</v>
       </c>
-      <c r="D22" s="36">
+      <c r="D22" s="46">
         <v>5</v>
       </c>
-      <c r="E22" s="36" t="s">
+      <c r="E22" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="F22" s="38"/>
-    </row>
-    <row r="23" s="22" customFormat="1" spans="1:6">
-      <c r="A23" s="22" t="s">
+      <c r="F22" s="48"/>
+    </row>
+    <row r="23" s="31" customFormat="1" spans="1:6">
+      <c r="A23" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="36">
+      <c r="C23" s="46">
         <v>30.1</v>
       </c>
-      <c r="D23" s="36">
+      <c r="D23" s="46">
         <v>3</v>
       </c>
-      <c r="E23" s="36" t="s">
+      <c r="E23" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="F23" s="38"/>
-    </row>
-    <row r="24" s="20" customFormat="1" spans="1:6">
-      <c r="A24" s="20" t="s">
+      <c r="F23" s="48"/>
+    </row>
+    <row r="24" s="30" customFormat="1" spans="1:6">
+      <c r="A24" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="40" t="s">
+      <c r="B24" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="30">
+      <c r="C24" s="44">
         <v>4.5</v>
       </c>
-      <c r="D24" s="30">
+      <c r="D24" s="44">
         <v>2.5</v>
       </c>
-      <c r="E24" s="30" t="s">
+      <c r="E24" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="F24" s="32"/>
-    </row>
-    <row r="25" s="20" customFormat="1" spans="1:6">
-      <c r="A25" s="20" t="s">
+      <c r="F24" s="45"/>
+    </row>
+    <row r="25" s="34" customFormat="1" spans="1:6">
+      <c r="A25" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="40" t="s">
+      <c r="B25" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="30">
+      <c r="C25" s="60">
         <v>3.01</v>
       </c>
-      <c r="D25" s="30">
+      <c r="D25" s="60">
         <v>2</v>
       </c>
-      <c r="E25" s="30" t="s">
+      <c r="E25" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="F25" s="32"/>
-    </row>
-    <row r="26" s="21" customFormat="1" spans="1:6">
-      <c r="A26" s="21" t="s">
+      <c r="F25" s="61"/>
+    </row>
+    <row r="26" s="30" customFormat="1" spans="1:6">
+      <c r="A26" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="34">
+      <c r="C26" s="44">
         <v>25</v>
       </c>
-      <c r="D26" s="34">
+      <c r="D26" s="44">
         <v>5</v>
       </c>
-      <c r="E26" s="34" t="s">
+      <c r="E26" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="F26" s="35"/>
-    </row>
-    <row r="27" s="20" customFormat="1" spans="1:6">
-      <c r="A27" s="20" t="s">
+      <c r="F26" s="45"/>
+    </row>
+    <row r="27" s="34" customFormat="1" spans="1:6">
+      <c r="A27" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="40" t="s">
+      <c r="B27" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="30">
+      <c r="C27" s="60">
         <v>20</v>
       </c>
-      <c r="D27" s="30">
+      <c r="D27" s="60">
         <v>5</v>
       </c>
-      <c r="E27" s="30" t="s">
+      <c r="E27" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="F27" s="32"/>
-    </row>
-    <row r="28" s="20" customFormat="1" spans="1:6">
-      <c r="A28" s="20" t="s">
+      <c r="F27" s="61"/>
+    </row>
+    <row r="28" s="29" customFormat="1" spans="1:6">
+      <c r="A28" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="B28" s="40" t="s">
+      <c r="B28" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="30">
+      <c r="C28" s="40">
         <v>6</v>
       </c>
-      <c r="D28" s="30">
+      <c r="D28" s="40">
         <v>5</v>
       </c>
-      <c r="E28" s="30" t="s">
+      <c r="E28" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="F28" s="32"/>
-    </row>
-    <row r="29" s="25" customFormat="1" spans="1:6">
-      <c r="A29" s="25" t="s">
+      <c r="F28" s="42"/>
+    </row>
+    <row r="29" s="35" customFormat="1" spans="1:6">
+      <c r="A29" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="B29" s="49" t="s">
+      <c r="B29" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="C29" s="50">
+      <c r="C29" s="63">
         <v>25.11</v>
       </c>
-      <c r="D29" s="50">
+      <c r="D29" s="63">
         <v>3</v>
       </c>
-      <c r="E29" s="50" t="s">
+      <c r="E29" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="F29" s="51"/>
-    </row>
-    <row r="30" s="20" customFormat="1" spans="1:6">
-      <c r="A30" s="52" t="s">
+      <c r="F29" s="64"/>
+    </row>
+    <row r="30" s="29" customFormat="1" spans="1:6">
+      <c r="A30" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="B30" s="29" t="s">
+      <c r="B30" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="C30" s="30">
+      <c r="C30" s="40">
         <v>20.1</v>
       </c>
-      <c r="D30" s="30">
+      <c r="D30" s="40">
         <v>5</v>
       </c>
-      <c r="E30" s="30" t="s">
+      <c r="E30" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="F30" s="32"/>
-    </row>
-    <row r="31" s="22" customFormat="1" spans="1:6">
-      <c r="A31" s="53" t="s">
+      <c r="F30" s="42"/>
+    </row>
+    <row r="31" s="31" customFormat="1" spans="1:6">
+      <c r="A31" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="B31" s="54" t="s">
+      <c r="B31" s="67" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="36">
+      <c r="C31" s="46">
         <v>10</v>
       </c>
-      <c r="D31" s="36">
+      <c r="D31" s="46">
         <v>5</v>
       </c>
-      <c r="E31" s="36" t="s">
+      <c r="E31" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="F31" s="38"/>
-    </row>
-    <row r="32" s="24" customFormat="1" spans="1:6">
-      <c r="A32" s="55" t="s">
+      <c r="F31" s="48"/>
+    </row>
+    <row r="32" s="33" customFormat="1" spans="1:6">
+      <c r="A32" s="68" t="s">
         <v>82</v>
       </c>
-      <c r="B32" s="56" t="s">
+      <c r="B32" s="69" t="s">
         <v>83</v>
       </c>
-      <c r="C32" s="47">
+      <c r="C32" s="57">
         <v>6.2</v>
       </c>
-      <c r="D32" s="47">
+      <c r="D32" s="57">
         <v>3</v>
       </c>
-      <c r="E32" s="47" t="s">
+      <c r="E32" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="F32" s="45"/>
-    </row>
-    <row r="33" s="20" customFormat="1" spans="1:6">
-      <c r="A33" s="52" t="s">
+      <c r="F32" s="55"/>
+    </row>
+    <row r="33" s="29" customFormat="1" spans="1:6">
+      <c r="A33" s="65" t="s">
         <v>85</v>
       </c>
-      <c r="B33" s="29" t="s">
+      <c r="B33" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="C33" s="30">
+      <c r="C33" s="40">
         <v>20</v>
       </c>
-      <c r="D33" s="30">
+      <c r="D33" s="40">
         <v>5</v>
       </c>
-      <c r="E33" s="30" t="s">
+      <c r="E33" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="F33" s="32"/>
-    </row>
-    <row r="34" s="20" customFormat="1" spans="1:6">
-      <c r="A34" s="52" t="s">
+      <c r="F33" s="42"/>
+    </row>
+    <row r="34" s="29" customFormat="1" spans="1:6">
+      <c r="A34" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="B34" s="29" t="s">
+      <c r="B34" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="C34" s="30">
+      <c r="C34" s="40">
         <v>15</v>
       </c>
-      <c r="D34" s="30">
+      <c r="D34" s="40">
         <v>5</v>
       </c>
-      <c r="E34" s="30" t="s">
+      <c r="E34" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="F34" s="32"/>
-    </row>
-    <row r="35" s="22" customFormat="1" spans="1:6">
-      <c r="A35" s="53" t="s">
+      <c r="F34" s="42"/>
+    </row>
+    <row r="35" s="31" customFormat="1" spans="1:6">
+      <c r="A35" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="B35" s="54" t="s">
+      <c r="B35" s="67" t="s">
         <v>90</v>
       </c>
-      <c r="C35" s="36">
+      <c r="C35" s="46">
         <v>21</v>
       </c>
-      <c r="D35" s="36">
+      <c r="D35" s="46">
         <v>10</v>
       </c>
-      <c r="E35" s="36" t="s">
+      <c r="E35" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="F35" s="38"/>
-    </row>
-    <row r="36" s="20" customFormat="1" spans="1:6">
-      <c r="A36" s="52" t="s">
+      <c r="F35" s="48"/>
+    </row>
+    <row r="36" s="29" customFormat="1" spans="1:6">
+      <c r="A36" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="B36" s="29" t="s">
+      <c r="B36" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="C36" s="30">
+      <c r="C36" s="40">
         <v>2</v>
       </c>
-      <c r="D36" s="57" t="s">
+      <c r="D36" s="70" t="s">
         <v>94</v>
       </c>
-      <c r="E36" s="30" t="s">
+      <c r="E36" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="F36" s="32"/>
-    </row>
-    <row r="37" s="20" customFormat="1" spans="1:6">
-      <c r="A37" s="52" t="s">
+      <c r="F36" s="42"/>
+    </row>
+    <row r="37" s="29" customFormat="1" spans="1:6">
+      <c r="A37" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="B37" s="29" t="s">
+      <c r="B37" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="C37" s="30">
+      <c r="C37" s="40">
         <v>6.12</v>
       </c>
-      <c r="D37" s="30">
+      <c r="D37" s="40">
         <v>3</v>
       </c>
-      <c r="E37" s="30" t="s">
+      <c r="E37" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="F37" s="32"/>
-    </row>
-    <row r="38" s="20" customFormat="1" spans="1:6">
-      <c r="A38" s="52" t="s">
+      <c r="F37" s="42"/>
+    </row>
+    <row r="38" s="29" customFormat="1" spans="1:6">
+      <c r="A38" s="65" t="s">
         <v>97</v>
       </c>
-      <c r="B38" s="29" t="s">
+      <c r="B38" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="C38" s="30">
+      <c r="C38" s="40">
         <v>10.2</v>
       </c>
-      <c r="D38" s="30">
+      <c r="D38" s="40">
         <v>3</v>
       </c>
-      <c r="E38" s="30" t="s">
+      <c r="E38" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="F38" s="32"/>
-    </row>
-    <row r="39" s="20" customFormat="1" spans="1:6">
-      <c r="A39" s="52" t="s">
+      <c r="F38" s="42"/>
+    </row>
+    <row r="39" s="29" customFormat="1" spans="1:6">
+      <c r="A39" s="65" t="s">
         <v>100</v>
       </c>
-      <c r="B39" s="29" t="s">
+      <c r="B39" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="C39" s="30">
+      <c r="C39" s="40">
         <v>20</v>
       </c>
-      <c r="D39" s="30">
+      <c r="D39" s="40">
         <v>10</v>
       </c>
-      <c r="E39" s="30" t="s">
+      <c r="E39" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="F39" s="32"/>
-    </row>
-    <row r="40" s="21" customFormat="1" spans="1:6">
-      <c r="A40" s="21" t="s">
+      <c r="F39" s="42"/>
+    </row>
+    <row r="40" s="30" customFormat="1" spans="1:6">
+      <c r="A40" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="B40" s="58" t="s">
+      <c r="B40" s="71" t="s">
         <v>104</v>
       </c>
-      <c r="C40" s="34">
+      <c r="C40" s="44">
         <v>31</v>
       </c>
-      <c r="D40" s="34">
+      <c r="D40" s="44">
         <v>6</v>
       </c>
-      <c r="E40" s="34" t="s">
+      <c r="E40" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="F40" s="35"/>
-    </row>
-    <row r="41" s="20" customFormat="1" spans="1:6">
-      <c r="A41" s="52" t="s">
+      <c r="F40" s="45"/>
+    </row>
+    <row r="41" s="30" customFormat="1" spans="1:6">
+      <c r="A41" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="B41" s="29" t="s">
+      <c r="B41" s="73" t="s">
         <v>107</v>
       </c>
-      <c r="C41" s="30">
+      <c r="C41" s="44">
         <v>16</v>
       </c>
-      <c r="D41" s="30">
+      <c r="D41" s="44">
         <v>10</v>
       </c>
-      <c r="E41" s="30" t="s">
+      <c r="E41" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="F41" s="32"/>
-    </row>
-    <row r="42" s="21" customFormat="1" spans="1:6">
-      <c r="A42" s="59" t="s">
+      <c r="F41" s="45"/>
+    </row>
+    <row r="42" s="30" customFormat="1" spans="1:6">
+      <c r="A42" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="B42" s="59" t="s">
+      <c r="B42" s="72" t="s">
         <v>110</v>
       </c>
-      <c r="C42" s="34">
+      <c r="C42" s="44">
         <v>20.4</v>
       </c>
-      <c r="D42" s="34">
+      <c r="D42" s="44">
         <v>4</v>
       </c>
-      <c r="E42" s="34" t="s">
+      <c r="E42" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="F42" s="35"/>
+      <c r="F42" s="45"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2750,47 +2825,78 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="20.3333333333333" customWidth="1"/>
-    <col min="2" max="2" width="47.4444444444444" customWidth="1"/>
-    <col min="3" max="3" width="19.5555555555556" customWidth="1"/>
-    <col min="4" max="4" width="17.3333333333333" customWidth="1"/>
-    <col min="5" max="5" width="16.2222222222222" customWidth="1"/>
-    <col min="6" max="6" width="35.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="47.4416666666667" customWidth="1"/>
+    <col min="3" max="3" width="19.5583333333333" style="19" customWidth="1"/>
+    <col min="4" max="4" width="17.3333333333333" style="19" customWidth="1"/>
+    <col min="5" max="5" width="16.225" style="19" customWidth="1"/>
+    <col min="6" max="6" width="35.6666666666667" style="20" customWidth="1"/>
     <col min="7" max="7" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" s="17" customFormat="1" ht="15" spans="1:7">
+    <row r="1" s="17" customFormat="1" ht="16.5" spans="1:7">
       <c r="A1" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="22" t="s">
         <v>5</v>
       </c>
     </row>
+    <row r="2" s="18" customFormat="1" ht="14.25" spans="1:7">
+      <c r="A2" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="24">
+        <v>3.01</v>
+      </c>
+      <c r="D2" s="24">
+        <v>2</v>
+      </c>
+      <c r="E2" s="25">
+        <v>331853030</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="G2" s="27"/>
+    </row>
+    <row r="3" spans="6:6">
+      <c r="F3" s="19"/>
+    </row>
+    <row r="7" spans="6:6">
+      <c r="F7" s="28"/>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="玛丽安娜俄国代购" tooltip="点击进入店铺推广详情页"/>
+    <hyperlink ref="B2" r:id="rId2" display="俄罗斯Organic shop有机芒果维他命身体磨砂膏保 * 20 款美妆" tooltip="http://item.taobao.com/item.htm?id=597702047702"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -2802,21 +2908,21 @@
   <sheetPr/>
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="13.7777777777778" style="5" customWidth="1"/>
-    <col min="2" max="2" width="31.3796296296296" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.87962962962963" style="1" customWidth="1"/>
-    <col min="4" max="6" width="8.37962962962963" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.775" style="5" customWidth="1"/>
+    <col min="2" max="2" width="31.3833333333333" style="6" customWidth="1"/>
+    <col min="3" max="3" width="9.88333333333333" style="1" customWidth="1"/>
+    <col min="4" max="6" width="8.38333333333333" style="1" customWidth="1"/>
     <col min="7" max="7" width="22.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="22.3796296296296" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.3833333333333" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.25" style="1" customWidth="1"/>
     <col min="10" max="10" width="17.5" style="7" customWidth="1"/>
-    <col min="11" max="11" width="24.3796296296296" customWidth="1"/>
+    <col min="11" max="11" width="24.3833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:11">
@@ -2824,13 +2930,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -2839,16 +2945,16 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>113</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>5</v>
@@ -2856,10 +2962,10 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C2" s="1">
         <v>9.9</v>
@@ -2874,24 +2980,24 @@
         <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I2" s="1">
         <v>330336629</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C3" s="1">
         <v>15.8</v>
@@ -2906,16 +3012,16 @@
         <v>10</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I3" s="1">
         <v>329827419</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2938,19 +3044,19 @@
         <v>8</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I4" s="1">
         <v>329827419</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="6" ht="14.4" spans="2:2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" spans="2:2">
       <c r="B6" s="9"/>
     </row>
     <row r="7" spans="2:2">
@@ -2974,7 +3080,7 @@
     <row r="13" spans="2:2">
       <c r="B13" s="8"/>
     </row>
-    <row r="14" ht="14.4" spans="1:2">
+    <row r="14" ht="14.25" spans="1:2">
       <c r="A14" s="10">
         <v>43647</v>
       </c>
@@ -2985,13 +3091,13 @@
         <v>0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>2</v>
@@ -3000,16 +3106,16 @@
         <v>3</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>113</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>5</v>
@@ -3020,7 +3126,7 @@
         <v>109</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C16" s="1">
         <v>15.8</v>
@@ -3035,28 +3141,31 @@
         <v>4</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I16" s="16">
         <v>331251512</v>
       </c>
       <c r="J16" s="15" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="17" ht="14.4" spans="1:10">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25" spans="1:10">
       <c r="A17" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C17" s="1">
         <v>223</v>
       </c>
+      <c r="D17" s="1">
+        <v>15</v>
+      </c>
       <c r="E17" s="1">
         <v>20</v>
       </c>
@@ -3064,16 +3173,16 @@
         <v>5</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I17" s="1">
         <v>332139409</v>
       </c>
       <c r="J17" s="15" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="2:2">
@@ -3082,10 +3191,10 @@
     <row r="20" spans="2:2">
       <c r="B20" s="8"/>
     </row>
-    <row r="21" ht="14.4" spans="2:2">
+    <row r="21" ht="14.25" spans="2:2">
       <c r="B21" s="9"/>
     </row>
-    <row r="22" ht="14.4" spans="2:2">
+    <row r="22" ht="14.25" spans="2:2">
       <c r="B22" s="9"/>
     </row>
     <row r="23" spans="2:2">
@@ -3097,7 +3206,7 @@
     <row r="25" spans="2:2">
       <c r="B25" s="8"/>
     </row>
-    <row r="26" customFormat="1" ht="14.4" spans="9:9">
+    <row r="26" customFormat="1" ht="13.5" spans="9:9">
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="2:2">
@@ -3106,7 +3215,7 @@
     <row r="28" spans="2:2">
       <c r="B28" s="8"/>
     </row>
-    <row r="29" ht="14.4" spans="2:2">
+    <row r="29" ht="14.25" spans="2:2">
       <c r="B29" s="14"/>
     </row>
     <row r="30" spans="2:2">
@@ -3121,7 +3230,7 @@
     <row r="33" spans="2:2">
       <c r="B33" s="8"/>
     </row>
-    <row r="34" ht="14.4" spans="2:2">
+    <row r="34" ht="14.25" spans="2:2">
       <c r="B34" s="9"/>
     </row>
   </sheetData>
@@ -3133,7 +3242,7 @@
     <hyperlink ref="J3" r:id="rId3" display="https://detail.tmall.com/item.htm?spm=a212k0.12153887.0.0.2759687dP5RzZj&amp;id=547078093989&amp;skuId=3566631730189" tooltip="https://detail.tmall.com/item.htm?spm=a212k0.12153887.0.0.2759687dP5RzZj&amp;id=547078093989&amp;skuId=3566631730189"/>
     <hyperlink ref="J4" r:id="rId4" display="https://detail.tmall.com/item.htm?id=573247426562" tooltip="https://detail.tmall.com/item.htm?id=573247426562"/>
     <hyperlink ref="I16" r:id="rId5" display="331251512"/>
-    <hyperlink ref="J17" r:id="rId6" display="https://detail.tmall.com/item.htm?spm=a21ag.8198216.0.0.7759410c42fSSR&amp;id=559313568102"/>
+    <hyperlink ref="J17" r:id="rId6" display="https://detail.tmall.com/item.htm?spm=a21ag.8198216.0.0.7759410c42fSSR&amp;id=559313568102" tooltip="https://detail.tmall.com/item.htm?spm=a21ag.8198216.0.0.7759410c42fSSR&amp;id=559313568102"/>
     <hyperlink ref="J16" r:id="rId7" display="https://detail.tmall.com/item.htm?id=560320045979&amp;spm=a219t.11816989.1998910419.dafc012e7.cd7575a540bv2R" tooltip="https://detail.tmall.com/item.htm?id=560320045979&amp;spm=a219t.11816989.1998910419.dafc012e7.cd7575a540bv2R"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3152,27 +3261,27 @@
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="37.7777777777778" style="1" customWidth="1"/>
+    <col min="2" max="2" width="37.775" style="1" customWidth="1"/>
     <col min="5" max="6" width="9" style="1"/>
     <col min="7" max="7" width="21.6666666666667" customWidth="1"/>
     <col min="8" max="8" width="11.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15" spans="1:11">
+    <row r="1" s="1" customFormat="1" ht="16.5" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -3181,27 +3290,27 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>113</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" ht="14.25" spans="1:7">
       <c r="A2" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E2" s="1">
         <v>6</v>
@@ -3210,15 +3319,15 @@
         <v>3</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:7">
       <c r="A3" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E3" s="1">
         <v>3</v>
@@ -3227,7 +3336,7 @@
         <v>3</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/招商团长/报名活动单.xlsx
+++ b/招商团长/报名活动单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21105" windowHeight="9165"/>
+    <workbookView windowWidth="21105" windowHeight="9165" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="6月报名清单" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="147">
   <si>
     <t>店铺</t>
   </si>
@@ -178,6 +178,9 @@
     <t>日本进口零食糖果春日井冲绳黑糖*2款零食</t>
   </si>
   <si>
+    <t>近期不走淘客</t>
+  </si>
+  <si>
     <t>足信鞋吧</t>
   </si>
   <si>
@@ -370,6 +373,15 @@
     <t>起：2019-07-03 止：2019-08-04</t>
   </si>
   <si>
+    <t>博友家居专营店</t>
+  </si>
+  <si>
+    <t>安尔乐护垫极洁纤柔亲肤迷你少女卫生巾纯棉超 * 9 款卫生巾</t>
+  </si>
+  <si>
+    <t>起：2019-07-05 止：2019-08-08</t>
+  </si>
+  <si>
     <t xml:space="preserve">商品 </t>
   </si>
   <si>
@@ -397,7 +409,7 @@
     <t>2019.06.28-2019.08.01</t>
   </si>
   <si>
-    <t>2019.06.28-2019.07.05</t>
+    <t>2019.07.06-2019.07.12</t>
   </si>
   <si>
     <t>https://detail.tmall.com/item.htm?spm=a230r.1.14.6.75a43b61UiE1Wn&amp;id=596977090868&amp;cm_id=140105335569ed55e27b&amp;abbucket=5</t>
@@ -412,7 +424,7 @@
     <t>2019.06.27-2019.07.31</t>
   </si>
   <si>
-    <t>2019.06.28-2019.07.02</t>
+    <t>2019.07.03-2019.07.09</t>
   </si>
   <si>
     <t>https://detail.tmall.com/item.htm?spm=a212k0.12153887.0.0.2759687dP5RzZj&amp;id=547078093989&amp;skuId=3566631730189</t>
@@ -433,16 +445,10 @@
     <t>https://detail.tmall.com/item.htm?id=560320045979&amp;spm=a219t.11816989.1998910419.dafc012e7.cd7575a540bv2R</t>
   </si>
   <si>
-    <t>博友家居专营店</t>
-  </si>
-  <si>
     <t>安而康成人拉拉裤老人用内裤式纸尿裤男女老年人尿不湿L码60片</t>
   </si>
   <si>
     <t>2019.07.02-2019.08.01</t>
-  </si>
-  <si>
-    <t>2019.07.03-2019.07.09</t>
   </si>
   <si>
     <t>https://detail.tmall.com/item.htm?spm=a21ag.8198216.0.0.7759410c42fSSR&amp;id=559313568102</t>
@@ -460,11 +466,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -493,6 +499,21 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -529,10 +550,9 @@
     </font>
     <font>
       <sz val="9"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <color theme="1" tint="0.0499893185216834"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -543,9 +563,8 @@
     <font>
       <sz val="9"/>
       <color theme="0" tint="-0.5"/>
-      <name val="宋体"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -572,10 +591,85 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -587,59 +681,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -654,23 +698,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -684,25 +720,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -723,7 +742,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -735,7 +784,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -747,37 +802,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -789,7 +820,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -801,49 +856,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -861,31 +880,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -897,13 +916,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -917,11 +936,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -969,22 +994,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1014,6 +1024,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1022,10 +1041,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1034,137 +1053,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1192,13 +1211,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="57" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1210,181 +1241,175 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2046,744 +2071,746 @@
   <sheetPr/>
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="18.5" style="36" customWidth="1"/>
-    <col min="2" max="2" width="39.8833333333333" style="37" customWidth="1"/>
-    <col min="3" max="3" width="19.8833333333333" style="16" customWidth="1"/>
-    <col min="4" max="4" width="18.75" style="16" customWidth="1"/>
-    <col min="5" max="5" width="31.6333333333333" style="16" customWidth="1"/>
-    <col min="6" max="6" width="36.3833333333333" style="38" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="36"/>
+    <col min="1" max="1" width="18.5" style="41" customWidth="1"/>
+    <col min="2" max="2" width="39.8833333333333" style="42" customWidth="1"/>
+    <col min="3" max="3" width="19.8833333333333" style="20" customWidth="1"/>
+    <col min="4" max="4" width="18.75" style="20" customWidth="1"/>
+    <col min="5" max="5" width="31.6333333333333" style="20" customWidth="1"/>
+    <col min="6" max="6" width="36.3833333333333" style="43" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="41"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="43" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="29" customFormat="1" spans="1:6">
-      <c r="A2" s="29" t="s">
+    <row r="2" s="35" customFormat="1" spans="1:6">
+      <c r="A2" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="40">
+      <c r="C2" s="45">
         <v>20</v>
       </c>
-      <c r="D2" s="40">
+      <c r="D2" s="45">
         <v>5</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="42"/>
-    </row>
-    <row r="3" s="29" customFormat="1" spans="2:6">
-      <c r="B3" s="39" t="s">
+      <c r="F2" s="47"/>
+    </row>
+    <row r="3" s="35" customFormat="1" spans="2:6">
+      <c r="B3" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="40">
+      <c r="C3" s="45">
         <v>20.01</v>
       </c>
-      <c r="D3" s="40">
+      <c r="D3" s="45">
         <v>5</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="42"/>
-    </row>
-    <row r="4" s="30" customFormat="1" spans="1:6">
-      <c r="A4" s="30" t="s">
+      <c r="F3" s="47"/>
+    </row>
+    <row r="4" s="36" customFormat="1" spans="1:6">
+      <c r="A4" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="41" t="s">
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="45"/>
-    </row>
-    <row r="5" s="31" customFormat="1" spans="1:6">
-      <c r="A5" s="31" t="s">
+      <c r="F4" s="50"/>
+    </row>
+    <row r="5" s="37" customFormat="1" spans="1:6">
+      <c r="A5" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="46">
+      <c r="C5" s="51">
         <v>10.1</v>
       </c>
-      <c r="D5" s="46">
+      <c r="D5" s="51">
         <v>4</v>
       </c>
-      <c r="E5" s="47" t="s">
+      <c r="E5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="48"/>
-    </row>
-    <row r="6" s="30" customFormat="1" spans="1:6">
-      <c r="A6" s="30" t="s">
+      <c r="F5" s="53"/>
+    </row>
+    <row r="6" s="36" customFormat="1" spans="1:6">
+      <c r="A6" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="41" t="s">
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="45"/>
-    </row>
-    <row r="7" s="29" customFormat="1" spans="2:6">
-      <c r="B7" s="50" t="s">
+      <c r="F6" s="50"/>
+    </row>
+    <row r="7" s="35" customFormat="1" spans="2:6">
+      <c r="B7" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="40">
+      <c r="C7" s="45">
         <v>15</v>
       </c>
-      <c r="D7" s="40">
+      <c r="D7" s="45">
         <v>3</v>
       </c>
-      <c r="E7" s="51" t="s">
+      <c r="E7" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="42"/>
-    </row>
-    <row r="8" s="29" customFormat="1" spans="2:6">
-      <c r="B8" s="39" t="s">
+      <c r="F7" s="47"/>
+    </row>
+    <row r="8" s="35" customFormat="1" spans="2:6">
+      <c r="B8" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="51" t="s">
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="42"/>
-    </row>
-    <row r="9" s="32" customFormat="1" spans="1:6">
-      <c r="A9" s="32" t="s">
+      <c r="F8" s="47"/>
+    </row>
+    <row r="9" s="38" customFormat="1" spans="1:6">
+      <c r="A9" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="53">
+      <c r="C9" s="58">
         <v>10.01</v>
       </c>
-      <c r="D9" s="53">
+      <c r="D9" s="58">
         <v>4.9</v>
       </c>
-      <c r="E9" s="53" t="s">
+      <c r="E9" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="54" t="s">
+      <c r="F9" s="59" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" s="33" customFormat="1" spans="1:6">
-      <c r="A10" s="33" t="s">
+    <row r="10" s="39" customFormat="1" spans="1:6">
+      <c r="A10" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="46">
+      <c r="C10" s="51">
         <v>40</v>
       </c>
-      <c r="D10" s="46">
+      <c r="D10" s="51">
         <v>10</v>
       </c>
-      <c r="E10" s="46" t="s">
+      <c r="E10" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="55"/>
-    </row>
-    <row r="11" s="29" customFormat="1" spans="2:6">
-      <c r="B11" s="50" t="s">
+      <c r="F10" s="60"/>
+    </row>
+    <row r="11" s="35" customFormat="1" spans="2:6">
+      <c r="B11" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="40">
+      <c r="C11" s="45">
         <v>25.2</v>
       </c>
-      <c r="D11" s="40">
+      <c r="D11" s="45">
         <v>4</v>
       </c>
-      <c r="E11" s="40" t="s">
+      <c r="E11" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="42"/>
-    </row>
-    <row r="12" s="29" customFormat="1" spans="2:6">
-      <c r="B12" s="39" t="s">
+      <c r="F11" s="47"/>
+    </row>
+    <row r="12" s="35" customFormat="1" spans="2:6">
+      <c r="B12" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="40">
+      <c r="C12" s="45">
         <v>6</v>
       </c>
-      <c r="D12" s="40">
+      <c r="D12" s="45">
         <v>5</v>
       </c>
-      <c r="E12" s="40" t="s">
+      <c r="E12" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="42"/>
-    </row>
-    <row r="13" s="31" customFormat="1" spans="1:6">
-      <c r="A13" s="31" t="s">
+      <c r="F12" s="47"/>
+    </row>
+    <row r="13" s="37" customFormat="1" spans="1:6">
+      <c r="A13" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="46">
+      <c r="C13" s="51">
         <v>5.2</v>
       </c>
-      <c r="D13" s="46">
+      <c r="D13" s="51">
         <v>4</v>
       </c>
-      <c r="E13" s="46" t="s">
+      <c r="E13" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="48"/>
-    </row>
-    <row r="14" s="31" customFormat="1" spans="1:6">
-      <c r="A14" s="31" t="s">
+      <c r="F13" s="53"/>
+    </row>
+    <row r="14" s="37" customFormat="1" spans="1:6">
+      <c r="A14" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="46">
+      <c r="C14" s="51">
         <v>10.1</v>
       </c>
-      <c r="D14" s="46">
+      <c r="D14" s="51">
         <v>5</v>
       </c>
-      <c r="E14" s="46" t="s">
+      <c r="E14" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="48"/>
-    </row>
-    <row r="15" s="31" customFormat="1" spans="1:6">
-      <c r="A15" s="31" t="s">
+      <c r="F14" s="53"/>
+    </row>
+    <row r="15" s="37" customFormat="1" spans="1:6">
+      <c r="A15" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="46">
+      <c r="C15" s="51">
         <v>18.01</v>
       </c>
-      <c r="D15" s="46">
+      <c r="D15" s="51">
         <v>2</v>
       </c>
-      <c r="E15" s="47" t="s">
+      <c r="E15" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="48"/>
-    </row>
-    <row r="16" s="31" customFormat="1" spans="2:6">
-      <c r="B16" s="43" t="s">
+      <c r="F15" s="53"/>
+    </row>
+    <row r="16" s="37" customFormat="1" spans="2:6">
+      <c r="B16" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="46">
+      <c r="C16" s="51">
         <v>10</v>
       </c>
-      <c r="D16" s="46">
+      <c r="D16" s="51">
         <v>2</v>
       </c>
-      <c r="E16" s="47" t="s">
+      <c r="E16" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="48"/>
-    </row>
-    <row r="17" s="31" customFormat="1" spans="2:6">
-      <c r="B17" s="43" t="s">
+      <c r="F16" s="53"/>
+    </row>
+    <row r="17" s="37" customFormat="1" spans="2:6">
+      <c r="B17" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="46">
+      <c r="C17" s="51">
         <v>15</v>
       </c>
-      <c r="D17" s="46">
+      <c r="D17" s="51">
         <v>2</v>
       </c>
-      <c r="E17" s="47" t="s">
+      <c r="E17" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="48"/>
-    </row>
-    <row r="18" s="33" customFormat="1" spans="1:6">
-      <c r="A18" s="33" t="s">
+      <c r="F17" s="53"/>
+    </row>
+    <row r="18" s="39" customFormat="1" spans="1:6">
+      <c r="A18" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="56" t="s">
+      <c r="B18" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="57">
+      <c r="C18" s="62">
         <v>15.01</v>
       </c>
-      <c r="D18" s="57">
+      <c r="D18" s="62">
         <v>3</v>
       </c>
-      <c r="E18" s="58" t="s">
+      <c r="E18" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="55"/>
-    </row>
-    <row r="19" s="30" customFormat="1" spans="1:6">
-      <c r="A19" s="30" t="s">
+      <c r="F18" s="60"/>
+    </row>
+    <row r="19" s="36" customFormat="1" spans="1:6">
+      <c r="A19" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="49" t="s">
+      <c r="B19" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="44">
+      <c r="C19" s="49">
         <v>3.6</v>
       </c>
-      <c r="D19" s="44">
+      <c r="D19" s="49">
         <v>4</v>
       </c>
-      <c r="E19" s="44" t="s">
+      <c r="E19" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="45"/>
-    </row>
-    <row r="20" s="29" customFormat="1" spans="1:6">
-      <c r="A20" s="29" t="s">
+      <c r="F19" s="50"/>
+    </row>
+    <row r="20" s="35" customFormat="1" spans="1:6">
+      <c r="A20" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="49" t="s">
+      <c r="B20" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="44">
+      <c r="C20" s="49">
         <v>25.1</v>
       </c>
-      <c r="D20" s="44">
+      <c r="D20" s="49">
         <v>4.9</v>
       </c>
-      <c r="E20" s="44" t="s">
+      <c r="E20" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="F20" s="42"/>
-    </row>
-    <row r="21" s="29" customFormat="1" spans="2:6">
-      <c r="B21" s="50" t="s">
+      <c r="F20" s="47"/>
+    </row>
+    <row r="21" s="36" customFormat="1" spans="2:6">
+      <c r="B21" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="40">
+      <c r="C21" s="49">
         <v>20</v>
       </c>
-      <c r="D21" s="40">
+      <c r="D21" s="49">
         <v>5</v>
       </c>
-      <c r="E21" s="40" t="s">
+      <c r="E21" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="42"/>
-    </row>
-    <row r="22" s="31" customFormat="1" spans="1:6">
-      <c r="A22" s="31" t="s">
+      <c r="F21" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="43" t="s">
+    </row>
+    <row r="22" s="37" customFormat="1" spans="1:6">
+      <c r="A22" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="46">
+      <c r="B22" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="51">
         <v>15</v>
       </c>
-      <c r="D22" s="46">
+      <c r="D22" s="51">
         <v>5</v>
       </c>
-      <c r="E22" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="F22" s="48"/>
-    </row>
-    <row r="23" s="31" customFormat="1" spans="1:6">
-      <c r="A23" s="31" t="s">
+      <c r="E22" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="43" t="s">
+      <c r="F22" s="53"/>
+    </row>
+    <row r="23" s="37" customFormat="1" spans="1:6">
+      <c r="A23" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="46">
+      <c r="B23" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="51">
         <v>30.1</v>
       </c>
-      <c r="D23" s="46">
+      <c r="D23" s="51">
         <v>3</v>
       </c>
-      <c r="E23" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="F23" s="48"/>
-    </row>
-    <row r="24" s="30" customFormat="1" spans="1:6">
-      <c r="A24" s="30" t="s">
+      <c r="E23" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="49" t="s">
+      <c r="F23" s="53"/>
+    </row>
+    <row r="24" s="36" customFormat="1" spans="1:6">
+      <c r="A24" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="44">
+      <c r="B24" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="49">
         <v>4.5</v>
       </c>
-      <c r="D24" s="44">
+      <c r="D24" s="49">
         <v>2.5</v>
       </c>
-      <c r="E24" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="F24" s="45"/>
-    </row>
-    <row r="25" s="34" customFormat="1" spans="1:6">
-      <c r="A25" s="34" t="s">
+      <c r="E24" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="59" t="s">
+      <c r="F24" s="50"/>
+    </row>
+    <row r="25" s="37" customFormat="1" spans="1:6">
+      <c r="A25" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="60">
+      <c r="B25" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="51">
         <v>3.01</v>
       </c>
-      <c r="D25" s="60">
+      <c r="D25" s="51">
         <v>2</v>
       </c>
-      <c r="E25" s="60" t="s">
-        <v>61</v>
-      </c>
-      <c r="F25" s="61"/>
-    </row>
-    <row r="26" s="30" customFormat="1" spans="1:6">
-      <c r="A26" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="B26" s="49" t="s">
+      <c r="E25" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" s="53"/>
+    </row>
+    <row r="26" s="36" customFormat="1" spans="1:6">
+      <c r="A26" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="44">
+      <c r="B26" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="49">
         <v>25</v>
       </c>
-      <c r="D26" s="44">
+      <c r="D26" s="49">
         <v>5</v>
       </c>
-      <c r="E26" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="F26" s="45"/>
-    </row>
-    <row r="27" s="34" customFormat="1" spans="1:6">
-      <c r="A27" s="34" t="s">
+      <c r="E26" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="59" t="s">
+      <c r="F26" s="50"/>
+    </row>
+    <row r="27" s="37" customFormat="1" spans="1:6">
+      <c r="A27" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="60">
+      <c r="B27" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="51">
         <v>20</v>
       </c>
-      <c r="D27" s="60">
+      <c r="D27" s="51">
         <v>5</v>
       </c>
-      <c r="E27" s="60" t="s">
-        <v>69</v>
-      </c>
-      <c r="F27" s="61"/>
-    </row>
-    <row r="28" s="29" customFormat="1" spans="1:6">
-      <c r="A28" s="29" t="s">
+      <c r="E27" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="B28" s="50" t="s">
+      <c r="F27" s="53"/>
+    </row>
+    <row r="28" s="35" customFormat="1" spans="1:6">
+      <c r="A28" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="40">
+      <c r="B28" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="45">
         <v>6</v>
       </c>
-      <c r="D28" s="40">
+      <c r="D28" s="45">
         <v>5</v>
       </c>
-      <c r="E28" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="F28" s="42"/>
-    </row>
-    <row r="29" s="35" customFormat="1" spans="1:6">
-      <c r="A29" s="35" t="s">
+      <c r="E28" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="B29" s="62" t="s">
+      <c r="F28" s="47"/>
+    </row>
+    <row r="29" s="40" customFormat="1" spans="1:6">
+      <c r="A29" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="C29" s="63">
+      <c r="B29" s="64" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="65">
         <v>25.11</v>
       </c>
-      <c r="D29" s="63">
+      <c r="D29" s="65">
         <v>3</v>
       </c>
-      <c r="E29" s="63" t="s">
-        <v>75</v>
-      </c>
-      <c r="F29" s="64"/>
-    </row>
-    <row r="30" s="29" customFormat="1" spans="1:6">
-      <c r="A30" s="65" t="s">
+      <c r="E29" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="B30" s="39" t="s">
+      <c r="F29" s="66"/>
+    </row>
+    <row r="30" s="35" customFormat="1" spans="1:6">
+      <c r="A30" s="67" t="s">
         <v>77</v>
       </c>
-      <c r="C30" s="40">
+      <c r="B30" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="45">
         <v>20.1</v>
       </c>
-      <c r="D30" s="40">
+      <c r="D30" s="45">
         <v>5</v>
       </c>
-      <c r="E30" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="F30" s="42"/>
-    </row>
-    <row r="31" s="31" customFormat="1" spans="1:6">
-      <c r="A31" s="66" t="s">
+      <c r="E30" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="B31" s="67" t="s">
+      <c r="F30" s="47"/>
+    </row>
+    <row r="31" s="37" customFormat="1" spans="1:6">
+      <c r="A31" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="46">
+      <c r="B31" s="69" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="51">
         <v>10</v>
       </c>
-      <c r="D31" s="46">
+      <c r="D31" s="51">
         <v>5</v>
       </c>
-      <c r="E31" s="46" t="s">
-        <v>81</v>
-      </c>
-      <c r="F31" s="48"/>
-    </row>
-    <row r="32" s="33" customFormat="1" spans="1:6">
-      <c r="A32" s="68" t="s">
+      <c r="E31" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="B32" s="69" t="s">
+      <c r="F31" s="53"/>
+    </row>
+    <row r="32" s="39" customFormat="1" spans="1:6">
+      <c r="A32" s="70" t="s">
         <v>83</v>
       </c>
-      <c r="C32" s="57">
+      <c r="B32" s="71" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" s="62">
         <v>6.2</v>
       </c>
-      <c r="D32" s="57">
+      <c r="D32" s="62">
         <v>3</v>
       </c>
-      <c r="E32" s="57" t="s">
-        <v>84</v>
-      </c>
-      <c r="F32" s="55"/>
-    </row>
-    <row r="33" s="29" customFormat="1" spans="1:6">
-      <c r="A33" s="65" t="s">
+      <c r="E32" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="B33" s="39" t="s">
+      <c r="F32" s="60"/>
+    </row>
+    <row r="33" s="35" customFormat="1" spans="1:6">
+      <c r="A33" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="C33" s="40">
+      <c r="B33" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" s="45">
         <v>20</v>
       </c>
-      <c r="D33" s="40">
+      <c r="D33" s="45">
         <v>5</v>
       </c>
-      <c r="E33" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="F33" s="42"/>
-    </row>
-    <row r="34" s="29" customFormat="1" spans="1:6">
-      <c r="A34" s="65" t="s">
-        <v>87</v>
-      </c>
-      <c r="B34" s="39" t="s">
+      <c r="E33" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="F33" s="47"/>
+    </row>
+    <row r="34" s="35" customFormat="1" spans="1:6">
+      <c r="A34" s="67" t="s">
         <v>88</v>
       </c>
-      <c r="C34" s="40">
+      <c r="B34" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" s="45">
         <v>15</v>
       </c>
-      <c r="D34" s="40">
+      <c r="D34" s="45">
         <v>5</v>
       </c>
-      <c r="E34" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="F34" s="42"/>
-    </row>
-    <row r="35" s="31" customFormat="1" spans="1:6">
-      <c r="A35" s="66" t="s">
-        <v>89</v>
-      </c>
-      <c r="B35" s="67" t="s">
+      <c r="E34" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="F34" s="47"/>
+    </row>
+    <row r="35" s="37" customFormat="1" spans="1:6">
+      <c r="A35" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="C35" s="46">
+      <c r="B35" s="69" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" s="51">
         <v>21</v>
       </c>
-      <c r="D35" s="46">
+      <c r="D35" s="51">
         <v>10</v>
       </c>
-      <c r="E35" s="46" t="s">
-        <v>91</v>
-      </c>
-      <c r="F35" s="48"/>
-    </row>
-    <row r="36" s="29" customFormat="1" spans="1:6">
-      <c r="A36" s="65" t="s">
+      <c r="E35" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="B36" s="39" t="s">
+      <c r="F35" s="53"/>
+    </row>
+    <row r="36" s="35" customFormat="1" spans="1:6">
+      <c r="A36" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="C36" s="40">
+      <c r="B36" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="C36" s="45">
         <v>2</v>
       </c>
-      <c r="D36" s="70" t="s">
-        <v>94</v>
-      </c>
-      <c r="E36" s="40" t="s">
+      <c r="D36" s="72" t="s">
+        <v>95</v>
+      </c>
+      <c r="E36" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="F36" s="42"/>
-    </row>
-    <row r="37" s="29" customFormat="1" spans="1:6">
-      <c r="A37" s="65" t="s">
-        <v>95</v>
-      </c>
-      <c r="B37" s="39" t="s">
+      <c r="F36" s="47"/>
+    </row>
+    <row r="37" s="35" customFormat="1" spans="1:6">
+      <c r="A37" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="C37" s="40">
+      <c r="B37" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" s="45">
         <v>6.12</v>
       </c>
-      <c r="D37" s="40">
+      <c r="D37" s="45">
         <v>3</v>
       </c>
-      <c r="E37" s="40" t="s">
+      <c r="E37" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="F37" s="42"/>
-    </row>
-    <row r="38" s="29" customFormat="1" spans="1:6">
-      <c r="A38" s="65" t="s">
-        <v>97</v>
-      </c>
-      <c r="B38" s="39" t="s">
+      <c r="F37" s="47"/>
+    </row>
+    <row r="38" s="35" customFormat="1" spans="1:6">
+      <c r="A38" s="67" t="s">
         <v>98</v>
       </c>
-      <c r="C38" s="40">
+      <c r="B38" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="C38" s="45">
         <v>10.2</v>
       </c>
-      <c r="D38" s="40">
+      <c r="D38" s="45">
         <v>3</v>
       </c>
-      <c r="E38" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="F38" s="42"/>
-    </row>
-    <row r="39" s="29" customFormat="1" spans="1:6">
-      <c r="A39" s="65" t="s">
+      <c r="E38" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="B39" s="39" t="s">
+      <c r="F38" s="47"/>
+    </row>
+    <row r="39" s="35" customFormat="1" spans="1:6">
+      <c r="A39" s="67" t="s">
         <v>101</v>
       </c>
-      <c r="C39" s="40">
+      <c r="B39" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="C39" s="45">
         <v>20</v>
       </c>
-      <c r="D39" s="40">
+      <c r="D39" s="45">
         <v>10</v>
       </c>
-      <c r="E39" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="F39" s="42"/>
-    </row>
-    <row r="40" s="30" customFormat="1" spans="1:6">
-      <c r="A40" s="30" t="s">
+      <c r="E39" s="45" t="s">
         <v>103</v>
       </c>
-      <c r="B40" s="71" t="s">
+      <c r="F39" s="47"/>
+    </row>
+    <row r="40" s="36" customFormat="1" spans="1:6">
+      <c r="A40" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="C40" s="44">
+      <c r="B40" s="73" t="s">
+        <v>105</v>
+      </c>
+      <c r="C40" s="49">
         <v>31</v>
       </c>
-      <c r="D40" s="44">
+      <c r="D40" s="49">
         <v>6</v>
       </c>
-      <c r="E40" s="44" t="s">
-        <v>105</v>
-      </c>
-      <c r="F40" s="45"/>
-    </row>
-    <row r="41" s="30" customFormat="1" spans="1:6">
-      <c r="A41" s="72" t="s">
+      <c r="E40" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="B41" s="73" t="s">
+      <c r="F40" s="50"/>
+    </row>
+    <row r="41" s="36" customFormat="1" spans="1:6">
+      <c r="A41" s="74" t="s">
         <v>107</v>
       </c>
-      <c r="C41" s="44">
+      <c r="B41" s="75" t="s">
+        <v>108</v>
+      </c>
+      <c r="C41" s="49">
         <v>16</v>
       </c>
-      <c r="D41" s="44">
+      <c r="D41" s="49">
         <v>10</v>
       </c>
-      <c r="E41" s="44" t="s">
-        <v>108</v>
-      </c>
-      <c r="F41" s="45"/>
-    </row>
-    <row r="42" s="30" customFormat="1" spans="1:6">
-      <c r="A42" s="72" t="s">
+      <c r="E41" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="B42" s="72" t="s">
+      <c r="F41" s="50"/>
+    </row>
+    <row r="42" s="36" customFormat="1" spans="1:6">
+      <c r="A42" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="C42" s="44">
+      <c r="B42" s="74" t="s">
+        <v>111</v>
+      </c>
+      <c r="C42" s="49">
         <v>20.4</v>
       </c>
-      <c r="D42" s="44">
+      <c r="D42" s="49">
         <v>4</v>
       </c>
-      <c r="E42" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="F42" s="45"/>
+      <c r="E42" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="F42" s="50"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2828,74 +2855,94 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="20.3333333333333" customWidth="1"/>
     <col min="2" max="2" width="47.4416666666667" customWidth="1"/>
-    <col min="3" max="3" width="19.5583333333333" style="19" customWidth="1"/>
-    <col min="4" max="4" width="17.3333333333333" style="19" customWidth="1"/>
-    <col min="5" max="5" width="16.225" style="19" customWidth="1"/>
-    <col min="6" max="6" width="35.6666666666667" style="20" customWidth="1"/>
+    <col min="3" max="3" width="19.5583333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.3333333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.225" style="1" customWidth="1"/>
+    <col min="6" max="6" width="35.6666666666667" style="24" customWidth="1"/>
     <col min="7" max="7" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" s="17" customFormat="1" ht="16.5" spans="1:7">
-      <c r="A1" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="B1" s="21" t="s">
+    <row r="1" s="21" customFormat="1" ht="16.5" spans="1:7">
+      <c r="A1" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="F1" s="21" t="s">
+      <c r="E1" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="F1" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="G1" s="27" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="18" customFormat="1" ht="14.25" spans="1:7">
-      <c r="A2" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="C2" s="24">
+    <row r="2" s="22" customFormat="1" spans="1:7">
+      <c r="A2" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="29">
         <v>3.01</v>
       </c>
-      <c r="D2" s="24">
+      <c r="D2" s="29">
         <v>2</v>
       </c>
-      <c r="E2" s="25">
+      <c r="E2" s="30">
         <v>331853030</v>
       </c>
-      <c r="F2" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="G2" s="27"/>
-    </row>
-    <row r="3" spans="6:6">
-      <c r="F3" s="19"/>
+      <c r="F2" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2" s="31"/>
+    </row>
+    <row r="3" s="23" customFormat="1" spans="1:7">
+      <c r="A3" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" s="32">
+        <v>3</v>
+      </c>
+      <c r="D3" s="32">
+        <v>3</v>
+      </c>
+      <c r="E3" s="32">
+        <v>333741071</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="G3" s="33"/>
     </row>
     <row r="7" spans="6:6">
-      <c r="F7" s="28"/>
+      <c r="F7" s="34"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="玛丽安娜俄国代购" tooltip="点击进入店铺推广详情页"/>
     <hyperlink ref="B2" r:id="rId2" display="俄罗斯Organic shop有机芒果维他命身体磨砂膏保 * 20 款美妆" tooltip="http://item.taobao.com/item.htm?id=597702047702"/>
+    <hyperlink ref="A3" r:id="rId1" display="博友家居专营店" tooltip="点击进入店铺推广详情页"/>
+    <hyperlink ref="B3" r:id="rId3" display="安尔乐护垫极洁纤柔亲肤迷你少女卫生巾纯棉超 * 9 款卫生巾" tooltip="http://item.taobao.com/item.htm?spm=a219t.7900221.1998910419.dafc012e7.346275a5wQ7MCx&amp;id=594079600987"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2908,8 +2955,8 @@
   <sheetPr/>
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2930,13 +2977,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -2945,16 +2992,16 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>5</v>
@@ -2962,10 +3009,10 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C2" s="1">
         <v>9.9</v>
@@ -2980,24 +3027,24 @@
         <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>130</v>
       </c>
       <c r="I2" s="1">
         <v>330336629</v>
       </c>
-      <c r="J2" s="15" t="s">
-        <v>127</v>
+      <c r="J2" s="19" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C3" s="1">
         <v>15.8</v>
@@ -3012,24 +3059,24 @@
         <v>10</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>135</v>
       </c>
       <c r="I3" s="1">
         <v>329827419</v>
       </c>
-      <c r="J3" s="15" t="s">
-        <v>132</v>
+      <c r="J3" s="19" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C4" s="1">
         <v>69</v>
@@ -3044,20 +3091,20 @@
         <v>8</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>137</v>
       </c>
       <c r="I4" s="1">
         <v>329827419</v>
       </c>
-      <c r="J4" s="15" t="s">
-        <v>134</v>
+      <c r="J4" s="19" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="2:2">
-      <c r="B6" s="9"/>
+      <c r="B6" s="12"/>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="8"/>
@@ -3065,8 +3112,9 @@
     <row r="8" spans="2:2">
       <c r="B8" s="8"/>
     </row>
-    <row r="9" spans="2:2">
+    <row r="9" spans="2:4">
       <c r="B9" s="8"/>
+      <c r="D9" s="13"/>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="8"/>
@@ -3081,23 +3129,23 @@
       <c r="B13" s="8"/>
     </row>
     <row r="14" ht="14.25" spans="1:2">
-      <c r="A14" s="10">
+      <c r="A14" s="14">
         <v>43647</v>
       </c>
-      <c r="B14" s="11"/>
+      <c r="B14" s="15"/>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:11">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>2</v>
@@ -3106,27 +3154,27 @@
         <v>3</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="12" t="s">
-        <v>109</v>
+      <c r="A16" s="16" t="s">
+        <v>110</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C16" s="1">
         <v>15.8</v>
@@ -3141,24 +3189,24 @@
         <v>4</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I16" s="16">
+        <v>140</v>
+      </c>
+      <c r="I16" s="20">
         <v>331251512</v>
       </c>
-      <c r="J16" s="15" t="s">
-        <v>137</v>
+      <c r="J16" s="19" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="17" ht="14.25" spans="1:10">
       <c r="A17" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>139</v>
+        <v>118</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>142</v>
       </c>
       <c r="C17" s="1">
         <v>223</v>
@@ -3173,16 +3221,16 @@
         <v>5</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="I17" s="1">
         <v>332139409</v>
       </c>
-      <c r="J17" s="15" t="s">
-        <v>142</v>
+      <c r="J17" s="19" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="2:2">
@@ -3192,10 +3240,10 @@
       <c r="B20" s="8"/>
     </row>
     <row r="21" ht="14.25" spans="2:2">
-      <c r="B21" s="9"/>
+      <c r="B21" s="12"/>
     </row>
     <row r="22" ht="14.25" spans="2:2">
-      <c r="B22" s="9"/>
+      <c r="B22" s="12"/>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="8"/>
@@ -3210,16 +3258,16 @@
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="13"/>
+      <c r="B27" s="17"/>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="8"/>
     </row>
     <row r="29" ht="14.25" spans="2:2">
-      <c r="B29" s="14"/>
+      <c r="B29" s="18"/>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" s="13"/>
+      <c r="B30" s="17"/>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="8"/>
@@ -3231,7 +3279,7 @@
       <c r="B33" s="8"/>
     </row>
     <row r="34" ht="14.25" spans="2:2">
-      <c r="B34" s="9"/>
+      <c r="B34" s="12"/>
     </row>
   </sheetData>
   <sortState ref="B1:B28">
@@ -3258,7 +3306,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -3275,13 +3323,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -3290,16 +3338,16 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>5</v>
@@ -3307,10 +3355,10 @@
     </row>
     <row r="2" ht="14.25" spans="1:7">
       <c r="A2" s="3" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E2" s="1">
         <v>6</v>
@@ -3319,15 +3367,15 @@
         <v>3</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:7">
       <c r="A3" s="3" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E3" s="1">
         <v>3</v>
@@ -3336,7 +3384,7 @@
         <v>3</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/招商团长/报名活动单.xlsx
+++ b/招商团长/报名活动单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21105" windowHeight="9165" activeTab="2"/>
+    <workbookView windowWidth="21105" windowHeight="9165"/>
   </bookViews>
   <sheets>
     <sheet name="6月报名清单" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="152">
   <si>
     <t>店铺</t>
   </si>
@@ -340,9 +340,6 @@
     <t>起：2019-06-18 止：2019-06-24</t>
   </si>
   <si>
-    <t>麦稻官方企业店</t>
-  </si>
-  <si>
     <t>麦稻发膜免蒸倒膜焗油膏顺滑护发 * 6 款洗护</t>
   </si>
   <si>
@@ -382,6 +379,12 @@
     <t>起：2019-07-05 止：2019-08-08</t>
   </si>
   <si>
+    <t>vnk圆管哑光钻石口红888星耀 * 7 款美妆</t>
+  </si>
+  <si>
+    <t>起：2019-07-06 止：2019-08-08</t>
+  </si>
+  <si>
     <t xml:space="preserve">商品 </t>
   </si>
   <si>
@@ -434,6 +437,18 @@
   </si>
   <si>
     <t>https://detail.tmall.com/item.htm?id=573247426562</t>
+  </si>
+  <si>
+    <t>快乐购丶2017</t>
+  </si>
+  <si>
+    <t>电动摩托车挡风被夏季电瓶车挡风被夏天防晒罩挡风防水可爱薄款</t>
+  </si>
+  <si>
+    <t>2019.07.08-2019.07.14</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a2oq0.12575281.0.0.25911debANF9vZ&amp;ft=t&amp;id=589123708932</t>
   </si>
   <si>
     <t>回头客华夫饼干铜锣烧蛋糕点心营养早餐年货小吃面包干零食大礼包</t>
@@ -466,9 +481,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="37">
     <font>
@@ -530,6 +545,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
@@ -580,15 +603,67 @@
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FF0070C0"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF0070C0"/>
-      <name val="微软雅黑"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -599,6 +674,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -607,36 +712,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -650,37 +726,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -690,40 +735,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -742,7 +757,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -754,7 +811,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -766,19 +901,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -790,139 +937,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -933,6 +948,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -951,32 +990,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1014,22 +1034,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1041,10 +1056,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1053,16 +1068,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1071,119 +1086,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1244,40 +1259,46 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1286,106 +1307,112 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -1394,13 +1421,13 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1408,9 +1435,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1465,6 +1489,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="000070C0"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1779,6 +1808,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>37465</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9" descr="1c03f108c327e83a1be6dc428b9aa54"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12159615" y="847725"/>
+          <a:ext cx="1628775" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2071,746 +2138,747 @@
   <sheetPr/>
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="18.5" style="41" customWidth="1"/>
-    <col min="2" max="2" width="39.8833333333333" style="42" customWidth="1"/>
-    <col min="3" max="3" width="19.8833333333333" style="20" customWidth="1"/>
-    <col min="4" max="4" width="18.75" style="20" customWidth="1"/>
-    <col min="5" max="5" width="31.6333333333333" style="20" customWidth="1"/>
-    <col min="6" max="6" width="36.3833333333333" style="43" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="41"/>
+    <col min="1" max="1" width="18.5" style="44" customWidth="1"/>
+    <col min="2" max="2" width="39.8833333333333" style="45" customWidth="1"/>
+    <col min="3" max="3" width="19.8833333333333" style="21" customWidth="1"/>
+    <col min="4" max="4" width="18.75" style="21" customWidth="1"/>
+    <col min="5" max="5" width="31.6333333333333" style="21" customWidth="1"/>
+    <col min="6" max="6" width="36.3833333333333" style="46" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="44"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="46" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="35" customFormat="1" spans="1:6">
-      <c r="A2" s="35" t="s">
+    <row r="2" s="38" customFormat="1" spans="1:6">
+      <c r="A2" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="45">
+      <c r="C2" s="48">
         <v>20</v>
       </c>
-      <c r="D2" s="45">
+      <c r="D2" s="48">
         <v>5</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="47"/>
-    </row>
-    <row r="3" s="35" customFormat="1" spans="2:6">
-      <c r="B3" s="44" t="s">
+      <c r="F2" s="50"/>
+    </row>
+    <row r="3" s="38" customFormat="1" spans="1:6">
+      <c r="A3" s="39"/>
+      <c r="B3" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="45">
+      <c r="C3" s="48">
         <v>20.01</v>
       </c>
-      <c r="D3" s="45">
+      <c r="D3" s="48">
         <v>5</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="47"/>
-    </row>
-    <row r="4" s="36" customFormat="1" spans="1:6">
-      <c r="A4" s="36" t="s">
+      <c r="F3" s="50"/>
+    </row>
+    <row r="4" s="39" customFormat="1" spans="1:6">
+      <c r="A4" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="46" t="s">
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="50"/>
-    </row>
-    <row r="5" s="37" customFormat="1" spans="1:6">
-      <c r="A5" s="37" t="s">
+      <c r="F4" s="52"/>
+    </row>
+    <row r="5" s="40" customFormat="1" spans="1:6">
+      <c r="A5" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="51">
+      <c r="C5" s="53">
         <v>10.1</v>
       </c>
-      <c r="D5" s="51">
+      <c r="D5" s="53">
         <v>4</v>
       </c>
-      <c r="E5" s="52" t="s">
+      <c r="E5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="53"/>
-    </row>
-    <row r="6" s="36" customFormat="1" spans="1:6">
-      <c r="A6" s="36" t="s">
+      <c r="F5" s="55"/>
+    </row>
+    <row r="6" s="39" customFormat="1" spans="1:6">
+      <c r="A6" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="46" t="s">
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="50"/>
-    </row>
-    <row r="7" s="35" customFormat="1" spans="2:6">
-      <c r="B7" s="55" t="s">
+      <c r="F6" s="52"/>
+    </row>
+    <row r="7" s="38" customFormat="1" spans="2:6">
+      <c r="B7" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="45">
+      <c r="C7" s="48">
         <v>15</v>
       </c>
-      <c r="D7" s="45">
+      <c r="D7" s="48">
         <v>3</v>
       </c>
-      <c r="E7" s="56" t="s">
+      <c r="E7" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="47"/>
-    </row>
-    <row r="8" s="35" customFormat="1" spans="2:6">
-      <c r="B8" s="44" t="s">
+      <c r="F7" s="50"/>
+    </row>
+    <row r="8" s="38" customFormat="1" spans="2:6">
+      <c r="B8" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="56" t="s">
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="47"/>
-    </row>
-    <row r="9" s="38" customFormat="1" spans="1:6">
-      <c r="A9" s="38" t="s">
+      <c r="F8" s="50"/>
+    </row>
+    <row r="9" s="41" customFormat="1" spans="1:6">
+      <c r="A9" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="57" t="s">
+      <c r="B9" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="58">
+      <c r="C9" s="61">
         <v>10.01</v>
       </c>
-      <c r="D9" s="58">
+      <c r="D9" s="61">
         <v>4.9</v>
       </c>
-      <c r="E9" s="58" t="s">
+      <c r="E9" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="59" t="s">
+      <c r="F9" s="62" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" s="39" customFormat="1" spans="1:6">
-      <c r="A10" s="39" t="s">
+    <row r="10" s="42" customFormat="1" spans="1:6">
+      <c r="A10" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="51">
+      <c r="C10" s="53">
         <v>40</v>
       </c>
-      <c r="D10" s="51">
+      <c r="D10" s="53">
         <v>10</v>
       </c>
-      <c r="E10" s="51" t="s">
+      <c r="E10" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="60"/>
-    </row>
-    <row r="11" s="35" customFormat="1" spans="2:6">
-      <c r="B11" s="55" t="s">
+      <c r="F10" s="63"/>
+    </row>
+    <row r="11" s="38" customFormat="1" spans="2:6">
+      <c r="B11" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="45">
+      <c r="C11" s="58">
         <v>25.2</v>
       </c>
-      <c r="D11" s="45">
+      <c r="D11" s="58">
         <v>4</v>
       </c>
-      <c r="E11" s="45" t="s">
+      <c r="E11" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="47"/>
-    </row>
-    <row r="12" s="35" customFormat="1" spans="2:6">
-      <c r="B12" s="44" t="s">
+      <c r="F11" s="50"/>
+    </row>
+    <row r="12" s="38" customFormat="1" spans="2:6">
+      <c r="B12" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="45">
+      <c r="C12" s="58">
         <v>6</v>
       </c>
-      <c r="D12" s="45">
+      <c r="D12" s="58">
         <v>5</v>
       </c>
-      <c r="E12" s="45" t="s">
+      <c r="E12" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="47"/>
-    </row>
-    <row r="13" s="37" customFormat="1" spans="1:6">
-      <c r="A13" s="37" t="s">
+      <c r="F12" s="50"/>
+    </row>
+    <row r="13" s="40" customFormat="1" spans="1:6">
+      <c r="A13" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="51">
+      <c r="C13" s="53">
         <v>5.2</v>
       </c>
-      <c r="D13" s="51">
+      <c r="D13" s="53">
         <v>4</v>
       </c>
-      <c r="E13" s="51" t="s">
+      <c r="E13" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="53"/>
-    </row>
-    <row r="14" s="37" customFormat="1" spans="1:6">
-      <c r="A14" s="37" t="s">
+      <c r="F13" s="55"/>
+    </row>
+    <row r="14" s="40" customFormat="1" spans="1:6">
+      <c r="A14" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="51">
+      <c r="C14" s="53">
         <v>10.1</v>
       </c>
-      <c r="D14" s="51">
+      <c r="D14" s="53">
         <v>5</v>
       </c>
-      <c r="E14" s="51" t="s">
+      <c r="E14" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="53"/>
-    </row>
-    <row r="15" s="37" customFormat="1" spans="1:6">
-      <c r="A15" s="37" t="s">
+      <c r="F14" s="55"/>
+    </row>
+    <row r="15" s="40" customFormat="1" spans="1:6">
+      <c r="A15" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="51">
+      <c r="C15" s="53">
         <v>18.01</v>
       </c>
-      <c r="D15" s="51">
+      <c r="D15" s="53">
         <v>2</v>
       </c>
-      <c r="E15" s="52" t="s">
+      <c r="E15" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="53"/>
-    </row>
-    <row r="16" s="37" customFormat="1" spans="2:6">
-      <c r="B16" s="48" t="s">
+      <c r="F15" s="55"/>
+    </row>
+    <row r="16" s="40" customFormat="1" spans="2:6">
+      <c r="B16" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="51">
+      <c r="C16" s="53">
         <v>10</v>
       </c>
-      <c r="D16" s="51">
+      <c r="D16" s="53">
         <v>2</v>
       </c>
-      <c r="E16" s="52" t="s">
+      <c r="E16" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="53"/>
-    </row>
-    <row r="17" s="37" customFormat="1" spans="2:6">
-      <c r="B17" s="48" t="s">
+      <c r="F16" s="55"/>
+    </row>
+    <row r="17" s="40" customFormat="1" spans="2:6">
+      <c r="B17" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="51">
+      <c r="C17" s="53">
         <v>15</v>
       </c>
-      <c r="D17" s="51">
+      <c r="D17" s="53">
         <v>2</v>
       </c>
-      <c r="E17" s="52" t="s">
+      <c r="E17" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="53"/>
-    </row>
-    <row r="18" s="39" customFormat="1" spans="1:6">
-      <c r="A18" s="39" t="s">
+      <c r="F17" s="55"/>
+    </row>
+    <row r="18" s="42" customFormat="1" spans="1:6">
+      <c r="A18" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="61" t="s">
+      <c r="B18" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="62">
+      <c r="C18" s="66">
         <v>15.01</v>
       </c>
-      <c r="D18" s="62">
+      <c r="D18" s="66">
         <v>3</v>
       </c>
-      <c r="E18" s="63" t="s">
+      <c r="E18" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="60"/>
-    </row>
-    <row r="19" s="36" customFormat="1" spans="1:6">
-      <c r="A19" s="36" t="s">
+      <c r="F18" s="63"/>
+    </row>
+    <row r="19" s="39" customFormat="1" spans="1:6">
+      <c r="A19" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="54" t="s">
+      <c r="B19" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="49">
+      <c r="C19" s="48">
         <v>3.6</v>
       </c>
-      <c r="D19" s="49">
+      <c r="D19" s="48">
         <v>4</v>
       </c>
-      <c r="E19" s="49" t="s">
+      <c r="E19" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="50"/>
-    </row>
-    <row r="20" s="35" customFormat="1" spans="1:6">
-      <c r="A20" s="36" t="s">
+      <c r="F19" s="52"/>
+    </row>
+    <row r="20" s="38" customFormat="1" spans="1:6">
+      <c r="A20" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="54" t="s">
+      <c r="B20" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="49">
+      <c r="C20" s="48">
         <v>25.1</v>
       </c>
-      <c r="D20" s="49">
+      <c r="D20" s="48">
         <v>4.9</v>
       </c>
-      <c r="E20" s="49" t="s">
+      <c r="E20" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="F20" s="47"/>
-    </row>
-    <row r="21" s="36" customFormat="1" spans="2:6">
-      <c r="B21" s="54" t="s">
+      <c r="F20" s="50"/>
+    </row>
+    <row r="21" s="39" customFormat="1" spans="2:6">
+      <c r="B21" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="49">
+      <c r="C21" s="48">
         <v>20</v>
       </c>
-      <c r="D21" s="49">
+      <c r="D21" s="48">
         <v>5</v>
       </c>
-      <c r="E21" s="49" t="s">
+      <c r="E21" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="50" t="s">
+      <c r="F21" s="52" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="22" s="37" customFormat="1" spans="1:6">
-      <c r="A22" s="37" t="s">
+    <row r="22" s="40" customFormat="1" spans="1:6">
+      <c r="A22" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="48" t="s">
+      <c r="B22" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="51">
+      <c r="C22" s="53">
         <v>15</v>
       </c>
-      <c r="D22" s="51">
+      <c r="D22" s="53">
         <v>5</v>
       </c>
-      <c r="E22" s="51" t="s">
+      <c r="E22" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="F22" s="53"/>
-    </row>
-    <row r="23" s="37" customFormat="1" spans="1:6">
-      <c r="A23" s="37" t="s">
+      <c r="F22" s="55"/>
+    </row>
+    <row r="23" s="40" customFormat="1" spans="1:6">
+      <c r="A23" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="48" t="s">
+      <c r="B23" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="51">
+      <c r="C23" s="53">
         <v>30.1</v>
       </c>
-      <c r="D23" s="51">
+      <c r="D23" s="53">
         <v>3</v>
       </c>
-      <c r="E23" s="51" t="s">
+      <c r="E23" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="F23" s="53"/>
-    </row>
-    <row r="24" s="36" customFormat="1" spans="1:6">
-      <c r="A24" s="36" t="s">
+      <c r="F23" s="55"/>
+    </row>
+    <row r="24" s="39" customFormat="1" spans="1:6">
+      <c r="A24" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="54" t="s">
+      <c r="B24" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="49">
+      <c r="C24" s="48">
         <v>4.5</v>
       </c>
-      <c r="D24" s="49">
+      <c r="D24" s="48">
         <v>2.5</v>
       </c>
-      <c r="E24" s="49" t="s">
+      <c r="E24" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="F24" s="50"/>
-    </row>
-    <row r="25" s="37" customFormat="1" spans="1:6">
-      <c r="A25" s="37" t="s">
+      <c r="F24" s="52"/>
+    </row>
+    <row r="25" s="40" customFormat="1" spans="1:6">
+      <c r="A25" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="48" t="s">
+      <c r="B25" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="51">
+      <c r="C25" s="53">
         <v>3.01</v>
       </c>
-      <c r="D25" s="51">
+      <c r="D25" s="53">
         <v>2</v>
       </c>
-      <c r="E25" s="51" t="s">
+      <c r="E25" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="F25" s="53"/>
-    </row>
-    <row r="26" s="36" customFormat="1" spans="1:6">
-      <c r="A26" s="36" t="s">
+      <c r="F25" s="55"/>
+    </row>
+    <row r="26" s="39" customFormat="1" spans="1:6">
+      <c r="A26" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="54" t="s">
+      <c r="B26" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="C26" s="49">
+      <c r="C26" s="48">
         <v>25</v>
       </c>
-      <c r="D26" s="49">
+      <c r="D26" s="48">
         <v>5</v>
       </c>
-      <c r="E26" s="49" t="s">
+      <c r="E26" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="F26" s="50"/>
-    </row>
-    <row r="27" s="37" customFormat="1" spans="1:6">
-      <c r="A27" s="37" t="s">
+      <c r="F26" s="52"/>
+    </row>
+    <row r="27" s="40" customFormat="1" spans="1:6">
+      <c r="A27" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="48" t="s">
+      <c r="B27" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="51">
+      <c r="C27" s="53">
         <v>20</v>
       </c>
-      <c r="D27" s="51">
+      <c r="D27" s="53">
         <v>5</v>
       </c>
-      <c r="E27" s="51" t="s">
+      <c r="E27" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="F27" s="53"/>
-    </row>
-    <row r="28" s="35" customFormat="1" spans="1:6">
-      <c r="A28" s="35" t="s">
+      <c r="F27" s="55"/>
+    </row>
+    <row r="28" s="39" customFormat="1" spans="1:6">
+      <c r="A28" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="B28" s="55" t="s">
+      <c r="B28" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="C28" s="45">
+      <c r="C28" s="48">
         <v>6</v>
       </c>
-      <c r="D28" s="45">
+      <c r="D28" s="48">
         <v>5</v>
       </c>
-      <c r="E28" s="45" t="s">
+      <c r="E28" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="F28" s="47"/>
-    </row>
-    <row r="29" s="40" customFormat="1" spans="1:6">
-      <c r="A29" s="40" t="s">
+      <c r="F28" s="52"/>
+    </row>
+    <row r="29" s="43" customFormat="1" spans="1:6">
+      <c r="A29" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="B29" s="64" t="s">
+      <c r="B29" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="65">
+      <c r="C29" s="69">
         <v>25.11</v>
       </c>
-      <c r="D29" s="65">
+      <c r="D29" s="69">
         <v>3</v>
       </c>
-      <c r="E29" s="65" t="s">
+      <c r="E29" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="F29" s="66"/>
-    </row>
-    <row r="30" s="35" customFormat="1" spans="1:6">
-      <c r="A30" s="67" t="s">
+      <c r="F29" s="70"/>
+    </row>
+    <row r="30" s="38" customFormat="1" spans="1:6">
+      <c r="A30" s="71" t="s">
         <v>77</v>
       </c>
-      <c r="B30" s="44" t="s">
+      <c r="B30" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="C30" s="45">
+      <c r="C30" s="58">
         <v>20.1</v>
       </c>
-      <c r="D30" s="45">
+      <c r="D30" s="58">
         <v>5</v>
       </c>
-      <c r="E30" s="45" t="s">
+      <c r="E30" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="F30" s="47"/>
-    </row>
-    <row r="31" s="37" customFormat="1" spans="1:6">
-      <c r="A31" s="68" t="s">
+      <c r="F30" s="50"/>
+    </row>
+    <row r="31" s="40" customFormat="1" spans="1:6">
+      <c r="A31" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="B31" s="69" t="s">
+      <c r="B31" s="73" t="s">
         <v>81</v>
       </c>
-      <c r="C31" s="51">
+      <c r="C31" s="53">
         <v>10</v>
       </c>
-      <c r="D31" s="51">
+      <c r="D31" s="53">
         <v>5</v>
       </c>
-      <c r="E31" s="51" t="s">
+      <c r="E31" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="F31" s="53"/>
-    </row>
-    <row r="32" s="39" customFormat="1" spans="1:6">
-      <c r="A32" s="70" t="s">
+      <c r="F31" s="55"/>
+    </row>
+    <row r="32" s="42" customFormat="1" spans="1:6">
+      <c r="A32" s="74" t="s">
         <v>83</v>
       </c>
-      <c r="B32" s="71" t="s">
+      <c r="B32" s="75" t="s">
         <v>84</v>
       </c>
-      <c r="C32" s="62">
+      <c r="C32" s="66">
         <v>6.2</v>
       </c>
-      <c r="D32" s="62">
+      <c r="D32" s="66">
         <v>3</v>
       </c>
-      <c r="E32" s="62" t="s">
+      <c r="E32" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="F32" s="60"/>
-    </row>
-    <row r="33" s="35" customFormat="1" spans="1:6">
-      <c r="A33" s="67" t="s">
+      <c r="F32" s="63"/>
+    </row>
+    <row r="33" s="38" customFormat="1" spans="1:6">
+      <c r="A33" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="B33" s="44" t="s">
+      <c r="B33" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="C33" s="45">
+      <c r="C33" s="58">
         <v>20</v>
       </c>
-      <c r="D33" s="45">
+      <c r="D33" s="58">
         <v>5</v>
       </c>
-      <c r="E33" s="45" t="s">
+      <c r="E33" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="F33" s="47"/>
-    </row>
-    <row r="34" s="35" customFormat="1" spans="1:6">
-      <c r="A34" s="67" t="s">
+      <c r="F33" s="50"/>
+    </row>
+    <row r="34" s="38" customFormat="1" spans="1:6">
+      <c r="A34" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="B34" s="44" t="s">
+      <c r="B34" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="C34" s="45">
+      <c r="C34" s="58">
         <v>15</v>
       </c>
-      <c r="D34" s="45">
+      <c r="D34" s="58">
         <v>5</v>
       </c>
-      <c r="E34" s="45" t="s">
+      <c r="E34" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="F34" s="47"/>
-    </row>
-    <row r="35" s="37" customFormat="1" spans="1:6">
-      <c r="A35" s="68" t="s">
+      <c r="F34" s="50"/>
+    </row>
+    <row r="35" s="40" customFormat="1" spans="1:6">
+      <c r="A35" s="72" t="s">
         <v>90</v>
       </c>
-      <c r="B35" s="69" t="s">
+      <c r="B35" s="73" t="s">
         <v>91</v>
       </c>
-      <c r="C35" s="51">
+      <c r="C35" s="53">
         <v>21</v>
       </c>
-      <c r="D35" s="51">
+      <c r="D35" s="53">
         <v>10</v>
       </c>
-      <c r="E35" s="51" t="s">
+      <c r="E35" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="F35" s="53"/>
-    </row>
-    <row r="36" s="35" customFormat="1" spans="1:6">
-      <c r="A36" s="67" t="s">
+      <c r="F35" s="55"/>
+    </row>
+    <row r="36" s="38" customFormat="1" spans="1:6">
+      <c r="A36" s="71" t="s">
         <v>93</v>
       </c>
-      <c r="B36" s="44" t="s">
+      <c r="B36" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="C36" s="45">
+      <c r="C36" s="58">
         <v>2</v>
       </c>
-      <c r="D36" s="72" t="s">
+      <c r="D36" s="76" t="s">
         <v>95</v>
       </c>
-      <c r="E36" s="45" t="s">
+      <c r="E36" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="F36" s="47"/>
-    </row>
-    <row r="37" s="35" customFormat="1" spans="1:6">
-      <c r="A37" s="67" t="s">
+      <c r="F36" s="50"/>
+    </row>
+    <row r="37" s="38" customFormat="1" spans="1:6">
+      <c r="A37" s="71" t="s">
         <v>96</v>
       </c>
-      <c r="B37" s="44" t="s">
+      <c r="B37" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="C37" s="45">
+      <c r="C37" s="58">
         <v>6.12</v>
       </c>
-      <c r="D37" s="45">
+      <c r="D37" s="58">
         <v>3</v>
       </c>
-      <c r="E37" s="45" t="s">
+      <c r="E37" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="F37" s="47"/>
-    </row>
-    <row r="38" s="35" customFormat="1" spans="1:6">
-      <c r="A38" s="67" t="s">
+      <c r="F37" s="50"/>
+    </row>
+    <row r="38" s="38" customFormat="1" spans="1:6">
+      <c r="A38" s="71" t="s">
         <v>98</v>
       </c>
-      <c r="B38" s="44" t="s">
+      <c r="B38" s="57" t="s">
         <v>99</v>
       </c>
-      <c r="C38" s="45">
+      <c r="C38" s="58">
         <v>10.2</v>
       </c>
-      <c r="D38" s="45">
+      <c r="D38" s="58">
         <v>3</v>
       </c>
-      <c r="E38" s="45" t="s">
+      <c r="E38" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="F38" s="47"/>
-    </row>
-    <row r="39" s="35" customFormat="1" spans="1:6">
-      <c r="A39" s="67" t="s">
+      <c r="F38" s="50"/>
+    </row>
+    <row r="39" s="38" customFormat="1" spans="1:6">
+      <c r="A39" s="71" t="s">
         <v>101</v>
       </c>
-      <c r="B39" s="44" t="s">
+      <c r="B39" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="C39" s="45">
+      <c r="C39" s="58">
         <v>20</v>
       </c>
-      <c r="D39" s="45">
+      <c r="D39" s="58">
         <v>10</v>
       </c>
-      <c r="E39" s="45" t="s">
+      <c r="E39" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="F39" s="47"/>
-    </row>
-    <row r="40" s="36" customFormat="1" spans="1:6">
-      <c r="A40" s="36" t="s">
+      <c r="F39" s="50"/>
+    </row>
+    <row r="40" s="39" customFormat="1" spans="1:6">
+      <c r="A40" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="B40" s="73" t="s">
+      <c r="B40" s="77" t="s">
         <v>105</v>
       </c>
-      <c r="C40" s="49">
+      <c r="C40" s="48">
         <v>31</v>
       </c>
-      <c r="D40" s="49">
+      <c r="D40" s="48">
         <v>6</v>
       </c>
-      <c r="E40" s="49" t="s">
+      <c r="E40" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="F40" s="50"/>
-    </row>
-    <row r="41" s="36" customFormat="1" spans="1:6">
-      <c r="A41" s="74" t="s">
+      <c r="F40" s="52"/>
+    </row>
+    <row r="41" s="39" customFormat="1" spans="1:6">
+      <c r="A41" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="B41" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="B41" s="75" t="s">
+      <c r="C41" s="48">
+        <v>16</v>
+      </c>
+      <c r="D41" s="48">
+        <v>10</v>
+      </c>
+      <c r="E41" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="C41" s="49">
-        <v>16</v>
-      </c>
-      <c r="D41" s="49">
-        <v>10</v>
-      </c>
-      <c r="E41" s="49" t="s">
+      <c r="F41" s="52"/>
+    </row>
+    <row r="42" s="39" customFormat="1" spans="1:6">
+      <c r="A42" s="78" t="s">
         <v>109</v>
       </c>
-      <c r="F41" s="50"/>
-    </row>
-    <row r="42" s="36" customFormat="1" spans="1:6">
-      <c r="A42" s="74" t="s">
+      <c r="B42" s="78" t="s">
         <v>110</v>
       </c>
-      <c r="B42" s="74" t="s">
+      <c r="C42" s="48">
+        <v>20.4</v>
+      </c>
+      <c r="D42" s="48">
+        <v>4</v>
+      </c>
+      <c r="E42" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="C42" s="49">
-        <v>20.4</v>
-      </c>
-      <c r="D42" s="49">
-        <v>4</v>
-      </c>
-      <c r="E42" s="49" t="s">
-        <v>112</v>
-      </c>
-      <c r="F42" s="50"/>
+      <c r="F42" s="52"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2838,7 +2906,7 @@
     <hyperlink ref="B3" r:id="rId14" display="华为nova4手机壳硅胶nova3全包防摔nova4e透明no" tooltip="http://item.taobao.com/item.htm?spm=a219t.7900221.1998910419.dafc012e7.346275a5vKGwCR&amp;id=596731806027"/>
     <hyperlink ref="A39" r:id="rId1" display="震番服饰" tooltip="点击进入店铺推广详情页"/>
     <hyperlink ref="B39" r:id="rId15" display="t恤女夏新款2019宽松chic舒适短袖白色ins洋气超" tooltip="http://item.taobao.com/item.htm?id=596139709466"/>
-    <hyperlink ref="A41" r:id="rId1" display="麦稻官方企业店" tooltip="点击进入店铺推广详情页"/>
+    <hyperlink ref="A41" r:id="rId1" display="优至美旗舰店" tooltip="点击进入店铺推广详情页"/>
     <hyperlink ref="B41" r:id="rId16" display="麦稻发膜免蒸倒膜焗油膏顺滑护发 * 6 款洗护" tooltip="http://item.taobao.com/item.htm?id=552996587277"/>
     <hyperlink ref="A42" r:id="rId1" display="回头客山东专卖店" tooltip="点击进入店铺推广详情页"/>
     <hyperlink ref="B42" r:id="rId17" display="回头客华夫饼干铜锣烧蛋糕点心营养早餐年货" tooltip="http://item.taobao.com/item.htm?spm=a219t.11816989.1998910419.dafc012e7.cd7575a540bv2R&amp;id=560320045979"/>
@@ -2855,7 +2923,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="6"/>
@@ -2865,77 +2933,98 @@
     <col min="3" max="3" width="19.5583333333333" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.3333333333333" style="1" customWidth="1"/>
     <col min="5" max="5" width="16.225" style="1" customWidth="1"/>
-    <col min="6" max="6" width="35.6666666666667" style="24" customWidth="1"/>
+    <col min="6" max="6" width="35.6666666666667" style="26" customWidth="1"/>
     <col min="7" max="7" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" s="21" customFormat="1" ht="16.5" spans="1:7">
-      <c r="A1" s="21" t="s">
+    <row r="1" s="22" customFormat="1" ht="16.5" spans="1:7">
+      <c r="A1" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="25" t="s">
+      <c r="F1" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" s="23" customFormat="1" spans="1:7">
+      <c r="A2" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="31">
+        <v>3.01</v>
+      </c>
+      <c r="D2" s="31">
         <v>2</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="E2" s="32">
+        <v>331853030</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="G2" s="33"/>
+    </row>
+    <row r="3" s="24" customFormat="1" spans="1:7">
+      <c r="A3" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="34">
         <v>3</v>
       </c>
-      <c r="E1" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="F1" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="G1" s="27" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" s="22" customFormat="1" spans="1:7">
-      <c r="A2" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="C2" s="29">
-        <v>3.01</v>
-      </c>
-      <c r="D2" s="29">
+      <c r="D3" s="34">
+        <v>3</v>
+      </c>
+      <c r="E3" s="34">
+        <v>333741071</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="G3" s="35"/>
+    </row>
+    <row r="4" s="25" customFormat="1" spans="1:7">
+      <c r="A4" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="10">
+        <v>6</v>
+      </c>
+      <c r="D4" s="10">
         <v>2</v>
       </c>
-      <c r="E2" s="30">
-        <v>331853030</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="G2" s="31"/>
-    </row>
-    <row r="3" s="23" customFormat="1" spans="1:7">
-      <c r="A3" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="C3" s="32">
-        <v>3</v>
-      </c>
-      <c r="D3" s="32">
-        <v>3</v>
-      </c>
-      <c r="E3" s="32">
+      <c r="E4" s="26">
         <v>333741071</v>
       </c>
-      <c r="F3" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="G3" s="33"/>
+      <c r="F4" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="G4" s="36"/>
     </row>
     <row r="7" spans="6:6">
-      <c r="F7" s="34"/>
+      <c r="F7" s="37"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2943,6 +3032,8 @@
     <hyperlink ref="B2" r:id="rId2" display="俄罗斯Organic shop有机芒果维他命身体磨砂膏保 * 20 款美妆" tooltip="http://item.taobao.com/item.htm?id=597702047702"/>
     <hyperlink ref="A3" r:id="rId1" display="博友家居专营店" tooltip="点击进入店铺推广详情页"/>
     <hyperlink ref="B3" r:id="rId3" display="安尔乐护垫极洁纤柔亲肤迷你少女卫生巾纯棉超 * 9 款卫生巾" tooltip="http://item.taobao.com/item.htm?spm=a219t.7900221.1998910419.dafc012e7.346275a5wQ7MCx&amp;id=594079600987"/>
+    <hyperlink ref="A4" r:id="rId1" display="杰曦美" tooltip="点击进入店铺推广详情页"/>
+    <hyperlink ref="B4" r:id="rId4" display="vnk圆管哑光钻石口红888星耀 * 7 款美妆" tooltip="http://item.taobao.com/item.htm?id=580595919107"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2955,8 +3046,8 @@
   <sheetPr/>
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2977,13 +3068,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -2992,16 +3083,16 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>5</v>
@@ -3009,10 +3100,10 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C2" s="1">
         <v>9.9</v>
@@ -3027,24 +3118,24 @@
         <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I2" s="1">
         <v>330336629</v>
       </c>
       <c r="J2" s="19" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C3" s="1">
         <v>15.8</v>
@@ -3059,16 +3150,16 @@
         <v>10</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I3" s="1">
         <v>329827419</v>
       </c>
-      <c r="J3" s="19" t="s">
-        <v>136</v>
+      <c r="J3" s="20" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3091,16 +3182,48 @@
         <v>8</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I4" s="1">
         <v>329827419</v>
       </c>
       <c r="J4" s="19" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="1">
+        <v>11.9</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>20.1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>6</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="I5" s="1">
+        <v>334185212</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="2:2">
@@ -3139,13 +3262,13 @@
         <v>0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>2</v>
@@ -3154,16 +3277,16 @@
         <v>3</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>5</v>
@@ -3171,10 +3294,10 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C16" s="1">
         <v>15.8</v>
@@ -3189,24 +3312,24 @@
         <v>4</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="I16" s="20">
+        <v>145</v>
+      </c>
+      <c r="I16" s="21">
         <v>331251512</v>
       </c>
       <c r="J16" s="19" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" ht="14.25" spans="1:10">
       <c r="A17" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C17" s="1">
         <v>223</v>
@@ -3221,16 +3344,16 @@
         <v>5</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I17" s="1">
         <v>332139409</v>
       </c>
       <c r="J17" s="19" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="2:2">
@@ -3292,6 +3415,7 @@
     <hyperlink ref="I16" r:id="rId5" display="331251512"/>
     <hyperlink ref="J17" r:id="rId6" display="https://detail.tmall.com/item.htm?spm=a21ag.8198216.0.0.7759410c42fSSR&amp;id=559313568102" tooltip="https://detail.tmall.com/item.htm?spm=a21ag.8198216.0.0.7759410c42fSSR&amp;id=559313568102"/>
     <hyperlink ref="J16" r:id="rId7" display="https://detail.tmall.com/item.htm?id=560320045979&amp;spm=a219t.11816989.1998910419.dafc012e7.cd7575a540bv2R" tooltip="https://detail.tmall.com/item.htm?id=560320045979&amp;spm=a219t.11816989.1998910419.dafc012e7.cd7575a540bv2R"/>
+    <hyperlink ref="J5" r:id="rId8" display="https://item.taobao.com/item.htm?spm=a2oq0.12575281.0.0.25911debANF9vZ&amp;ft=t&amp;id=589123708932"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3323,13 +3447,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -3338,16 +3462,16 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>5</v>
@@ -3355,10 +3479,10 @@
     </row>
     <row r="2" ht="14.25" spans="1:7">
       <c r="A2" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E2" s="1">
         <v>6</v>
@@ -3367,15 +3491,15 @@
         <v>3</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:7">
       <c r="A3" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="E3" s="1">
         <v>3</v>
@@ -3384,7 +3508,7 @@
         <v>3</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/招商团长/报名活动单.xlsx
+++ b/招商团长/报名活动单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21105" windowHeight="9165"/>
+    <workbookView windowWidth="18384" windowHeight="7704" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="6月报名清单" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="155">
   <si>
     <t>店铺</t>
   </si>
@@ -383,6 +383,15 @@
   </si>
   <si>
     <t>起：2019-07-06 止：2019-08-08</t>
+  </si>
+  <si>
+    <t>佳越食品启航店</t>
+  </si>
+  <si>
+    <t>河北麻辣花生米椒盐花生熟麻辣香辣花生熟五香</t>
+  </si>
+  <si>
+    <t>起：2019-07-06 止：2019-07-16</t>
   </si>
   <si>
     <t xml:space="preserve">商品 </t>
@@ -480,12 +489,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="38">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -573,6 +582,13 @@
     </font>
     <font>
       <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="1" tint="0.0499893185216834"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
@@ -618,6 +634,95 @@
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -629,95 +734,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -728,7 +744,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -757,13 +773,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -775,13 +791,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -793,13 +809,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -811,79 +845,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -901,19 +881,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -925,19 +905,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -948,30 +964,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -992,10 +984,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1004,17 +994,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1048,6 +1044,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1056,10 +1072,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1068,16 +1084,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1089,116 +1105,116 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1277,25 +1293,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1310,25 +1329,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1340,86 +1359,80 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -1427,13 +1440,19 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1532,8 +1551,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12378690" y="447675"/>
-          <a:ext cx="714375" cy="185420"/>
+          <a:off x="11188065" y="409575"/>
+          <a:ext cx="714375" cy="166370"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1570,8 +1589,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11969115" y="638175"/>
-          <a:ext cx="1781810" cy="210820"/>
+          <a:off x="10778490" y="581025"/>
+          <a:ext cx="1595755" cy="191770"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1608,8 +1627,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11978640" y="219075"/>
-          <a:ext cx="1772285" cy="212725"/>
+          <a:off x="10788015" y="200025"/>
+          <a:ext cx="1586230" cy="193675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1646,8 +1665,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11904345" y="3093720"/>
-          <a:ext cx="1627505" cy="216535"/>
+          <a:off x="10713720" y="2849880"/>
+          <a:ext cx="1627505" cy="197485"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1684,8 +1703,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12064365" y="3333750"/>
-          <a:ext cx="1686560" cy="125730"/>
+          <a:off x="10873740" y="3070860"/>
+          <a:ext cx="1500505" cy="125730"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1722,8 +1741,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13750290" y="3314700"/>
-          <a:ext cx="762635" cy="89535"/>
+          <a:off x="12374245" y="3051810"/>
+          <a:ext cx="693420" cy="89535"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1760,8 +1779,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14484350" y="3362325"/>
-          <a:ext cx="682625" cy="76200"/>
+          <a:off x="13039090" y="3099435"/>
+          <a:ext cx="614045" cy="76200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1798,8 +1817,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15132050" y="3314700"/>
-          <a:ext cx="693420" cy="101600"/>
+          <a:off x="13618210" y="3051810"/>
+          <a:ext cx="624840" cy="101600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1836,8 +1855,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12159615" y="847725"/>
-          <a:ext cx="1628775" cy="219075"/>
+          <a:off x="10968990" y="771525"/>
+          <a:ext cx="1442720" cy="200025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2138,26 +2157,26 @@
   <sheetPr/>
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="18.5" style="44" customWidth="1"/>
-    <col min="2" max="2" width="39.8833333333333" style="45" customWidth="1"/>
-    <col min="3" max="3" width="19.8833333333333" style="21" customWidth="1"/>
+    <col min="1" max="1" width="18.5" style="45" customWidth="1"/>
+    <col min="2" max="2" width="39.8796296296296" style="46" customWidth="1"/>
+    <col min="3" max="3" width="19.8796296296296" style="21" customWidth="1"/>
     <col min="4" max="4" width="18.75" style="21" customWidth="1"/>
-    <col min="5" max="5" width="31.6333333333333" style="21" customWidth="1"/>
-    <col min="6" max="6" width="36.3833333333333" style="46" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="44"/>
+    <col min="5" max="5" width="31.6296296296296" style="21" customWidth="1"/>
+    <col min="6" max="6" width="36.3796296296296" style="47" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="45"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="46" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="21" t="s">
@@ -2169,716 +2188,716 @@
       <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="47" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="38" customFormat="1" spans="1:6">
-      <c r="A2" s="39" t="s">
+    <row r="2" s="39" customFormat="1" spans="1:6">
+      <c r="A2" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="48">
+      <c r="C2" s="49">
         <v>20</v>
       </c>
-      <c r="D2" s="48">
+      <c r="D2" s="49">
         <v>5</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="50"/>
-    </row>
-    <row r="3" s="38" customFormat="1" spans="1:6">
-      <c r="A3" s="39"/>
-      <c r="B3" s="47" t="s">
+      <c r="F2" s="51"/>
+    </row>
+    <row r="3" s="39" customFormat="1" spans="1:6">
+      <c r="A3" s="40"/>
+      <c r="B3" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="48">
+      <c r="C3" s="49">
         <v>20.01</v>
       </c>
-      <c r="D3" s="48">
+      <c r="D3" s="49">
         <v>5</v>
       </c>
-      <c r="E3" s="49" t="s">
+      <c r="E3" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="50"/>
-    </row>
-    <row r="4" s="39" customFormat="1" spans="1:6">
-      <c r="A4" s="39" t="s">
+      <c r="F3" s="51"/>
+    </row>
+    <row r="4" s="40" customFormat="1" spans="1:6">
+      <c r="A4" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="49" t="s">
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52"/>
-    </row>
-    <row r="5" s="40" customFormat="1" spans="1:6">
-      <c r="A5" s="40" t="s">
+      <c r="F4" s="53"/>
+    </row>
+    <row r="5" s="41" customFormat="1" spans="1:6">
+      <c r="A5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="53">
+      <c r="C5" s="54">
         <v>10.1</v>
       </c>
-      <c r="D5" s="53">
+      <c r="D5" s="54">
         <v>4</v>
       </c>
-      <c r="E5" s="54" t="s">
+      <c r="E5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="55"/>
-    </row>
-    <row r="6" s="39" customFormat="1" spans="1:6">
-      <c r="A6" s="39" t="s">
+      <c r="F5" s="56"/>
+    </row>
+    <row r="6" s="40" customFormat="1" spans="1:6">
+      <c r="A6" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="49" t="s">
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="52"/>
-    </row>
-    <row r="7" s="38" customFormat="1" spans="2:6">
-      <c r="B7" s="56" t="s">
+      <c r="F6" s="53"/>
+    </row>
+    <row r="7" s="39" customFormat="1" spans="2:6">
+      <c r="B7" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="48">
+      <c r="C7" s="49">
         <v>15</v>
       </c>
-      <c r="D7" s="48">
+      <c r="D7" s="49">
         <v>3</v>
       </c>
-      <c r="E7" s="49" t="s">
+      <c r="E7" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="50"/>
-    </row>
-    <row r="8" s="38" customFormat="1" spans="2:6">
-      <c r="B8" s="57" t="s">
+      <c r="F7" s="51"/>
+    </row>
+    <row r="8" s="39" customFormat="1" spans="2:6">
+      <c r="B8" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="59" t="s">
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="50"/>
-    </row>
-    <row r="9" s="41" customFormat="1" spans="1:6">
-      <c r="A9" s="41" t="s">
+      <c r="F8" s="51"/>
+    </row>
+    <row r="9" s="42" customFormat="1" spans="1:6">
+      <c r="A9" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="61">
+      <c r="C9" s="62">
         <v>10.01</v>
       </c>
-      <c r="D9" s="61">
+      <c r="D9" s="62">
         <v>4.9</v>
       </c>
-      <c r="E9" s="61" t="s">
+      <c r="E9" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="62" t="s">
+      <c r="F9" s="63" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" s="42" customFormat="1" spans="1:6">
-      <c r="A10" s="42" t="s">
+    <row r="10" s="43" customFormat="1" spans="1:6">
+      <c r="A10" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="53">
+      <c r="C10" s="54">
         <v>40</v>
       </c>
-      <c r="D10" s="53">
+      <c r="D10" s="54">
         <v>10</v>
       </c>
-      <c r="E10" s="53" t="s">
+      <c r="E10" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="63"/>
-    </row>
-    <row r="11" s="38" customFormat="1" spans="2:6">
-      <c r="B11" s="64" t="s">
+      <c r="F10" s="64"/>
+    </row>
+    <row r="11" s="39" customFormat="1" spans="2:6">
+      <c r="B11" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="58">
+      <c r="C11" s="59">
         <v>25.2</v>
       </c>
-      <c r="D11" s="58">
+      <c r="D11" s="59">
         <v>4</v>
       </c>
-      <c r="E11" s="58" t="s">
+      <c r="E11" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="50"/>
-    </row>
-    <row r="12" s="38" customFormat="1" spans="2:6">
-      <c r="B12" s="57" t="s">
+      <c r="F11" s="51"/>
+    </row>
+    <row r="12" s="39" customFormat="1" spans="2:6">
+      <c r="B12" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="58">
+      <c r="C12" s="59">
         <v>6</v>
       </c>
-      <c r="D12" s="58">
+      <c r="D12" s="59">
         <v>5</v>
       </c>
-      <c r="E12" s="58" t="s">
+      <c r="E12" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="50"/>
-    </row>
-    <row r="13" s="40" customFormat="1" spans="1:6">
-      <c r="A13" s="40" t="s">
+      <c r="F12" s="51"/>
+    </row>
+    <row r="13" s="41" customFormat="1" spans="1:6">
+      <c r="A13" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="53">
+      <c r="C13" s="54">
         <v>5.2</v>
       </c>
-      <c r="D13" s="53">
+      <c r="D13" s="54">
         <v>4</v>
       </c>
-      <c r="E13" s="53" t="s">
+      <c r="E13" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="55"/>
-    </row>
-    <row r="14" s="40" customFormat="1" spans="1:6">
-      <c r="A14" s="40" t="s">
+      <c r="F13" s="56"/>
+    </row>
+    <row r="14" s="41" customFormat="1" spans="1:6">
+      <c r="A14" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="51" t="s">
+      <c r="B14" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="53">
+      <c r="C14" s="54">
         <v>10.1</v>
       </c>
-      <c r="D14" s="53">
+      <c r="D14" s="54">
         <v>5</v>
       </c>
-      <c r="E14" s="53" t="s">
+      <c r="E14" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="55"/>
-    </row>
-    <row r="15" s="40" customFormat="1" spans="1:6">
-      <c r="A15" s="40" t="s">
+      <c r="F14" s="56"/>
+    </row>
+    <row r="15" s="41" customFormat="1" spans="1:6">
+      <c r="A15" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="53">
+      <c r="C15" s="54">
         <v>18.01</v>
       </c>
-      <c r="D15" s="53">
+      <c r="D15" s="54">
         <v>2</v>
       </c>
-      <c r="E15" s="54" t="s">
+      <c r="E15" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="55"/>
-    </row>
-    <row r="16" s="40" customFormat="1" spans="2:6">
-      <c r="B16" s="51" t="s">
+      <c r="F15" s="56"/>
+    </row>
+    <row r="16" s="41" customFormat="1" spans="2:6">
+      <c r="B16" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="53">
+      <c r="C16" s="54">
         <v>10</v>
       </c>
-      <c r="D16" s="53">
+      <c r="D16" s="54">
         <v>2</v>
       </c>
-      <c r="E16" s="54" t="s">
+      <c r="E16" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="55"/>
-    </row>
-    <row r="17" s="40" customFormat="1" spans="2:6">
-      <c r="B17" s="51" t="s">
+      <c r="F16" s="56"/>
+    </row>
+    <row r="17" s="41" customFormat="1" spans="2:6">
+      <c r="B17" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="53">
+      <c r="C17" s="54">
         <v>15</v>
       </c>
-      <c r="D17" s="53">
+      <c r="D17" s="54">
         <v>2</v>
       </c>
-      <c r="E17" s="54" t="s">
+      <c r="E17" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="55"/>
-    </row>
-    <row r="18" s="42" customFormat="1" spans="1:6">
-      <c r="A18" s="42" t="s">
+      <c r="F17" s="56"/>
+    </row>
+    <row r="18" s="43" customFormat="1" spans="1:6">
+      <c r="A18" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="65" t="s">
+      <c r="B18" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="66">
+      <c r="C18" s="67">
         <v>15.01</v>
       </c>
-      <c r="D18" s="66">
+      <c r="D18" s="67">
         <v>3</v>
       </c>
-      <c r="E18" s="67" t="s">
+      <c r="E18" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="63"/>
-    </row>
-    <row r="19" s="39" customFormat="1" spans="1:6">
-      <c r="A19" s="39" t="s">
+      <c r="F18" s="64"/>
+    </row>
+    <row r="19" s="40" customFormat="1" spans="1:6">
+      <c r="A19" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="56" t="s">
+      <c r="B19" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="48">
+      <c r="C19" s="49">
         <v>3.6</v>
       </c>
-      <c r="D19" s="48">
+      <c r="D19" s="49">
         <v>4</v>
       </c>
-      <c r="E19" s="48" t="s">
+      <c r="E19" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="52"/>
-    </row>
-    <row r="20" s="38" customFormat="1" spans="1:6">
-      <c r="A20" s="39" t="s">
+      <c r="F19" s="53"/>
+    </row>
+    <row r="20" s="39" customFormat="1" spans="1:6">
+      <c r="A20" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="56" t="s">
+      <c r="B20" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="48">
+      <c r="C20" s="49">
         <v>25.1</v>
       </c>
-      <c r="D20" s="48">
+      <c r="D20" s="49">
         <v>4.9</v>
       </c>
-      <c r="E20" s="48" t="s">
+      <c r="E20" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="F20" s="50"/>
-    </row>
-    <row r="21" s="39" customFormat="1" spans="2:6">
-      <c r="B21" s="56" t="s">
+      <c r="F20" s="51"/>
+    </row>
+    <row r="21" s="40" customFormat="1" spans="2:6">
+      <c r="B21" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="48">
+      <c r="C21" s="49">
         <v>20</v>
       </c>
-      <c r="D21" s="48">
+      <c r="D21" s="49">
         <v>5</v>
       </c>
-      <c r="E21" s="48" t="s">
+      <c r="E21" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="52" t="s">
+      <c r="F21" s="53" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="22" s="40" customFormat="1" spans="1:6">
-      <c r="A22" s="40" t="s">
+    <row r="22" s="41" customFormat="1" spans="1:6">
+      <c r="A22" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="51" t="s">
+      <c r="B22" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="53">
+      <c r="C22" s="54">
         <v>15</v>
       </c>
-      <c r="D22" s="53">
+      <c r="D22" s="54">
         <v>5</v>
       </c>
-      <c r="E22" s="53" t="s">
+      <c r="E22" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="F22" s="55"/>
-    </row>
-    <row r="23" s="40" customFormat="1" spans="1:6">
-      <c r="A23" s="40" t="s">
+      <c r="F22" s="56"/>
+    </row>
+    <row r="23" s="41" customFormat="1" spans="1:6">
+      <c r="A23" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="51" t="s">
+      <c r="B23" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="53">
+      <c r="C23" s="54">
         <v>30.1</v>
       </c>
-      <c r="D23" s="53">
+      <c r="D23" s="54">
         <v>3</v>
       </c>
-      <c r="E23" s="53" t="s">
+      <c r="E23" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="F23" s="55"/>
-    </row>
-    <row r="24" s="39" customFormat="1" spans="1:6">
-      <c r="A24" s="39" t="s">
+      <c r="F23" s="56"/>
+    </row>
+    <row r="24" s="40" customFormat="1" spans="1:6">
+      <c r="A24" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="56" t="s">
+      <c r="B24" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="48">
+      <c r="C24" s="49">
         <v>4.5</v>
       </c>
-      <c r="D24" s="48">
+      <c r="D24" s="49">
         <v>2.5</v>
       </c>
-      <c r="E24" s="48" t="s">
+      <c r="E24" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="F24" s="52"/>
-    </row>
-    <row r="25" s="40" customFormat="1" spans="1:6">
-      <c r="A25" s="40" t="s">
+      <c r="F24" s="53"/>
+    </row>
+    <row r="25" s="41" customFormat="1" spans="1:6">
+      <c r="A25" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="51" t="s">
+      <c r="B25" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="53">
+      <c r="C25" s="54">
         <v>3.01</v>
       </c>
-      <c r="D25" s="53">
+      <c r="D25" s="54">
         <v>2</v>
       </c>
-      <c r="E25" s="53" t="s">
+      <c r="E25" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="F25" s="55"/>
-    </row>
-    <row r="26" s="39" customFormat="1" spans="1:6">
-      <c r="A26" s="39" t="s">
+      <c r="F25" s="56"/>
+    </row>
+    <row r="26" s="40" customFormat="1" spans="1:6">
+      <c r="A26" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="56" t="s">
+      <c r="B26" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="C26" s="48">
+      <c r="C26" s="49">
         <v>25</v>
       </c>
-      <c r="D26" s="48">
+      <c r="D26" s="49">
         <v>5</v>
       </c>
-      <c r="E26" s="48" t="s">
+      <c r="E26" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="F26" s="52"/>
-    </row>
-    <row r="27" s="40" customFormat="1" spans="1:6">
-      <c r="A27" s="40" t="s">
+      <c r="F26" s="53"/>
+    </row>
+    <row r="27" s="41" customFormat="1" spans="1:6">
+      <c r="A27" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="53">
+      <c r="C27" s="54">
         <v>20</v>
       </c>
-      <c r="D27" s="53">
+      <c r="D27" s="54">
         <v>5</v>
       </c>
-      <c r="E27" s="53" t="s">
+      <c r="E27" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="F27" s="55"/>
-    </row>
-    <row r="28" s="39" customFormat="1" spans="1:6">
-      <c r="A28" s="39" t="s">
+      <c r="F27" s="56"/>
+    </row>
+    <row r="28" s="40" customFormat="1" spans="1:6">
+      <c r="A28" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="B28" s="56" t="s">
+      <c r="B28" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="C28" s="48">
+      <c r="C28" s="49">
         <v>6</v>
       </c>
-      <c r="D28" s="48">
+      <c r="D28" s="49">
         <v>5</v>
       </c>
-      <c r="E28" s="48" t="s">
+      <c r="E28" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="F28" s="52"/>
-    </row>
-    <row r="29" s="43" customFormat="1" spans="1:6">
-      <c r="A29" s="43" t="s">
+      <c r="F28" s="53"/>
+    </row>
+    <row r="29" s="44" customFormat="1" spans="1:6">
+      <c r="A29" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="B29" s="68" t="s">
+      <c r="B29" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="69">
+      <c r="C29" s="70">
         <v>25.11</v>
       </c>
-      <c r="D29" s="69">
+      <c r="D29" s="70">
         <v>3</v>
       </c>
-      <c r="E29" s="69" t="s">
+      <c r="E29" s="70" t="s">
         <v>76</v>
       </c>
-      <c r="F29" s="70"/>
-    </row>
-    <row r="30" s="38" customFormat="1" spans="1:6">
-      <c r="A30" s="71" t="s">
+      <c r="F29" s="71"/>
+    </row>
+    <row r="30" s="39" customFormat="1" spans="1:6">
+      <c r="A30" s="72" t="s">
         <v>77</v>
       </c>
-      <c r="B30" s="57" t="s">
+      <c r="B30" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="C30" s="58">
+      <c r="C30" s="59">
         <v>20.1</v>
       </c>
-      <c r="D30" s="58">
+      <c r="D30" s="59">
         <v>5</v>
       </c>
-      <c r="E30" s="58" t="s">
+      <c r="E30" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="F30" s="50"/>
-    </row>
-    <row r="31" s="40" customFormat="1" spans="1:6">
-      <c r="A31" s="72" t="s">
+      <c r="F30" s="51"/>
+    </row>
+    <row r="31" s="41" customFormat="1" spans="1:6">
+      <c r="A31" s="73" t="s">
         <v>80</v>
       </c>
-      <c r="B31" s="73" t="s">
+      <c r="B31" s="74" t="s">
         <v>81</v>
       </c>
-      <c r="C31" s="53">
+      <c r="C31" s="54">
         <v>10</v>
       </c>
-      <c r="D31" s="53">
+      <c r="D31" s="54">
         <v>5</v>
       </c>
-      <c r="E31" s="53" t="s">
+      <c r="E31" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="F31" s="55"/>
-    </row>
-    <row r="32" s="42" customFormat="1" spans="1:6">
-      <c r="A32" s="74" t="s">
+      <c r="F31" s="56"/>
+    </row>
+    <row r="32" s="43" customFormat="1" spans="1:6">
+      <c r="A32" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="B32" s="75" t="s">
+      <c r="B32" s="76" t="s">
         <v>84</v>
       </c>
-      <c r="C32" s="66">
+      <c r="C32" s="67">
         <v>6.2</v>
       </c>
-      <c r="D32" s="66">
+      <c r="D32" s="67">
         <v>3</v>
       </c>
-      <c r="E32" s="66" t="s">
+      <c r="E32" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="F32" s="63"/>
-    </row>
-    <row r="33" s="38" customFormat="1" spans="1:6">
-      <c r="A33" s="71" t="s">
+      <c r="F32" s="64"/>
+    </row>
+    <row r="33" s="39" customFormat="1" spans="1:6">
+      <c r="A33" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="B33" s="57" t="s">
+      <c r="B33" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="C33" s="58">
+      <c r="C33" s="59">
         <v>20</v>
       </c>
-      <c r="D33" s="58">
+      <c r="D33" s="59">
         <v>5</v>
       </c>
-      <c r="E33" s="58" t="s">
+      <c r="E33" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="F33" s="50"/>
-    </row>
-    <row r="34" s="38" customFormat="1" spans="1:6">
-      <c r="A34" s="71" t="s">
+      <c r="F33" s="51"/>
+    </row>
+    <row r="34" s="39" customFormat="1" spans="1:6">
+      <c r="A34" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="B34" s="57" t="s">
+      <c r="B34" s="58" t="s">
         <v>89</v>
       </c>
-      <c r="C34" s="58">
+      <c r="C34" s="59">
         <v>15</v>
       </c>
-      <c r="D34" s="58">
+      <c r="D34" s="59">
         <v>5</v>
       </c>
-      <c r="E34" s="58" t="s">
+      <c r="E34" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="F34" s="50"/>
-    </row>
-    <row r="35" s="40" customFormat="1" spans="1:6">
-      <c r="A35" s="72" t="s">
+      <c r="F34" s="51"/>
+    </row>
+    <row r="35" s="41" customFormat="1" spans="1:6">
+      <c r="A35" s="73" t="s">
         <v>90</v>
       </c>
-      <c r="B35" s="73" t="s">
+      <c r="B35" s="74" t="s">
         <v>91</v>
       </c>
-      <c r="C35" s="53">
+      <c r="C35" s="54">
         <v>21</v>
       </c>
-      <c r="D35" s="53">
+      <c r="D35" s="54">
         <v>10</v>
       </c>
-      <c r="E35" s="53" t="s">
+      <c r="E35" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="F35" s="55"/>
-    </row>
-    <row r="36" s="38" customFormat="1" spans="1:6">
-      <c r="A36" s="71" t="s">
+      <c r="F35" s="56"/>
+    </row>
+    <row r="36" s="39" customFormat="1" spans="1:6">
+      <c r="A36" s="72" t="s">
         <v>93</v>
       </c>
-      <c r="B36" s="57" t="s">
+      <c r="B36" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="C36" s="58">
+      <c r="C36" s="59">
         <v>2</v>
       </c>
-      <c r="D36" s="76" t="s">
+      <c r="D36" s="77" t="s">
         <v>95</v>
       </c>
-      <c r="E36" s="58" t="s">
+      <c r="E36" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="F36" s="50"/>
-    </row>
-    <row r="37" s="38" customFormat="1" spans="1:6">
-      <c r="A37" s="71" t="s">
+      <c r="F36" s="51"/>
+    </row>
+    <row r="37" s="39" customFormat="1" spans="1:6">
+      <c r="A37" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="B37" s="57" t="s">
+      <c r="B37" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="C37" s="58">
+      <c r="C37" s="59">
         <v>6.12</v>
       </c>
-      <c r="D37" s="58">
+      <c r="D37" s="59">
         <v>3</v>
       </c>
-      <c r="E37" s="58" t="s">
+      <c r="E37" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="F37" s="50"/>
-    </row>
-    <row r="38" s="38" customFormat="1" spans="1:6">
-      <c r="A38" s="71" t="s">
+      <c r="F37" s="51"/>
+    </row>
+    <row r="38" s="39" customFormat="1" spans="1:6">
+      <c r="A38" s="72" t="s">
         <v>98</v>
       </c>
-      <c r="B38" s="57" t="s">
+      <c r="B38" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="C38" s="58">
+      <c r="C38" s="59">
         <v>10.2</v>
       </c>
-      <c r="D38" s="58">
+      <c r="D38" s="59">
         <v>3</v>
       </c>
-      <c r="E38" s="58" t="s">
+      <c r="E38" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="F38" s="50"/>
-    </row>
-    <row r="39" s="38" customFormat="1" spans="1:6">
-      <c r="A39" s="71" t="s">
+      <c r="F38" s="51"/>
+    </row>
+    <row r="39" s="39" customFormat="1" spans="1:6">
+      <c r="A39" s="72" t="s">
         <v>101</v>
       </c>
-      <c r="B39" s="57" t="s">
+      <c r="B39" s="58" t="s">
         <v>102</v>
       </c>
-      <c r="C39" s="58">
+      <c r="C39" s="59">
         <v>20</v>
       </c>
-      <c r="D39" s="58">
+      <c r="D39" s="59">
         <v>10</v>
       </c>
-      <c r="E39" s="58" t="s">
+      <c r="E39" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="F39" s="50"/>
-    </row>
-    <row r="40" s="39" customFormat="1" spans="1:6">
-      <c r="A40" s="39" t="s">
+      <c r="F39" s="51"/>
+    </row>
+    <row r="40" s="40" customFormat="1" spans="1:6">
+      <c r="A40" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="B40" s="77" t="s">
+      <c r="B40" s="78" t="s">
         <v>105</v>
       </c>
-      <c r="C40" s="48">
+      <c r="C40" s="49">
         <v>31</v>
       </c>
-      <c r="D40" s="48">
+      <c r="D40" s="49">
         <v>6</v>
       </c>
-      <c r="E40" s="48" t="s">
+      <c r="E40" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="F40" s="52"/>
-    </row>
-    <row r="41" s="39" customFormat="1" spans="1:6">
-      <c r="A41" s="39" t="s">
+      <c r="F40" s="53"/>
+    </row>
+    <row r="41" s="40" customFormat="1" spans="1:6">
+      <c r="A41" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="B41" s="47" t="s">
+      <c r="B41" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="C41" s="48">
+      <c r="C41" s="49">
         <v>16</v>
       </c>
-      <c r="D41" s="48">
+      <c r="D41" s="49">
         <v>10</v>
       </c>
-      <c r="E41" s="48" t="s">
+      <c r="E41" s="49" t="s">
         <v>108</v>
       </c>
-      <c r="F41" s="52"/>
-    </row>
-    <row r="42" s="39" customFormat="1" spans="1:6">
-      <c r="A42" s="78" t="s">
+      <c r="F41" s="53"/>
+    </row>
+    <row r="42" s="40" customFormat="1" spans="1:6">
+      <c r="A42" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="B42" s="78" t="s">
+      <c r="B42" s="79" t="s">
         <v>110</v>
       </c>
-      <c r="C42" s="48">
+      <c r="C42" s="49">
         <v>20.4</v>
       </c>
-      <c r="D42" s="48">
+      <c r="D42" s="49">
         <v>4</v>
       </c>
-      <c r="E42" s="48" t="s">
+      <c r="E42" s="49" t="s">
         <v>111</v>
       </c>
-      <c r="F42" s="52"/>
+      <c r="F42" s="53"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2922,85 +2941,85 @@
   <sheetPr/>
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="20.3333333333333" customWidth="1"/>
-    <col min="2" max="2" width="47.4416666666667" customWidth="1"/>
-    <col min="3" max="3" width="19.5583333333333" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.3333333333333" style="26" customWidth="1"/>
+    <col min="2" max="2" width="47.4444444444444" customWidth="1"/>
+    <col min="3" max="3" width="19.5555555555556" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.3333333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.225" style="1" customWidth="1"/>
-    <col min="6" max="6" width="35.6666666666667" style="26" customWidth="1"/>
+    <col min="5" max="5" width="16.2222222222222" style="1" customWidth="1"/>
+    <col min="6" max="6" width="35.6666666666667" style="27" customWidth="1"/>
     <col min="7" max="7" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" s="22" customFormat="1" ht="16.5" spans="1:7">
+    <row r="1" s="22" customFormat="1" ht="15" spans="1:7">
       <c r="A1" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="30" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" s="23" customFormat="1" spans="1:7">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="31">
+      <c r="C2" s="32">
         <v>3.01</v>
       </c>
-      <c r="D2" s="31">
+      <c r="D2" s="32">
         <v>2</v>
       </c>
-      <c r="E2" s="32">
+      <c r="E2" s="33">
         <v>331853030</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="G2" s="33"/>
-    </row>
-    <row r="3" s="24" customFormat="1" spans="1:7">
+      <c r="G2" s="34"/>
+    </row>
+    <row r="3" s="24" customFormat="1" ht="13.2" spans="1:7">
       <c r="A3" s="24" t="s">
         <v>117</v>
       </c>
       <c r="B3" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="C3" s="34">
+      <c r="C3" s="35">
         <v>3</v>
       </c>
-      <c r="D3" s="34">
+      <c r="D3" s="35">
         <v>3</v>
       </c>
-      <c r="E3" s="34">
+      <c r="E3" s="35">
         <v>333741071</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="G3" s="35"/>
+      <c r="G3" s="36"/>
     </row>
     <row r="4" s="25" customFormat="1" spans="1:7">
       <c r="A4" s="5" t="s">
@@ -3015,16 +3034,37 @@
       <c r="D4" s="10">
         <v>2</v>
       </c>
-      <c r="E4" s="26">
+      <c r="E4" s="27">
         <v>333741071</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="G4" s="36"/>
+      <c r="G4" s="37"/>
+    </row>
+    <row r="5" s="25" customFormat="1" spans="1:7">
+      <c r="A5" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" s="10">
+        <v>30.01</v>
+      </c>
+      <c r="D5" s="10">
+        <v>5</v>
+      </c>
+      <c r="E5" s="27">
+        <v>333741071</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="G5" s="37"/>
     </row>
     <row r="7" spans="6:6">
-      <c r="F7" s="37"/>
+      <c r="F7" s="38"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3034,6 +3074,7 @@
     <hyperlink ref="B3" r:id="rId3" display="安尔乐护垫极洁纤柔亲肤迷你少女卫生巾纯棉超 * 9 款卫生巾" tooltip="http://item.taobao.com/item.htm?spm=a219t.7900221.1998910419.dafc012e7.346275a5wQ7MCx&amp;id=594079600987"/>
     <hyperlink ref="A4" r:id="rId1" display="杰曦美" tooltip="点击进入店铺推广详情页"/>
     <hyperlink ref="B4" r:id="rId4" display="vnk圆管哑光钻石口红888星耀 * 7 款美妆" tooltip="http://item.taobao.com/item.htm?id=580595919107"/>
+    <hyperlink ref="B5" r:id="rId5" display="河北麻辣花生米椒盐花生熟麻辣香辣花生熟五香" tooltip="http://item.taobao.com/item.htm?id=597253215428"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3047,20 +3088,20 @@
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.775" style="5" customWidth="1"/>
-    <col min="2" max="2" width="31.3833333333333" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.88333333333333" style="1" customWidth="1"/>
-    <col min="4" max="6" width="8.38333333333333" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7777777777778" style="5" customWidth="1"/>
+    <col min="2" max="2" width="31.3796296296296" style="6" customWidth="1"/>
+    <col min="3" max="3" width="9.87962962962963" style="1" customWidth="1"/>
+    <col min="4" max="6" width="8.37962962962963" style="1" customWidth="1"/>
     <col min="7" max="7" width="22.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="22.3833333333333" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.3796296296296" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.25" style="1" customWidth="1"/>
     <col min="10" max="10" width="17.5" style="7" customWidth="1"/>
-    <col min="11" max="11" width="24.3833333333333" customWidth="1"/>
+    <col min="11" max="11" width="24.3796296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:11">
@@ -3068,13 +3109,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -3083,16 +3124,16 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>113</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>5</v>
@@ -3100,10 +3141,10 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C2" s="1">
         <v>9.9</v>
@@ -3118,24 +3159,24 @@
         <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="I2" s="1">
         <v>330336629</v>
       </c>
       <c r="J2" s="19" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C3" s="1">
         <v>15.8</v>
@@ -3150,16 +3191,16 @@
         <v>10</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I3" s="1">
         <v>329827419</v>
       </c>
       <c r="J3" s="20" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3182,24 +3223,24 @@
         <v>8</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="I4" s="1">
         <v>329827419</v>
       </c>
       <c r="J4" s="19" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C5" s="1">
         <v>11.9</v>
@@ -3214,19 +3255,19 @@
         <v>6</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="I5" s="1">
         <v>334185212</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25" spans="2:2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" ht="14.4" spans="2:2">
       <c r="B6" s="12"/>
     </row>
     <row r="7" spans="2:2">
@@ -3251,7 +3292,7 @@
     <row r="13" spans="2:2">
       <c r="B13" s="8"/>
     </row>
-    <row r="14" ht="14.25" spans="1:2">
+    <row r="14" ht="14.4" spans="1:2">
       <c r="A14" s="14">
         <v>43647</v>
       </c>
@@ -3262,13 +3303,13 @@
         <v>0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>2</v>
@@ -3277,16 +3318,16 @@
         <v>3</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>113</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>5</v>
@@ -3297,7 +3338,7 @@
         <v>109</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C16" s="1">
         <v>15.8</v>
@@ -3312,24 +3353,24 @@
         <v>4</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I16" s="21">
         <v>331251512</v>
       </c>
       <c r="J16" s="19" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="17" ht="14.25" spans="1:10">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17" ht="14.4" spans="1:10">
       <c r="A17" s="3" t="s">
         <v>117</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C17" s="1">
         <v>223</v>
@@ -3344,16 +3385,16 @@
         <v>5</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I17" s="1">
         <v>332139409</v>
       </c>
       <c r="J17" s="19" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="2:2">
@@ -3362,10 +3403,10 @@
     <row r="20" spans="2:2">
       <c r="B20" s="8"/>
     </row>
-    <row r="21" ht="14.25" spans="2:2">
+    <row r="21" ht="14.4" spans="2:2">
       <c r="B21" s="12"/>
     </row>
-    <row r="22" ht="14.25" spans="2:2">
+    <row r="22" ht="14.4" spans="2:2">
       <c r="B22" s="12"/>
     </row>
     <row r="23" spans="2:2">
@@ -3377,7 +3418,7 @@
     <row r="25" spans="2:2">
       <c r="B25" s="8"/>
     </row>
-    <row r="26" customFormat="1" ht="13.5" spans="9:9">
+    <row r="26" customFormat="1" ht="14.4" spans="9:9">
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="2:2">
@@ -3386,7 +3427,7 @@
     <row r="28" spans="2:2">
       <c r="B28" s="8"/>
     </row>
-    <row r="29" ht="14.25" spans="2:2">
+    <row r="29" ht="14.4" spans="2:2">
       <c r="B29" s="18"/>
     </row>
     <row r="30" spans="2:2">
@@ -3401,7 +3442,7 @@
     <row r="33" spans="2:2">
       <c r="B33" s="8"/>
     </row>
-    <row r="34" ht="14.25" spans="2:2">
+    <row r="34" ht="14.4" spans="2:2">
       <c r="B34" s="12"/>
     </row>
   </sheetData>
@@ -3433,27 +3474,27 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="37.775" style="1" customWidth="1"/>
+    <col min="2" max="2" width="37.7777777777778" style="1" customWidth="1"/>
     <col min="5" max="6" width="9" style="1"/>
     <col min="7" max="7" width="21.6666666666667" customWidth="1"/>
     <col min="8" max="8" width="11.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="16.5" spans="1:11">
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -3462,27 +3503,27 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>113</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:7">
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E2" s="1">
         <v>6</v>
@@ -3491,15 +3532,15 @@
         <v>3</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25" spans="1:7">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
         <v>117</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E3" s="1">
         <v>3</v>
@@ -3508,7 +3549,7 @@
         <v>3</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/招商团长/报名活动单.xlsx
+++ b/招商团长/报名活动单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18384" windowHeight="7704" activeTab="1"/>
+    <workbookView windowWidth="18384" windowHeight="7704" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="6月报名清单" sheetId="1" r:id="rId1"/>
@@ -630,15 +630,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -659,13 +653,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -675,16 +662,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -696,13 +720,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -711,37 +728,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -755,6 +741,20 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -773,19 +773,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -797,7 +827,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -815,7 +851,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -827,31 +893,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -863,67 +905,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -935,7 +917,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -953,7 +935,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -994,8 +994,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1030,6 +1030,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1044,26 +1064,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1072,10 +1072,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1084,16 +1084,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1105,112 +1105,112 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2941,7 +2941,7 @@
   <sheetPr/>
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -3087,8 +3087,8 @@
   <sheetPr/>
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/招商团长/报名活动单.xlsx
+++ b/招商团长/报名活动单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18384" windowHeight="7704" activeTab="2"/>
+    <workbookView windowWidth="21105" windowHeight="9165" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="6月报名清单" sheetId="1" r:id="rId1"/>
@@ -448,6 +448,24 @@
     <t>https://detail.tmall.com/item.htm?id=573247426562</t>
   </si>
   <si>
+    <t>回头客华夫饼干铜锣烧蛋糕点心营养早餐年货小吃面包干零食大礼包</t>
+  </si>
+  <si>
+    <t>2019.07.02-2019.07.08</t>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?id=560320045979&amp;spm=a219t.11816989.1998910419.dafc012e7.cd7575a540bv2R</t>
+  </si>
+  <si>
+    <t>安而康成人拉拉裤老人用内裤式纸尿裤男女老年人尿不湿L码60片</t>
+  </si>
+  <si>
+    <t>2019.07.02-2019.08.01</t>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?spm=a21ag.8198216.0.0.7759410c42fSSR&amp;id=559313568102</t>
+  </si>
+  <si>
     <t>快乐购丶2017</t>
   </si>
   <si>
@@ -458,24 +476,6 @@
   </si>
   <si>
     <t>https://item.taobao.com/item.htm?spm=a2oq0.12575281.0.0.25911debANF9vZ&amp;ft=t&amp;id=589123708932</t>
-  </si>
-  <si>
-    <t>回头客华夫饼干铜锣烧蛋糕点心营养早餐年货小吃面包干零食大礼包</t>
-  </si>
-  <si>
-    <t>2019.07.02-2019.07.08</t>
-  </si>
-  <si>
-    <t>https://detail.tmall.com/item.htm?id=560320045979&amp;spm=a219t.11816989.1998910419.dafc012e7.cd7575a540bv2R</t>
-  </si>
-  <si>
-    <t>安而康成人拉拉裤老人用内裤式纸尿裤男女老年人尿不湿L码60片</t>
-  </si>
-  <si>
-    <t>2019.07.02-2019.08.01</t>
-  </si>
-  <si>
-    <t>https://detail.tmall.com/item.htm?spm=a21ag.8198216.0.0.7759410c42fSSR&amp;id=559313568102</t>
   </si>
   <si>
     <t>火灾逃生应急箱 * 7款 引流产品</t>
@@ -490,11 +490,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -527,14 +527,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -630,6 +622,65 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -638,16 +689,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -662,14 +713,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -684,39 +728,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -730,29 +744,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -768,6 +760,138 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -785,25 +909,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -815,43 +927,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -863,97 +945,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -967,17 +959,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -991,11 +977,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1030,37 +1042,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1072,10 +1064,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1084,137 +1076,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1251,208 +1243,205 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="57" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="57" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1551,8 +1540,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11188065" y="409575"/>
-          <a:ext cx="714375" cy="166370"/>
+          <a:off x="12378690" y="447675"/>
+          <a:ext cx="714375" cy="185420"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1589,8 +1578,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10778490" y="581025"/>
-          <a:ext cx="1595755" cy="191770"/>
+          <a:off x="11969115" y="638175"/>
+          <a:ext cx="1781810" cy="210820"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1627,8 +1616,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10788015" y="200025"/>
-          <a:ext cx="1586230" cy="193675"/>
+          <a:off x="11978640" y="219075"/>
+          <a:ext cx="1772285" cy="212725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1641,13 +1630,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>11430</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1638935</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>14605</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1665,8 +1654,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10713720" y="2849880"/>
-          <a:ext cx="1627505" cy="197485"/>
+          <a:off x="11904345" y="1655445"/>
+          <a:ext cx="1627505" cy="216535"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1679,13 +1668,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>163830</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1703,8 +1692,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10873740" y="3070860"/>
-          <a:ext cx="1500505" cy="125730"/>
+          <a:off x="12064365" y="1895475"/>
+          <a:ext cx="1686560" cy="125730"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1717,13 +1706,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1857375</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>108585</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1741,8 +1730,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12374245" y="3051810"/>
-          <a:ext cx="693420" cy="89535"/>
+          <a:off x="13750290" y="1876425"/>
+          <a:ext cx="762635" cy="89535"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1755,13 +1744,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>44450</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1779,8 +1768,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13039090" y="3099435"/>
-          <a:ext cx="614045" cy="76200"/>
+          <a:off x="14484350" y="1924050"/>
+          <a:ext cx="682625" cy="76200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1793,13 +1782,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>17145</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1817,8 +1806,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13618210" y="3051810"/>
-          <a:ext cx="624840" cy="101600"/>
+          <a:off x="15132050" y="1876425"/>
+          <a:ext cx="693420" cy="101600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1830,15 +1819,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>37465</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1704975</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1855,8 +1844,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10968990" y="771525"/>
-          <a:ext cx="1442720" cy="200025"/>
+          <a:off x="11969115" y="2038350"/>
+          <a:ext cx="1628775" cy="219075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2161,743 +2150,743 @@
       <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="18.5" style="45" customWidth="1"/>
-    <col min="2" max="2" width="39.8796296296296" style="46" customWidth="1"/>
-    <col min="3" max="3" width="19.8796296296296" style="21" customWidth="1"/>
-    <col min="4" max="4" width="18.75" style="21" customWidth="1"/>
-    <col min="5" max="5" width="31.6296296296296" style="21" customWidth="1"/>
-    <col min="6" max="6" width="36.3796296296296" style="47" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="45"/>
+    <col min="1" max="1" width="18.5" style="44" customWidth="1"/>
+    <col min="2" max="2" width="39.8833333333333" style="45" customWidth="1"/>
+    <col min="3" max="3" width="19.8833333333333" style="20" customWidth="1"/>
+    <col min="4" max="4" width="18.75" style="20" customWidth="1"/>
+    <col min="5" max="5" width="31.6333333333333" style="20" customWidth="1"/>
+    <col min="6" max="6" width="36.3833333333333" style="46" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="44"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="46" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="39" customFormat="1" spans="1:6">
-      <c r="A2" s="40" t="s">
+    <row r="2" s="38" customFormat="1" spans="1:6">
+      <c r="A2" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="49">
+      <c r="C2" s="48">
         <v>20</v>
       </c>
-      <c r="D2" s="49">
+      <c r="D2" s="48">
         <v>5</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="E2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="51"/>
-    </row>
-    <row r="3" s="39" customFormat="1" spans="1:6">
-      <c r="A3" s="40"/>
-      <c r="B3" s="48" t="s">
+      <c r="F2" s="50"/>
+    </row>
+    <row r="3" s="38" customFormat="1" spans="1:6">
+      <c r="A3" s="39"/>
+      <c r="B3" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="49">
+      <c r="C3" s="48">
         <v>20.01</v>
       </c>
-      <c r="D3" s="49">
+      <c r="D3" s="48">
         <v>5</v>
       </c>
-      <c r="E3" s="50" t="s">
+      <c r="E3" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="51"/>
-    </row>
-    <row r="4" s="40" customFormat="1" spans="1:6">
-      <c r="A4" s="40" t="s">
+      <c r="F3" s="50"/>
+    </row>
+    <row r="4" s="39" customFormat="1" spans="1:6">
+      <c r="A4" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="50" t="s">
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53"/>
-    </row>
-    <row r="5" s="41" customFormat="1" spans="1:6">
-      <c r="A5" s="41" t="s">
+      <c r="F4" s="52"/>
+    </row>
+    <row r="5" s="40" customFormat="1" spans="1:6">
+      <c r="A5" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="54">
+      <c r="C5" s="53">
         <v>10.1</v>
       </c>
-      <c r="D5" s="54">
+      <c r="D5" s="53">
         <v>4</v>
       </c>
-      <c r="E5" s="55" t="s">
+      <c r="E5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="56"/>
-    </row>
-    <row r="6" s="40" customFormat="1" spans="1:6">
-      <c r="A6" s="40" t="s">
+      <c r="F5" s="55"/>
+    </row>
+    <row r="6" s="39" customFormat="1" spans="1:6">
+      <c r="A6" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="50" t="s">
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="53"/>
-    </row>
-    <row r="7" s="39" customFormat="1" spans="2:6">
-      <c r="B7" s="57" t="s">
+      <c r="F6" s="52"/>
+    </row>
+    <row r="7" s="38" customFormat="1" spans="2:6">
+      <c r="B7" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="49">
+      <c r="C7" s="48">
         <v>15</v>
       </c>
-      <c r="D7" s="49">
+      <c r="D7" s="48">
         <v>3</v>
       </c>
-      <c r="E7" s="50" t="s">
+      <c r="E7" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="51"/>
-    </row>
-    <row r="8" s="39" customFormat="1" spans="2:6">
-      <c r="B8" s="58" t="s">
+      <c r="F7" s="50"/>
+    </row>
+    <row r="8" s="38" customFormat="1" spans="2:6">
+      <c r="B8" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="60" t="s">
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="51"/>
-    </row>
-    <row r="9" s="42" customFormat="1" spans="1:6">
-      <c r="A9" s="42" t="s">
+      <c r="F8" s="50"/>
+    </row>
+    <row r="9" s="41" customFormat="1" spans="1:6">
+      <c r="A9" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="62">
+      <c r="C9" s="61">
         <v>10.01</v>
       </c>
-      <c r="D9" s="62">
+      <c r="D9" s="61">
         <v>4.9</v>
       </c>
-      <c r="E9" s="62" t="s">
+      <c r="E9" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="63" t="s">
+      <c r="F9" s="62" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" s="43" customFormat="1" spans="1:6">
-      <c r="A10" s="43" t="s">
+    <row r="10" s="42" customFormat="1" spans="1:6">
+      <c r="A10" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="54">
+      <c r="C10" s="53">
         <v>40</v>
       </c>
-      <c r="D10" s="54">
+      <c r="D10" s="53">
         <v>10</v>
       </c>
-      <c r="E10" s="54" t="s">
+      <c r="E10" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="64"/>
-    </row>
-    <row r="11" s="39" customFormat="1" spans="2:6">
-      <c r="B11" s="65" t="s">
+      <c r="F10" s="63"/>
+    </row>
+    <row r="11" s="38" customFormat="1" spans="2:6">
+      <c r="B11" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="59">
+      <c r="C11" s="58">
         <v>25.2</v>
       </c>
-      <c r="D11" s="59">
+      <c r="D11" s="58">
         <v>4</v>
       </c>
-      <c r="E11" s="59" t="s">
+      <c r="E11" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="51"/>
-    </row>
-    <row r="12" s="39" customFormat="1" spans="2:6">
-      <c r="B12" s="58" t="s">
+      <c r="F11" s="50"/>
+    </row>
+    <row r="12" s="38" customFormat="1" spans="2:6">
+      <c r="B12" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="59">
+      <c r="C12" s="58">
         <v>6</v>
       </c>
-      <c r="D12" s="59">
+      <c r="D12" s="58">
         <v>5</v>
       </c>
-      <c r="E12" s="59" t="s">
+      <c r="E12" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="51"/>
-    </row>
-    <row r="13" s="41" customFormat="1" spans="1:6">
-      <c r="A13" s="41" t="s">
+      <c r="F12" s="50"/>
+    </row>
+    <row r="13" s="40" customFormat="1" spans="1:6">
+      <c r="A13" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="52" t="s">
+      <c r="B13" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="54">
+      <c r="C13" s="53">
         <v>5.2</v>
       </c>
-      <c r="D13" s="54">
+      <c r="D13" s="53">
         <v>4</v>
       </c>
-      <c r="E13" s="54" t="s">
+      <c r="E13" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="56"/>
-    </row>
-    <row r="14" s="41" customFormat="1" spans="1:6">
-      <c r="A14" s="41" t="s">
+      <c r="F13" s="55"/>
+    </row>
+    <row r="14" s="40" customFormat="1" spans="1:6">
+      <c r="A14" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="54">
+      <c r="C14" s="53">
         <v>10.1</v>
       </c>
-      <c r="D14" s="54">
+      <c r="D14" s="53">
         <v>5</v>
       </c>
-      <c r="E14" s="54" t="s">
+      <c r="E14" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="56"/>
-    </row>
-    <row r="15" s="41" customFormat="1" spans="1:6">
-      <c r="A15" s="41" t="s">
+      <c r="F14" s="55"/>
+    </row>
+    <row r="15" s="40" customFormat="1" spans="1:6">
+      <c r="A15" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="52" t="s">
+      <c r="B15" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="54">
+      <c r="C15" s="53">
         <v>18.01</v>
       </c>
-      <c r="D15" s="54">
+      <c r="D15" s="53">
         <v>2</v>
       </c>
-      <c r="E15" s="55" t="s">
+      <c r="E15" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="56"/>
-    </row>
-    <row r="16" s="41" customFormat="1" spans="2:6">
-      <c r="B16" s="52" t="s">
+      <c r="F15" s="55"/>
+    </row>
+    <row r="16" s="40" customFormat="1" spans="2:6">
+      <c r="B16" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="54">
+      <c r="C16" s="53">
         <v>10</v>
       </c>
-      <c r="D16" s="54">
+      <c r="D16" s="53">
         <v>2</v>
       </c>
-      <c r="E16" s="55" t="s">
+      <c r="E16" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="56"/>
-    </row>
-    <row r="17" s="41" customFormat="1" spans="2:6">
-      <c r="B17" s="52" t="s">
+      <c r="F16" s="55"/>
+    </row>
+    <row r="17" s="40" customFormat="1" spans="2:6">
+      <c r="B17" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="54">
+      <c r="C17" s="53">
         <v>15</v>
       </c>
-      <c r="D17" s="54">
+      <c r="D17" s="53">
         <v>2</v>
       </c>
-      <c r="E17" s="55" t="s">
+      <c r="E17" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="56"/>
-    </row>
-    <row r="18" s="43" customFormat="1" spans="1:6">
-      <c r="A18" s="43" t="s">
+      <c r="F17" s="55"/>
+    </row>
+    <row r="18" s="42" customFormat="1" spans="1:6">
+      <c r="A18" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="66" t="s">
+      <c r="B18" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="67">
+      <c r="C18" s="66">
         <v>15.01</v>
       </c>
-      <c r="D18" s="67">
+      <c r="D18" s="66">
         <v>3</v>
       </c>
-      <c r="E18" s="68" t="s">
+      <c r="E18" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="64"/>
-    </row>
-    <row r="19" s="40" customFormat="1" spans="1:6">
-      <c r="A19" s="40" t="s">
+      <c r="F18" s="63"/>
+    </row>
+    <row r="19" s="39" customFormat="1" spans="1:6">
+      <c r="A19" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="57" t="s">
+      <c r="B19" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="49">
+      <c r="C19" s="48">
         <v>3.6</v>
       </c>
-      <c r="D19" s="49">
+      <c r="D19" s="48">
         <v>4</v>
       </c>
-      <c r="E19" s="49" t="s">
+      <c r="E19" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="53"/>
-    </row>
-    <row r="20" s="39" customFormat="1" spans="1:6">
-      <c r="A20" s="40" t="s">
+      <c r="F19" s="52"/>
+    </row>
+    <row r="20" s="38" customFormat="1" spans="1:6">
+      <c r="A20" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="57" t="s">
+      <c r="B20" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="49">
+      <c r="C20" s="48">
         <v>25.1</v>
       </c>
-      <c r="D20" s="49">
+      <c r="D20" s="48">
         <v>4.9</v>
       </c>
-      <c r="E20" s="49" t="s">
+      <c r="E20" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="F20" s="51"/>
-    </row>
-    <row r="21" s="40" customFormat="1" spans="2:6">
-      <c r="B21" s="57" t="s">
+      <c r="F20" s="50"/>
+    </row>
+    <row r="21" s="39" customFormat="1" spans="2:6">
+      <c r="B21" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="49">
+      <c r="C21" s="48">
         <v>20</v>
       </c>
-      <c r="D21" s="49">
+      <c r="D21" s="48">
         <v>5</v>
       </c>
-      <c r="E21" s="49" t="s">
+      <c r="E21" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="53" t="s">
+      <c r="F21" s="52" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="22" s="41" customFormat="1" spans="1:6">
-      <c r="A22" s="41" t="s">
+    <row r="22" s="40" customFormat="1" spans="1:6">
+      <c r="A22" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="52" t="s">
+      <c r="B22" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="54">
+      <c r="C22" s="53">
         <v>15</v>
       </c>
-      <c r="D22" s="54">
+      <c r="D22" s="53">
         <v>5</v>
       </c>
-      <c r="E22" s="54" t="s">
+      <c r="E22" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="F22" s="56"/>
-    </row>
-    <row r="23" s="41" customFormat="1" spans="1:6">
-      <c r="A23" s="41" t="s">
+      <c r="F22" s="55"/>
+    </row>
+    <row r="23" s="40" customFormat="1" spans="1:6">
+      <c r="A23" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="52" t="s">
+      <c r="B23" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="54">
+      <c r="C23" s="53">
         <v>30.1</v>
       </c>
-      <c r="D23" s="54">
+      <c r="D23" s="53">
         <v>3</v>
       </c>
-      <c r="E23" s="54" t="s">
+      <c r="E23" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="F23" s="56"/>
-    </row>
-    <row r="24" s="40" customFormat="1" spans="1:6">
-      <c r="A24" s="40" t="s">
+      <c r="F23" s="55"/>
+    </row>
+    <row r="24" s="39" customFormat="1" spans="1:6">
+      <c r="A24" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="57" t="s">
+      <c r="B24" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="49">
+      <c r="C24" s="48">
         <v>4.5</v>
       </c>
-      <c r="D24" s="49">
+      <c r="D24" s="48">
         <v>2.5</v>
       </c>
-      <c r="E24" s="49" t="s">
+      <c r="E24" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="F24" s="53"/>
-    </row>
-    <row r="25" s="41" customFormat="1" spans="1:6">
-      <c r="A25" s="41" t="s">
+      <c r="F24" s="52"/>
+    </row>
+    <row r="25" s="40" customFormat="1" spans="1:6">
+      <c r="A25" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="52" t="s">
+      <c r="B25" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="54">
+      <c r="C25" s="53">
         <v>3.01</v>
       </c>
-      <c r="D25" s="54">
+      <c r="D25" s="53">
         <v>2</v>
       </c>
-      <c r="E25" s="54" t="s">
+      <c r="E25" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="F25" s="56"/>
-    </row>
-    <row r="26" s="40" customFormat="1" spans="1:6">
-      <c r="A26" s="40" t="s">
+      <c r="F25" s="55"/>
+    </row>
+    <row r="26" s="39" customFormat="1" spans="1:6">
+      <c r="A26" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="57" t="s">
+      <c r="B26" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="C26" s="49">
+      <c r="C26" s="48">
         <v>25</v>
       </c>
-      <c r="D26" s="49">
+      <c r="D26" s="48">
         <v>5</v>
       </c>
-      <c r="E26" s="49" t="s">
+      <c r="E26" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="F26" s="53"/>
-    </row>
-    <row r="27" s="41" customFormat="1" spans="1:6">
-      <c r="A27" s="41" t="s">
+      <c r="F26" s="52"/>
+    </row>
+    <row r="27" s="40" customFormat="1" spans="1:6">
+      <c r="A27" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="52" t="s">
+      <c r="B27" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="54">
+      <c r="C27" s="53">
         <v>20</v>
       </c>
-      <c r="D27" s="54">
+      <c r="D27" s="53">
         <v>5</v>
       </c>
-      <c r="E27" s="54" t="s">
+      <c r="E27" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="F27" s="56"/>
-    </row>
-    <row r="28" s="40" customFormat="1" spans="1:6">
-      <c r="A28" s="40" t="s">
+      <c r="F27" s="55"/>
+    </row>
+    <row r="28" s="39" customFormat="1" spans="1:6">
+      <c r="A28" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="B28" s="57" t="s">
+      <c r="B28" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="C28" s="49">
+      <c r="C28" s="48">
         <v>6</v>
       </c>
-      <c r="D28" s="49">
+      <c r="D28" s="48">
         <v>5</v>
       </c>
-      <c r="E28" s="49" t="s">
+      <c r="E28" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="F28" s="53"/>
-    </row>
-    <row r="29" s="44" customFormat="1" spans="1:6">
-      <c r="A29" s="44" t="s">
+      <c r="F28" s="52"/>
+    </row>
+    <row r="29" s="43" customFormat="1" spans="1:6">
+      <c r="A29" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="B29" s="69" t="s">
+      <c r="B29" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="70">
+      <c r="C29" s="69">
         <v>25.11</v>
       </c>
-      <c r="D29" s="70">
+      <c r="D29" s="69">
         <v>3</v>
       </c>
-      <c r="E29" s="70" t="s">
+      <c r="E29" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="F29" s="71"/>
-    </row>
-    <row r="30" s="39" customFormat="1" spans="1:6">
-      <c r="A30" s="72" t="s">
+      <c r="F29" s="70"/>
+    </row>
+    <row r="30" s="38" customFormat="1" spans="1:6">
+      <c r="A30" s="71" t="s">
         <v>77</v>
       </c>
-      <c r="B30" s="58" t="s">
+      <c r="B30" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="C30" s="59">
+      <c r="C30" s="58">
         <v>20.1</v>
       </c>
-      <c r="D30" s="59">
+      <c r="D30" s="58">
         <v>5</v>
       </c>
-      <c r="E30" s="59" t="s">
+      <c r="E30" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="F30" s="51"/>
-    </row>
-    <row r="31" s="41" customFormat="1" spans="1:6">
-      <c r="A31" s="73" t="s">
+      <c r="F30" s="50"/>
+    </row>
+    <row r="31" s="40" customFormat="1" spans="1:6">
+      <c r="A31" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="B31" s="74" t="s">
+      <c r="B31" s="73" t="s">
         <v>81</v>
       </c>
-      <c r="C31" s="54">
+      <c r="C31" s="53">
         <v>10</v>
       </c>
-      <c r="D31" s="54">
+      <c r="D31" s="53">
         <v>5</v>
       </c>
-      <c r="E31" s="54" t="s">
+      <c r="E31" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="F31" s="56"/>
-    </row>
-    <row r="32" s="43" customFormat="1" spans="1:6">
-      <c r="A32" s="75" t="s">
+      <c r="F31" s="55"/>
+    </row>
+    <row r="32" s="42" customFormat="1" spans="1:6">
+      <c r="A32" s="74" t="s">
         <v>83</v>
       </c>
-      <c r="B32" s="76" t="s">
+      <c r="B32" s="75" t="s">
         <v>84</v>
       </c>
-      <c r="C32" s="67">
+      <c r="C32" s="66">
         <v>6.2</v>
       </c>
-      <c r="D32" s="67">
+      <c r="D32" s="66">
         <v>3</v>
       </c>
-      <c r="E32" s="67" t="s">
+      <c r="E32" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="F32" s="64"/>
-    </row>
-    <row r="33" s="39" customFormat="1" spans="1:6">
-      <c r="A33" s="72" t="s">
+      <c r="F32" s="63"/>
+    </row>
+    <row r="33" s="38" customFormat="1" spans="1:6">
+      <c r="A33" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="B33" s="58" t="s">
+      <c r="B33" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="C33" s="59">
+      <c r="C33" s="58">
         <v>20</v>
       </c>
-      <c r="D33" s="59">
+      <c r="D33" s="58">
         <v>5</v>
       </c>
-      <c r="E33" s="59" t="s">
+      <c r="E33" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="F33" s="51"/>
-    </row>
-    <row r="34" s="39" customFormat="1" spans="1:6">
-      <c r="A34" s="72" t="s">
+      <c r="F33" s="50"/>
+    </row>
+    <row r="34" s="38" customFormat="1" spans="1:6">
+      <c r="A34" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="B34" s="58" t="s">
+      <c r="B34" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="C34" s="59">
+      <c r="C34" s="58">
         <v>15</v>
       </c>
-      <c r="D34" s="59">
+      <c r="D34" s="58">
         <v>5</v>
       </c>
-      <c r="E34" s="59" t="s">
+      <c r="E34" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="F34" s="51"/>
-    </row>
-    <row r="35" s="41" customFormat="1" spans="1:6">
-      <c r="A35" s="73" t="s">
+      <c r="F34" s="50"/>
+    </row>
+    <row r="35" s="40" customFormat="1" spans="1:6">
+      <c r="A35" s="72" t="s">
         <v>90</v>
       </c>
-      <c r="B35" s="74" t="s">
+      <c r="B35" s="73" t="s">
         <v>91</v>
       </c>
-      <c r="C35" s="54">
+      <c r="C35" s="53">
         <v>21</v>
       </c>
-      <c r="D35" s="54">
+      <c r="D35" s="53">
         <v>10</v>
       </c>
-      <c r="E35" s="54" t="s">
+      <c r="E35" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="F35" s="56"/>
-    </row>
-    <row r="36" s="39" customFormat="1" spans="1:6">
-      <c r="A36" s="72" t="s">
+      <c r="F35" s="55"/>
+    </row>
+    <row r="36" s="38" customFormat="1" spans="1:6">
+      <c r="A36" s="71" t="s">
         <v>93</v>
       </c>
-      <c r="B36" s="58" t="s">
+      <c r="B36" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="C36" s="59">
+      <c r="C36" s="58">
         <v>2</v>
       </c>
-      <c r="D36" s="77" t="s">
+      <c r="D36" s="76" t="s">
         <v>95</v>
       </c>
-      <c r="E36" s="59" t="s">
+      <c r="E36" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="F36" s="51"/>
-    </row>
-    <row r="37" s="39" customFormat="1" spans="1:6">
-      <c r="A37" s="72" t="s">
+      <c r="F36" s="50"/>
+    </row>
+    <row r="37" s="38" customFormat="1" spans="1:6">
+      <c r="A37" s="71" t="s">
         <v>96</v>
       </c>
-      <c r="B37" s="58" t="s">
+      <c r="B37" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="C37" s="59">
+      <c r="C37" s="58">
         <v>6.12</v>
       </c>
-      <c r="D37" s="59">
+      <c r="D37" s="58">
         <v>3</v>
       </c>
-      <c r="E37" s="59" t="s">
+      <c r="E37" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="F37" s="51"/>
-    </row>
-    <row r="38" s="39" customFormat="1" spans="1:6">
-      <c r="A38" s="72" t="s">
+      <c r="F37" s="50"/>
+    </row>
+    <row r="38" s="38" customFormat="1" spans="1:6">
+      <c r="A38" s="71" t="s">
         <v>98</v>
       </c>
-      <c r="B38" s="58" t="s">
+      <c r="B38" s="57" t="s">
         <v>99</v>
       </c>
-      <c r="C38" s="59">
+      <c r="C38" s="58">
         <v>10.2</v>
       </c>
-      <c r="D38" s="59">
+      <c r="D38" s="58">
         <v>3</v>
       </c>
-      <c r="E38" s="59" t="s">
+      <c r="E38" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="F38" s="51"/>
-    </row>
-    <row r="39" s="39" customFormat="1" spans="1:6">
-      <c r="A39" s="72" t="s">
+      <c r="F38" s="50"/>
+    </row>
+    <row r="39" s="38" customFormat="1" spans="1:6">
+      <c r="A39" s="71" t="s">
         <v>101</v>
       </c>
-      <c r="B39" s="58" t="s">
+      <c r="B39" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="C39" s="59">
+      <c r="C39" s="58">
         <v>20</v>
       </c>
-      <c r="D39" s="59">
+      <c r="D39" s="58">
         <v>10</v>
       </c>
-      <c r="E39" s="59" t="s">
+      <c r="E39" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="F39" s="51"/>
-    </row>
-    <row r="40" s="40" customFormat="1" spans="1:6">
-      <c r="A40" s="40" t="s">
+      <c r="F39" s="50"/>
+    </row>
+    <row r="40" s="39" customFormat="1" spans="1:6">
+      <c r="A40" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="B40" s="78" t="s">
+      <c r="B40" s="77" t="s">
         <v>105</v>
       </c>
-      <c r="C40" s="49">
+      <c r="C40" s="48">
         <v>31</v>
       </c>
-      <c r="D40" s="49">
+      <c r="D40" s="48">
         <v>6</v>
       </c>
-      <c r="E40" s="49" t="s">
+      <c r="E40" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="F40" s="53"/>
-    </row>
-    <row r="41" s="40" customFormat="1" spans="1:6">
-      <c r="A41" s="40" t="s">
+      <c r="F40" s="52"/>
+    </row>
+    <row r="41" s="39" customFormat="1" spans="1:6">
+      <c r="A41" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="B41" s="48" t="s">
+      <c r="B41" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="C41" s="49">
+      <c r="C41" s="48">
         <v>16</v>
       </c>
-      <c r="D41" s="49">
+      <c r="D41" s="48">
         <v>10</v>
       </c>
-      <c r="E41" s="49" t="s">
+      <c r="E41" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="F41" s="53"/>
-    </row>
-    <row r="42" s="40" customFormat="1" spans="1:6">
-      <c r="A42" s="79" t="s">
+      <c r="F41" s="52"/>
+    </row>
+    <row r="42" s="39" customFormat="1" spans="1:6">
+      <c r="A42" s="78" t="s">
         <v>109</v>
       </c>
-      <c r="B42" s="79" t="s">
+      <c r="B42" s="78" t="s">
         <v>110</v>
       </c>
-      <c r="C42" s="49">
+      <c r="C42" s="48">
         <v>20.4</v>
       </c>
-      <c r="D42" s="49">
+      <c r="D42" s="48">
         <v>4</v>
       </c>
-      <c r="E42" s="49" t="s">
+      <c r="E42" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="F42" s="53"/>
+      <c r="F42" s="52"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2945,83 +2934,83 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="20.3333333333333" style="26" customWidth="1"/>
-    <col min="2" max="2" width="47.4444444444444" customWidth="1"/>
-    <col min="3" max="3" width="19.5555555555556" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.3333333333333" style="25" customWidth="1"/>
+    <col min="2" max="2" width="47.4416666666667" customWidth="1"/>
+    <col min="3" max="3" width="19.5583333333333" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.3333333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.2222222222222" style="1" customWidth="1"/>
-    <col min="6" max="6" width="35.6666666666667" style="27" customWidth="1"/>
+    <col min="5" max="5" width="16.225" style="1" customWidth="1"/>
+    <col min="6" max="6" width="35.6666666666667" style="26" customWidth="1"/>
     <col min="7" max="7" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" s="22" customFormat="1" ht="15" spans="1:7">
-      <c r="A1" s="22" t="s">
+    <row r="1" s="21" customFormat="1" ht="16.5" spans="1:7">
+      <c r="A1" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="29" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="23" customFormat="1" spans="1:7">
-      <c r="A2" s="31" t="s">
+    <row r="2" s="22" customFormat="1" spans="1:7">
+      <c r="A2" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="32">
+      <c r="C2" s="31">
         <v>3.01</v>
       </c>
-      <c r="D2" s="32">
+      <c r="D2" s="31">
         <v>2</v>
       </c>
-      <c r="E2" s="33">
+      <c r="E2" s="32">
         <v>331853030</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="G2" s="34"/>
-    </row>
-    <row r="3" s="24" customFormat="1" ht="13.2" spans="1:7">
-      <c r="A3" s="24" t="s">
+      <c r="G2" s="33"/>
+    </row>
+    <row r="3" s="23" customFormat="1" spans="1:7">
+      <c r="A3" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="C3" s="35">
+      <c r="C3" s="34">
         <v>3</v>
       </c>
-      <c r="D3" s="35">
+      <c r="D3" s="34">
         <v>3</v>
       </c>
-      <c r="E3" s="35">
+      <c r="E3" s="34">
         <v>333741071</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="G3" s="36"/>
-    </row>
-    <row r="4" s="25" customFormat="1" spans="1:7">
+      <c r="G3" s="35"/>
+    </row>
+    <row r="4" s="24" customFormat="1" spans="1:7">
       <c r="A4" s="5" t="s">
         <v>71</v>
       </c>
@@ -3034,15 +3023,15 @@
       <c r="D4" s="10">
         <v>2</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="26">
         <v>333741071</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="G4" s="37"/>
-    </row>
-    <row r="5" s="25" customFormat="1" spans="1:7">
+      <c r="G4" s="36"/>
+    </row>
+    <row r="5" s="24" customFormat="1" spans="1:7">
       <c r="A5" s="5" t="s">
         <v>122</v>
       </c>
@@ -3055,16 +3044,16 @@
       <c r="D5" s="10">
         <v>5</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="26">
         <v>333741071</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="G5" s="37"/>
+      <c r="G5" s="36"/>
     </row>
     <row r="7" spans="6:6">
-      <c r="F7" s="38"/>
+      <c r="F7" s="37"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3085,23 +3074,23 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="13.7777777777778" style="5" customWidth="1"/>
-    <col min="2" max="2" width="31.3796296296296" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.87962962962963" style="1" customWidth="1"/>
-    <col min="4" max="6" width="8.37962962962963" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.775" style="5" customWidth="1"/>
+    <col min="2" max="2" width="31.3833333333333" style="6" customWidth="1"/>
+    <col min="3" max="3" width="9.88333333333333" style="1" customWidth="1"/>
+    <col min="4" max="6" width="8.38333333333333" style="1" customWidth="1"/>
     <col min="7" max="7" width="22.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="22.3796296296296" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.3833333333333" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.25" style="1" customWidth="1"/>
     <col min="10" max="10" width="17.5" style="7" customWidth="1"/>
-    <col min="11" max="11" width="24.3796296296296" customWidth="1"/>
+    <col min="11" max="11" width="24.3833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:11">
@@ -3167,7 +3156,7 @@
       <c r="I2" s="1">
         <v>330336629</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="18" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3199,7 +3188,7 @@
       <c r="I3" s="1">
         <v>329827419</v>
       </c>
-      <c r="J3" s="20" t="s">
+      <c r="J3" s="19" t="s">
         <v>140</v>
       </c>
     </row>
@@ -3231,186 +3220,182 @@
       <c r="I4" s="1">
         <v>329827419</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="18" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="3" t="s">
+    <row r="6" spans="2:2">
+      <c r="B6" s="8"/>
+    </row>
+    <row r="7" ht="14.25" spans="1:2">
+      <c r="A7" s="12">
+        <v>43647</v>
+      </c>
+      <c r="B7" s="13"/>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="C9" s="1">
+        <v>15.8</v>
+      </c>
+      <c r="D9" s="1">
+        <v>5</v>
+      </c>
+      <c r="E9" s="1">
+        <v>20.5</v>
+      </c>
+      <c r="F9" s="1">
+        <v>4</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C5" s="1">
+      <c r="H9" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I9" s="20">
+        <v>331251512</v>
+      </c>
+      <c r="J9" s="18" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25" spans="1:10">
+      <c r="A10" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="C10" s="1">
+        <v>223</v>
+      </c>
+      <c r="D10" s="1">
+        <v>15</v>
+      </c>
+      <c r="E10" s="1">
+        <v>20</v>
+      </c>
+      <c r="F10" s="1">
+        <v>5</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="I10" s="1">
+        <v>332139409</v>
+      </c>
+      <c r="J10" s="18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C11" s="1">
         <v>11.9</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D11" s="1">
         <v>3</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E11" s="1">
         <v>20.1</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F11" s="1">
         <v>6</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="I5" s="1">
+      <c r="G11" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="I11" s="1">
         <v>334185212</v>
       </c>
-      <c r="J5" s="19" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="6" ht="14.4" spans="2:2">
-      <c r="B6" s="12"/>
-    </row>
-    <row r="7" spans="2:2">
-      <c r="B7" s="8"/>
-    </row>
-    <row r="8" spans="2:2">
-      <c r="B8" s="8"/>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="B9" s="8"/>
-      <c r="D9" s="13"/>
-    </row>
-    <row r="10" spans="2:2">
-      <c r="B10" s="8"/>
-    </row>
-    <row r="11" spans="2:2">
-      <c r="B11" s="8"/>
-    </row>
-    <row r="12" spans="2:2">
-      <c r="B12" s="8"/>
+      <c r="J11" s="18" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="8"/>
     </row>
-    <row r="14" ht="14.4" spans="1:2">
-      <c r="A14" s="14">
-        <v>43647</v>
-      </c>
+    <row r="14" ht="14.25" spans="2:2">
       <c r="B14" s="15"/>
     </row>
-    <row r="15" s="1" customFormat="1" spans="1:11">
-      <c r="A15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="C16" s="1">
-        <v>15.8</v>
-      </c>
-      <c r="D16" s="1">
-        <v>5</v>
-      </c>
-      <c r="E16" s="1">
-        <v>20.5</v>
-      </c>
-      <c r="F16" s="1">
-        <v>4</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="I16" s="21">
-        <v>331251512</v>
-      </c>
-      <c r="J16" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="17" ht="14.4" spans="1:10">
-      <c r="A17" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="C17" s="1">
-        <v>223</v>
-      </c>
-      <c r="D17" s="1">
-        <v>15</v>
-      </c>
-      <c r="E17" s="1">
-        <v>20</v>
-      </c>
-      <c r="F17" s="1">
-        <v>5</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="I17" s="1">
-        <v>332139409</v>
-      </c>
-      <c r="J17" s="19" t="s">
-        <v>152</v>
-      </c>
+    <row r="15" ht="14.25" spans="2:2">
+      <c r="B15" s="15"/>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" s="8"/>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="8"/>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="8"/>
     </row>
+    <row r="19" customFormat="1" ht="13.5" spans="9:9">
+      <c r="I19" s="1"/>
+    </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="8"/>
-    </row>
-    <row r="21" ht="14.4" spans="2:2">
-      <c r="B21" s="12"/>
-    </row>
-    <row r="22" ht="14.4" spans="2:2">
-      <c r="B22" s="12"/>
+      <c r="B20" s="16"/>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="8"/>
+    </row>
+    <row r="22" ht="14.25" spans="2:2">
+      <c r="B22" s="17"/>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="8"/>
+      <c r="B23" s="16"/>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="8"/>
@@ -3418,32 +3403,11 @@
     <row r="25" spans="2:2">
       <c r="B25" s="8"/>
     </row>
-    <row r="26" customFormat="1" ht="14.4" spans="9:9">
-      <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27" s="17"/>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28" s="8"/>
-    </row>
-    <row r="29" ht="14.4" spans="2:2">
-      <c r="B29" s="18"/>
-    </row>
-    <row r="30" spans="2:2">
-      <c r="B30" s="17"/>
-    </row>
-    <row r="31" spans="2:2">
-      <c r="B31" s="8"/>
-    </row>
-    <row r="32" spans="2:2">
-      <c r="B32" s="8"/>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="8"/>
-    </row>
-    <row r="34" ht="14.4" spans="2:2">
-      <c r="B34" s="12"/>
+    <row r="26" spans="2:2">
+      <c r="B26" s="8"/>
+    </row>
+    <row r="27" ht="14.25" spans="2:2">
+      <c r="B27" s="15"/>
     </row>
   </sheetData>
   <sortState ref="B1:B28">
@@ -3453,10 +3417,10 @@
     <hyperlink ref="J2" r:id="rId2" display="https://detail.tmall.com/item.htm?spm=a230r.1.14.6.75a43b61UiE1Wn&amp;id=596977090868&amp;cm_id=140105335569ed55e27b&amp;abbucket=5" tooltip="https://detail.tmall.com/item.htm?spm=a230r.1.14.6.75a43b61UiE1Wn&amp;id=596977090868&amp;cm_id=140105335569ed55e27b&amp;abbucket=5"/>
     <hyperlink ref="J3" r:id="rId3" display="https://detail.tmall.com/item.htm?spm=a212k0.12153887.0.0.2759687dP5RzZj&amp;id=547078093989&amp;skuId=3566631730189" tooltip="https://detail.tmall.com/item.htm?spm=a212k0.12153887.0.0.2759687dP5RzZj&amp;id=547078093989&amp;skuId=3566631730189"/>
     <hyperlink ref="J4" r:id="rId4" display="https://detail.tmall.com/item.htm?id=573247426562" tooltip="https://detail.tmall.com/item.htm?id=573247426562"/>
-    <hyperlink ref="I16" r:id="rId5" display="331251512"/>
-    <hyperlink ref="J17" r:id="rId6" display="https://detail.tmall.com/item.htm?spm=a21ag.8198216.0.0.7759410c42fSSR&amp;id=559313568102" tooltip="https://detail.tmall.com/item.htm?spm=a21ag.8198216.0.0.7759410c42fSSR&amp;id=559313568102"/>
-    <hyperlink ref="J16" r:id="rId7" display="https://detail.tmall.com/item.htm?id=560320045979&amp;spm=a219t.11816989.1998910419.dafc012e7.cd7575a540bv2R" tooltip="https://detail.tmall.com/item.htm?id=560320045979&amp;spm=a219t.11816989.1998910419.dafc012e7.cd7575a540bv2R"/>
-    <hyperlink ref="J5" r:id="rId8" display="https://item.taobao.com/item.htm?spm=a2oq0.12575281.0.0.25911debANF9vZ&amp;ft=t&amp;id=589123708932"/>
+    <hyperlink ref="I9" r:id="rId5" display="331251512"/>
+    <hyperlink ref="J10" r:id="rId6" display="https://detail.tmall.com/item.htm?spm=a21ag.8198216.0.0.7759410c42fSSR&amp;id=559313568102" tooltip="https://detail.tmall.com/item.htm?spm=a21ag.8198216.0.0.7759410c42fSSR&amp;id=559313568102"/>
+    <hyperlink ref="J9" r:id="rId7" display="https://detail.tmall.com/item.htm?id=560320045979&amp;spm=a219t.11816989.1998910419.dafc012e7.cd7575a540bv2R" tooltip="https://detail.tmall.com/item.htm?id=560320045979&amp;spm=a219t.11816989.1998910419.dafc012e7.cd7575a540bv2R"/>
+    <hyperlink ref="J11" r:id="rId8" display="https://item.taobao.com/item.htm?spm=a2oq0.12575281.0.0.25911debANF9vZ&amp;ft=t&amp;id=589123708932"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3474,16 +3438,16 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="37.7777777777778" style="1" customWidth="1"/>
+    <col min="2" max="2" width="37.775" style="1" customWidth="1"/>
     <col min="5" max="6" width="9" style="1"/>
     <col min="7" max="7" width="21.6666666666667" customWidth="1"/>
     <col min="8" max="8" width="11.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15" spans="1:11">
+    <row r="1" s="1" customFormat="1" ht="16.5" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3518,7 +3482,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" ht="14.25" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>131</v>
       </c>
@@ -3535,7 +3499,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" ht="14.25" spans="1:7">
       <c r="A3" s="3" t="s">
         <v>117</v>
       </c>
@@ -3549,7 +3513,7 @@
         <v>3</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/招商团长/报名活动单.xlsx
+++ b/招商团长/报名活动单.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21105" windowHeight="9165" activeTab="2"/>
+    <workbookView windowWidth="18384" windowHeight="7704" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="6月报名清单" sheetId="1" r:id="rId1"/>
     <sheet name="7月报名单" sheetId="3" r:id="rId2"/>
-    <sheet name="晓彬线下跑单list" sheetId="2" r:id="rId3"/>
-    <sheet name="晓彬团长报名单" sheetId="4" r:id="rId4"/>
+    <sheet name="迷路" sheetId="5" r:id="rId3"/>
+    <sheet name="晓彬线下跑单list" sheetId="2" r:id="rId4"/>
+    <sheet name="晓彬团长报名单" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="161">
   <si>
     <t>店铺</t>
   </si>
@@ -394,6 +395,24 @@
     <t>起：2019-07-06 止：2019-07-16</t>
   </si>
   <si>
+    <t>兔先生优品代购</t>
+  </si>
+  <si>
+    <t>金色24k黄金棒</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>335030449</t>
+  </si>
+  <si>
+    <t>起：2019-07-09 止：2019-07-15</t>
+  </si>
+  <si>
     <t xml:space="preserve">商品 </t>
   </si>
   <si>
@@ -463,6 +482,9 @@
     <t>2019.07.02-2019.08.01</t>
   </si>
   <si>
+    <t>2019.07.08-2019.07.14</t>
+  </si>
+  <si>
     <t>https://detail.tmall.com/item.htm?spm=a21ag.8198216.0.0.7759410c42fSSR&amp;id=559313568102</t>
   </si>
   <si>
@@ -470,9 +492,6 @@
   </si>
   <si>
     <t>电动摩托车挡风被夏季电瓶车挡风被夏天防晒罩挡风防水可爱薄款</t>
-  </si>
-  <si>
-    <t>2019.07.08-2019.07.14</t>
   </si>
   <si>
     <t>https://item.taobao.com/item.htm?spm=a2oq0.12575281.0.0.25911debANF9vZ&amp;ft=t&amp;id=589123708932</t>
@@ -489,12 +508,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="38">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -554,8 +573,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
+      <sz val="9"/>
+      <color theme="1" tint="0.0499893185216834"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF666666"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -581,12 +606,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <color theme="1" tint="0.0499893185216834"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color theme="1" tint="0.05"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
@@ -606,6 +625,12 @@
     <font>
       <sz val="10"/>
       <color rgb="FF0070C0"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -630,7 +655,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -651,8 +676,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -666,6 +715,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -675,60 +746,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -742,9 +768,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -765,7 +790,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -783,31 +946,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -819,133 +970,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -962,51 +987,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1027,17 +1008,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1056,6 +1042,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1064,10 +1089,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1076,16 +1101,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1097,116 +1122,116 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1267,13 +1292,28 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1282,31 +1322,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1330,7 +1370,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -1339,18 +1379,21 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1378,7 +1421,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1387,13 +1430,13 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1423,26 +1466,26 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="58" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1540,8 +1583,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12378690" y="447675"/>
-          <a:ext cx="714375" cy="185420"/>
+          <a:off x="11188065" y="409575"/>
+          <a:ext cx="714375" cy="166370"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1578,8 +1621,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11969115" y="638175"/>
-          <a:ext cx="1781810" cy="210820"/>
+          <a:off x="10778490" y="581025"/>
+          <a:ext cx="1595755" cy="191770"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1616,8 +1659,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11978640" y="219075"/>
-          <a:ext cx="1772285" cy="212725"/>
+          <a:off x="10788015" y="200025"/>
+          <a:ext cx="1586230" cy="193675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1654,8 +1697,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11904345" y="1655445"/>
-          <a:ext cx="1627505" cy="216535"/>
+          <a:off x="10713720" y="1524000"/>
+          <a:ext cx="1627505" cy="197485"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1692,8 +1735,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12064365" y="1895475"/>
-          <a:ext cx="1686560" cy="125730"/>
+          <a:off x="10873740" y="1744980"/>
+          <a:ext cx="1500505" cy="125730"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1730,8 +1773,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13750290" y="1876425"/>
-          <a:ext cx="762635" cy="89535"/>
+          <a:off x="12374245" y="1725930"/>
+          <a:ext cx="693420" cy="89535"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1768,8 +1811,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14484350" y="1924050"/>
-          <a:ext cx="682625" cy="76200"/>
+          <a:off x="13039090" y="1773555"/>
+          <a:ext cx="614045" cy="76200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1806,8 +1849,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15132050" y="1876425"/>
-          <a:ext cx="693420" cy="101600"/>
+          <a:off x="13618210" y="1725930"/>
+          <a:ext cx="624840" cy="101600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1824,8 +1867,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1704975</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
@@ -1844,8 +1887,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11969115" y="2038350"/>
-          <a:ext cx="1628775" cy="219075"/>
+          <a:off x="10778490" y="1897380"/>
+          <a:ext cx="1595755" cy="200025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2146,747 +2189,747 @@
   <sheetPr/>
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A18" sqref="$A18:$XFD18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="18.5" style="44" customWidth="1"/>
-    <col min="2" max="2" width="39.8833333333333" style="45" customWidth="1"/>
-    <col min="3" max="3" width="19.8833333333333" style="20" customWidth="1"/>
-    <col min="4" max="4" width="18.75" style="20" customWidth="1"/>
-    <col min="5" max="5" width="31.6333333333333" style="20" customWidth="1"/>
-    <col min="6" max="6" width="36.3833333333333" style="46" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="44"/>
+    <col min="1" max="1" width="18.5" style="49" customWidth="1"/>
+    <col min="2" max="2" width="39.8796296296296" style="50" customWidth="1"/>
+    <col min="3" max="3" width="19.8796296296296" style="51" customWidth="1"/>
+    <col min="4" max="4" width="18.75" style="51" customWidth="1"/>
+    <col min="5" max="5" width="31.6296296296296" style="51" customWidth="1"/>
+    <col min="6" max="6" width="36.3796296296296" style="52" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="49"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="52" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="38" customFormat="1" spans="1:6">
-      <c r="A2" s="39" t="s">
+    <row r="2" s="43" customFormat="1" spans="1:6">
+      <c r="A2" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="48">
+      <c r="C2" s="54">
         <v>20</v>
       </c>
-      <c r="D2" s="48">
+      <c r="D2" s="54">
         <v>5</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="50"/>
-    </row>
-    <row r="3" s="38" customFormat="1" spans="1:6">
-      <c r="A3" s="39"/>
-      <c r="B3" s="47" t="s">
+      <c r="F2" s="56"/>
+    </row>
+    <row r="3" s="43" customFormat="1" spans="1:6">
+      <c r="A3" s="44"/>
+      <c r="B3" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="48">
+      <c r="C3" s="54">
         <v>20.01</v>
       </c>
-      <c r="D3" s="48">
+      <c r="D3" s="54">
         <v>5</v>
       </c>
-      <c r="E3" s="49" t="s">
+      <c r="E3" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="50"/>
-    </row>
-    <row r="4" s="39" customFormat="1" spans="1:6">
-      <c r="A4" s="39" t="s">
+      <c r="F3" s="56"/>
+    </row>
+    <row r="4" s="44" customFormat="1" spans="1:6">
+      <c r="A4" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="49" t="s">
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52"/>
-    </row>
-    <row r="5" s="40" customFormat="1" spans="1:6">
-      <c r="A5" s="40" t="s">
+      <c r="F4" s="58"/>
+    </row>
+    <row r="5" s="45" customFormat="1" spans="1:6">
+      <c r="A5" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="53">
+      <c r="C5" s="59">
         <v>10.1</v>
       </c>
-      <c r="D5" s="53">
+      <c r="D5" s="59">
         <v>4</v>
       </c>
-      <c r="E5" s="54" t="s">
+      <c r="E5" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="55"/>
-    </row>
-    <row r="6" s="39" customFormat="1" spans="1:6">
-      <c r="A6" s="39" t="s">
+      <c r="F5" s="61"/>
+    </row>
+    <row r="6" s="44" customFormat="1" spans="1:6">
+      <c r="A6" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="49" t="s">
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="52"/>
-    </row>
-    <row r="7" s="38" customFormat="1" spans="2:6">
-      <c r="B7" s="56" t="s">
+      <c r="F6" s="58"/>
+    </row>
+    <row r="7" s="43" customFormat="1" spans="2:6">
+      <c r="B7" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="48">
+      <c r="C7" s="54">
         <v>15</v>
       </c>
-      <c r="D7" s="48">
+      <c r="D7" s="54">
         <v>3</v>
       </c>
-      <c r="E7" s="49" t="s">
+      <c r="E7" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="50"/>
-    </row>
-    <row r="8" s="38" customFormat="1" spans="2:6">
-      <c r="B8" s="57" t="s">
+      <c r="F7" s="56"/>
+    </row>
+    <row r="8" s="43" customFormat="1" spans="2:6">
+      <c r="B8" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="59" t="s">
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="50"/>
-    </row>
-    <row r="9" s="41" customFormat="1" spans="1:6">
-      <c r="A9" s="41" t="s">
+      <c r="F8" s="56"/>
+    </row>
+    <row r="9" s="46" customFormat="1" spans="1:6">
+      <c r="A9" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="61">
+      <c r="C9" s="67">
         <v>10.01</v>
       </c>
-      <c r="D9" s="61">
+      <c r="D9" s="67">
         <v>4.9</v>
       </c>
-      <c r="E9" s="61" t="s">
+      <c r="E9" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="62" t="s">
+      <c r="F9" s="68" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" s="42" customFormat="1" spans="1:6">
-      <c r="A10" s="42" t="s">
+    <row r="10" s="47" customFormat="1" spans="1:6">
+      <c r="A10" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="53">
+      <c r="C10" s="59">
         <v>40</v>
       </c>
-      <c r="D10" s="53">
+      <c r="D10" s="59">
         <v>10</v>
       </c>
-      <c r="E10" s="53" t="s">
+      <c r="E10" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="63"/>
-    </row>
-    <row r="11" s="38" customFormat="1" spans="2:6">
-      <c r="B11" s="64" t="s">
+      <c r="F10" s="69"/>
+    </row>
+    <row r="11" s="43" customFormat="1" spans="2:6">
+      <c r="B11" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="58">
+      <c r="C11" s="64">
         <v>25.2</v>
       </c>
-      <c r="D11" s="58">
+      <c r="D11" s="64">
         <v>4</v>
       </c>
-      <c r="E11" s="58" t="s">
+      <c r="E11" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="50"/>
-    </row>
-    <row r="12" s="38" customFormat="1" spans="2:6">
-      <c r="B12" s="57" t="s">
+      <c r="F11" s="56"/>
+    </row>
+    <row r="12" s="43" customFormat="1" spans="2:6">
+      <c r="B12" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="58">
+      <c r="C12" s="64">
         <v>6</v>
       </c>
-      <c r="D12" s="58">
+      <c r="D12" s="64">
         <v>5</v>
       </c>
-      <c r="E12" s="58" t="s">
+      <c r="E12" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="50"/>
-    </row>
-    <row r="13" s="40" customFormat="1" spans="1:6">
-      <c r="A13" s="40" t="s">
+      <c r="F12" s="56"/>
+    </row>
+    <row r="13" s="45" customFormat="1" spans="1:6">
+      <c r="A13" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="53">
+      <c r="C13" s="59">
         <v>5.2</v>
       </c>
-      <c r="D13" s="53">
+      <c r="D13" s="59">
         <v>4</v>
       </c>
-      <c r="E13" s="53" t="s">
+      <c r="E13" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="55"/>
-    </row>
-    <row r="14" s="40" customFormat="1" spans="1:6">
-      <c r="A14" s="40" t="s">
+      <c r="F13" s="61"/>
+    </row>
+    <row r="14" s="45" customFormat="1" spans="1:6">
+      <c r="A14" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="51" t="s">
+      <c r="B14" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="53">
+      <c r="C14" s="59">
         <v>10.1</v>
       </c>
-      <c r="D14" s="53">
+      <c r="D14" s="59">
         <v>5</v>
       </c>
-      <c r="E14" s="53" t="s">
+      <c r="E14" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="55"/>
-    </row>
-    <row r="15" s="40" customFormat="1" spans="1:6">
-      <c r="A15" s="40" t="s">
+      <c r="F14" s="61"/>
+    </row>
+    <row r="15" s="45" customFormat="1" spans="1:6">
+      <c r="A15" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="53">
+      <c r="C15" s="59">
         <v>18.01</v>
       </c>
-      <c r="D15" s="53">
+      <c r="D15" s="59">
         <v>2</v>
       </c>
-      <c r="E15" s="54" t="s">
+      <c r="E15" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="55"/>
-    </row>
-    <row r="16" s="40" customFormat="1" spans="2:6">
-      <c r="B16" s="51" t="s">
+      <c r="F15" s="61"/>
+    </row>
+    <row r="16" s="45" customFormat="1" spans="2:6">
+      <c r="B16" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="53">
+      <c r="C16" s="59">
         <v>10</v>
       </c>
-      <c r="D16" s="53">
+      <c r="D16" s="59">
         <v>2</v>
       </c>
-      <c r="E16" s="54" t="s">
+      <c r="E16" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="55"/>
-    </row>
-    <row r="17" s="40" customFormat="1" spans="2:6">
-      <c r="B17" s="51" t="s">
+      <c r="F16" s="61"/>
+    </row>
+    <row r="17" s="45" customFormat="1" spans="2:6">
+      <c r="B17" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="53">
+      <c r="C17" s="59">
         <v>15</v>
       </c>
-      <c r="D17" s="53">
+      <c r="D17" s="59">
         <v>2</v>
       </c>
-      <c r="E17" s="54" t="s">
+      <c r="E17" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="55"/>
-    </row>
-    <row r="18" s="42" customFormat="1" spans="1:6">
-      <c r="A18" s="42" t="s">
+      <c r="F17" s="61"/>
+    </row>
+    <row r="18" s="47" customFormat="1" spans="1:6">
+      <c r="A18" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="65" t="s">
+      <c r="B18" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="66">
+      <c r="C18" s="72">
         <v>15.01</v>
       </c>
-      <c r="D18" s="66">
+      <c r="D18" s="72">
         <v>3</v>
       </c>
-      <c r="E18" s="67" t="s">
+      <c r="E18" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="63"/>
-    </row>
-    <row r="19" s="39" customFormat="1" spans="1:6">
-      <c r="A19" s="39" t="s">
+      <c r="F18" s="69"/>
+    </row>
+    <row r="19" s="44" customFormat="1" spans="1:6">
+      <c r="A19" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="56" t="s">
+      <c r="B19" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="48">
+      <c r="C19" s="54">
         <v>3.6</v>
       </c>
-      <c r="D19" s="48">
+      <c r="D19" s="54">
         <v>4</v>
       </c>
-      <c r="E19" s="48" t="s">
+      <c r="E19" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="52"/>
-    </row>
-    <row r="20" s="38" customFormat="1" spans="1:6">
-      <c r="A20" s="39" t="s">
+      <c r="F19" s="58"/>
+    </row>
+    <row r="20" s="43" customFormat="1" spans="1:6">
+      <c r="A20" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="56" t="s">
+      <c r="B20" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="48">
+      <c r="C20" s="54">
         <v>25.1</v>
       </c>
-      <c r="D20" s="48">
+      <c r="D20" s="54">
         <v>4.9</v>
       </c>
-      <c r="E20" s="48" t="s">
+      <c r="E20" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="F20" s="50"/>
-    </row>
-    <row r="21" s="39" customFormat="1" spans="2:6">
-      <c r="B21" s="56" t="s">
+      <c r="F20" s="56"/>
+    </row>
+    <row r="21" s="44" customFormat="1" spans="2:6">
+      <c r="B21" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="48">
+      <c r="C21" s="54">
         <v>20</v>
       </c>
-      <c r="D21" s="48">
+      <c r="D21" s="54">
         <v>5</v>
       </c>
-      <c r="E21" s="48" t="s">
+      <c r="E21" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="52" t="s">
+      <c r="F21" s="58" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="22" s="40" customFormat="1" spans="1:6">
-      <c r="A22" s="40" t="s">
+    <row r="22" s="45" customFormat="1" spans="1:6">
+      <c r="A22" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="51" t="s">
+      <c r="B22" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="53">
+      <c r="C22" s="59">
         <v>15</v>
       </c>
-      <c r="D22" s="53">
+      <c r="D22" s="59">
         <v>5</v>
       </c>
-      <c r="E22" s="53" t="s">
+      <c r="E22" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F22" s="55"/>
-    </row>
-    <row r="23" s="40" customFormat="1" spans="1:6">
-      <c r="A23" s="40" t="s">
+      <c r="F22" s="61"/>
+    </row>
+    <row r="23" s="45" customFormat="1" spans="1:6">
+      <c r="A23" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="51" t="s">
+      <c r="B23" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="53">
+      <c r="C23" s="59">
         <v>30.1</v>
       </c>
-      <c r="D23" s="53">
+      <c r="D23" s="59">
         <v>3</v>
       </c>
-      <c r="E23" s="53" t="s">
+      <c r="E23" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="F23" s="55"/>
-    </row>
-    <row r="24" s="39" customFormat="1" spans="1:6">
-      <c r="A24" s="39" t="s">
+      <c r="F23" s="61"/>
+    </row>
+    <row r="24" s="44" customFormat="1" spans="1:6">
+      <c r="A24" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="56" t="s">
+      <c r="B24" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="48">
+      <c r="C24" s="54">
         <v>4.5</v>
       </c>
-      <c r="D24" s="48">
+      <c r="D24" s="54">
         <v>2.5</v>
       </c>
-      <c r="E24" s="48" t="s">
+      <c r="E24" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="F24" s="52"/>
-    </row>
-    <row r="25" s="40" customFormat="1" spans="1:6">
-      <c r="A25" s="40" t="s">
+      <c r="F24" s="58"/>
+    </row>
+    <row r="25" s="45" customFormat="1" spans="1:6">
+      <c r="A25" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="51" t="s">
+      <c r="B25" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="53">
+      <c r="C25" s="59">
         <v>3.01</v>
       </c>
-      <c r="D25" s="53">
+      <c r="D25" s="59">
         <v>2</v>
       </c>
-      <c r="E25" s="53" t="s">
+      <c r="E25" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="F25" s="55"/>
-    </row>
-    <row r="26" s="39" customFormat="1" spans="1:6">
-      <c r="A26" s="39" t="s">
+      <c r="F25" s="61"/>
+    </row>
+    <row r="26" s="44" customFormat="1" spans="1:6">
+      <c r="A26" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="56" t="s">
+      <c r="B26" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="C26" s="48">
+      <c r="C26" s="54">
         <v>25</v>
       </c>
-      <c r="D26" s="48">
+      <c r="D26" s="54">
         <v>5</v>
       </c>
-      <c r="E26" s="48" t="s">
+      <c r="E26" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="F26" s="52"/>
-    </row>
-    <row r="27" s="40" customFormat="1" spans="1:6">
-      <c r="A27" s="40" t="s">
+      <c r="F26" s="58"/>
+    </row>
+    <row r="27" s="45" customFormat="1" spans="1:6">
+      <c r="A27" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="53">
+      <c r="C27" s="59">
         <v>20</v>
       </c>
-      <c r="D27" s="53">
+      <c r="D27" s="59">
         <v>5</v>
       </c>
-      <c r="E27" s="53" t="s">
+      <c r="E27" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="F27" s="55"/>
-    </row>
-    <row r="28" s="39" customFormat="1" spans="1:6">
-      <c r="A28" s="39" t="s">
+      <c r="F27" s="61"/>
+    </row>
+    <row r="28" s="44" customFormat="1" spans="1:6">
+      <c r="A28" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="B28" s="56" t="s">
+      <c r="B28" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="C28" s="48">
+      <c r="C28" s="54">
         <v>6</v>
       </c>
-      <c r="D28" s="48">
+      <c r="D28" s="54">
         <v>5</v>
       </c>
-      <c r="E28" s="48" t="s">
+      <c r="E28" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="F28" s="52"/>
-    </row>
-    <row r="29" s="43" customFormat="1" spans="1:6">
-      <c r="A29" s="43" t="s">
+      <c r="F28" s="58"/>
+    </row>
+    <row r="29" s="48" customFormat="1" spans="1:6">
+      <c r="A29" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="B29" s="68" t="s">
+      <c r="B29" s="74" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="69">
+      <c r="C29" s="75">
         <v>25.11</v>
       </c>
-      <c r="D29" s="69">
+      <c r="D29" s="75">
         <v>3</v>
       </c>
-      <c r="E29" s="69" t="s">
+      <c r="E29" s="75" t="s">
         <v>76</v>
       </c>
-      <c r="F29" s="70"/>
-    </row>
-    <row r="30" s="38" customFormat="1" spans="1:6">
-      <c r="A30" s="71" t="s">
+      <c r="F29" s="76"/>
+    </row>
+    <row r="30" s="44" customFormat="1" spans="1:6">
+      <c r="A30" s="77" t="s">
         <v>77</v>
       </c>
-      <c r="B30" s="57" t="s">
+      <c r="B30" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="C30" s="58">
+      <c r="C30" s="54">
         <v>20.1</v>
       </c>
-      <c r="D30" s="58">
+      <c r="D30" s="54">
         <v>5</v>
       </c>
-      <c r="E30" s="58" t="s">
+      <c r="E30" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="F30" s="50"/>
-    </row>
-    <row r="31" s="40" customFormat="1" spans="1:6">
-      <c r="A31" s="72" t="s">
+      <c r="F30" s="58"/>
+    </row>
+    <row r="31" s="45" customFormat="1" spans="1:6">
+      <c r="A31" s="78" t="s">
         <v>80</v>
       </c>
-      <c r="B31" s="73" t="s">
+      <c r="B31" s="79" t="s">
         <v>81</v>
       </c>
-      <c r="C31" s="53">
+      <c r="C31" s="59">
         <v>10</v>
       </c>
-      <c r="D31" s="53">
+      <c r="D31" s="59">
         <v>5</v>
       </c>
-      <c r="E31" s="53" t="s">
+      <c r="E31" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="F31" s="55"/>
-    </row>
-    <row r="32" s="42" customFormat="1" spans="1:6">
-      <c r="A32" s="74" t="s">
+      <c r="F31" s="61"/>
+    </row>
+    <row r="32" s="47" customFormat="1" spans="1:6">
+      <c r="A32" s="80" t="s">
         <v>83</v>
       </c>
-      <c r="B32" s="75" t="s">
+      <c r="B32" s="81" t="s">
         <v>84</v>
       </c>
-      <c r="C32" s="66">
+      <c r="C32" s="72">
         <v>6.2</v>
       </c>
-      <c r="D32" s="66">
+      <c r="D32" s="72">
         <v>3</v>
       </c>
-      <c r="E32" s="66" t="s">
+      <c r="E32" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="F32" s="63"/>
-    </row>
-    <row r="33" s="38" customFormat="1" spans="1:6">
-      <c r="A33" s="71" t="s">
+      <c r="F32" s="69"/>
+    </row>
+    <row r="33" s="43" customFormat="1" spans="1:6">
+      <c r="A33" s="82" t="s">
         <v>86</v>
       </c>
-      <c r="B33" s="57" t="s">
+      <c r="B33" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="C33" s="58">
+      <c r="C33" s="64">
         <v>20</v>
       </c>
-      <c r="D33" s="58">
+      <c r="D33" s="64">
         <v>5</v>
       </c>
-      <c r="E33" s="58" t="s">
+      <c r="E33" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="F33" s="50"/>
-    </row>
-    <row r="34" s="38" customFormat="1" spans="1:6">
-      <c r="A34" s="71" t="s">
+      <c r="F33" s="56"/>
+    </row>
+    <row r="34" s="43" customFormat="1" spans="1:6">
+      <c r="A34" s="82" t="s">
         <v>88</v>
       </c>
-      <c r="B34" s="57" t="s">
+      <c r="B34" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="C34" s="58">
+      <c r="C34" s="64">
         <v>15</v>
       </c>
-      <c r="D34" s="58">
+      <c r="D34" s="64">
         <v>5</v>
       </c>
-      <c r="E34" s="58" t="s">
+      <c r="E34" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="F34" s="50"/>
-    </row>
-    <row r="35" s="40" customFormat="1" spans="1:6">
-      <c r="A35" s="72" t="s">
+      <c r="F34" s="56"/>
+    </row>
+    <row r="35" s="45" customFormat="1" spans="1:6">
+      <c r="A35" s="78" t="s">
         <v>90</v>
       </c>
-      <c r="B35" s="73" t="s">
+      <c r="B35" s="79" t="s">
         <v>91</v>
       </c>
-      <c r="C35" s="53">
+      <c r="C35" s="59">
         <v>21</v>
       </c>
-      <c r="D35" s="53">
+      <c r="D35" s="59">
         <v>10</v>
       </c>
-      <c r="E35" s="53" t="s">
+      <c r="E35" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="F35" s="55"/>
-    </row>
-    <row r="36" s="38" customFormat="1" spans="1:6">
-      <c r="A36" s="71" t="s">
+      <c r="F35" s="61"/>
+    </row>
+    <row r="36" s="43" customFormat="1" spans="1:6">
+      <c r="A36" s="82" t="s">
         <v>93</v>
       </c>
-      <c r="B36" s="57" t="s">
+      <c r="B36" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="C36" s="58">
+      <c r="C36" s="64">
         <v>2</v>
       </c>
-      <c r="D36" s="76" t="s">
+      <c r="D36" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="E36" s="58" t="s">
+      <c r="E36" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="F36" s="50"/>
-    </row>
-    <row r="37" s="38" customFormat="1" spans="1:6">
-      <c r="A37" s="71" t="s">
+      <c r="F36" s="56"/>
+    </row>
+    <row r="37" s="43" customFormat="1" spans="1:6">
+      <c r="A37" s="82" t="s">
         <v>96</v>
       </c>
-      <c r="B37" s="57" t="s">
+      <c r="B37" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="C37" s="58">
+      <c r="C37" s="64">
         <v>6.12</v>
       </c>
-      <c r="D37" s="58">
+      <c r="D37" s="64">
         <v>3</v>
       </c>
-      <c r="E37" s="58" t="s">
+      <c r="E37" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="F37" s="50"/>
-    </row>
-    <row r="38" s="38" customFormat="1" spans="1:6">
-      <c r="A38" s="71" t="s">
+      <c r="F37" s="56"/>
+    </row>
+    <row r="38" s="43" customFormat="1" spans="1:6">
+      <c r="A38" s="82" t="s">
         <v>98</v>
       </c>
-      <c r="B38" s="57" t="s">
+      <c r="B38" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="C38" s="58">
+      <c r="C38" s="64">
         <v>10.2</v>
       </c>
-      <c r="D38" s="58">
+      <c r="D38" s="64">
         <v>3</v>
       </c>
-      <c r="E38" s="58" t="s">
+      <c r="E38" s="64" t="s">
         <v>100</v>
       </c>
-      <c r="F38" s="50"/>
-    </row>
-    <row r="39" s="38" customFormat="1" spans="1:6">
-      <c r="A39" s="71" t="s">
+      <c r="F38" s="56"/>
+    </row>
+    <row r="39" s="43" customFormat="1" spans="1:6">
+      <c r="A39" s="82" t="s">
         <v>101</v>
       </c>
-      <c r="B39" s="57" t="s">
+      <c r="B39" s="63" t="s">
         <v>102</v>
       </c>
-      <c r="C39" s="58">
+      <c r="C39" s="64">
         <v>20</v>
       </c>
-      <c r="D39" s="58">
+      <c r="D39" s="64">
         <v>10</v>
       </c>
-      <c r="E39" s="58" t="s">
+      <c r="E39" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="F39" s="50"/>
-    </row>
-    <row r="40" s="39" customFormat="1" spans="1:6">
-      <c r="A40" s="39" t="s">
+      <c r="F39" s="56"/>
+    </row>
+    <row r="40" s="44" customFormat="1" spans="1:6">
+      <c r="A40" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="B40" s="77" t="s">
+      <c r="B40" s="84" t="s">
         <v>105</v>
       </c>
-      <c r="C40" s="48">
+      <c r="C40" s="54">
         <v>31</v>
       </c>
-      <c r="D40" s="48">
+      <c r="D40" s="54">
         <v>6</v>
       </c>
-      <c r="E40" s="48" t="s">
+      <c r="E40" s="54" t="s">
         <v>106</v>
       </c>
-      <c r="F40" s="52"/>
-    </row>
-    <row r="41" s="39" customFormat="1" spans="1:6">
-      <c r="A41" s="39" t="s">
+      <c r="F40" s="58"/>
+    </row>
+    <row r="41" s="44" customFormat="1" spans="1:6">
+      <c r="A41" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="B41" s="47" t="s">
+      <c r="B41" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="C41" s="48">
+      <c r="C41" s="54">
         <v>16</v>
       </c>
-      <c r="D41" s="48">
+      <c r="D41" s="54">
         <v>10</v>
       </c>
-      <c r="E41" s="48" t="s">
+      <c r="E41" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="F41" s="52"/>
-    </row>
-    <row r="42" s="39" customFormat="1" spans="1:6">
-      <c r="A42" s="78" t="s">
+      <c r="F41" s="58"/>
+    </row>
+    <row r="42" s="44" customFormat="1" spans="1:6">
+      <c r="A42" s="77" t="s">
         <v>109</v>
       </c>
-      <c r="B42" s="78" t="s">
+      <c r="B42" s="77" t="s">
         <v>110</v>
       </c>
-      <c r="C42" s="48">
+      <c r="C42" s="54">
         <v>20.4</v>
       </c>
-      <c r="D42" s="48">
+      <c r="D42" s="54">
         <v>4</v>
       </c>
-      <c r="E42" s="48" t="s">
+      <c r="E42" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="F42" s="52"/>
+      <c r="F42" s="58"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2931,86 +2974,86 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="20.3333333333333" style="25" customWidth="1"/>
-    <col min="2" max="2" width="47.4416666666667" customWidth="1"/>
-    <col min="3" max="3" width="19.5583333333333" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.3333333333333" style="30" customWidth="1"/>
+    <col min="2" max="2" width="47.4444444444444" customWidth="1"/>
+    <col min="3" max="3" width="19.5555555555556" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.3333333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.225" style="1" customWidth="1"/>
-    <col min="6" max="6" width="35.6666666666667" style="26" customWidth="1"/>
+    <col min="5" max="5" width="16.2222222222222" style="1" customWidth="1"/>
+    <col min="6" max="6" width="35.6666666666667" style="31" customWidth="1"/>
     <col min="7" max="7" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" s="21" customFormat="1" ht="16.5" spans="1:7">
-      <c r="A1" s="21" t="s">
+    <row r="1" s="26" customFormat="1" ht="15" spans="1:7">
+      <c r="A1" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="34" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="22" customFormat="1" spans="1:7">
-      <c r="A2" s="30" t="s">
+    <row r="2" s="27" customFormat="1" spans="1:7">
+      <c r="A2" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="31">
+      <c r="C2" s="36">
         <v>3.01</v>
       </c>
-      <c r="D2" s="31">
+      <c r="D2" s="36">
         <v>2</v>
       </c>
-      <c r="E2" s="32">
+      <c r="E2" s="37">
         <v>331853030</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="G2" s="33"/>
-    </row>
-    <row r="3" s="23" customFormat="1" spans="1:7">
-      <c r="A3" s="23" t="s">
+      <c r="G2" s="38"/>
+    </row>
+    <row r="3" s="28" customFormat="1" ht="13.2" spans="1:7">
+      <c r="A3" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="C3" s="34">
+      <c r="C3" s="39">
         <v>3</v>
       </c>
-      <c r="D3" s="34">
+      <c r="D3" s="39">
         <v>3</v>
       </c>
-      <c r="E3" s="34">
+      <c r="E3" s="39">
         <v>333741071</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="G3" s="35"/>
-    </row>
-    <row r="4" s="24" customFormat="1" spans="1:7">
+      <c r="G3" s="40"/>
+    </row>
+    <row r="4" s="29" customFormat="1" spans="1:7">
       <c r="A4" s="5" t="s">
         <v>71</v>
       </c>
@@ -3023,15 +3066,15 @@
       <c r="D4" s="10">
         <v>2</v>
       </c>
-      <c r="E4" s="26">
+      <c r="E4" s="31">
         <v>333741071</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="G4" s="36"/>
-    </row>
-    <row r="5" s="24" customFormat="1" spans="1:7">
+      <c r="G4" s="41"/>
+    </row>
+    <row r="5" s="29" customFormat="1" spans="1:7">
       <c r="A5" s="5" t="s">
         <v>122</v>
       </c>
@@ -3044,16 +3087,16 @@
       <c r="D5" s="10">
         <v>5</v>
       </c>
-      <c r="E5" s="26">
+      <c r="E5" s="31">
         <v>333741071</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="G5" s="36"/>
+      <c r="G5" s="41"/>
     </row>
     <row r="7" spans="6:6">
-      <c r="F7" s="37"/>
+      <c r="F7" s="42"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3074,23 +3117,94 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="1" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="16.3333333333333" style="21" customWidth="1"/>
+    <col min="2" max="2" width="23.6666666666667" style="21" customWidth="1"/>
+    <col min="3" max="4" width="8.88888888888889" style="22"/>
+    <col min="5" max="5" width="12.5555555555556" style="22" customWidth="1"/>
+    <col min="6" max="6" width="31.7777777777778" style="22" customWidth="1"/>
+    <col min="7" max="16384" width="8.88888888888889" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="20" customFormat="1" spans="1:7">
+      <c r="A1" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="金色24k黄金棒" tooltip="http://item.taobao.com/item.htm?spm=a219t.7900221.1998910419.dafc012e7.346275a5qowrpI&amp;id=597587151260"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.775" style="5" customWidth="1"/>
-    <col min="2" max="2" width="31.3833333333333" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.88333333333333" style="1" customWidth="1"/>
-    <col min="4" max="6" width="8.38333333333333" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7777777777778" style="5" customWidth="1"/>
+    <col min="2" max="2" width="31.3796296296296" style="6" customWidth="1"/>
+    <col min="3" max="3" width="9.87962962962963" style="1" customWidth="1"/>
+    <col min="4" max="6" width="8.37962962962963" style="1" customWidth="1"/>
     <col min="7" max="7" width="22.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="22.3833333333333" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.3796296296296" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.25" style="1" customWidth="1"/>
     <col min="10" max="10" width="17.5" style="7" customWidth="1"/>
-    <col min="11" max="11" width="24.3833333333333" customWidth="1"/>
+    <col min="11" max="11" width="24.3796296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:11">
@@ -3098,13 +3212,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -3113,16 +3227,16 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>113</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>5</v>
@@ -3130,10 +3244,10 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C2" s="1">
         <v>9.9</v>
@@ -3148,24 +3262,24 @@
         <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="I2" s="1">
         <v>330336629</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C3" s="1">
         <v>15.8</v>
@@ -3180,16 +3294,16 @@
         <v>10</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="I3" s="1">
         <v>329827419</v>
       </c>
       <c r="J3" s="19" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3212,22 +3326,22 @@
         <v>8</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="I4" s="1">
         <v>329827419</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="8"/>
     </row>
-    <row r="7" ht="14.25" spans="1:2">
+    <row r="7" ht="14.4" spans="1:2">
       <c r="A7" s="12">
         <v>43647</v>
       </c>
@@ -3238,13 +3352,13 @@
         <v>0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>2</v>
@@ -3253,16 +3367,16 @@
         <v>3</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>113</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>5</v>
@@ -3273,7 +3387,7 @@
         <v>109</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="C9" s="1">
         <v>15.8</v>
@@ -3288,24 +3402,24 @@
         <v>4</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="I9" s="20">
+        <v>150</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="I9" s="1">
         <v>331251512</v>
       </c>
       <c r="J9" s="18" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="10" ht="14.25" spans="1:10">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="3" t="s">
         <v>117</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C10" s="1">
         <v>223</v>
@@ -3320,24 +3434,24 @@
         <v>5</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="I10" s="1">
         <v>332139409</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C11" s="1">
         <v>11.9</v>
@@ -3352,25 +3466,25 @@
         <v>6</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="I11" s="1">
         <v>334185212</v>
       </c>
       <c r="J11" s="18" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="8"/>
     </row>
-    <row r="14" ht="14.25" spans="2:2">
+    <row r="14" ht="14.4" spans="2:2">
       <c r="B14" s="15"/>
     </row>
-    <row r="15" ht="14.25" spans="2:2">
+    <row r="15" ht="14.4" spans="2:2">
       <c r="B15" s="15"/>
     </row>
     <row r="16" spans="2:2">
@@ -3382,7 +3496,7 @@
     <row r="18" spans="2:2">
       <c r="B18" s="8"/>
     </row>
-    <row r="19" customFormat="1" ht="13.5" spans="9:9">
+    <row r="19" customFormat="1" ht="14.4" spans="9:9">
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="2:2">
@@ -3391,7 +3505,7 @@
     <row r="21" spans="2:2">
       <c r="B21" s="8"/>
     </row>
-    <row r="22" ht="14.25" spans="2:2">
+    <row r="22" ht="14.4" spans="2:2">
       <c r="B22" s="17"/>
     </row>
     <row r="23" spans="2:2">
@@ -3406,7 +3520,7 @@
     <row r="26" spans="2:2">
       <c r="B26" s="8"/>
     </row>
-    <row r="27" ht="14.25" spans="2:2">
+    <row r="27" ht="14.4" spans="2:2">
       <c r="B27" s="15"/>
     </row>
   </sheetData>
@@ -3417,10 +3531,9 @@
     <hyperlink ref="J2" r:id="rId2" display="https://detail.tmall.com/item.htm?spm=a230r.1.14.6.75a43b61UiE1Wn&amp;id=596977090868&amp;cm_id=140105335569ed55e27b&amp;abbucket=5" tooltip="https://detail.tmall.com/item.htm?spm=a230r.1.14.6.75a43b61UiE1Wn&amp;id=596977090868&amp;cm_id=140105335569ed55e27b&amp;abbucket=5"/>
     <hyperlink ref="J3" r:id="rId3" display="https://detail.tmall.com/item.htm?spm=a212k0.12153887.0.0.2759687dP5RzZj&amp;id=547078093989&amp;skuId=3566631730189" tooltip="https://detail.tmall.com/item.htm?spm=a212k0.12153887.0.0.2759687dP5RzZj&amp;id=547078093989&amp;skuId=3566631730189"/>
     <hyperlink ref="J4" r:id="rId4" display="https://detail.tmall.com/item.htm?id=573247426562" tooltip="https://detail.tmall.com/item.htm?id=573247426562"/>
-    <hyperlink ref="I9" r:id="rId5" display="331251512"/>
-    <hyperlink ref="J10" r:id="rId6" display="https://detail.tmall.com/item.htm?spm=a21ag.8198216.0.0.7759410c42fSSR&amp;id=559313568102" tooltip="https://detail.tmall.com/item.htm?spm=a21ag.8198216.0.0.7759410c42fSSR&amp;id=559313568102"/>
-    <hyperlink ref="J9" r:id="rId7" display="https://detail.tmall.com/item.htm?id=560320045979&amp;spm=a219t.11816989.1998910419.dafc012e7.cd7575a540bv2R" tooltip="https://detail.tmall.com/item.htm?id=560320045979&amp;spm=a219t.11816989.1998910419.dafc012e7.cd7575a540bv2R"/>
-    <hyperlink ref="J11" r:id="rId8" display="https://item.taobao.com/item.htm?spm=a2oq0.12575281.0.0.25911debANF9vZ&amp;ft=t&amp;id=589123708932"/>
+    <hyperlink ref="J10" r:id="rId5" display="https://detail.tmall.com/item.htm?spm=a21ag.8198216.0.0.7759410c42fSSR&amp;id=559313568102" tooltip="https://detail.tmall.com/item.htm?spm=a21ag.8198216.0.0.7759410c42fSSR&amp;id=559313568102"/>
+    <hyperlink ref="J9" r:id="rId6" display="https://detail.tmall.com/item.htm?id=560320045979&amp;spm=a219t.11816989.1998910419.dafc012e7.cd7575a540bv2R" tooltip="https://detail.tmall.com/item.htm?id=560320045979&amp;spm=a219t.11816989.1998910419.dafc012e7.cd7575a540bv2R"/>
+    <hyperlink ref="J11" r:id="rId7" display="https://item.taobao.com/item.htm?spm=a2oq0.12575281.0.0.25911debANF9vZ&amp;ft=t&amp;id=589123708932" tooltip="https://item.taobao.com/item.htm?spm=a2oq0.12575281.0.0.25911debANF9vZ&amp;ft=t&amp;id=589123708932"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3429,7 +3542,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K3"/>
@@ -3438,27 +3551,27 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="37.775" style="1" customWidth="1"/>
+    <col min="2" max="2" width="37.7777777777778" style="1" customWidth="1"/>
     <col min="5" max="6" width="9" style="1"/>
     <col min="7" max="7" width="21.6666666666667" customWidth="1"/>
     <col min="8" max="8" width="11.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="16.5" spans="1:11">
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -3467,27 +3580,27 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>113</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:7">
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="E2" s="1">
         <v>6</v>
@@ -3496,15 +3609,15 @@
         <v>3</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25" spans="1:7">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
         <v>117</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E3" s="1">
         <v>3</v>
@@ -3513,7 +3626,7 @@
         <v>3</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/招商团长/报名活动单.xlsx
+++ b/招商团长/报名活动单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18384" windowHeight="7704" activeTab="3"/>
+    <workbookView windowWidth="21105" windowHeight="9165" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="6月报名清单" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="163">
   <si>
     <t>店铺</t>
   </si>
@@ -455,7 +455,7 @@
     <t>2019.06.27-2019.07.31</t>
   </si>
   <si>
-    <t>2019.07.03-2019.07.09</t>
+    <t>2019.07.10-2019.07.16</t>
   </si>
   <si>
     <t>https://detail.tmall.com/item.htm?spm=a212k0.12153887.0.0.2759687dP5RzZj&amp;id=547078093989&amp;skuId=3566631730189</t>
@@ -501,6 +501,12 @@
   </si>
   <si>
     <t>安而康成人拉拉裤老人用内裤式纸尿裤 * 16款引流产品</t>
+  </si>
+  <si>
+    <t>安盛企业店</t>
+  </si>
+  <si>
+    <t>电动车摩托车挡风被</t>
   </si>
 </sst>
 </file>
@@ -522,6 +528,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
@@ -534,12 +546,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -654,10 +660,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -670,22 +714,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -699,6 +757,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -708,66 +774,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -790,7 +796,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -802,13 +850,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -820,49 +874,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -874,7 +886,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -892,7 +940,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -904,73 +976,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -987,8 +993,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1004,56 +1034,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1075,9 +1055,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1089,10 +1095,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1101,16 +1107,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1122,112 +1128,112 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1241,22 +1247,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1268,22 +1277,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="57" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="57" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10" applyAlignment="1">
@@ -1295,10 +1304,10 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1316,7 +1325,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1324,35 +1333,32 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1583,8 +1589,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11188065" y="409575"/>
-          <a:ext cx="714375" cy="166370"/>
+          <a:off x="12378690" y="447675"/>
+          <a:ext cx="714375" cy="185420"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1621,8 +1627,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10778490" y="581025"/>
-          <a:ext cx="1595755" cy="191770"/>
+          <a:off x="11969115" y="638175"/>
+          <a:ext cx="1781810" cy="210820"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1659,8 +1665,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10788015" y="200025"/>
-          <a:ext cx="1586230" cy="193675"/>
+          <a:off x="11978640" y="219075"/>
+          <a:ext cx="1772285" cy="212725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1697,8 +1703,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10713720" y="1524000"/>
-          <a:ext cx="1627505" cy="197485"/>
+          <a:off x="11904345" y="1655445"/>
+          <a:ext cx="1627505" cy="216535"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1735,8 +1741,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10873740" y="1744980"/>
-          <a:ext cx="1500505" cy="125730"/>
+          <a:off x="12064365" y="1895475"/>
+          <a:ext cx="1686560" cy="125730"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1773,8 +1779,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12374245" y="1725930"/>
-          <a:ext cx="693420" cy="89535"/>
+          <a:off x="13750290" y="1876425"/>
+          <a:ext cx="762635" cy="89535"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1811,8 +1817,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13039090" y="1773555"/>
-          <a:ext cx="614045" cy="76200"/>
+          <a:off x="14484350" y="1924050"/>
+          <a:ext cx="682625" cy="76200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1849,8 +1855,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13618210" y="1725930"/>
-          <a:ext cx="624840" cy="101600"/>
+          <a:off x="15132050" y="1876425"/>
+          <a:ext cx="693420" cy="101600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1887,8 +1893,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10778490" y="1897380"/>
-          <a:ext cx="1595755" cy="200025"/>
+          <a:off x="11969115" y="2038350"/>
+          <a:ext cx="1781810" cy="219075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2193,14 +2199,14 @@
       <selection activeCell="A18" sqref="$A18:$XFD18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="18.5" style="49" customWidth="1"/>
-    <col min="2" max="2" width="39.8796296296296" style="50" customWidth="1"/>
-    <col min="3" max="3" width="19.8796296296296" style="51" customWidth="1"/>
+    <col min="2" max="2" width="39.8833333333333" style="50" customWidth="1"/>
+    <col min="3" max="3" width="19.8833333333333" style="51" customWidth="1"/>
     <col min="4" max="4" width="18.75" style="51" customWidth="1"/>
-    <col min="5" max="5" width="31.6296296296296" style="51" customWidth="1"/>
-    <col min="6" max="6" width="36.3796296296296" style="52" customWidth="1"/>
+    <col min="5" max="5" width="31.6333333333333" style="51" customWidth="1"/>
+    <col min="6" max="6" width="36.3833333333333" style="52" customWidth="1"/>
     <col min="7" max="16384" width="9" style="49"/>
   </cols>
   <sheetData>
@@ -2977,19 +2983,19 @@
       <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="20.3333333333333" style="30" customWidth="1"/>
-    <col min="2" max="2" width="47.4444444444444" customWidth="1"/>
-    <col min="3" max="3" width="19.5555555555556" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.3333333333333" style="31" customWidth="1"/>
+    <col min="2" max="2" width="47.4416666666667" customWidth="1"/>
+    <col min="3" max="3" width="19.5583333333333" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.3333333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.2222222222222" style="1" customWidth="1"/>
-    <col min="6" max="6" width="35.6666666666667" style="31" customWidth="1"/>
-    <col min="7" max="7" width="9" style="7"/>
+    <col min="5" max="5" width="16.225" style="1" customWidth="1"/>
+    <col min="6" max="6" width="35.6666666666667" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" s="26" customFormat="1" ht="15" spans="1:7">
-      <c r="A1" s="26" t="s">
+    <row r="1" s="27" customFormat="1" ht="16.5" spans="1:7">
+      <c r="A1" s="27" t="s">
         <v>112</v>
       </c>
       <c r="B1" s="32" t="s">
@@ -3011,7 +3017,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="27" customFormat="1" spans="1:7">
+    <row r="2" s="28" customFormat="1" spans="1:7">
       <c r="A2" s="35" t="s">
         <v>63</v>
       </c>
@@ -3032,11 +3038,11 @@
       </c>
       <c r="G2" s="38"/>
     </row>
-    <row r="3" s="28" customFormat="1" ht="13.2" spans="1:7">
-      <c r="A3" s="28" t="s">
+    <row r="3" s="29" customFormat="1" spans="1:7">
+      <c r="A3" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="29" t="s">
         <v>118</v>
       </c>
       <c r="C3" s="39">
@@ -3053,44 +3059,44 @@
       </c>
       <c r="G3" s="40"/>
     </row>
-    <row r="4" s="29" customFormat="1" spans="1:7">
-      <c r="A4" s="5" t="s">
+    <row r="4" s="30" customFormat="1" spans="1:7">
+      <c r="A4" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="11">
         <v>6</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="11">
         <v>2</v>
       </c>
-      <c r="E4" s="31">
+      <c r="E4" s="2">
         <v>333741071</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="F4" s="2" t="s">
         <v>121</v>
       </c>
       <c r="G4" s="41"/>
     </row>
-    <row r="5" s="29" customFormat="1" spans="1:7">
-      <c r="A5" s="5" t="s">
+    <row r="5" s="30" customFormat="1" spans="1:7">
+      <c r="A5" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="11">
         <v>30.01</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="11">
         <v>5</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="2">
         <v>333741071</v>
       </c>
-      <c r="F5" s="31" t="s">
+      <c r="F5" s="2" t="s">
         <v>124</v>
       </c>
       <c r="G5" s="41"/>
@@ -3120,59 +3126,59 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="16.3333333333333" style="21" customWidth="1"/>
-    <col min="2" max="2" width="23.6666666666667" style="21" customWidth="1"/>
-    <col min="3" max="4" width="8.88888888888889" style="22"/>
-    <col min="5" max="5" width="12.5555555555556" style="22" customWidth="1"/>
-    <col min="6" max="6" width="31.7777777777778" style="22" customWidth="1"/>
-    <col min="7" max="16384" width="8.88888888888889" style="21"/>
+    <col min="1" max="1" width="16.3333333333333" style="22" customWidth="1"/>
+    <col min="2" max="2" width="23.6666666666667" style="22" customWidth="1"/>
+    <col min="3" max="4" width="8.89166666666667" style="23"/>
+    <col min="5" max="5" width="12.5583333333333" style="23" customWidth="1"/>
+    <col min="6" max="6" width="31.775" style="23" customWidth="1"/>
+    <col min="7" max="16384" width="8.89166666666667" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" s="20" customFormat="1" spans="1:7">
-      <c r="A1" s="20" t="s">
+    <row r="1" s="21" customFormat="1" spans="1:7">
+      <c r="A1" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="25" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="23" t="s">
         <v>130</v>
       </c>
     </row>
@@ -3191,27 +3197,27 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="13.7777777777778" style="5" customWidth="1"/>
-    <col min="2" max="2" width="31.3796296296296" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.87962962962963" style="1" customWidth="1"/>
-    <col min="4" max="6" width="8.37962962962963" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.775" style="6" customWidth="1"/>
+    <col min="2" max="2" width="31.3833333333333" style="7" customWidth="1"/>
+    <col min="3" max="3" width="9.88333333333333" style="1" customWidth="1"/>
+    <col min="4" max="6" width="8.38333333333333" style="1" customWidth="1"/>
     <col min="7" max="7" width="22.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="22.3796296296296" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.3833333333333" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.25" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.5" style="7" customWidth="1"/>
-    <col min="11" max="11" width="24.3796296296296" customWidth="1"/>
+    <col min="10" max="10" width="17.5" style="8" customWidth="1"/>
+    <col min="11" max="11" width="24.3833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>131</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -3243,10 +3249,10 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>138</v>
       </c>
       <c r="C2" s="1">
@@ -3264,21 +3270,21 @@
       <c r="G2" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="10" t="s">
         <v>140</v>
       </c>
       <c r="I2" s="1">
         <v>330336629</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="19" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>143</v>
       </c>
       <c r="C3" s="1">
@@ -3296,21 +3302,21 @@
       <c r="G3" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="11" t="s">
         <v>145</v>
       </c>
       <c r="I3" s="1">
         <v>329827419</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="J3" s="20" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>105</v>
       </c>
       <c r="C4" s="1">
@@ -3328,30 +3334,30 @@
       <c r="G4" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="12" t="s">
         <v>147</v>
       </c>
       <c r="I4" s="1">
         <v>329827419</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="J4" s="19" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="6" spans="2:2">
-      <c r="B6" s="8"/>
-    </row>
-    <row r="7" ht="14.4" spans="1:2">
-      <c r="A7" s="12">
+      <c r="B6" s="9"/>
+    </row>
+    <row r="7" ht="14.25" spans="1:2">
+      <c r="A7" s="13">
         <v>43647</v>
       </c>
-      <c r="B7" s="13"/>
+      <c r="B7" s="14"/>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:11">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>131</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -3383,10 +3389,10 @@
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="9" t="s">
         <v>149</v>
       </c>
       <c r="C9" s="1">
@@ -3404,21 +3410,21 @@
       <c r="G9" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="12" t="s">
         <v>150</v>
       </c>
       <c r="I9" s="1">
         <v>331251512</v>
       </c>
-      <c r="J9" s="18" t="s">
+      <c r="J9" s="19" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="3" t="s">
+    <row r="10" ht="14.25" spans="1:10">
+      <c r="A10" s="4" t="s">
    